--- a/db/AiCity-72-Restaurant.xlsx
+++ b/db/AiCity-72-Restaurant.xlsx
@@ -8,32 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B450570-301A-D141-85EC-972BF663A533}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786778B5-9942-5748-B004-0B0EF16309EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="48740" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transformed by JSON-CSV.CO" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="222">
   <si>
     <t>title</t>
   </si>
   <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>telphone</t>
-  </si>
-  <si>
-    <t>hours</t>
-  </si>
-  <si>
     <t>figure</t>
   </si>
   <si>
@@ -46,15 +48,6 @@
     <t>千葉火鍋</t>
   </si>
   <si>
-    <t>地址：333桃園市龜山區復興一路267號</t>
-  </si>
-  <si>
-    <t>電話：03-397-1136</t>
-  </si>
-  <si>
-    <t>營業時間：11:00 -23:00</t>
-  </si>
-  <si>
     <t>fig/AiCity-910-千葉火鍋-02.jpeg</t>
   </si>
   <si>
@@ -67,15 +60,6 @@
     <t>一番地-壽喜燒</t>
   </si>
   <si>
-    <t>地址：333桃園市龜山區復興一路368-3號</t>
-  </si>
-  <si>
-    <t>電話：03-328-8869</t>
-  </si>
-  <si>
-    <t>營業時間：11:00 - 22:00</t>
-  </si>
-  <si>
     <t>fig/AiCity-910-一番地-02.png</t>
   </si>
   <si>
@@ -85,15 +69,6 @@
     <t>鍋台銘-時尚湯鍋</t>
   </si>
   <si>
-    <t>地址：333桃園市龜山區文化二路91號</t>
-  </si>
-  <si>
-    <t>電話：03-397-3999</t>
-  </si>
-  <si>
-    <t>營業時間：10:00 - 03:00</t>
-  </si>
-  <si>
     <t>fig/AiCity-910-鍋台銘-02.jpeg</t>
   </si>
   <si>
@@ -106,15 +81,6 @@
     <t>家芬火鍋</t>
   </si>
   <si>
-    <t>地址：333桃園市龜山區文化三路551-17號</t>
-  </si>
-  <si>
-    <t>電話：03-397-3909</t>
-  </si>
-  <si>
-    <t>營業時間：11:30 - 15:00, 16:50 - 22:30</t>
-  </si>
-  <si>
     <t>fig/AiCity-910-家芬火鍋-02.jpeg</t>
   </si>
   <si>
@@ -124,15 +90,6 @@
     <t>六扇門-時尚湯鍋</t>
   </si>
   <si>
-    <t>地址：333桃園市龜山區文化一路36號</t>
-  </si>
-  <si>
-    <t>電話：03-318-6666</t>
-  </si>
-  <si>
-    <t>營業時間：11:30 - 23:00</t>
-  </si>
-  <si>
     <t>fig/AiCity-910-六扇門-02.jpeg</t>
   </si>
   <si>
@@ -142,15 +99,6 @@
     <t>港龘港式飲茶</t>
   </si>
   <si>
-    <t>地址：333桃園市龜山區文化三路311號</t>
-  </si>
-  <si>
-    <t>電話：03-318-5155</t>
-  </si>
-  <si>
-    <t>營業時間: 10:30 - 15:00, 16:50 - 21:00</t>
-  </si>
-  <si>
     <t>fig/AiCity-910-港龘港式飲茶-02.png</t>
   </si>
   <si>
@@ -160,12 +108,6 @@
     <t>貴族世家</t>
   </si>
   <si>
-    <t>地址：333桃園市龜山區復興北路75號</t>
-  </si>
-  <si>
-    <t>電話：03-318-0800</t>
-  </si>
-  <si>
     <t>fig/AiCity-910-貴族世家-02.jpeg</t>
   </si>
   <si>
@@ -175,12 +117,6 @@
     <t>厚切牛排</t>
   </si>
   <si>
-    <t>地址：333桃園市龜山區文化一路26號</t>
-  </si>
-  <si>
-    <t>電話：03-397-8729</t>
-  </si>
-  <si>
     <t>fig/AiCity-910-厚切牛排-02.jpeg</t>
   </si>
   <si>
@@ -190,15 +126,6 @@
     <t>孫東寶台式牛排</t>
   </si>
   <si>
-    <t>地址：333桃園市龜山區文化二路41號</t>
-  </si>
-  <si>
-    <t>電話：03-327-0099</t>
-  </si>
-  <si>
-    <t>營業時間：11:00 - 21:00</t>
-  </si>
-  <si>
     <t>fig/AiCity-910-孫東寶台式牛排-02.png</t>
   </si>
   <si>
@@ -208,15 +135,6 @@
     <t>洋朵義式廚坊</t>
   </si>
   <si>
-    <t>地址：333桃園市龜山區復興一路8號</t>
-  </si>
-  <si>
-    <t>電話：03-328-1956</t>
-  </si>
-  <si>
-    <t>營業時間：11:00 - 21:50</t>
-  </si>
-  <si>
     <t>fig/AiCity-910-洋朵義式廚坊-02.jpeg</t>
   </si>
   <si>
@@ -226,15 +144,6 @@
     <t>布蕾特義式餐廳</t>
   </si>
   <si>
-    <t>地址：333桃園市龜山區文化二路191-1號</t>
-  </si>
-  <si>
-    <t>電話：03-397-3673</t>
-  </si>
-  <si>
-    <t>營業時間：11:30 - 14:30, 17:00 - 21:00</t>
-  </si>
-  <si>
     <t>fig/AiCity-910-布蕾特義式餐廳-02.jpg</t>
   </si>
   <si>
@@ -244,12 +153,6 @@
     <t>達美樂 Domino's Pizza</t>
   </si>
   <si>
-    <t>地址：333桃園市龜山區文化二路37號</t>
-  </si>
-  <si>
-    <t>電話：03-397-2252</t>
-  </si>
-  <si>
     <t>fig/AiCity-910-達美樂-02.jpeg</t>
   </si>
   <si>
@@ -259,15 +162,6 @@
     <t>來碗拉麵</t>
   </si>
   <si>
-    <t>地址：333桃園市龜山區文化二路153號</t>
-  </si>
-  <si>
-    <t>電話：03-328-2255</t>
-  </si>
-  <si>
-    <t>營業時間: 10:30 - 22:00</t>
-  </si>
-  <si>
     <t>fig/AiCity-910-來碗拉麵-02.jpeg</t>
   </si>
   <si>
@@ -277,15 +171,6 @@
     <t>11番町豚骨拉麵</t>
   </si>
   <si>
-    <t>地址：333桃園市龜山區文化三路106-1號</t>
-  </si>
-  <si>
-    <t>電話：03-396-1370</t>
-  </si>
-  <si>
-    <t>營業時間：11:00 - 14:00, 17:00 - 20:30</t>
-  </si>
-  <si>
     <t>fig/AiCity-910-11番町豚骨拉麵-02.jpeg</t>
   </si>
   <si>
@@ -295,12 +180,6 @@
     <t>合浦刀切麵食</t>
   </si>
   <si>
-    <t>地址：333桃園市龜山區文化三路560號</t>
-  </si>
-  <si>
-    <t>電話： 03-397-8852</t>
-  </si>
-  <si>
     <t>fig/AiCity-910-合浦刀切麵食-02.jpeg</t>
   </si>
   <si>
@@ -310,15 +189,6 @@
     <t>永康豬腳爌肉飯專賣</t>
   </si>
   <si>
-    <t>地址：333桃園市龜山鄉文化三路551號</t>
-  </si>
-  <si>
-    <t>電話：03-328-8585</t>
-  </si>
-  <si>
-    <t>營業時間：10:30 - 21:00</t>
-  </si>
-  <si>
     <t>fig/AiCity-910-永康豬腳爌肉飯-02.png</t>
   </si>
   <si>
@@ -328,15 +198,6 @@
     <t>TINA廚房</t>
   </si>
   <si>
-    <t>地址：333桃園市龜山區文化三路646號</t>
-  </si>
-  <si>
-    <t>電話：03-318-0607</t>
-  </si>
-  <si>
-    <t>營業時間：08:00 - 21:30</t>
-  </si>
-  <si>
     <t>fig/AiCity-910-TINA廚房-02.jpeg</t>
   </si>
   <si>
@@ -346,15 +207,6 @@
     <t>嚐嚐九九</t>
   </si>
   <si>
-    <t>地址：333桃園市龜山區文化七路175號</t>
-  </si>
-  <si>
-    <t>電話：03-396-3223</t>
-  </si>
-  <si>
-    <t>營業時間：11:00 - 13:30, 17:00 - 21:00</t>
-  </si>
-  <si>
     <t>fig/AiCity-910-嚐嚐九九-02.jpeg</t>
   </si>
   <si>
@@ -364,15 +216,6 @@
     <t>STARBUCKS 星巴克-林口門市</t>
   </si>
   <si>
-    <t>地址：330桃園市龜山區復興一路202號</t>
-  </si>
-  <si>
-    <t>電話：03-327-7817</t>
-  </si>
-  <si>
-    <t>營業時間：06:30 - 22:00</t>
-  </si>
-  <si>
     <t>fig/AiCity-910-星巴克-02.png</t>
   </si>
   <si>
@@ -382,12 +225,6 @@
     <t>林口長庚-美食街</t>
   </si>
   <si>
-    <t>地址：333桃園市龜山區復興街5號</t>
-  </si>
-  <si>
-    <t>電話：</t>
-  </si>
-  <si>
     <t>fig/AiCity-910-林口長庚-美食街-02.jpeg</t>
   </si>
   <si>
@@ -397,12 +234,6 @@
     <t>瓦城泰國料理-A8店</t>
   </si>
   <si>
-    <t>地址：2F 饗悠活 22018</t>
-  </si>
-  <si>
-    <t>電話：03-318-6598</t>
-  </si>
-  <si>
     <t>fig/AiCity-910-瓦城泰國料理-02.png</t>
   </si>
   <si>
@@ -415,48 +246,15 @@
     <t>朱記 餡餅粥</t>
   </si>
   <si>
-    <t>地址：2F 饗悠活 22012</t>
-  </si>
-  <si>
-    <t>電話：03-318-1109</t>
-  </si>
-  <si>
     <t>fig/AiCity-910-朱記-02.png</t>
   </si>
   <si>
     <t>https://www.zhuji.com.tw/#2</t>
   </si>
   <si>
-    <t>地址：2F 饗悠活 22003</t>
-  </si>
-  <si>
-    <t>新葡苑</t>
-  </si>
-  <si>
-    <t>地址：2F 饗悠活 22014</t>
-  </si>
-  <si>
-    <t>電話：03-397-2928</t>
-  </si>
-  <si>
-    <t>營業時間：11:00 - 14:30, 17:00 - 21:30</t>
-  </si>
-  <si>
-    <t>fig/AiCity-910-新葡苑-02.jpeg</t>
-  </si>
-  <si>
-    <t>http://www.shinpuyuan-group.com/ch/shinpu/menu.aspx?Pc=27</t>
-  </si>
-  <si>
     <t>勝博殿-日式炸豬排</t>
   </si>
   <si>
-    <t>地址：2F 饗悠活 22002</t>
-  </si>
-  <si>
-    <t>電話：03-263-0613</t>
-  </si>
-  <si>
     <t>fig/AiCity-910-勝博殿-02.jpg</t>
   </si>
   <si>
@@ -466,24 +264,12 @@
     <t>瓦城泰國料理-三井店</t>
   </si>
   <si>
-    <t>地址：新北市林口區文化三路一段356號2樓</t>
-  </si>
-  <si>
-    <t>電話：02-2606-9166</t>
-  </si>
-  <si>
-    <t>營業時間：11:00 - 15:00, 17:00 - 21:30</t>
-  </si>
-  <si>
     <t>林口區</t>
   </si>
   <si>
     <t>欣葉小聚-三井店</t>
   </si>
   <si>
-    <t>電話：02-2608-4988</t>
-  </si>
-  <si>
     <t>fig/AiCity-910-欣葉小聚-02.png</t>
   </si>
   <si>
@@ -493,9 +279,6 @@
     <t>點水樓-三井店</t>
   </si>
   <si>
-    <t>電話：02-2608-6969</t>
-  </si>
-  <si>
     <t>fig/AiCity-910-點水樓-02.jpeg</t>
   </si>
   <si>
@@ -505,15 +288,6 @@
     <t>築地樂樂町</t>
   </si>
   <si>
-    <t>地址：244新北市林口區文化三路二段67號</t>
-  </si>
-  <si>
-    <t>電話：02-2608-9487</t>
-  </si>
-  <si>
-    <t>營業時間：11:00 - 14:00, 17:30 - 21:00</t>
-  </si>
-  <si>
     <t>fig/AiCity-910-築地樂樂町-02.jpeg</t>
   </si>
   <si>
@@ -523,12 +297,6 @@
     <t>村民食堂</t>
   </si>
   <si>
-    <t>地址：330桃園市桃園區中正路1078號</t>
-  </si>
-  <si>
-    <t>電話：03-316-3838</t>
-  </si>
-  <si>
     <t>fig/AiCity-910-村民食堂-02.jpeg</t>
   </si>
   <si>
@@ -541,15 +309,6 @@
     <t>河馬水產</t>
   </si>
   <si>
-    <t>地址：320桃園市中壢區高鐵北路二段2號</t>
-  </si>
-  <si>
-    <t>電話：03-287-3600</t>
-  </si>
-  <si>
-    <t>營業時間：11:00&amp;nbsp; - 21:30</t>
-  </si>
-  <si>
     <t>fig/AiCity-910-河馬水產-02.jpeg</t>
   </si>
   <si>
@@ -559,15 +318,6 @@
     <t>阿基師藝文茶樓-桃園福容飯店</t>
   </si>
   <si>
-    <t>地址：330桃園市桃園區大興西路一段200號</t>
-  </si>
-  <si>
-    <t>電話：03-326-5800</t>
-  </si>
-  <si>
-    <t>營業時間：06:30 - 10:00, 11:30 - 14:00, 17:30 - 21:00</t>
-  </si>
-  <si>
     <t>fig/AiCity-910-阿基師藝文茶樓-02.jpeg</t>
   </si>
   <si>
@@ -575,15 +325,6 @@
   </si>
   <si>
     <t>圓明園-花園海鮮會館</t>
-  </si>
-  <si>
-    <t>地址：242新北市新莊區中原路399號</t>
-  </si>
-  <si>
-    <t>電話：02-8992-5566</t>
-  </si>
-  <si>
-    <t>營業時間：11:30 - 14:00, 17:30 - 21:00</t>
   </si>
   <si>
     <t>fig/AiCity-910-圓明園-02.jpeg</t>
@@ -670,9 +411,6 @@
     <t>023</t>
   </si>
   <si>
-    <t>024</t>
-  </si>
-  <si>
     <t>025</t>
   </si>
   <si>
@@ -698,13 +436,305 @@
   </si>
   <si>
     <t>033</t>
+  </si>
+  <si>
+    <t>034</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>華漾點心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>333桃園市龜山區復興一路267號</t>
+  </si>
+  <si>
+    <t>333桃園市龜山區復興一路368-3號</t>
+  </si>
+  <si>
+    <t>333桃園市龜山區文化二路91號</t>
+  </si>
+  <si>
+    <t>333桃園市龜山區文化三路551-17號</t>
+  </si>
+  <si>
+    <t>333桃園市龜山區文化一路36號</t>
+  </si>
+  <si>
+    <t>333桃園市龜山區文化三路311號</t>
+  </si>
+  <si>
+    <t>333桃園市龜山區復興北路75號</t>
+  </si>
+  <si>
+    <t>333桃園市龜山區文化一路26號</t>
+  </si>
+  <si>
+    <t>333桃園市龜山區文化二路41號</t>
+  </si>
+  <si>
+    <t>333桃園市龜山區復興一路8號</t>
+  </si>
+  <si>
+    <t>333桃園市龜山區文化二路191-1號</t>
+  </si>
+  <si>
+    <t>333桃園市龜山區文化二路37號</t>
+  </si>
+  <si>
+    <t>333桃園市龜山區文化二路153號</t>
+  </si>
+  <si>
+    <t>333桃園市龜山區文化三路106-1號</t>
+  </si>
+  <si>
+    <t>333桃園市龜山區文化三路560號</t>
+  </si>
+  <si>
+    <t>333桃園市龜山鄉文化三路551號</t>
+  </si>
+  <si>
+    <t>333桃園市龜山區文化三路646號</t>
+  </si>
+  <si>
+    <t>333桃園市龜山區文化七路175號</t>
+  </si>
+  <si>
+    <t>330桃園市龜山區復興一路202號</t>
+  </si>
+  <si>
+    <t>333桃園市龜山區復興街5號</t>
+  </si>
+  <si>
+    <t>2F 饗悠活 22018</t>
+  </si>
+  <si>
+    <t>2F 饗悠活 22012</t>
+  </si>
+  <si>
+    <t>2F 饗悠活 22003</t>
+  </si>
+  <si>
+    <t>2F 饗悠活 22002</t>
+  </si>
+  <si>
+    <t>新北市林口區文化三路一段356號2樓</t>
+  </si>
+  <si>
+    <t>244新北市林口區文化三路二段67號</t>
+  </si>
+  <si>
+    <t>330桃園市桃園區中正路1078號</t>
+  </si>
+  <si>
+    <t>320桃園市中壢區高鐵北路二段2號</t>
+  </si>
+  <si>
+    <t>330桃園市桃園區大興西路一段200號</t>
+  </si>
+  <si>
+    <t>242新北市新莊區中原路399號</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2F </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>饗悠活</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 22014</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>telphone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-397-1136</t>
+  </si>
+  <si>
+    <t>03-328-8869</t>
+  </si>
+  <si>
+    <t>03-397-3999</t>
+  </si>
+  <si>
+    <t>03-397-3909</t>
+  </si>
+  <si>
+    <t>03-318-6666</t>
+  </si>
+  <si>
+    <t>03-318-5155</t>
+  </si>
+  <si>
+    <t>03-318-0800</t>
+  </si>
+  <si>
+    <t>03-397-8729</t>
+  </si>
+  <si>
+    <t>03-327-0099</t>
+  </si>
+  <si>
+    <t>03-328-1956</t>
+  </si>
+  <si>
+    <t>03-397-3673</t>
+  </si>
+  <si>
+    <t>03-397-2252</t>
+  </si>
+  <si>
+    <t>03-328-2255</t>
+  </si>
+  <si>
+    <t>03-396-1370</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 03-397-8852</t>
+  </si>
+  <si>
+    <t>03-328-8585</t>
+  </si>
+  <si>
+    <t>03-318-0607</t>
+  </si>
+  <si>
+    <t>03-396-3223</t>
+  </si>
+  <si>
+    <t>03-327-7817</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>03-318-6598</t>
+  </si>
+  <si>
+    <t>03-318-1109</t>
+  </si>
+  <si>
+    <t>03-263-0613</t>
+  </si>
+  <si>
+    <t>02-2606-9166</t>
+  </si>
+  <si>
+    <t>02-2608-4988</t>
+  </si>
+  <si>
+    <t>02-2608-6969</t>
+  </si>
+  <si>
+    <t>02-2608-9487</t>
+  </si>
+  <si>
+    <t>03-316-3838</t>
+  </si>
+  <si>
+    <t>03-287-3600</t>
+  </si>
+  <si>
+    <t>03-326-5800</t>
+  </si>
+  <si>
+    <t>02-8992-5566</t>
+  </si>
+  <si>
+    <t>hours</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00 -23:00</t>
+  </si>
+  <si>
+    <t>11:00 - 22:00</t>
+  </si>
+  <si>
+    <t>10:00 - 03:00</t>
+  </si>
+  <si>
+    <t>11:30 - 15:00, 16:50 - 22:30</t>
+  </si>
+  <si>
+    <t>11:30 - 23:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10:30 - 15:00, 16:50 - 21:00</t>
+  </si>
+  <si>
+    <t>11:00 - 21:00</t>
+  </si>
+  <si>
+    <t>11:00 - 21:50</t>
+  </si>
+  <si>
+    <t>11:30 - 14:30, 17:00 - 21:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10:30 - 22:00</t>
+  </si>
+  <si>
+    <t>11:00 - 14:00, 17:00 - 20:30</t>
+  </si>
+  <si>
+    <t>10:30 - 21:00</t>
+  </si>
+  <si>
+    <t>08:00 - 21:30</t>
+  </si>
+  <si>
+    <t>11:00 - 13:30, 17:00 - 21:00</t>
+  </si>
+  <si>
+    <t>06:30 - 22:00</t>
+  </si>
+  <si>
+    <t>11:00 - 15:00, 17:00 - 21:30</t>
+  </si>
+  <si>
+    <t>11:00 - 14:00, 17:30 - 21:00</t>
+  </si>
+  <si>
+    <t>11:00&amp;nbsp; - 21:30</t>
+  </si>
+  <si>
+    <t>06:30 - 10:00, 11:30 - 14:00, 17:30 - 21:00</t>
+  </si>
+  <si>
+    <t>11:30 - 14:00, 17:30 - 21:00</t>
+  </si>
+  <si>
+    <t>https://www.hwayoung.com/tw/stores.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -716,6 +746,20 @@
       <name val="Wawati TC"/>
       <family val="3"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="PMingLiU"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -735,15 +779,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1049,7 +1096,7 @@
       <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1066,890 +1113,887 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>191</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>192</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>193</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>138</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>170</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>202</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>194</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>139</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>171</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>203</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>195</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>204</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>196</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>173</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>205</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>197</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>174</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>206</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>198</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>202</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>199</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>144</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>176</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>202</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>177</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>207</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>201</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>146</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>178</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>208</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>202</v>
+        <v>112</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>179</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>209</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="G12" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="H12" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>203</v>
+        <v>113</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="D13" t="s">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>202</v>
       </c>
       <c r="F13" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>204</v>
+        <v>114</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="E14" t="s">
-        <v>81</v>
+        <v>210</v>
       </c>
       <c r="F14" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="G14" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="H14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>205</v>
+        <v>115</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>182</v>
       </c>
       <c r="E15" t="s">
-        <v>87</v>
+        <v>211</v>
       </c>
       <c r="F15" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="G15" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>206</v>
+        <v>116</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>151</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>183</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>207</v>
       </c>
       <c r="F16" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H16" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>207</v>
+        <v>117</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="D17" t="s">
-        <v>97</v>
+        <v>184</v>
       </c>
       <c r="E17" t="s">
-        <v>98</v>
+        <v>212</v>
       </c>
       <c r="F17" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="G17" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="H17" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>208</v>
+        <v>118</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="D18" t="s">
-        <v>103</v>
+        <v>185</v>
       </c>
       <c r="E18" t="s">
-        <v>104</v>
+        <v>213</v>
       </c>
       <c r="F18" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="G18" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="H18" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>209</v>
+        <v>119</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="D19" t="s">
-        <v>109</v>
+        <v>186</v>
       </c>
       <c r="E19" t="s">
-        <v>110</v>
+        <v>214</v>
       </c>
       <c r="F19" t="s">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="G19" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="H19" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="B20" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="D20" t="s">
-        <v>115</v>
+        <v>187</v>
       </c>
       <c r="E20" t="s">
-        <v>116</v>
+        <v>215</v>
       </c>
       <c r="F20" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="G20" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="H20" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>211</v>
+        <v>121</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="D21" t="s">
-        <v>121</v>
+        <v>188</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>207</v>
       </c>
       <c r="F21" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="G21" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="H21" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>212</v>
+        <v>122</v>
       </c>
       <c r="B22" t="s">
-        <v>124</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="D22" t="s">
-        <v>126</v>
+        <v>189</v>
       </c>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>207</v>
       </c>
       <c r="F22" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="G22" t="s">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="H22" t="s">
-        <v>129</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>213</v>
+        <v>123</v>
       </c>
       <c r="B23" t="s">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="D23" t="s">
-        <v>132</v>
+        <v>190</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
+        <v>202</v>
       </c>
       <c r="F23" t="s">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="G23" t="s">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="H23" t="s">
-        <v>129</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>214</v>
+        <v>124</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>178</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>208</v>
       </c>
       <c r="F24" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="H24" t="s">
-        <v>129</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>215</v>
+        <v>125</v>
       </c>
       <c r="B25" t="s">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="D25" t="s">
-        <v>138</v>
+        <v>191</v>
       </c>
       <c r="E25" t="s">
-        <v>139</v>
+        <v>202</v>
       </c>
       <c r="F25" t="s">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="G25" t="s">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="H25" t="s">
-        <v>129</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D26" t="s">
+        <v>192</v>
+      </c>
+      <c r="E26" t="s">
         <v>216</v>
       </c>
-      <c r="B26" t="s">
-        <v>142</v>
-      </c>
-      <c r="C26" t="s">
-        <v>143</v>
-      </c>
-      <c r="D26" t="s">
-        <v>144</v>
-      </c>
-      <c r="E26" t="s">
-        <v>17</v>
-      </c>
       <c r="F26" t="s">
-        <v>145</v>
+        <v>67</v>
       </c>
       <c r="G26" t="s">
-        <v>146</v>
+        <v>68</v>
       </c>
       <c r="H26" t="s">
-        <v>129</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>217</v>
+        <v>127</v>
       </c>
       <c r="B27" t="s">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="D27" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="E27" t="s">
-        <v>150</v>
+        <v>216</v>
       </c>
       <c r="F27" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="H27" t="s">
-        <v>151</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>218</v>
+        <v>128</v>
       </c>
       <c r="B28" t="s">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c r="C28" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="D28" t="s">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="E28" t="s">
-        <v>150</v>
+        <v>202</v>
       </c>
       <c r="F28" t="s">
-        <v>154</v>
+        <v>82</v>
       </c>
       <c r="G28" t="s">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c r="H28" t="s">
-        <v>151</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>219</v>
+        <v>129</v>
       </c>
       <c r="B29" t="s">
-        <v>156</v>
+        <v>84</v>
       </c>
       <c r="C29" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="D29" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="E29" t="s">
-        <v>17</v>
+        <v>217</v>
       </c>
       <c r="F29" t="s">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="G29" t="s">
-        <v>159</v>
+        <v>86</v>
       </c>
       <c r="H29" t="s">
-        <v>151</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="B30" t="s">
-        <v>160</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D30" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="E30" t="s">
-        <v>163</v>
+        <v>207</v>
       </c>
       <c r="F30" t="s">
-        <v>164</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s">
-        <v>165</v>
+        <v>89</v>
       </c>
       <c r="H30" t="s">
-        <v>151</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>221</v>
+        <v>131</v>
       </c>
       <c r="B31" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="C31" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D31" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="E31" t="s">
-        <v>58</v>
+        <v>218</v>
       </c>
       <c r="F31" t="s">
-        <v>169</v>
+        <v>92</v>
       </c>
       <c r="G31" t="s">
-        <v>170</v>
+        <v>93</v>
       </c>
       <c r="H31" t="s">
-        <v>171</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>222</v>
+        <v>132</v>
       </c>
       <c r="B32" t="s">
-        <v>172</v>
+        <v>94</v>
       </c>
       <c r="C32" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D32" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="E32" t="s">
-        <v>175</v>
+        <v>219</v>
       </c>
       <c r="F32" t="s">
-        <v>176</v>
+        <v>95</v>
       </c>
       <c r="G32" t="s">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="H32" t="s">
-        <v>171</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>223</v>
+        <v>133</v>
       </c>
       <c r="B33" t="s">
-        <v>178</v>
+        <v>97</v>
       </c>
       <c r="C33" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="D33" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="E33" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="F33" t="s">
-        <v>182</v>
+        <v>98</v>
       </c>
       <c r="G33" t="s">
-        <v>183</v>
+        <v>99</v>
       </c>
       <c r="H33" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>224</v>
+        <v>134</v>
       </c>
       <c r="B34" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="C34" t="s">
-        <v>185</v>
-      </c>
-      <c r="D34" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="E34" t="s">
-        <v>187</v>
-      </c>
-      <c r="F34" t="s">
-        <v>188</v>
-      </c>
-      <c r="G34" t="s">
-        <v>189</v>
+        <v>207</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="H34" t="s">
-        <v>190</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G34" r:id="rId1" xr:uid="{5A2A106C-5260-4449-845C-A9E383FB5F7A}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait"/>
 </worksheet>

--- a/db/AiCity-72-Restaurant.xlsx
+++ b/db/AiCity-72-Restaurant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786778B5-9942-5748-B004-0B0EF16309EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10413F47-B26F-4B41-9915-1CEC948C74FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="48740" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32360" yWindow="4180" windowWidth="48740" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transformed by JSON-CSV.CO" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="225">
   <si>
     <t>title</t>
   </si>
@@ -540,8 +540,197 @@
     <t>242新北市新莊區中原路399號</t>
   </si>
   <si>
+    <t>telphone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-397-1136</t>
+  </si>
+  <si>
+    <t>03-328-8869</t>
+  </si>
+  <si>
+    <t>03-397-3999</t>
+  </si>
+  <si>
+    <t>03-397-3909</t>
+  </si>
+  <si>
+    <t>03-318-6666</t>
+  </si>
+  <si>
+    <t>03-318-5155</t>
+  </si>
+  <si>
+    <t>03-318-0800</t>
+  </si>
+  <si>
+    <t>03-397-8729</t>
+  </si>
+  <si>
+    <t>03-327-0099</t>
+  </si>
+  <si>
+    <t>03-328-1956</t>
+  </si>
+  <si>
+    <t>03-397-3673</t>
+  </si>
+  <si>
+    <t>03-397-2252</t>
+  </si>
+  <si>
+    <t>03-328-2255</t>
+  </si>
+  <si>
+    <t>03-396-1370</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 03-397-8852</t>
+  </si>
+  <si>
+    <t>03-328-8585</t>
+  </si>
+  <si>
+    <t>03-318-0607</t>
+  </si>
+  <si>
+    <t>03-396-3223</t>
+  </si>
+  <si>
+    <t>03-327-7817</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>03-318-6598</t>
+  </si>
+  <si>
+    <t>03-318-1109</t>
+  </si>
+  <si>
+    <t>03-263-0613</t>
+  </si>
+  <si>
+    <t>02-2606-9166</t>
+  </si>
+  <si>
+    <t>02-2608-4988</t>
+  </si>
+  <si>
+    <t>02-2608-6969</t>
+  </si>
+  <si>
+    <t>02-2608-9487</t>
+  </si>
+  <si>
+    <t>03-316-3838</t>
+  </si>
+  <si>
+    <t>03-287-3600</t>
+  </si>
+  <si>
+    <t>03-326-5800</t>
+  </si>
+  <si>
+    <t>02-8992-5566</t>
+  </si>
+  <si>
+    <t>hours</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00 -23:00</t>
+  </si>
+  <si>
+    <t>11:00 - 22:00</t>
+  </si>
+  <si>
+    <t>10:00 - 03:00</t>
+  </si>
+  <si>
+    <t>11:30 - 15:00, 16:50 - 22:30</t>
+  </si>
+  <si>
+    <t>11:30 - 23:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10:30 - 15:00, 16:50 - 21:00</t>
+  </si>
+  <si>
+    <t>11:00 - 21:00</t>
+  </si>
+  <si>
+    <t>11:00 - 21:50</t>
+  </si>
+  <si>
+    <t>11:30 - 14:30, 17:00 - 21:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10:30 - 22:00</t>
+  </si>
+  <si>
+    <t>11:00 - 14:00, 17:00 - 20:30</t>
+  </si>
+  <si>
+    <t>10:30 - 21:00</t>
+  </si>
+  <si>
+    <t>08:00 - 21:30</t>
+  </si>
+  <si>
+    <t>11:00 - 13:30, 17:00 - 21:00</t>
+  </si>
+  <si>
+    <t>06:30 - 22:00</t>
+  </si>
+  <si>
+    <t>11:00 - 15:00, 17:00 - 21:30</t>
+  </si>
+  <si>
+    <t>11:00 - 14:00, 17:30 - 21:00</t>
+  </si>
+  <si>
+    <t>11:00&amp;nbsp; - 21:30</t>
+  </si>
+  <si>
+    <t>06:30 - 10:00, 11:30 - 14:00, 17:30 - 21:00</t>
+  </si>
+  <si>
+    <t>11:30 - 14:00, 17:30 - 21:00</t>
+  </si>
+  <si>
+    <t>https://www.hwayoung.com/tw/stores.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區復興一路8號2樓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-328-8718</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">2F </t>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">週一至週五: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>11:00-14:30(</t>
     </r>
     <r>
       <rPr>
@@ -551,7 +740,7 @@
         <family val="1"/>
         <charset val="136"/>
       </rPr>
-      <t>饗悠活</t>
+      <t>最後點餐</t>
     </r>
     <r>
       <rPr>
@@ -560,173 +749,89 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> 22014</t>
+      <t>14:00), 17:30-21:30(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>最後點餐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">21:00)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">週六及週日: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>11:00-15:30(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>最後點餐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>15:00), 17:30-21:30(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>最後點餐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>21:00)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>telphone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03-397-1136</t>
-  </si>
-  <si>
-    <t>03-328-8869</t>
-  </si>
-  <si>
-    <t>03-397-3999</t>
-  </si>
-  <si>
-    <t>03-397-3909</t>
-  </si>
-  <si>
-    <t>03-318-6666</t>
-  </si>
-  <si>
-    <t>03-318-5155</t>
-  </si>
-  <si>
-    <t>03-318-0800</t>
-  </si>
-  <si>
-    <t>03-397-8729</t>
-  </si>
-  <si>
-    <t>03-327-0099</t>
-  </si>
-  <si>
-    <t>03-328-1956</t>
-  </si>
-  <si>
-    <t>03-397-3673</t>
-  </si>
-  <si>
-    <t>03-397-2252</t>
-  </si>
-  <si>
-    <t>03-328-2255</t>
-  </si>
-  <si>
-    <t>03-396-1370</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 03-397-8852</t>
-  </si>
-  <si>
-    <t>03-328-8585</t>
-  </si>
-  <si>
-    <t>03-318-0607</t>
-  </si>
-  <si>
-    <t>03-396-3223</t>
-  </si>
-  <si>
-    <t>03-327-7817</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>03-318-6598</t>
-  </si>
-  <si>
-    <t>03-318-1109</t>
-  </si>
-  <si>
-    <t>03-263-0613</t>
-  </si>
-  <si>
-    <t>02-2606-9166</t>
-  </si>
-  <si>
-    <t>02-2608-4988</t>
-  </si>
-  <si>
-    <t>02-2608-6969</t>
-  </si>
-  <si>
-    <t>02-2608-9487</t>
-  </si>
-  <si>
-    <t>03-316-3838</t>
-  </si>
-  <si>
-    <t>03-287-3600</t>
-  </si>
-  <si>
-    <t>03-326-5800</t>
-  </si>
-  <si>
-    <t>02-8992-5566</t>
-  </si>
-  <si>
-    <t>hours</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11:00 -23:00</t>
-  </si>
-  <si>
-    <t>11:00 - 22:00</t>
-  </si>
-  <si>
-    <t>10:00 - 03:00</t>
-  </si>
-  <si>
-    <t>11:30 - 15:00, 16:50 - 22:30</t>
-  </si>
-  <si>
-    <t>11:30 - 23:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10:30 - 15:00, 16:50 - 21:00</t>
-  </si>
-  <si>
-    <t>11:00 - 21:00</t>
-  </si>
-  <si>
-    <t>11:00 - 21:50</t>
-  </si>
-  <si>
-    <t>11:30 - 14:30, 17:00 - 21:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10:30 - 22:00</t>
-  </si>
-  <si>
-    <t>11:00 - 14:00, 17:00 - 20:30</t>
-  </si>
-  <si>
-    <t>10:30 - 21:00</t>
-  </si>
-  <si>
-    <t>08:00 - 21:30</t>
-  </si>
-  <si>
-    <t>11:00 - 13:30, 17:00 - 21:00</t>
-  </si>
-  <si>
-    <t>06:30 - 22:00</t>
-  </si>
-  <si>
-    <t>11:00 - 15:00, 17:00 - 21:30</t>
-  </si>
-  <si>
-    <t>11:00 - 14:00, 17:30 - 21:00</t>
-  </si>
-  <si>
-    <t>11:00&amp;nbsp; - 21:30</t>
-  </si>
-  <si>
-    <t>06:30 - 10:00, 11:30 - 14:00, 17:30 - 21:00</t>
-  </si>
-  <si>
-    <t>11:30 - 14:00, 17:30 - 21:00</t>
-  </si>
-  <si>
-    <t>https://www.hwayoung.com/tw/stores.php</t>
+    <t>fig/AiCity-910-華漾.jpeg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -734,7 +839,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -761,6 +866,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -783,10 +895,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1093,10 +1208,10 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomRight" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1122,10 +1237,10 @@
         <v>136</v>
       </c>
       <c r="D1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -1148,10 +1263,10 @@
         <v>137</v>
       </c>
       <c r="D2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -1174,10 +1289,10 @@
         <v>138</v>
       </c>
       <c r="D3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -1200,10 +1315,10 @@
         <v>139</v>
       </c>
       <c r="D4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -1226,10 +1341,10 @@
         <v>140</v>
       </c>
       <c r="D5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
@@ -1252,10 +1367,10 @@
         <v>141</v>
       </c>
       <c r="D6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
@@ -1278,10 +1393,10 @@
         <v>142</v>
       </c>
       <c r="D7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
@@ -1304,10 +1419,10 @@
         <v>143</v>
       </c>
       <c r="D8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F8" t="s">
         <v>25</v>
@@ -1330,10 +1445,10 @@
         <v>144</v>
       </c>
       <c r="D9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -1356,10 +1471,10 @@
         <v>145</v>
       </c>
       <c r="D10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F10" t="s">
         <v>31</v>
@@ -1382,10 +1497,10 @@
         <v>146</v>
       </c>
       <c r="D11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F11" t="s">
         <v>34</v>
@@ -1408,10 +1523,10 @@
         <v>147</v>
       </c>
       <c r="D12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F12" t="s">
         <v>37</v>
@@ -1434,10 +1549,10 @@
         <v>148</v>
       </c>
       <c r="D13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F13" t="s">
         <v>40</v>
@@ -1460,10 +1575,10 @@
         <v>149</v>
       </c>
       <c r="D14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F14" t="s">
         <v>43</v>
@@ -1486,10 +1601,10 @@
         <v>150</v>
       </c>
       <c r="D15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F15" t="s">
         <v>46</v>
@@ -1512,10 +1627,10 @@
         <v>151</v>
       </c>
       <c r="D16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F16" t="s">
         <v>49</v>
@@ -1538,10 +1653,10 @@
         <v>152</v>
       </c>
       <c r="D17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F17" t="s">
         <v>52</v>
@@ -1564,10 +1679,10 @@
         <v>153</v>
       </c>
       <c r="D18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F18" t="s">
         <v>55</v>
@@ -1590,10 +1705,10 @@
         <v>154</v>
       </c>
       <c r="D19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F19" t="s">
         <v>58</v>
@@ -1616,10 +1731,10 @@
         <v>155</v>
       </c>
       <c r="D20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F20" t="s">
         <v>61</v>
@@ -1642,10 +1757,10 @@
         <v>156</v>
       </c>
       <c r="D21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F21" t="s">
         <v>64</v>
@@ -1668,10 +1783,10 @@
         <v>157</v>
       </c>
       <c r="D22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F22" t="s">
         <v>67</v>
@@ -1694,10 +1809,10 @@
         <v>158</v>
       </c>
       <c r="D23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F23" t="s">
         <v>71</v>
@@ -1720,10 +1835,10 @@
         <v>159</v>
       </c>
       <c r="D24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F24" t="s">
         <v>34</v>
@@ -1746,10 +1861,10 @@
         <v>160</v>
       </c>
       <c r="D25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F25" t="s">
         <v>74</v>
@@ -1772,10 +1887,10 @@
         <v>161</v>
       </c>
       <c r="D26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F26" t="s">
         <v>67</v>
@@ -1798,10 +1913,10 @@
         <v>161</v>
       </c>
       <c r="D27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F27" t="s">
         <v>79</v>
@@ -1824,10 +1939,10 @@
         <v>161</v>
       </c>
       <c r="D28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F28" t="s">
         <v>82</v>
@@ -1850,10 +1965,10 @@
         <v>162</v>
       </c>
       <c r="D29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F29" t="s">
         <v>85</v>
@@ -1876,10 +1991,10 @@
         <v>163</v>
       </c>
       <c r="D30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F30" t="s">
         <v>88</v>
@@ -1902,10 +2017,10 @@
         <v>164</v>
       </c>
       <c r="D31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F31" t="s">
         <v>92</v>
@@ -1928,10 +2043,10 @@
         <v>165</v>
       </c>
       <c r="D32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F32" t="s">
         <v>95</v>
@@ -1954,10 +2069,10 @@
         <v>166</v>
       </c>
       <c r="D33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E33" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F33" t="s">
         <v>98</v>
@@ -1969,7 +2084,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>134</v>
       </c>
@@ -1977,13 +2092,19 @@
         <v>135</v>
       </c>
       <c r="C34" t="s">
-        <v>167</v>
-      </c>
-      <c r="E34" t="s">
-        <v>207</v>
+        <v>221</v>
+      </c>
+      <c r="D34" t="s">
+        <v>222</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F34" t="s">
+        <v>224</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H34" t="s">
         <v>69</v>

--- a/db/AiCity-72-Restaurant.xlsx
+++ b/db/AiCity-72-Restaurant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10413F47-B26F-4B41-9915-1CEC948C74FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22873F7F-FA79-6D41-ABDB-86C9B4E3C18B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32360" yWindow="4180" windowWidth="48740" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7140" yWindow="13600" windowWidth="39540" windowHeight="15080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transformed by JSON-CSV.CO" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="285">
   <si>
     <t>title</t>
   </si>
@@ -832,6 +832,236 @@
   </si>
   <si>
     <t>fig/AiCity-910-華漾.jpeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>035</t>
+  </si>
+  <si>
+    <t>036</t>
+  </si>
+  <si>
+    <t>037</t>
+  </si>
+  <si>
+    <t>038</t>
+  </si>
+  <si>
+    <t>039</t>
+  </si>
+  <si>
+    <t>040</t>
+  </si>
+  <si>
+    <t>041</t>
+  </si>
+  <si>
+    <t>042</t>
+  </si>
+  <si>
+    <t>043</t>
+  </si>
+  <si>
+    <t>044</t>
+  </si>
+  <si>
+    <t>Kua `Aina 夏威夷漢堡-三井店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J.S. Foodies Tokyo-三井店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鶴橋風月-三井店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAUL 保羅麵包法式烘焙Café-三井店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金子半之助-三井店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法國的秘密甜點-三井店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くら寿司-三井店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛 かつもと村-三井店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屯京拉麵-三井店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Japoli -三井店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新北市林口區文化三路一段356號2F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-2606-8663</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>週一至週五11:00~21:30 週六至週日10:30~22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-2608-0922</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>週日至週五11:00~21:00 週六10:30~22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-2600-6048</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>週一至週日11:00~21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新北市林口區文化三路一段356號1F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-2600-3323</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-2606-9138</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-2609-6399</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新北市林口區文化三路一段356號B1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>週一至週五11:00~21:30 週六至週日 10:30~21:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-2600-0167</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新北市林口區文化三路一段356號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-2608-7070</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>週日至週四11:00~21:30 週五至週六11:00~22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-2600-9845</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>週一至週四 11:00~21:30 週五 11:00~22:00 週六至週日 10:30~22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新北市林口區文化三路一段356號戶外區2F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/japoli2.kingsknow/menu/?p_ref=pa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-910-Japoli.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://foodexgroup.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-910-屯京拉麵.jpeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://kurasushi.tw/shops</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-910-寿司.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.gyukatsu-motomura.com/zh/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AiCity-910-日本牛排.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://shop.thesecretcake.com.tw/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-910-法國秘密甜點.jpeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tendon.kingoshou.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-910-金子半之助.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/paul1889.taiwan/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-910-Paul.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-910-鶴橋風月.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/jsfoodiestw/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/TsuruhashiFugetsuTaiwan/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-910-JSFood.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-910-Kuaaina.jpeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.kua-aina.tw/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1205,13 +1435,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B34" sqref="B34"/>
+      <selection pane="bottomRight" activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2110,10 +2340,277 @@
         <v>69</v>
       </c>
     </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B35" t="s">
+        <v>244</v>
+      </c>
+      <c r="C35" t="s">
+        <v>264</v>
+      </c>
+      <c r="D35" t="s">
+        <v>262</v>
+      </c>
+      <c r="E35" t="s">
+        <v>263</v>
+      </c>
+      <c r="F35" t="s">
+        <v>266</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="H35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B36" t="s">
+        <v>243</v>
+      </c>
+      <c r="C36" t="s">
+        <v>245</v>
+      </c>
+      <c r="D36" t="s">
+        <v>260</v>
+      </c>
+      <c r="E36" t="s">
+        <v>261</v>
+      </c>
+      <c r="F36" t="s">
+        <v>268</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B37" t="s">
+        <v>242</v>
+      </c>
+      <c r="C37" t="s">
+        <v>259</v>
+      </c>
+      <c r="D37" t="s">
+        <v>258</v>
+      </c>
+      <c r="E37" t="s">
+        <v>247</v>
+      </c>
+      <c r="F37" t="s">
+        <v>272</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="H37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B38" t="s">
+        <v>241</v>
+      </c>
+      <c r="C38" t="s">
+        <v>256</v>
+      </c>
+      <c r="E38" t="s">
+        <v>257</v>
+      </c>
+      <c r="F38" t="s">
+        <v>270</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="H38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B39" t="s">
+        <v>240</v>
+      </c>
+      <c r="C39" t="s">
+        <v>256</v>
+      </c>
+      <c r="D39" t="s">
+        <v>255</v>
+      </c>
+      <c r="E39" t="s">
+        <v>251</v>
+      </c>
+      <c r="F39" t="s">
+        <v>274</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="H39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B40" t="s">
+        <v>239</v>
+      </c>
+      <c r="C40" t="s">
+        <v>245</v>
+      </c>
+      <c r="D40" t="s">
+        <v>254</v>
+      </c>
+      <c r="E40" t="s">
+        <v>247</v>
+      </c>
+      <c r="F40" t="s">
+        <v>276</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B41" t="s">
+        <v>238</v>
+      </c>
+      <c r="C41" t="s">
+        <v>245</v>
+      </c>
+      <c r="D41" t="s">
+        <v>253</v>
+      </c>
+      <c r="E41" t="s">
+        <v>249</v>
+      </c>
+      <c r="F41" t="s">
+        <v>278</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="H41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B42" t="s">
+        <v>237</v>
+      </c>
+      <c r="C42" t="s">
+        <v>252</v>
+      </c>
+      <c r="D42" t="s">
+        <v>250</v>
+      </c>
+      <c r="E42" t="s">
+        <v>251</v>
+      </c>
+      <c r="F42" t="s">
+        <v>279</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B43" t="s">
+        <v>236</v>
+      </c>
+      <c r="C43" t="s">
+        <v>245</v>
+      </c>
+      <c r="D43" t="s">
+        <v>248</v>
+      </c>
+      <c r="E43" t="s">
+        <v>249</v>
+      </c>
+      <c r="F43" t="s">
+        <v>282</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="H43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B44" t="s">
+        <v>235</v>
+      </c>
+      <c r="C44" t="s">
+        <v>245</v>
+      </c>
+      <c r="D44" t="s">
+        <v>246</v>
+      </c>
+      <c r="E44" t="s">
+        <v>247</v>
+      </c>
+      <c r="F44" t="s">
+        <v>283</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="H44" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G34" r:id="rId1" xr:uid="{5A2A106C-5260-4449-845C-A9E383FB5F7A}"/>
+    <hyperlink ref="G35" r:id="rId2" xr:uid="{558964C9-C94C-3C41-9D75-205DC8877923}"/>
+    <hyperlink ref="G36" r:id="rId3" xr:uid="{40B9442A-5FCF-CC4B-9582-1BA887E728D7}"/>
+    <hyperlink ref="G38" r:id="rId4" xr:uid="{E594C543-D648-0448-A7B9-9A391CD1A6CB}"/>
+    <hyperlink ref="G37" r:id="rId5" xr:uid="{1E9E2A4C-43EA-0243-BDB1-4B51E72681D7}"/>
+    <hyperlink ref="G39" r:id="rId6" xr:uid="{533F9500-2704-3545-97BF-78C85C2EF10E}"/>
+    <hyperlink ref="G40" r:id="rId7" xr:uid="{749B1C08-2AE7-2B42-BC32-2A5E020CA95A}"/>
+    <hyperlink ref="G41" r:id="rId8" xr:uid="{1C39564C-E5EC-0048-A490-5053EA647CEC}"/>
+    <hyperlink ref="G43" r:id="rId9" xr:uid="{5C2E8B64-66FF-B941-A63D-23D91782DB38}"/>
+    <hyperlink ref="G42" r:id="rId10" xr:uid="{242AACDF-EC8F-8E49-9EEF-ED1FB5B564B5}"/>
+    <hyperlink ref="G44" r:id="rId11" xr:uid="{B4D55276-E8DC-644F-A49D-9B5B420388FD}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/db/AiCity-72-Restaurant.xlsx
+++ b/db/AiCity-72-Restaurant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22873F7F-FA79-6D41-ABDB-86C9B4E3C18B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85039E88-A0A1-C94D-B4D9-2E452F871916}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7140" yWindow="13600" windowWidth="39540" windowHeight="15080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1013,10 +1013,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AiCity-910-日本牛排.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://shop.thesecretcake.com.tw/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1062,6 +1058,10 @@
   </si>
   <si>
     <t>http://www.kua-aina.tw/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-910-日本牛排.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1441,7 +1441,7 @@
       <pane xSplit="8" ySplit="1" topLeftCell="I34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F55" sqref="F55"/>
+      <selection pane="bottomRight" activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2409,7 +2409,7 @@
         <v>247</v>
       </c>
       <c r="F37" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>271</v>
@@ -2458,10 +2458,10 @@
         <v>251</v>
       </c>
       <c r="F39" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H39" t="s">
         <v>77</v>
@@ -2484,10 +2484,10 @@
         <v>247</v>
       </c>
       <c r="F40" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H40" t="s">
         <v>77</v>
@@ -2510,10 +2510,10 @@
         <v>249</v>
       </c>
       <c r="F41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H41" t="s">
         <v>77</v>
@@ -2536,10 +2536,10 @@
         <v>251</v>
       </c>
       <c r="F42" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H42" t="s">
         <v>77</v>
@@ -2562,10 +2562,10 @@
         <v>249</v>
       </c>
       <c r="F43" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H43" t="s">
         <v>77</v>
@@ -2588,10 +2588,10 @@
         <v>247</v>
       </c>
       <c r="F44" t="s">
+        <v>282</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>284</v>
       </c>
       <c r="H44" t="s">
         <v>77</v>

--- a/db/AiCity-72-Restaurant.xlsx
+++ b/db/AiCity-72-Restaurant.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16D60AE8-3DEA-3F41-A020-B05BB8657EBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630A77E7-EC13-304F-A939-4D181FA4C0DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11860" yWindow="5900" windowWidth="27860" windowHeight="17060" xr2:uid="{1AAFA279-DBCD-DA42-8F0D-FE7868FF2730}"/>
+    <workbookView xWindow="6120" yWindow="4060" windowWidth="34600" windowHeight="17060" xr2:uid="{1AAFA279-DBCD-DA42-8F0D-FE7868FF2730}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="403">
   <si>
     <t>no</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1399,6 +1399,300 @@
     <t>https://www.facebook.com/ninitaimall/</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>龜山美食</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>052</t>
+  </si>
+  <si>
+    <t>053</t>
+  </si>
+  <si>
+    <t>054</t>
+  </si>
+  <si>
+    <t>055</t>
+  </si>
+  <si>
+    <t>057</t>
+  </si>
+  <si>
+    <t>058</t>
+  </si>
+  <si>
+    <t>059</t>
+  </si>
+  <si>
+    <t>享時光-林口站</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區復興一路212巷5號2樓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>03 -397-1171</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-910-享時光.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.walkerland.com.tw/article/view/250686</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>週一~五  :10:30~15:30(最後點餐14:30), 
+                  16:30~21:15(最後點餐20:30); 
+週 六• 日 :10:30~21:15 (最後點餐20:30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一將壽司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區文興路222號1樓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-3280-899</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.walkerland.com.tw/article/view/257524</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-910-一將壽司.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+11:30 - 14:30 、 17:30 - 21:30 週三公休</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>懷舊中卷麵線、魷魚翅麵線</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區復興北路6巷51-1號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0989-838-605</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.walkerland.com.tw/article/view/259968</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平日11:30~18:00或售完, 
+週六11:00~14:00或售完,
+週日公休</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-910-懷舊中卷.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蠢咖啡 Dumb Coffee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區振興路642號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0903--871-155</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.walkerland.com.tw/article/view/267419</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-910-蠢咖啡.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:00 - 20:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅菊手作魯肉飯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區復興一路356號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-397 4858</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-910-梅菊滷肉飯.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.walkerland.com.tw/article/view/270864</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>週四～週六：12:00 - 14:00 、 17:00 - 22:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吳氏湯包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區文化七路93號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-3278-975</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.walkerland.com.tw/article/view/216779</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>04:00 - 13:00, 週一公休</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-910-吳氏湯包.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海苑日式料理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區文化一路10巷42弄41號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-327-2225</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-910-海苑日式.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午11:30-下午2:00  下午5:30-下午10:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.jp-cuisines.com/?gclid=Cj0KCQiA1pyCBhCtARIsAHaY_5f_UwJ2GtVsgF4D5ybCw0XjnjZ9siyIi9D_n6gWI94EarJi4tqHChoaAhNKEALw_wcB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家芬火鍋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區文化三路551-19號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-3973-909</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.walkerland.com.tw/article/view/252930</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-910-加芬火鍋.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>週一～六：12:00 - 22:00, 週日 17:00 - 22:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>記得吃早餐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區文化二路34巷14弄21號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-327-2811</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-910-記得吃早餐.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.walkerland.com.tw/article/view/241108</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>週一～五：17:00 - 20:30, 週六日：11:00 - 14:00 、 17:00 - 20:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水道泰國蝦吃到飽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>週一～五：17:30 - 22:30, 週六日：11:30 - 16:00 、 17:30 - 22:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.walkerland.com.tw/article/view/240610</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區廣福路315號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-377-2658‬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-910-泰國蝦.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>六石蒔鍋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區文化二路33-1號1樓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-397-1680</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.walkerland.com.tw/article/view/236744</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-910-六石.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:30 - 14:30 、 17:00 - 22:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1475,7 +1769,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1486,6 +1780,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1801,10 +2099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E067DB8E-BE6D-BD40-8262-98D4CCD248C4}">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3141,6 +3439,292 @@
       </c>
       <c r="H51" s="2" t="s">
         <v>292</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="48">
+      <c r="A52" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="32">
+      <c r="A53" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="48">
+      <c r="A54" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="16">
+      <c r="A55" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="16">
+      <c r="A56" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="16">
+      <c r="A57" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="16">
+      <c r="A58" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="16">
+      <c r="A59" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="32">
+      <c r="A60" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="32">
+      <c r="A61" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="16">
+      <c r="A62" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -3164,6 +3748,17 @@
     <hyperlink ref="G49" r:id="rId16" xr:uid="{90038BA7-E075-0440-A96D-EA6ACC7FD191}"/>
     <hyperlink ref="G50" r:id="rId17" xr:uid="{5316EB1A-A470-B64F-A2F7-637436A96606}"/>
     <hyperlink ref="G51" r:id="rId18" xr:uid="{6FA5AFA1-22DA-D848-929C-A04ED36DAE9C}"/>
+    <hyperlink ref="G52" r:id="rId19" xr:uid="{0F56A368-05DC-0046-A036-15A5A9522952}"/>
+    <hyperlink ref="G53" r:id="rId20" xr:uid="{9DC77239-72AD-1A40-93F3-F8C653039533}"/>
+    <hyperlink ref="G54" r:id="rId21" xr:uid="{02BCB13E-490C-5A49-B385-D01FC01F5A3B}"/>
+    <hyperlink ref="G55" r:id="rId22" xr:uid="{5D78D208-C834-DC4D-87CE-7718DC1647F2}"/>
+    <hyperlink ref="G56" r:id="rId23" xr:uid="{B69E3BA3-5461-EE40-BA4E-41A5BE1E7BF4}"/>
+    <hyperlink ref="G57" r:id="rId24" xr:uid="{B62A6D1F-5DF0-A643-BD46-EC9EB0884BB7}"/>
+    <hyperlink ref="G58" r:id="rId25" xr:uid="{FC29BA63-1C7C-5644-A653-C892769FAC75}"/>
+    <hyperlink ref="G59" r:id="rId26" xr:uid="{DCC13ED3-9E8E-DA4D-91D1-75A7931C642A}"/>
+    <hyperlink ref="G60" r:id="rId27" xr:uid="{0D9C681C-5B99-484C-BFFE-EF206CDCCCD9}"/>
+    <hyperlink ref="G61" r:id="rId28" xr:uid="{BB4D8478-DB58-4541-B1EB-38CC918B98D4}"/>
+    <hyperlink ref="G62" r:id="rId29" xr:uid="{BC3F325E-FC97-4046-8121-C76DBBF7A70C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/db/AiCity-72-Restaurant.xlsx
+++ b/db/AiCity-72-Restaurant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630A77E7-EC13-304F-A939-4D181FA4C0DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1911B238-134E-D740-9E06-6649D81CDF0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="4060" windowWidth="34600" windowHeight="17060" xr2:uid="{1AAFA279-DBCD-DA42-8F0D-FE7868FF2730}"/>
+    <workbookView xWindow="19240" yWindow="10300" windowWidth="34600" windowHeight="17060" xr2:uid="{1AAFA279-DBCD-DA42-8F0D-FE7868FF2730}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="410">
   <si>
     <t>no</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1691,6 +1691,33 @@
   </si>
   <si>
     <t>11:30 - 14:30 、 17:00 - 22:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>060</t>
+  </si>
+  <si>
+    <t>CAFÉ 日安,家常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區復興一路212巷31號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-397-9167</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>週二～五：10:30 - 15:00 、17:00 - 21:30, 週六日：10:30 - 21:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GreatDaysBrunch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-910-日安.jpg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2099,10 +2126,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E067DB8E-BE6D-BD40-8262-98D4CCD248C4}">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3725,6 +3752,32 @@
       </c>
       <c r="H62" s="2" t="s">
         <v>329</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="32">
+      <c r="A63" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3759,6 +3812,7 @@
     <hyperlink ref="G60" r:id="rId27" xr:uid="{0D9C681C-5B99-484C-BFFE-EF206CDCCCD9}"/>
     <hyperlink ref="G61" r:id="rId28" xr:uid="{BB4D8478-DB58-4541-B1EB-38CC918B98D4}"/>
     <hyperlink ref="G62" r:id="rId29" xr:uid="{BC3F325E-FC97-4046-8121-C76DBBF7A70C}"/>
+    <hyperlink ref="G63" r:id="rId30" xr:uid="{6CB5F6A4-6266-8745-8ABF-834A77B5DB82}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/db/AiCity-72-Restaurant.xlsx
+++ b/db/AiCity-72-Restaurant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1911B238-134E-D740-9E06-6649D81CDF0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565517EA-B993-9E44-A2ED-7423E7F0A090}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19240" yWindow="10300" windowWidth="34600" windowHeight="17060" xr2:uid="{1AAFA279-DBCD-DA42-8F0D-FE7868FF2730}"/>
+    <workbookView xWindow="12040" yWindow="9620" windowWidth="34600" windowHeight="17060" xr2:uid="{1AAFA279-DBCD-DA42-8F0D-FE7868FF2730}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="417">
   <si>
     <t>no</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1718,6 +1718,33 @@
   </si>
   <si>
     <t>fig/AiCity-910-日安.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>061</t>
+  </si>
+  <si>
+    <t>好日子 海鮮餐廳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-910-好日子.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/goodday86018808</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 新北市林口區文化一路二段131號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-8601-8808</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00 - 14:00 、17:00 - 22:00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2126,10 +2153,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E067DB8E-BE6D-BD40-8262-98D4CCD248C4}">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3778,6 +3805,32 @@
       </c>
       <c r="H63" s="2" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="16">
+      <c r="A64" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -3813,6 +3866,7 @@
     <hyperlink ref="G61" r:id="rId28" xr:uid="{BB4D8478-DB58-4541-B1EB-38CC918B98D4}"/>
     <hyperlink ref="G62" r:id="rId29" xr:uid="{BC3F325E-FC97-4046-8121-C76DBBF7A70C}"/>
     <hyperlink ref="G63" r:id="rId30" xr:uid="{6CB5F6A4-6266-8745-8ABF-834A77B5DB82}"/>
+    <hyperlink ref="G64" r:id="rId31" xr:uid="{CFE95743-0EDD-8E40-A8A0-F984882C50FA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/db/AiCity-72-Restaurant.xlsx
+++ b/db/AiCity-72-Restaurant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565517EA-B993-9E44-A2ED-7423E7F0A090}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73A0209-946B-A142-B032-269880E9C53B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12040" yWindow="9620" windowWidth="34600" windowHeight="17060" xr2:uid="{1AAFA279-DBCD-DA42-8F0D-FE7868FF2730}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="424">
   <si>
     <t>no</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1745,6 +1745,34 @@
   </si>
   <si>
     <t>11:00 - 14:00 、17:00 - 22:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>062</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>想林口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新北市林口區文化一路一段250號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-2602-6522</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平日 11：00 ～ 21：30，假日 10：00 ～ 21：30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-910-想林口.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/thecafeby2/</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2153,10 +2181,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E067DB8E-BE6D-BD40-8262-98D4CCD248C4}">
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3830,6 +3858,32 @@
         <v>413</v>
       </c>
       <c r="H64" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="32">
+      <c r="A65" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="H65" s="2" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3867,6 +3921,7 @@
     <hyperlink ref="G62" r:id="rId29" xr:uid="{BC3F325E-FC97-4046-8121-C76DBBF7A70C}"/>
     <hyperlink ref="G63" r:id="rId30" xr:uid="{6CB5F6A4-6266-8745-8ABF-834A77B5DB82}"/>
     <hyperlink ref="G64" r:id="rId31" xr:uid="{CFE95743-0EDD-8E40-A8A0-F984882C50FA}"/>
+    <hyperlink ref="G65" r:id="rId32" xr:uid="{1DB044A5-2953-CC4F-8392-5B010494975C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/db/AiCity-72-Restaurant.xlsx
+++ b/db/AiCity-72-Restaurant.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73A0209-946B-A142-B032-269880E9C53B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BFAB2C-66E8-CF4B-B005-90A5487DE57D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12040" yWindow="9620" windowWidth="34600" windowHeight="17060" xr2:uid="{1AAFA279-DBCD-DA42-8F0D-FE7868FF2730}"/>
+    <workbookView xWindow="8540" yWindow="7080" windowWidth="34600" windowHeight="17060" xr2:uid="{1AAFA279-DBCD-DA42-8F0D-FE7868FF2730}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="502">
   <si>
     <t>no</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1775,12 +1775,328 @@
     <t>https://www.facebook.com/thecafeby2/</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>林口美食</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>063</t>
+  </si>
+  <si>
+    <t>064</t>
+  </si>
+  <si>
+    <t>065</t>
+  </si>
+  <si>
+    <t>066</t>
+  </si>
+  <si>
+    <t>067</t>
+  </si>
+  <si>
+    <t>068</t>
+  </si>
+  <si>
+    <t>069</t>
+  </si>
+  <si>
+    <t>070</t>
+  </si>
+  <si>
+    <t>071</t>
+  </si>
+  <si>
+    <t>073</t>
+  </si>
+  <si>
+    <t>074</t>
+  </si>
+  <si>
+    <t>鹿野桂花雞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新北市林口區文化一路二段190號(近民視電視公司、林口夜市)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-2602-0065</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>週一至週五 16:30~23:30 週六至週日 11:30~15:00 16:30~23:30 每週三公休</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-910-鹿野桂花雞.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.gomaji.com/store/58954?ch=7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>美麗蔬．蔬食料理Meili Green</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新北市林口區文化三路一段484號(近三井Outlet、國賓影城)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-2600-5352</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>週一至週日 11:30~20:30，不定期公休請參考店家FB公告</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-910-美麗蔬.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.gomaji.com/store/113538?ch=7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bravo Burger 發福廚房 林口店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新北市林口區文化三路一段402巷2號(昕境廣場內)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-2609-4188</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>週日至週四 11:30~21:00 週五至週六 11:30~21:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-910-發福.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.gomaji.com/store/73?ch=7#51756</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pappi’s restaurant 義式餐廳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新北市林口區仁愛二路63號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>週二至週日 11:00~14:00 17:00~22:00 每週一公休</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-910-Pappi.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.gomaji.com/store/90654?pid=243551</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>點心願 林口店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-910-點心願.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新北市林口區八德路366號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-2608-0003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-2608-8167</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>週一至週日 11:00~14:00 17:00~22:00 不定期公休</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.gomaji.com/store/141212?pid=250535</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雲豪斯WiN HOUSE無國界料理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新北市林口區忠孝一路76號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-2608-1977</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>週一至週日 11:00~21:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-910-雲豪斯.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.gomaji.com/store/111390</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老占元拉麵大王</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新北市林口區林口路120號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-2602-2859</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>週一至週六10:00~20:00 週日公休</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://julialkpkpk.pixnet.net/blog/post/454296125</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸翻天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新北市林口區仁愛路二段155號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-2601-1151</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>週一至週日11:00~14:00 17:00~22:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/gfood51/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-910-蒸翻天.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新北市林口區仁愛路二段235-5號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-2600-8928</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>週一至週日11:00~15:00 17:00~21:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.xuite.net/blueshk/happy/470112542</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Freaks Cafe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>́ &amp; Bistro 癮客餐酒館</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-910-癮客.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>那間賣冰的咖啡店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新北市林口區林口路10號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.viviyu.com/archives/32125</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>週一：12:00–21:00
+週二~週四：11:30–21:00
+周五~週六：11:30–21:30
+週日：11:30–21:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0988-867-455</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>呷冰食堂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新北市林口區中正路261號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-910-呷冰食堂.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://almablog.com.tw/blog/post/136256</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0908-67- 889</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:00 - 21:00 週日公休</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-910-老占元.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-910-賣冰.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1821,6 +2137,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="PMingLiU"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="PMingLiU"/>
       <family val="1"/>
       <charset val="136"/>
@@ -2181,10 +2504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E067DB8E-BE6D-BD40-8262-98D4CCD248C4}">
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="F74" sqref="F74"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3885,6 +4208,292 @@
       </c>
       <c r="H65" s="2" t="s">
         <v>171</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="32">
+      <c r="A66" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="32">
+      <c r="A67" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="32">
+      <c r="A68" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="32">
+      <c r="A69" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="32">
+      <c r="A70" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="16">
+      <c r="A71" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="16">
+      <c r="A72" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="16">
+      <c r="A73" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="16">
+      <c r="A74" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="64">
+      <c r="A75" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="16">
+      <c r="A76" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -3922,6 +4531,17 @@
     <hyperlink ref="G63" r:id="rId30" xr:uid="{6CB5F6A4-6266-8745-8ABF-834A77B5DB82}"/>
     <hyperlink ref="G64" r:id="rId31" xr:uid="{CFE95743-0EDD-8E40-A8A0-F984882C50FA}"/>
     <hyperlink ref="G65" r:id="rId32" xr:uid="{1DB044A5-2953-CC4F-8392-5B010494975C}"/>
+    <hyperlink ref="G66" r:id="rId33" xr:uid="{2E2BE611-B19B-864B-81CA-ED12C30C5381}"/>
+    <hyperlink ref="G67" r:id="rId34" xr:uid="{7BE5EE7B-E118-0242-9A9A-1D3F59310915}"/>
+    <hyperlink ref="G68" r:id="rId35" location="51756" xr:uid="{02D186F8-FDBD-EC49-A8A3-FF14990164C8}"/>
+    <hyperlink ref="G69" r:id="rId36" xr:uid="{D4D7764B-4625-6849-A173-ABC063A92FD9}"/>
+    <hyperlink ref="G70" r:id="rId37" xr:uid="{7B699CF3-F7D3-DD42-BCFA-B43EF372F38B}"/>
+    <hyperlink ref="G71" r:id="rId38" xr:uid="{3A4EA812-599C-7544-A5F0-23CA28A2F37F}"/>
+    <hyperlink ref="G72" r:id="rId39" xr:uid="{C00B1E10-5E9E-154D-AB53-5ADB8CCCC7CF}"/>
+    <hyperlink ref="G73" r:id="rId40" xr:uid="{B1D05BCB-7B7E-5C4B-A7C7-46D21228123A}"/>
+    <hyperlink ref="G74" r:id="rId41" xr:uid="{A244D270-7C2F-FC48-AA9E-77923E3F9E9C}"/>
+    <hyperlink ref="G75" r:id="rId42" xr:uid="{F7DB1F5F-687C-9141-9973-65A3BF51552C}"/>
+    <hyperlink ref="G76" r:id="rId43" xr:uid="{F3F64AD5-5A76-7347-A675-056AF03551CD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/db/AiCity-72-Restaurant.xlsx
+++ b/db/AiCity-72-Restaurant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BFAB2C-66E8-CF4B-B005-90A5487DE57D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20B04B0-2299-C242-BE60-48F62D3AA885}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8540" yWindow="7080" windowWidth="34600" windowHeight="17060" xr2:uid="{1AAFA279-DBCD-DA42-8F0D-FE7868FF2730}"/>
+    <workbookView xWindow="10080" yWindow="1400" windowWidth="34600" windowHeight="17060" xr2:uid="{1AAFA279-DBCD-DA42-8F0D-FE7868FF2730}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="566">
   <si>
     <t>no</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2089,6 +2089,255 @@
   </si>
   <si>
     <t>fig/AiCity-910-賣冰.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龜山區-復興北路</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鍋賣局百元小火鍋-林口長庚店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-328-0818</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00 - 23:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/ANGELHOTPOTchanggeng/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>333桃園市龜山區復興北路75號1樓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-910-鍋賣局.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清原芋圓龜山長庚店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>333桃園市龜山區復興北路58號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.q-yuan.com.tw/?fbclid=IwAR2zyY4tKbPUfb30SbPUFrM4qKK8DiYyErWNBqCCNftPfmuQFIuHF1RZYZE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-328-8098</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-910-清原.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00~18:00, 週六日公休</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-910-小木屋.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小木屋鬆餅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>333桃園市龜山區復興北路25號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-327-0715</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:00–21:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/linkoushinemood</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘蔗の媽媽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/%E7%94%98%E8%94%97%E3%81%AE%E5%AA%BD%E5%AA%BD%E6%9E%97%E5%8F%A3%E9%95%B7%E5%BA%9A%E5%BA%97-110600187271444/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-327-4777</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>333桃園市龜山區復興北路6巷15號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00 - 21:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-910-甘蔗.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿琪師湯包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>333桃園市龜山區復興北路6巷號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-910-阿琪師.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00 - 22:00 週日公休</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0975-49-879</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/3villagesss/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三村刈包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0965-070-827</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:30 - 20:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>333桃園市龜山區復興北路6巷21號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-910-三村刈包.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>傻師傅湯包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/%E5%82%BB%E5%B8%AB%E5%82%85%E6%B9%AF%E5%8C%85-%E9%BE%9C%E5%B1%B1%E5%BE%A9%E8%88%88%E5%BA%97-1640280569628363/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-910-傻師傅.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0900-058-553</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>333桃園市龜山區復興北路6巷39號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>07:00 - 21:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>075</t>
+  </si>
+  <si>
+    <t>076</t>
+  </si>
+  <si>
+    <t>077</t>
+  </si>
+  <si>
+    <t>078</t>
+  </si>
+  <si>
+    <t>079</t>
+  </si>
+  <si>
+    <t>080</t>
+  </si>
+  <si>
+    <t>081</t>
+  </si>
+  <si>
+    <t>082</t>
+  </si>
+  <si>
+    <t>072</t>
+  </si>
+  <si>
+    <t>fig/AiCity-910-劉家豆花.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>劉家豆花</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/pages/%E5%8A%89%E5%AE%B6%E8%B1%86%E8%8A%B1/297313863980228</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>333桃園市龜山區復興北路6巷49號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:30 - 22:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0975-748-797</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I99 Coffee 長庚店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+333 桃園市龜山區復興一路212巷32號-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龜山區-復興一路</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-910-i99.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.i99.vip/?fbclid=IwAR3gLp8t1yWnoB-sj2w41hI5klrQr36Zv5SCRnYUN3jViFkDSUPPsSKyRbQ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+03-397-9766</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00 - 22:00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2504,10 +2753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E067DB8E-BE6D-BD40-8262-98D4CCD248C4}">
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="F76" sqref="F76"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86:XFD94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4446,7 +4695,7 @@
     </row>
     <row r="75" spans="1:8" ht="64">
       <c r="A75" s="1" t="s">
-        <v>434</v>
+        <v>552</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>489</v>
@@ -4472,7 +4721,7 @@
     </row>
     <row r="76" spans="1:8" ht="16">
       <c r="A76" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>494</v>
@@ -4494,6 +4743,237 @@
       </c>
       <c r="H76" s="2" t="s">
         <v>424</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="16">
+      <c r="A77" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="16">
+      <c r="A78" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="16">
+      <c r="A79" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="16">
+      <c r="A80" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="16">
+      <c r="A81" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="16">
+      <c r="A82" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="16">
+      <c r="A83" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="16">
+      <c r="A84" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="32">
+      <c r="A85" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>561</v>
       </c>
     </row>
   </sheetData>
@@ -4542,6 +5022,14 @@
     <hyperlink ref="G74" r:id="rId41" xr:uid="{A244D270-7C2F-FC48-AA9E-77923E3F9E9C}"/>
     <hyperlink ref="G75" r:id="rId42" xr:uid="{F7DB1F5F-687C-9141-9973-65A3BF51552C}"/>
     <hyperlink ref="G76" r:id="rId43" xr:uid="{F3F64AD5-5A76-7347-A675-056AF03551CD}"/>
+    <hyperlink ref="G77" r:id="rId44" xr:uid="{7B808A16-9C5B-D94C-81E8-46AFD11DAA8B}"/>
+    <hyperlink ref="G78" r:id="rId45" xr:uid="{B760EFB7-EAAF-EA48-87C1-3533C77A9935}"/>
+    <hyperlink ref="G79" r:id="rId46" xr:uid="{968384FB-1A18-4A4F-8CBD-27769ADC4E4A}"/>
+    <hyperlink ref="G80" r:id="rId47" xr:uid="{704D09EA-DD52-5242-B84F-4497D98C6ED4}"/>
+    <hyperlink ref="G82" r:id="rId48" xr:uid="{A9977D40-898D-A047-A597-F8890E973840}"/>
+    <hyperlink ref="G83" r:id="rId49" xr:uid="{4E792F61-7F80-6C4B-9665-B6B417F7696C}"/>
+    <hyperlink ref="G84" r:id="rId50" xr:uid="{9640B243-AB3F-1241-8664-B498E1955BA8}"/>
+    <hyperlink ref="G85" r:id="rId51" xr:uid="{1EEB7EC7-3232-C74A-B8D4-F766FA226DD6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/db/AiCity-72-Restaurant.xlsx
+++ b/db/AiCity-72-Restaurant.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20B04B0-2299-C242-BE60-48F62D3AA885}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC08444-C010-4647-B2CB-BED1B83440C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10080" yWindow="1400" windowWidth="34600" windowHeight="17060" xr2:uid="{1AAFA279-DBCD-DA42-8F0D-FE7868FF2730}"/>
+    <workbookView xWindow="8900" yWindow="500" windowWidth="39840" windowHeight="17060" xr2:uid="{1AAFA279-DBCD-DA42-8F0D-FE7868FF2730}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="606">
   <si>
     <t>no</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -64,16 +64,9 @@
     <t>category</t>
   </si>
   <si>
-    <t>001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>千葉火鍋</t>
   </si>
   <si>
-    <t>333桃園市龜山區復興一路267號</t>
-  </si>
-  <si>
     <t>03-397-1136</t>
   </si>
   <si>
@@ -89,16 +82,9 @@
     <t>龜山區-復興一路</t>
   </si>
   <si>
-    <t>002</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>一番地-壽喜燒</t>
   </si>
   <si>
-    <t>333桃園市龜山區復興一路368-3號</t>
-  </si>
-  <si>
     <t>03-328-8869</t>
   </si>
   <si>
@@ -117,9 +103,6 @@
     <t>鍋台銘-時尚湯鍋</t>
   </si>
   <si>
-    <t>333桃園市龜山區文化二路91號</t>
-  </si>
-  <si>
     <t>03-397-3999</t>
   </si>
   <si>
@@ -132,18 +115,12 @@
     <t>https://www.guotaiming-hotpot.com/</t>
   </si>
   <si>
-    <t>龜山區-華亞園區</t>
-  </si>
-  <si>
     <t>004</t>
   </si>
   <si>
     <t>家芬火鍋</t>
   </si>
   <si>
-    <t>333桃園市龜山區文化三路551-17號</t>
-  </si>
-  <si>
     <t>03-397-3909</t>
   </si>
   <si>
@@ -162,9 +139,6 @@
     <t>六扇門-時尚湯鍋</t>
   </si>
   <si>
-    <t>333桃園市龜山區文化一路36號</t>
-  </si>
-  <si>
     <t>03-318-6666</t>
   </si>
   <si>
@@ -183,9 +157,6 @@
     <t>港龘港式飲茶</t>
   </si>
   <si>
-    <t>333桃園市龜山區文化三路311號</t>
-  </si>
-  <si>
     <t>03-318-5155</t>
   </si>
   <si>
@@ -204,9 +175,6 @@
     <t>貴族世家</t>
   </si>
   <si>
-    <t>333桃園市龜山區復興北路75號</t>
-  </si>
-  <si>
     <t>03-318-0800</t>
   </si>
   <si>
@@ -222,9 +190,6 @@
     <t>厚切牛排</t>
   </si>
   <si>
-    <t>333桃園市龜山區文化一路26號</t>
-  </si>
-  <si>
     <t>03-397-8729</t>
   </si>
   <si>
@@ -240,9 +205,6 @@
     <t>孫東寶台式牛排</t>
   </si>
   <si>
-    <t>333桃園市龜山區文化二路41號</t>
-  </si>
-  <si>
     <t>03-327-0099</t>
   </si>
   <si>
@@ -261,9 +223,6 @@
     <t>洋朵義式廚坊</t>
   </si>
   <si>
-    <t>333桃園市龜山區復興一路8號</t>
-  </si>
-  <si>
     <t>03-328-1956</t>
   </si>
   <si>
@@ -282,9 +241,6 @@
     <t>布蕾特義式餐廳</t>
   </si>
   <si>
-    <t>333桃園市龜山區文化二路191-1號</t>
-  </si>
-  <si>
     <t>03-397-3673</t>
   </si>
   <si>
@@ -303,9 +259,6 @@
     <t>達美樂 Domino's Pizza</t>
   </si>
   <si>
-    <t>333桃園市龜山區文化二路37號</t>
-  </si>
-  <si>
     <t>03-397-2252</t>
   </si>
   <si>
@@ -321,9 +274,6 @@
     <t>來碗拉麵</t>
   </si>
   <si>
-    <t>333桃園市龜山區文化二路153號</t>
-  </si>
-  <si>
     <t>03-328-2255</t>
   </si>
   <si>
@@ -342,9 +292,6 @@
     <t>11番町豚骨拉麵</t>
   </si>
   <si>
-    <t>333桃園市龜山區文化三路106-1號</t>
-  </si>
-  <si>
     <t>03-396-1370</t>
   </si>
   <si>
@@ -363,27 +310,18 @@
     <t>合浦刀切麵食</t>
   </si>
   <si>
-    <t>333桃園市龜山區文化三路560號</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 03-397-8852</t>
   </si>
   <si>
     <t>fig/AiCity-910-合浦刀切麵食-02.jpeg</t>
   </si>
   <si>
-    <t>龜山區</t>
-  </si>
-  <si>
     <t>016</t>
   </si>
   <si>
     <t>永康豬腳爌肉飯專賣</t>
   </si>
   <si>
-    <t>333桃園市龜山鄉文化三路551號</t>
-  </si>
-  <si>
     <t>03-328-8585</t>
   </si>
   <si>
@@ -402,9 +340,6 @@
     <t>TINA廚房</t>
   </si>
   <si>
-    <t>333桃園市龜山區文化三路646號</t>
-  </si>
-  <si>
     <t>03-318-0607</t>
   </si>
   <si>
@@ -423,9 +358,6 @@
     <t>嚐嚐九九</t>
   </si>
   <si>
-    <t>333桃園市龜山區文化七路175號</t>
-  </si>
-  <si>
     <t>03-396-3223</t>
   </si>
   <si>
@@ -444,9 +376,6 @@
     <t>STARBUCKS 星巴克-林口門市</t>
   </si>
   <si>
-    <t>330桃園市龜山區復興一路202號</t>
-  </si>
-  <si>
     <t>03-327-7817</t>
   </si>
   <si>
@@ -465,9 +394,6 @@
     <t>林口長庚-美食街</t>
   </si>
   <si>
-    <t>333桃園市龜山區復興街5號</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -594,9 +520,6 @@
     <t>築地樂樂町</t>
   </si>
   <si>
-    <t>244新北市林口區文化三路二段67號</t>
-  </si>
-  <si>
     <t>02-2608-9487</t>
   </si>
   <si>
@@ -615,9 +538,6 @@
     <t>村民食堂</t>
   </si>
   <si>
-    <t>330桃園市桃園區中正路1078號</t>
-  </si>
-  <si>
     <t>03-316-3838</t>
   </si>
   <si>
@@ -636,9 +556,6 @@
     <t>河馬水產</t>
   </si>
   <si>
-    <t>320桃園市中壢區高鐵北路二段2號</t>
-  </si>
-  <si>
     <t>03-287-3600</t>
   </si>
   <si>
@@ -678,9 +595,6 @@
     <t>圓明園-花園海鮮會館</t>
   </si>
   <si>
-    <t>242新北市新莊區中原路399號</t>
-  </si>
-  <si>
     <t>02-8992-5566</t>
   </si>
   <si>
@@ -694,10 +608,6 @@
   </si>
   <si>
     <t>新莊區</t>
-  </si>
-  <si>
-    <t>034</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>華漾點心</t>
@@ -1080,10 +990,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>045</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>漢來海港餐廳</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1736,19 +1642,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 新北市林口區文化一路二段131號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>02-8601-8808</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>11:00 - 14:00 、17:00 - 22:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>062</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2112,10 +2010,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>333桃園市龜山區復興北路75號1樓</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>fig/AiCity-910-鍋賣局.jpg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2124,10 +2018,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>333桃園市龜山區復興北路58號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.q-yuan.com.tw/?fbclid=IwAR2zyY4tKbPUfb30SbPUFrM4qKK8DiYyErWNBqCCNftPfmuQFIuHF1RZYZE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2152,10 +2042,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>333桃園市龜山區復興北路25號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>03-327-0715</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2180,10 +2066,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>333桃園市龜山區復興北路6巷15號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>10:00 - 21:30</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2196,10 +2078,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>333桃園市龜山區復興北路6巷號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>fig/AiCity-910-阿琪師.jpg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2228,10 +2106,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>333桃園市龜山區復興北路6巷21號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>fig/AiCity-910-三村刈包.jpg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2252,10 +2126,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>333桃園市龜山區復興北路6巷39號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>07:00 - 21:00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2299,10 +2169,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>333桃園市龜山區復興北路6巷49號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>11:30 - 22:30</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2312,11 +2178,6 @@
   </si>
   <si>
     <t>I99 Coffee 長庚店</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-333 桃園市龜山區復興一路212巷32號-3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2339,6 +2200,319 @@
   <si>
     <t>11:00 - 22:00</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龜山區-文化路</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新北市林口區文化三路二段67號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新北市林口區文化一路二段131號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市中壢區高鐵北路二段2號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市桃園區中正路1078號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新北市新莊區中原路399號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區文化三路560號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區復興一路212巷32號-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區復興一路202號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區文化一路26號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區文化一路36號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區文化二路37號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區文化三路106-1號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區文化三路311號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區復興一路267號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區復興一路368-3號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區復興一路8號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區復興街5號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區復興北路75號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區復興北路25號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區復興北路58號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區復興北路6巷15號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區復興北路6巷21號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區復興北路6巷39號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區復興北路6巷49號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區復興北路6巷號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區復興北路75號1樓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區文化七路175號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區文化二路153號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區文化二路191-1號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區文化二路41號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區文化二路91號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區文化三路551-17號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區文化三路646號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山鄉文化三路551號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>麵食餐館</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本料理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中式料理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>點心冰品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>無限自助餐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火鍋燒烤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>義大利餐廳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰式餐廳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>034</t>
+  </si>
+  <si>
+    <t>045</t>
+  </si>
+  <si>
+    <t>056</t>
+  </si>
+  <si>
+    <t>062</t>
+  </si>
+  <si>
+    <t>083</t>
+  </si>
+  <si>
+    <t>084</t>
+  </si>
+  <si>
+    <t>拿坡里披薩 林口店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區文化三路320號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-328-8559</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00 - 21:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.0800076666.com.tw/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-910-拿坡里.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>必勝客Pizza Hut</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區復興一路290號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-318-1388</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.pizzahut.com.tw/?utm_source=GoogleMyBusiness&amp;utm_medium=organic&amp;utm_campaign=GMB_202007</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-910-PizzaHut.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>澎湖灣平價海鮮餐廳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區文化三路140號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-328-4368</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00–14:00, 17:00–22:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/%E6%BE%8E%E6%B9%96%E7%81%A3%E5%B9%B3%E5%83%B9%E6%B5%B7%E9%AE%AE%E9%A4%90%E5%BB%B3-108479787548057/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-910-澎湖灣.jpeg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一畝園</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區文化三路366號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-328-5666</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00–14:30, 17:00–21:00 週一公休</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-910-一畝園.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://spot.line.me/detail/486247068927531405</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>085</t>
+  </si>
+  <si>
+    <t>086</t>
+  </si>
+  <si>
+    <t>087</t>
+  </si>
+  <si>
+    <t>088</t>
   </si>
 </sst>
 </file>
@@ -2423,7 +2597,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2438,6 +2612,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2753,26 +2928,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E067DB8E-BE6D-BD40-8262-98D4CCD248C4}">
-  <dimension ref="A1:H85"/>
+  <dimension ref="A1:J89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86:XFD94"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="61" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24" style="2" customWidth="1"/>
-    <col min="5" max="5" width="41.1640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="45.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="49.5" style="2" customWidth="1"/>
-    <col min="8" max="9" width="16" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="2"/>
+    <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="61" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24" style="2" customWidth="1"/>
+    <col min="6" max="6" width="41.1640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="49.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2780,2256 +2957,2689 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="J1" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>570</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>563</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="G4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="64">
+      <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" ht="16">
+      <c r="A9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" ht="33">
+      <c r="A10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="B10" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" ht="32">
+      <c r="A11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" ht="32">
+      <c r="A15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" ht="16">
+      <c r="A16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="1:10" ht="32">
+      <c r="A17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:10" ht="16">
+      <c r="A18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="1:10" ht="16">
+      <c r="A19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:10" ht="32">
+      <c r="A20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="1:10" ht="32">
+      <c r="A21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" ht="32">
+      <c r="A22" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="1:10" ht="16">
+      <c r="A23" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="1:10" ht="64">
+      <c r="A24" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:10" ht="16">
+      <c r="A25" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="1:10" ht="32">
+      <c r="A26" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="1:10" ht="16">
+      <c r="A27" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="H43" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="I43" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C29" s="2" t="s">
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="C44" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="G44" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="H44" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="1" t="s">
+      <c r="I44" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="64">
-      <c r="A34" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="G38" s="4" t="s">
+    </row>
+    <row r="45" spans="1:10" ht="16">
+      <c r="A45" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="1" t="s">
+      <c r="B45" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="J45" s="6"/>
+    </row>
+    <row r="46" spans="1:10" ht="16">
+      <c r="A46" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="J46" s="6"/>
+    </row>
+    <row r="47" spans="1:10" ht="16">
+      <c r="A47" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B42" s="2" t="s">
+      <c r="B47" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="J47" s="6"/>
+    </row>
+    <row r="48" spans="1:10" ht="32">
+      <c r="A48" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B43" s="2" t="s">
+      <c r="B48" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="J48" s="6"/>
+    </row>
+    <row r="49" spans="1:10" ht="16">
+      <c r="A49" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="F44" s="2" t="s">
+      <c r="B49" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="J49" s="6"/>
+    </row>
+    <row r="50" spans="1:10" ht="32">
+      <c r="A50" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="G44" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="E45" s="2" t="s">
+      <c r="B50" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="J50" s="6"/>
+    </row>
+    <row r="51" spans="1:10" ht="16">
+      <c r="A51" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="32">
-      <c r="A46" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="33">
-      <c r="A47" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="16">
-      <c r="A48" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>295</v>
+      <c r="C51" s="8" t="s">
+        <v>565</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>326</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="F51" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="F51" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="H51" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="H51" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="48">
+      <c r="I51" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="J51" s="6"/>
+    </row>
+    <row r="52" spans="1:10" ht="48">
       <c r="A52" s="1" t="s">
-        <v>330</v>
+        <v>294</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>338</v>
+        <v>307</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>565</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="32">
+        <v>308</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="J52" s="6"/>
+    </row>
+    <row r="53" spans="1:10" ht="16">
       <c r="A53" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>344</v>
+      <c r="C53" s="1" t="s">
+        <v>564</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="48">
+        <v>332</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="J53" s="6"/>
+    </row>
+    <row r="54" spans="1:10" ht="48">
       <c r="A54" s="1" t="s">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>350</v>
+        <v>319</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>565</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="16">
+        <v>320</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="J54" s="6"/>
+    </row>
+    <row r="55" spans="1:10" ht="32">
       <c r="A55" s="1" t="s">
-        <v>333</v>
+        <v>302</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>356</v>
+        <v>361</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>565</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="16">
+        <v>364</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="J55" s="6"/>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>334</v>
+        <v>303</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>362</v>
+        <v>49</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>567</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>366</v>
+        <v>534</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>365</v>
+        <v>16</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="16">
+        <v>52</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>335</v>
+        <v>575</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>368</v>
+        <v>32</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>567</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>371</v>
+        <v>535</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>370</v>
+        <v>34</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="16">
+        <v>36</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>336</v>
+        <v>304</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="B61" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="16">
+      <c r="A64" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="16">
+      <c r="A66" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="16">
+      <c r="A67" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="32">
+      <c r="A74" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="C74" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E74" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="F74" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="F58" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="G58" s="6" t="s">
+      <c r="G74" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="H74" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="H58" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="16">
-      <c r="A59" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="32">
-      <c r="A60" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="32">
-      <c r="A61" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="16">
-      <c r="A62" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="32">
-      <c r="A63" s="1" t="s">
+      <c r="I74" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J74" s="6"/>
+    </row>
+    <row r="75" spans="1:10" ht="32">
+      <c r="A75" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="H63" s="2" t="s">
+      <c r="B75" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="J75" s="6"/>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="16">
+      <c r="A77" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" ht="16">
-      <c r="A64" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="32">
-      <c r="A65" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="32">
-      <c r="A66" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="32">
-      <c r="A67" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="32">
-      <c r="A68" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="32">
-      <c r="A69" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="32">
-      <c r="A70" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="G70" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="16">
-      <c r="A71" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="F71" s="2" t="s">
+      <c r="F78" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="16">
+      <c r="A81" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="I81" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="G71" s="6" t="s">
+      <c r="J81" s="6"/>
+    </row>
+    <row r="82" spans="1:10" ht="16">
+      <c r="A82" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="J82" s="6"/>
+    </row>
+    <row r="83" spans="1:10" ht="16">
+      <c r="A83" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="J83" s="6"/>
+    </row>
+    <row r="84" spans="1:10" ht="16">
+      <c r="A84" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="J84" s="6"/>
+    </row>
+    <row r="85" spans="1:10" ht="16">
+      <c r="A85" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="J85" s="6"/>
+    </row>
+    <row r="86" spans="1:10" ht="16">
+      <c r="A86" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="J86" s="6"/>
+    </row>
+    <row r="87" spans="1:10" ht="16">
+      <c r="A87" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="16">
+      <c r="A89" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="H71" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="16">
-      <c r="A72" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="B72" s="2" t="s">
+      <c r="C89" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="F89" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="G89" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="H89" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="E72" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="16">
-      <c r="A73" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="G73" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="16">
-      <c r="A74" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="64">
-      <c r="A75" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="16">
-      <c r="A76" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="16">
-      <c r="A77" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="G77" s="6" t="s">
-        <v>506</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="16">
-      <c r="A78" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="G78" s="6" t="s">
-        <v>511</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="16">
-      <c r="A79" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="G79" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="16">
-      <c r="A80" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>522</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="16">
-      <c r="A81" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="E81" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="16">
-      <c r="A82" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="G82" s="6" t="s">
-        <v>532</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="16">
-      <c r="A83" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="G83" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="16">
-      <c r="A84" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="G84" s="6" t="s">
-        <v>555</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="32">
-      <c r="A85" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>565</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="G85" s="6" t="s">
-        <v>563</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>561</v>
-      </c>
+      <c r="I89" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="J89" s="6"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J89">
+    <sortCondition ref="I2:I89"/>
+    <sortCondition ref="D2:D89"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G34" r:id="rId1" xr:uid="{888884B7-DD2F-EC40-8B89-A0B40F7B4538}"/>
-    <hyperlink ref="G35" r:id="rId2" xr:uid="{F1B55455-7154-F540-874B-6E233BA227BC}"/>
-    <hyperlink ref="G36" r:id="rId3" xr:uid="{A92963D2-0211-6845-AA2A-FCCEEFF7851A}"/>
-    <hyperlink ref="G38" r:id="rId4" xr:uid="{9B3FF564-1F19-A34B-A899-A20D7581056D}"/>
-    <hyperlink ref="G37" r:id="rId5" xr:uid="{BB259414-9186-2A48-B039-25F2DB09EED0}"/>
-    <hyperlink ref="G39" r:id="rId6" xr:uid="{2566BBDB-2CAD-5F4E-A8E1-F7A346EB58FF}"/>
-    <hyperlink ref="G40" r:id="rId7" xr:uid="{868C2E93-4BE1-FF4E-8704-CAD0B0B5FB5E}"/>
-    <hyperlink ref="G41" r:id="rId8" xr:uid="{A6FD8CDE-ACEB-FD40-9BF1-3F8DB3F4651E}"/>
-    <hyperlink ref="G43" r:id="rId9" xr:uid="{7C3BD908-1146-7940-B467-385355D0B54D}"/>
-    <hyperlink ref="G42" r:id="rId10" xr:uid="{913A8024-8610-134D-94D0-8676D357AD56}"/>
-    <hyperlink ref="G44" r:id="rId11" xr:uid="{70A1F7DE-B062-E943-8045-EE9A16C8C7AE}"/>
-    <hyperlink ref="G45" r:id="rId12" xr:uid="{B61C32CF-65DE-5D45-922F-EF85040EC17D}"/>
-    <hyperlink ref="G46" r:id="rId13" xr:uid="{FDA925B5-456C-174D-A520-BF6A25282571}"/>
-    <hyperlink ref="G47" r:id="rId14" xr:uid="{D8FAF5B1-45FC-4D4B-9A8A-2BFE23534C33}"/>
-    <hyperlink ref="G48" r:id="rId15" xr:uid="{04B17B47-6255-F646-90E7-97A5B61D9D1C}"/>
-    <hyperlink ref="G49" r:id="rId16" xr:uid="{90038BA7-E075-0440-A96D-EA6ACC7FD191}"/>
-    <hyperlink ref="G50" r:id="rId17" xr:uid="{5316EB1A-A470-B64F-A2F7-637436A96606}"/>
-    <hyperlink ref="G51" r:id="rId18" xr:uid="{6FA5AFA1-22DA-D848-929C-A04ED36DAE9C}"/>
-    <hyperlink ref="G52" r:id="rId19" xr:uid="{0F56A368-05DC-0046-A036-15A5A9522952}"/>
-    <hyperlink ref="G53" r:id="rId20" xr:uid="{9DC77239-72AD-1A40-93F3-F8C653039533}"/>
-    <hyperlink ref="G54" r:id="rId21" xr:uid="{02BCB13E-490C-5A49-B385-D01FC01F5A3B}"/>
-    <hyperlink ref="G55" r:id="rId22" xr:uid="{5D78D208-C834-DC4D-87CE-7718DC1647F2}"/>
-    <hyperlink ref="G56" r:id="rId23" xr:uid="{B69E3BA3-5461-EE40-BA4E-41A5BE1E7BF4}"/>
-    <hyperlink ref="G57" r:id="rId24" xr:uid="{B62A6D1F-5DF0-A643-BD46-EC9EB0884BB7}"/>
-    <hyperlink ref="G58" r:id="rId25" xr:uid="{FC29BA63-1C7C-5644-A653-C892769FAC75}"/>
-    <hyperlink ref="G59" r:id="rId26" xr:uid="{DCC13ED3-9E8E-DA4D-91D1-75A7931C642A}"/>
-    <hyperlink ref="G60" r:id="rId27" xr:uid="{0D9C681C-5B99-484C-BFFE-EF206CDCCCD9}"/>
-    <hyperlink ref="G61" r:id="rId28" xr:uid="{BB4D8478-DB58-4541-B1EB-38CC918B98D4}"/>
-    <hyperlink ref="G62" r:id="rId29" xr:uid="{BC3F325E-FC97-4046-8121-C76DBBF7A70C}"/>
-    <hyperlink ref="G63" r:id="rId30" xr:uid="{6CB5F6A4-6266-8745-8ABF-834A77B5DB82}"/>
-    <hyperlink ref="G64" r:id="rId31" xr:uid="{CFE95743-0EDD-8E40-A8A0-F984882C50FA}"/>
-    <hyperlink ref="G65" r:id="rId32" xr:uid="{1DB044A5-2953-CC4F-8392-5B010494975C}"/>
-    <hyperlink ref="G66" r:id="rId33" xr:uid="{2E2BE611-B19B-864B-81CA-ED12C30C5381}"/>
-    <hyperlink ref="G67" r:id="rId34" xr:uid="{7BE5EE7B-E118-0242-9A9A-1D3F59310915}"/>
-    <hyperlink ref="G68" r:id="rId35" location="51756" xr:uid="{02D186F8-FDBD-EC49-A8A3-FF14990164C8}"/>
-    <hyperlink ref="G69" r:id="rId36" xr:uid="{D4D7764B-4625-6849-A173-ABC063A92FD9}"/>
-    <hyperlink ref="G70" r:id="rId37" xr:uid="{7B699CF3-F7D3-DD42-BCFA-B43EF372F38B}"/>
-    <hyperlink ref="G71" r:id="rId38" xr:uid="{3A4EA812-599C-7544-A5F0-23CA28A2F37F}"/>
-    <hyperlink ref="G72" r:id="rId39" xr:uid="{C00B1E10-5E9E-154D-AB53-5ADB8CCCC7CF}"/>
-    <hyperlink ref="G73" r:id="rId40" xr:uid="{B1D05BCB-7B7E-5C4B-A7C7-46D21228123A}"/>
-    <hyperlink ref="G74" r:id="rId41" xr:uid="{A244D270-7C2F-FC48-AA9E-77923E3F9E9C}"/>
-    <hyperlink ref="G75" r:id="rId42" xr:uid="{F7DB1F5F-687C-9141-9973-65A3BF51552C}"/>
-    <hyperlink ref="G76" r:id="rId43" xr:uid="{F3F64AD5-5A76-7347-A675-056AF03551CD}"/>
-    <hyperlink ref="G77" r:id="rId44" xr:uid="{7B808A16-9C5B-D94C-81E8-46AFD11DAA8B}"/>
-    <hyperlink ref="G78" r:id="rId45" xr:uid="{B760EFB7-EAAF-EA48-87C1-3533C77A9935}"/>
-    <hyperlink ref="G79" r:id="rId46" xr:uid="{968384FB-1A18-4A4F-8CBD-27769ADC4E4A}"/>
-    <hyperlink ref="G80" r:id="rId47" xr:uid="{704D09EA-DD52-5242-B84F-4497D98C6ED4}"/>
-    <hyperlink ref="G82" r:id="rId48" xr:uid="{A9977D40-898D-A047-A597-F8890E973840}"/>
-    <hyperlink ref="G83" r:id="rId49" xr:uid="{4E792F61-7F80-6C4B-9665-B6B417F7696C}"/>
-    <hyperlink ref="G84" r:id="rId50" xr:uid="{9640B243-AB3F-1241-8664-B498E1955BA8}"/>
-    <hyperlink ref="G85" r:id="rId51" xr:uid="{1EEB7EC7-3232-C74A-B8D4-F766FA226DD6}"/>
+    <hyperlink ref="H7" r:id="rId1" xr:uid="{888884B7-DD2F-EC40-8B89-A0B40F7B4538}"/>
+    <hyperlink ref="H40" r:id="rId2" xr:uid="{F1B55455-7154-F540-874B-6E233BA227BC}"/>
+    <hyperlink ref="H30" r:id="rId3" xr:uid="{A92963D2-0211-6845-AA2A-FCCEEFF7851A}"/>
+    <hyperlink ref="H38" r:id="rId4" xr:uid="{9B3FF564-1F19-A34B-A899-A20D7581056D}"/>
+    <hyperlink ref="H28" r:id="rId5" xr:uid="{BB259414-9186-2A48-B039-25F2DB09EED0}"/>
+    <hyperlink ref="H39" r:id="rId6" xr:uid="{2566BBDB-2CAD-5F4E-A8E1-F7A346EB58FF}"/>
+    <hyperlink ref="H31" r:id="rId7" xr:uid="{868C2E93-4BE1-FF4E-8704-CAD0B0B5FB5E}"/>
+    <hyperlink ref="H32" r:id="rId8" xr:uid="{A6FD8CDE-ACEB-FD40-9BF1-3F8DB3F4651E}"/>
+    <hyperlink ref="H33" r:id="rId9" xr:uid="{7C3BD908-1146-7940-B467-385355D0B54D}"/>
+    <hyperlink ref="H29" r:id="rId10" xr:uid="{913A8024-8610-134D-94D0-8676D357AD56}"/>
+    <hyperlink ref="H34" r:id="rId11" xr:uid="{70A1F7DE-B062-E943-8045-EE9A16C8C7AE}"/>
+    <hyperlink ref="H8" r:id="rId12" xr:uid="{B61C32CF-65DE-5D45-922F-EF85040EC17D}"/>
+    <hyperlink ref="H11" r:id="rId13" xr:uid="{FDA925B5-456C-174D-A520-BF6A25282571}"/>
+    <hyperlink ref="H10" r:id="rId14" xr:uid="{D8FAF5B1-45FC-4D4B-9A8A-2BFE23534C33}"/>
+    <hyperlink ref="H9" r:id="rId15" xr:uid="{04B17B47-6255-F646-90E7-97A5B61D9D1C}"/>
+    <hyperlink ref="H12" r:id="rId16" xr:uid="{90038BA7-E075-0440-A96D-EA6ACC7FD191}"/>
+    <hyperlink ref="H13" r:id="rId17" xr:uid="{5316EB1A-A470-B64F-A2F7-637436A96606}"/>
+    <hyperlink ref="H14" r:id="rId18" xr:uid="{6FA5AFA1-22DA-D848-929C-A04ED36DAE9C}"/>
+    <hyperlink ref="H52" r:id="rId19" xr:uid="{0F56A368-05DC-0046-A036-15A5A9522952}"/>
+    <hyperlink ref="H50" r:id="rId20" xr:uid="{9DC77239-72AD-1A40-93F3-F8C653039533}"/>
+    <hyperlink ref="H54" r:id="rId21" xr:uid="{02BCB13E-490C-5A49-B385-D01FC01F5A3B}"/>
+    <hyperlink ref="H51" r:id="rId22" xr:uid="{5D78D208-C834-DC4D-87CE-7718DC1647F2}"/>
+    <hyperlink ref="H53" r:id="rId23" xr:uid="{B69E3BA3-5461-EE40-BA4E-41A5BE1E7BF4}"/>
+    <hyperlink ref="H46" r:id="rId24" xr:uid="{B62A6D1F-5DF0-A643-BD46-EC9EB0884BB7}"/>
+    <hyperlink ref="H45" r:id="rId25" xr:uid="{FC29BA63-1C7C-5644-A653-C892769FAC75}"/>
+    <hyperlink ref="H49" r:id="rId26" xr:uid="{DCC13ED3-9E8E-DA4D-91D1-75A7931C642A}"/>
+    <hyperlink ref="H48" r:id="rId27" xr:uid="{0D9C681C-5B99-484C-BFFE-EF206CDCCCD9}"/>
+    <hyperlink ref="H55" r:id="rId28" xr:uid="{BB4D8478-DB58-4541-B1EB-38CC918B98D4}"/>
+    <hyperlink ref="H47" r:id="rId29" xr:uid="{BC3F325E-FC97-4046-8121-C76DBBF7A70C}"/>
+    <hyperlink ref="H74" r:id="rId30" xr:uid="{6CB5F6A4-6266-8745-8ABF-834A77B5DB82}"/>
+    <hyperlink ref="H27" r:id="rId31" xr:uid="{CFE95743-0EDD-8E40-A8A0-F984882C50FA}"/>
+    <hyperlink ref="H26" r:id="rId32" xr:uid="{1DB044A5-2953-CC4F-8392-5B010494975C}"/>
+    <hyperlink ref="H20" r:id="rId33" xr:uid="{2E2BE611-B19B-864B-81CA-ED12C30C5381}"/>
+    <hyperlink ref="H22" r:id="rId34" xr:uid="{7BE5EE7B-E118-0242-9A9A-1D3F59310915}"/>
+    <hyperlink ref="H21" r:id="rId35" location="51756" xr:uid="{02D186F8-FDBD-EC49-A8A3-FF14990164C8}"/>
+    <hyperlink ref="H17" r:id="rId36" xr:uid="{D4D7764B-4625-6849-A173-ABC063A92FD9}"/>
+    <hyperlink ref="H15" r:id="rId37" xr:uid="{7B699CF3-F7D3-DD42-BCFA-B43EF372F38B}"/>
+    <hyperlink ref="H23" r:id="rId38" xr:uid="{3A4EA812-599C-7544-A5F0-23CA28A2F37F}"/>
+    <hyperlink ref="H25" r:id="rId39" xr:uid="{C00B1E10-5E9E-154D-AB53-5ADB8CCCC7CF}"/>
+    <hyperlink ref="H18" r:id="rId40" xr:uid="{B1D05BCB-7B7E-5C4B-A7C7-46D21228123A}"/>
+    <hyperlink ref="H19" r:id="rId41" xr:uid="{A244D270-7C2F-FC48-AA9E-77923E3F9E9C}"/>
+    <hyperlink ref="H24" r:id="rId42" xr:uid="{F7DB1F5F-687C-9141-9973-65A3BF51552C}"/>
+    <hyperlink ref="H16" r:id="rId43" xr:uid="{F3F64AD5-5A76-7347-A675-056AF03551CD}"/>
+    <hyperlink ref="H89" r:id="rId44" xr:uid="{7B808A16-9C5B-D94C-81E8-46AFD11DAA8B}"/>
+    <hyperlink ref="H82" r:id="rId45" xr:uid="{B760EFB7-EAAF-EA48-87C1-3533C77A9935}"/>
+    <hyperlink ref="H81" r:id="rId46" xr:uid="{968384FB-1A18-4A4F-8CBD-27769ADC4E4A}"/>
+    <hyperlink ref="H83" r:id="rId47" xr:uid="{704D09EA-DD52-5242-B84F-4497D98C6ED4}"/>
+    <hyperlink ref="H84" r:id="rId48" xr:uid="{A9977D40-898D-A047-A597-F8890E973840}"/>
+    <hyperlink ref="H85" r:id="rId49" xr:uid="{4E792F61-7F80-6C4B-9665-B6B417F7696C}"/>
+    <hyperlink ref="H86" r:id="rId50" xr:uid="{9640B243-AB3F-1241-8664-B498E1955BA8}"/>
+    <hyperlink ref="H75" r:id="rId51" xr:uid="{1EEB7EC7-3232-C74A-B8D4-F766FA226DD6}"/>
+    <hyperlink ref="H66" r:id="rId52" xr:uid="{2982BCF7-83FA-DF42-8E77-65A98FEF0D97}"/>
+    <hyperlink ref="H77" r:id="rId53" xr:uid="{0C3EA1BA-1C76-F34B-BAFC-DF3F07FE7E3C}"/>
+    <hyperlink ref="H64" r:id="rId54" xr:uid="{F982A45B-F644-B64B-87EC-0810B78786A5}"/>
+    <hyperlink ref="H67" r:id="rId55" xr:uid="{D2634F17-366F-9740-84F6-0D60A7B20722}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/db/AiCity-72-Restaurant.xlsx
+++ b/db/AiCity-72-Restaurant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC08444-C010-4647-B2CB-BED1B83440C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B74619-801E-1F44-AC5C-CF911673169F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8900" yWindow="500" windowWidth="39840" windowHeight="17060" xr2:uid="{1AAFA279-DBCD-DA42-8F0D-FE7868FF2730}"/>
+    <workbookView xWindow="1220" yWindow="11240" windowWidth="48820" windowHeight="17060" xr2:uid="{1AAFA279-DBCD-DA42-8F0D-FE7868FF2730}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="687">
   <si>
     <t>no</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -100,9 +100,6 @@
     <t>003</t>
   </si>
   <si>
-    <t>鍋台銘-時尚湯鍋</t>
-  </si>
-  <si>
     <t>03-397-3999</t>
   </si>
   <si>
@@ -154,9 +151,6 @@
     <t>006</t>
   </si>
   <si>
-    <t>港龘港式飲茶</t>
-  </si>
-  <si>
     <t>03-318-5155</t>
   </si>
   <si>
@@ -202,9 +196,6 @@
     <t>009</t>
   </si>
   <si>
-    <t>孫東寶台式牛排</t>
-  </si>
-  <si>
     <t>03-327-0099</t>
   </si>
   <si>
@@ -271,9 +262,6 @@
     <t>013</t>
   </si>
   <si>
-    <t>來碗拉麵</t>
-  </si>
-  <si>
     <t>03-328-2255</t>
   </si>
   <si>
@@ -286,12 +274,6 @@
     <t>https://www.facebook.com/pages/category/Food---Beverage-Company/%E4%BE%86%E7%A2%97%E6%8B%89%E9%BA%B5-%E6%9E%97%E5%8F%A3%E5%BA%97-843813859063434/</t>
   </si>
   <si>
-    <t>014</t>
-  </si>
-  <si>
-    <t>11番町豚骨拉麵</t>
-  </si>
-  <si>
     <t>03-396-1370</t>
   </si>
   <si>
@@ -355,9 +337,6 @@
     <t>018</t>
   </si>
   <si>
-    <t>嚐嚐九九</t>
-  </si>
-  <si>
     <t>03-396-3223</t>
   </si>
   <si>
@@ -373,9 +352,6 @@
     <t>019</t>
   </si>
   <si>
-    <t>STARBUCKS 星巴克-林口門市</t>
-  </si>
-  <si>
     <t>03-327-7817</t>
   </si>
   <si>
@@ -427,9 +403,6 @@
     <t>022</t>
   </si>
   <si>
-    <t>朱記 餡餅粥</t>
-  </si>
-  <si>
     <t>2F 饗悠活 22012</t>
   </si>
   <si>
@@ -469,9 +442,6 @@
     <t>026</t>
   </si>
   <si>
-    <t>瓦城泰國料理-三井店</t>
-  </si>
-  <si>
     <t>新北市林口區文化三路一段356號2樓</t>
   </si>
   <si>
@@ -487,9 +457,6 @@
     <t>027</t>
   </si>
   <si>
-    <t>欣葉小聚-三井店</t>
-  </si>
-  <si>
     <t>02-2608-4988</t>
   </si>
   <si>
@@ -502,9 +469,6 @@
     <t>028</t>
   </si>
   <si>
-    <t>點水樓-三井店</t>
-  </si>
-  <si>
     <t>02-2608-6969</t>
   </si>
   <si>
@@ -535,9 +499,6 @@
     <t>030</t>
   </si>
   <si>
-    <t>村民食堂</t>
-  </si>
-  <si>
     <t>03-316-3838</t>
   </si>
   <si>
@@ -553,9 +514,6 @@
     <t>031</t>
   </si>
   <si>
-    <t>河馬水產</t>
-  </si>
-  <si>
     <t>03-287-3600</t>
   </si>
   <si>
@@ -571,9 +529,6 @@
     <t>032</t>
   </si>
   <si>
-    <t>阿基師藝文茶樓-桃園福容飯店</t>
-  </si>
-  <si>
     <t>330桃園市桃園區大興西路一段200號</t>
   </si>
   <si>
@@ -590,9 +545,6 @@
   </si>
   <si>
     <t>033</t>
-  </si>
-  <si>
-    <t>圓明園-花園海鮮會館</t>
   </si>
   <si>
     <t>02-8992-5566</t>
@@ -1277,23 +1229,6 @@
     <t>051</t>
   </si>
   <si>
-    <r>
-      <t>NINI 尼尼義大利餐廳</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>03-222-3272</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1803,31 +1738,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>點心願 林口店</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fig/AiCity-910-點心願.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新北市林口區八德路366號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>02-2608-0003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>02-2608-8167</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>週一至週日 11:00~14:00 17:00~22:00 不定期公休</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.gomaji.com/store/141212?pid=250535</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2513,6 +2424,596 @@
   </si>
   <si>
     <t>088</t>
+  </si>
+  <si>
+    <t>朱記 餡餅粥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿基師藝文茶樓-桃園福容飯店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NINI 尼尼義大利餐廳</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦城泰國料理-三井店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>欣葉小聚-三井店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>點水樓-三井店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>河馬水產</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>村民食堂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圓明園-花園海鮮會館</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   &lt;a href="https://www.walkerland.com.tw/article/view/250686?page=full"&gt;網路介紹&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>來碗拉麵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孫東寶台式牛排</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鍋台銘-時尚湯鍋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11番町豚骨拉麵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>港龘港式飲茶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嚐嚐九九</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STARBUCKS 星巴克-林口門市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>洋朵義式廚坊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a href="https://wen4899.pixnet.net/blog/post/219177768"&gt;網路介紹&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a href="https://vivawei.tw/sugarcane-mamama/"&gt;網路介紹&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a href="https://vivawei.tw/3villagesss/"&gt;網路介紹&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a href="https://www.facebook.com/1640280569628363/posts/2044433485879734/"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a href="https://www.viviyu.com/archives/30655"&gt;網路介紹&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a href="https://tenjo.tw/aqishi-xiaolongbao/"&gt;台北店介紹&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a href="http://www.noble.com.tw/index.php/menu/refinement-foodmenu"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a href="http://www.saboten.com.tw/goods.php?act=list&amp;cid=1"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="https://www.yentlpasta.com.tw/menu/18"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="https://www.zhujishop.com.tw/index.php?type=top&amp;arem=157"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a href="https://www.thaitown.com.tw/tw/menu"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="file/RES-101-阿基師.pdf"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a href="https://www.hwayoung.com/upload/files/a8global_menu.pdf"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a href="http://www.hilai-foods.com/zh_TW/brand/harbour"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a href="https://icard.ai/shop/reward/channel%2F5f7aeef696c1f49bcc713377?type=channel_concept%2F5f6ab11b3d97d93195e6707c"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="http://www.hilai-foods.com/my-account/Olivia/newyear/2021Tao%20Yuan%20Tang%20Bao%20Cai%20Dan%20.jpg"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="http://www.hilai-foods.com/Roast%20Duck/Shang%20Cai%20Dan%20Dian%20Cai%20Dan%20.pdf"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a href="https://www.syabuyo.com.tw/store_detail.php?id=6&amp;area="&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a href="https://www.yakiyan.com/pdf/2102/yakiyan_menu.pdf"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="https://www.facebook.com/ninigarden/menu/?ref=page_internal"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="https://www.facebook.com/ZiaBing/photos/p.2680339398749724/2680339398749724"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="https://www.facebook.com/pappis0226088167/menu"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="https://www.facebook.com/gfood51/menu"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a href="https://www.facebook.com/freakscafebistrolk/menu/?ref=page_internal"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a href="https://www.facebook.com/1971298456236144/photos/p.2094527287246593/2094527287246593"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a href="https://www.facebook.com/bravoburgerlinkou/menu"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="https://www.facebook.com/meiligreen384/posts/188181188420999/"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="https://www.gomaji.com/store/111390"&gt;Gomaji 介紹&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="https://www.facebook.com/bluelampcafe/photos/p.1074693843056553/1074693843056553"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="https://editordiary.pixnet.net/blog/post/218296050"&gt;痞客邦 介紹&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="https://www.facebook.com/thecafeby2/menu"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="https://www.facebook.com/media/set/?set=a.430675527120156.1073741838.138245503029828&amp;type=3&amp;uploaded=14"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊: &lt;a href="https://www.gyukatsu-motomura.com/zh/menu"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="https://www.facebook.com/TsuruhashiFugetsuTaiwan/photos/pcb.2683771331941236/2683771135274589/"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="https://www.leeleelin.com/2016/07/tonchin-menu.html"&gt;旅攝生活 介紹&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+ 網路資訊:  &lt;a href="https://www.tendon.kingoshou.com/products/1/1.htm"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+ 網路資訊:   &lt;a href="https://paul1889-dessert-togo.cashier.ecpay.com.tw/"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="https://g8906011.pixnet.net/blog/post/491175209"&gt;痞客邦 介紹&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="http://www.kua-aina.tw/zh_TW/gallery-content/node/1452062353001"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="https://www.thaitown.com.tw/tw/menu#section-1"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="https://www.shinyeh.com.tw/content/zh/brand/Menu.aspx?BrandId=3#tabpanel_1"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="http://www.dianshuilou.com.tw/Foods_2_a_1.aspx?s=7"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="https://www.kurasushi.tw/products"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="https://shop.thesecretcake.com.tw/product.php?mid=8"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+ 網路資訊:   &lt;a href="https://www.gomaji.com/store/87820?gclid=Cj0KCQjw9YWDBhDyARIsADt6sGZ_ONKpfV-UYHQSqgC1Dgrj8BQMXo07eHu2lMfRk32q3yY8aDZaglgaAlSMEALw_wcB"&gt;Gomaji 介紹&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="https://www.facebook.com/LakuLakuMachi/photos/p.833949060055696/833949060055696"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="https://www.facebook.com/homaseafood/menu"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="http://villager.com.tw/"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="https://www.facebook.com/%E5%9C%93%E6%98%8E%E5%9C%92%E8%8A%B1%E5%9C%92%E6%B5%B7%E9%AE%AE%E6%9C%83%E9%A4%A8%E5%8E%9F%E5%96%9C%E5%B8%82%E5%A4%9A%E9%A4%90%E5%BB%B3-106254614063995/menu"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="https://www.jp-cuisines.com/menu.html"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="https://fairylolita.com/wumenu/"&gt;網路 介紹&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="https://www.facebook.com/1855hotpot/menu"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="https://www.facebook.com/388622Maruko/menu"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="https://vivawei.tw/gia-fine/"&gt;網路介紹&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="https://fairylolita.com/one-show-sushi/"&gt;網路介紹&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="https://www111060.pixnet.net/blog/post/404966851"&gt;網路介紹&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="https://hungryleon.com/blog/post/326792023-%E6%9E%97%E5%8F%A3%E9%BE%9C%E5%B1%B1%E7%BE%8E%E9%A3%9F-%E6%A2%85%E8%8F%8A%E6%89%8B%E4%BD%9C%E9%AD%AF%E8%82%89%E9%A3%AF%EF%BC%8C%E9%8B%AA%E6%BB%BF%E9%AE%AE%E8%9A%B5%E8%9D%A6"&gt;網路介紹&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="https://www.facebook.com/tastyoldtime/photos/p.1153757731719550/1153757731719550"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="https://letsplay.tw/taishapa/"&gt;網路介紹&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="http://www.thicklycut.com.tw/"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+ 網路資訊:  &lt;a href="https://www.facebook.com/6owldoor/menu"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="https://www.facebook.com/843813859063434/photos/a.844778335633653/844779032300250"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="https://www.facebook.com/plant.pasta/menu"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="https://www.dominos.com.tw/taste.htm"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="https://zaq0930.pixnet.net/blog/post/354223907-%E3%80%90%E6%A1%83%E5%9C%92%E9%BE%9C%E5%B1%B1%E9%A3%9F%E8%A8%98%E3%80%91%E5%AD%AB%E6%9D%B1%E5%AF%B6%E5%8F%B0%E5%BC%8F%E7%89%9B%E6%8E%92%E5%BA%97"&gt;網路介紹&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="https://www.guotaiming-hotpot.com/menu.html"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+ 網路資訊:   &lt;a href="https://ch3126.pixnet.net/blog/post/120524278"&gt;網路介紹&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="https://www.facebook.com/%E6%BE%8E%E6%B9%96%E7%81%A3%E5%B9%B3%E5%83%B9%E6%B5%B7%E9%AE%AE%E9%A4%90%E5%BB%B3-108479787548057/menu"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="https://tenjo.tw/gangta-buffet/"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="https://www.0800076666.com.tw/Menu/MenuPizza?fbclid=IwAR3NJaIMZXhd9U7D6SbV_Dh1QJ2U7LgJUSwI8RLMx0aTBV_UFs6N1umsR7o"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="https://menubar.tw/menu/vyVv2sDUMTiF"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊: &lt;a href=""https://vivawei.tw/gia-fine/""&gt;網路介紹&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="https://blog.xuite.net/aec810909/blog/496637882"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="https://www.alberthsieh.com/3183/tina-kit-wenhua"&gt;網路介紹&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+ 網路資訊:   &lt;a href="https://tzuhui99.pixnet.net/blog/post/44775661"&gt;網路介紹&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="http://www.enjoy99.com.tw/product.php?class_sn=13"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="https://www.starbucks.com.tw/products/catalog.jspx"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="https://www.facebook.com/GreatDaysBrunch/menu"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="https://almablog.com.tw/blog/post/161166"&gt;網路介紹&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="https://nixojov.pixnet.net/blog/post/352831532-%E3%80%90%E6%9E%97%E5%8F%A3%E7%BE%8E%E9%A3%9F%E3%80%91%E5%8D%83%E8%91%89%E7%81%AB%E9%8D%8B%E6%9E%97%E5%8F%A3%E5%B0%8A%E7%88%B5%E9%A4%A8-%E8%B6%85%E9%81%8E%E7%99%BE%E6%A8%A3"&gt;網路介紹&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+ 網路資訊:  &lt;a href="https://www.pizzahut.com.tw/order/?mode=step_2&amp;type_id=0&amp;fm=obn&amp;tt=1616"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="https://z78625.pixnet.net/blog/post/229011977-%E6%9E%97%E5%8F%A3%E9%BE%9C%E5%B1%B1%E5%90%83%E5%88%B0%E9%A3%BD%E3%80%8E%E4%B8%80%E7%95%AA%E5%9C%B0%E5%A3%BD%E5%96%9C%E7%87%92(%E6%9E%97%E5%8F%A3%E9%95%B7%E5%BA%9A%E5%BA%97)"&gt;網路介紹&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="https://www.yentlpasta.com.tw/menu"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="https://beauty082836.pixnet.net/blog/post/403782632"&gt;網路介紹&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+ 網路資訊:   &lt;a href="http://www.shinemood2006.com/product_list.asp"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="https://www.facebook.com/528201201460788/photos/a.528306241450284/556264938654414/"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2928,10 +3429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E067DB8E-BE6D-BD40-8262-98D4CCD248C4}">
-  <dimension ref="A1:J89"/>
+  <dimension ref="A1:J88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J82" sqref="J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2945,7 +3446,7 @@
     <col min="7" max="7" width="45.6640625" style="2" customWidth="1"/>
     <col min="8" max="8" width="49.5" style="2" customWidth="1"/>
     <col min="9" max="9" width="16" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="61" style="2" customWidth="1"/>
     <col min="11" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
@@ -2957,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>560</v>
+        <v>537</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -2978,455 +3479,490 @@
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="64">
       <c r="A2" s="1" t="s">
-        <v>570</v>
+        <v>547</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>563</v>
+        <v>540</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>119</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="48">
       <c r="A3" s="1" t="s">
-        <v>571</v>
+        <v>548</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>119</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="80">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>129</v>
+        <v>583</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>562</v>
+        <v>539</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>119</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="48">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>569</v>
+        <v>546</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="48">
+      <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="80">
+      <c r="A7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="64">
+      <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="81">
+      <c r="A9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="81">
+      <c r="A10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="80">
+      <c r="A11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="64">
-      <c r="A7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>566</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" ht="16">
-      <c r="A9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="B11" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="64">
+      <c r="A12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="64">
+      <c r="A13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="I13" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="80">
+      <c r="A14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F14" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H14" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" ht="33">
-      <c r="A10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" ht="32">
-      <c r="A11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>298</v>
-      </c>
       <c r="I14" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" ht="32">
+        <v>246</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="80">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>565</v>
+        <v>542</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" ht="16">
+        <v>375</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="64">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>565</v>
+        <v>405</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>545</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>463</v>
+        <v>406</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>466</v>
+        <v>410</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>467</v>
+        <v>407</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>464</v>
+        <v>408</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>465</v>
+        <v>409</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="J16" s="6"/>
-    </row>
-    <row r="17" spans="1:10" ht="32">
+        <v>375</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="48">
       <c r="A17" s="1" t="s">
         <v>92</v>
       </c>
@@ -3434,2168 +3970,2314 @@
         <v>422</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>568</v>
+        <v>541</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>423</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>426</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="J17" s="6"/>
-    </row>
-    <row r="18" spans="1:10" ht="16">
+        <v>375</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="80">
       <c r="A18" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>564</v>
+        <v>432</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>542</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="I18" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="80">
+      <c r="A19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="H19" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="1:10" ht="16">
-      <c r="A19" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>454</v>
-      </c>
       <c r="I19" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="J19" s="6"/>
-    </row>
-    <row r="20" spans="1:10" ht="32">
+        <v>375</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="64">
       <c r="A20" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>409</v>
-      </c>
       <c r="I20" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="1:10" ht="32">
+        <v>375</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="80">
       <c r="A21" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="64">
+      <c r="A22" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="1:10" ht="32">
-      <c r="A22" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>415</v>
-      </c>
       <c r="I22" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="1:10" ht="16">
+        <v>375</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="80">
       <c r="A23" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>564</v>
+      <c r="C23" s="8" t="s">
+        <v>542</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>435</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>437</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="J23" s="6"/>
+        <v>375</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>629</v>
+      </c>
     </row>
     <row r="24" spans="1:10" ht="64">
       <c r="A24" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="64">
+      <c r="A25" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="80">
+      <c r="A26" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="64">
+      <c r="A27" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="80">
+      <c r="A28" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="64">
+      <c r="A29" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="64">
+      <c r="A30" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="64">
+      <c r="A31" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="64">
+      <c r="A32" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="64">
+      <c r="A33" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="64">
+      <c r="A34" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="J24" s="6"/>
-    </row>
-    <row r="25" spans="1:10" ht="16">
-      <c r="A25" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="J25" s="6"/>
-    </row>
-    <row r="26" spans="1:10" ht="32">
-      <c r="A26" s="1" t="s">
+      <c r="E34" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="I26" s="2" t="s">
+      <c r="G34" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="80">
+      <c r="A35" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="64">
+      <c r="A36" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="48">
+      <c r="A37" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="64">
+      <c r="A38" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="112">
+      <c r="A39" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="80">
+      <c r="A40" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="J26" s="6"/>
-    </row>
-    <row r="27" spans="1:10" ht="16">
-      <c r="A27" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="J27" s="6"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="1" t="s">
+      <c r="C40" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="J28" s="4"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="1" t="s">
+      <c r="F40" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="64">
+      <c r="A41" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="48">
+      <c r="A42" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="J29" s="4"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="J30" s="4"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B31" s="2" t="s">
+      <c r="F42" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="112">
+      <c r="A43" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="J31" s="4"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="1" t="s">
+      <c r="B43" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="G43" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="48">
+      <c r="A44" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="J32" s="4"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B33" s="2" t="s">
+      <c r="B44" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="48">
+      <c r="A45" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="64">
+      <c r="A46" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="J33" s="4"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="G34" s="2" t="s">
+      <c r="B46" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="64">
+      <c r="A47" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="H34" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="J34" s="4"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="J38" s="4"/>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="J39" s="4"/>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="J40" s="4"/>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="16">
-      <c r="A45" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B45" s="2" t="s">
+      <c r="B47" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="I45" s="2" t="s">
+      <c r="G47" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="48">
+      <c r="A48" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="64">
+      <c r="A49" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="H49" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="J45" s="6"/>
-    </row>
-    <row r="46" spans="1:10" ht="16">
-      <c r="A46" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="J46" s="6"/>
-    </row>
-    <row r="47" spans="1:10" ht="16">
-      <c r="A47" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="J47" s="6"/>
-    </row>
-    <row r="48" spans="1:10" ht="32">
-      <c r="A48" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="J48" s="6"/>
-    </row>
-    <row r="49" spans="1:10" ht="16">
-      <c r="A49" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>352</v>
-      </c>
       <c r="I49" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="J49" s="6"/>
-    </row>
-    <row r="50" spans="1:10" ht="32">
+        <v>282</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="64">
       <c r="A50" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="64">
+      <c r="A51" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="128">
+      <c r="A52" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="D50" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="C52" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="E52" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="H52" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="J50" s="6"/>
-    </row>
-    <row r="51" spans="1:10" ht="16">
-      <c r="A51" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="J51" s="6"/>
-    </row>
-    <row r="52" spans="1:10" ht="48">
-      <c r="A52" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B52" s="2" t="s">
+      <c r="I52" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="80">
+      <c r="A53" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C52" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="J52" s="6"/>
-    </row>
-    <row r="53" spans="1:10" ht="16">
-      <c r="A53" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>334</v>
-      </c>
       <c r="H53" s="6" t="s">
-        <v>335</v>
+        <v>305</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="J53" s="6"/>
+        <v>282</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="54" spans="1:10" ht="48">
       <c r="A54" s="1" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>565</v>
+        <v>542</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>321</v>
+        <v>348</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>322</v>
+        <v>346</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="J54" s="6"/>
-    </row>
-    <row r="55" spans="1:10" ht="32">
+        <v>282</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="48">
       <c r="A55" s="1" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="48">
+      <c r="A56" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="80">
+      <c r="A57" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="64">
+      <c r="A58" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="48">
+      <c r="A59" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="112">
+      <c r="A60" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="64">
+      <c r="A61" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="64">
+      <c r="A62" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="J62" s="7" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="96">
+      <c r="A63" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="48">
+      <c r="A64" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="J64" s="7" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="96">
+      <c r="A65" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="J65" s="7" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="48">
+      <c r="A66" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="J66" s="7" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="48">
+      <c r="A67" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="64">
+      <c r="A68" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="J68" s="7" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="64">
+      <c r="A69" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="64">
+      <c r="A70" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="J70" s="7" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="64">
+      <c r="A71" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="J71" s="7" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="64">
+      <c r="A72" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J72" s="7" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="64">
+      <c r="A73" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="H73" s="6" t="s">
         <v>361</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="J55" s="6"/>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="A63" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="16">
-      <c r="A64" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="H64" s="6" t="s">
-        <v>594</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="A65" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>566</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="16">
-      <c r="A66" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="H66" s="6" t="s">
-        <v>583</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="16">
-      <c r="A67" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>599</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>601</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
-      <c r="A68" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
-      <c r="A69" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
-      <c r="A70" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
-      <c r="A71" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="A72" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
-      <c r="A73" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" ht="32">
+      <c r="J73" s="7" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="64">
       <c r="A74" s="1" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="C74" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="J74" s="7" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="112">
+      <c r="A75" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="80">
+      <c r="A76" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="H74" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J74" s="6"/>
-    </row>
-    <row r="75" spans="1:10" ht="32">
-      <c r="A75" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="C75" s="8" t="s">
+      <c r="F76" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="H76" s="6" t="s">
         <v>565</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="H75" s="6" t="s">
-        <v>522</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J75" s="6"/>
-    </row>
-    <row r="76" spans="1:10">
-      <c r="A76" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" ht="16">
+      <c r="J76" s="7" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="112">
       <c r="A77" s="1" t="s">
-        <v>506</v>
+        <v>484</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>585</v>
+        <v>14</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>562</v>
+        <v>540</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>586</v>
+        <v>517</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>473</v>
+        <v>15</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>588</v>
+        <v>17</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="I77" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="78" spans="1:10">
+      <c r="J77" s="7" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="48">
       <c r="A78" s="1" t="s">
-        <v>507</v>
+        <v>485</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>14</v>
+        <v>600</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>563</v>
+        <v>545</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>540</v>
+        <v>518</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="J78" s="7" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="64">
       <c r="A79" s="1" t="s">
-        <v>508</v>
+        <v>486</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>568</v>
+        <v>541</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>541</v>
+        <v>519</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="J79" s="7" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="64">
       <c r="A80" s="1" t="s">
-        <v>509</v>
+        <v>487</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>564</v>
+        <v>459</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>542</v>
       </c>
       <c r="D80" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="J80" s="7" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="80">
+      <c r="A81" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C81" s="8" t="s">
         <v>542</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="16">
-      <c r="A81" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>565</v>
-      </c>
       <c r="D81" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="64">
+      <c r="A82" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="J82" s="7" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="48">
+      <c r="A83" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="J83" s="7" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="80">
+      <c r="A84" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="J84" s="7" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="64">
+      <c r="A85" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="J85" s="7" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="48">
+      <c r="A86" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="J86" s="7" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="64">
+      <c r="A87" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C87" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="F81" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="H81" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="J81" s="6"/>
-    </row>
-    <row r="82" spans="1:10" ht="16">
-      <c r="A82" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="F82" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="H82" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="J82" s="6"/>
-    </row>
-    <row r="83" spans="1:10" ht="16">
-      <c r="A83" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="F83" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="J83" s="6"/>
-    </row>
-    <row r="84" spans="1:10" ht="16">
-      <c r="A84" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="F84" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="H84" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="J84" s="6"/>
-    </row>
-    <row r="85" spans="1:10" ht="16">
-      <c r="A85" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="H85" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="J85" s="6"/>
-    </row>
-    <row r="86" spans="1:10" ht="16">
-      <c r="A86" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="F86" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="H86" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="J86" s="6"/>
-    </row>
-    <row r="87" spans="1:10" ht="16">
-      <c r="A87" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>565</v>
-      </c>
       <c r="D87" s="2" t="s">
-        <v>550</v>
+        <v>520</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="F87" s="7" t="s">
-        <v>493</v>
+        <v>43</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>492</v>
+        <v>44</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10">
+        <v>447</v>
+      </c>
+      <c r="J87" s="7" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="64">
       <c r="A88" s="1" t="s">
-        <v>604</v>
+        <v>582</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>44</v>
+        <v>448</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>567</v>
+        <v>544</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>16</v>
+        <v>449</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>450</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>47</v>
+        <v>452</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>451</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="16">
-      <c r="A89" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="F89" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="H89" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="J89" s="6"/>
+        <v>447</v>
+      </c>
+      <c r="J88" s="7" t="s">
+        <v>601</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J89">
-    <sortCondition ref="I2:I89"/>
-    <sortCondition ref="D2:D89"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J88">
+    <sortCondition ref="I2:I88"/>
+    <sortCondition ref="D2:D88"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H7" r:id="rId1" xr:uid="{888884B7-DD2F-EC40-8B89-A0B40F7B4538}"/>
-    <hyperlink ref="H40" r:id="rId2" xr:uid="{F1B55455-7154-F540-874B-6E233BA227BC}"/>
-    <hyperlink ref="H30" r:id="rId3" xr:uid="{A92963D2-0211-6845-AA2A-FCCEEFF7851A}"/>
-    <hyperlink ref="H38" r:id="rId4" xr:uid="{9B3FF564-1F19-A34B-A899-A20D7581056D}"/>
-    <hyperlink ref="H28" r:id="rId5" xr:uid="{BB259414-9186-2A48-B039-25F2DB09EED0}"/>
-    <hyperlink ref="H39" r:id="rId6" xr:uid="{2566BBDB-2CAD-5F4E-A8E1-F7A346EB58FF}"/>
-    <hyperlink ref="H31" r:id="rId7" xr:uid="{868C2E93-4BE1-FF4E-8704-CAD0B0B5FB5E}"/>
-    <hyperlink ref="H32" r:id="rId8" xr:uid="{A6FD8CDE-ACEB-FD40-9BF1-3F8DB3F4651E}"/>
-    <hyperlink ref="H33" r:id="rId9" xr:uid="{7C3BD908-1146-7940-B467-385355D0B54D}"/>
-    <hyperlink ref="H29" r:id="rId10" xr:uid="{913A8024-8610-134D-94D0-8676D357AD56}"/>
-    <hyperlink ref="H34" r:id="rId11" xr:uid="{70A1F7DE-B062-E943-8045-EE9A16C8C7AE}"/>
+    <hyperlink ref="H39" r:id="rId2" xr:uid="{F1B55455-7154-F540-874B-6E233BA227BC}"/>
+    <hyperlink ref="H29" r:id="rId3" xr:uid="{A92963D2-0211-6845-AA2A-FCCEEFF7851A}"/>
+    <hyperlink ref="H37" r:id="rId4" xr:uid="{9B3FF564-1F19-A34B-A899-A20D7581056D}"/>
+    <hyperlink ref="H27" r:id="rId5" xr:uid="{BB259414-9186-2A48-B039-25F2DB09EED0}"/>
+    <hyperlink ref="H38" r:id="rId6" xr:uid="{2566BBDB-2CAD-5F4E-A8E1-F7A346EB58FF}"/>
+    <hyperlink ref="H30" r:id="rId7" xr:uid="{868C2E93-4BE1-FF4E-8704-CAD0B0B5FB5E}"/>
+    <hyperlink ref="H31" r:id="rId8" xr:uid="{A6FD8CDE-ACEB-FD40-9BF1-3F8DB3F4651E}"/>
+    <hyperlink ref="H32" r:id="rId9" xr:uid="{7C3BD908-1146-7940-B467-385355D0B54D}"/>
+    <hyperlink ref="H28" r:id="rId10" xr:uid="{913A8024-8610-134D-94D0-8676D357AD56}"/>
+    <hyperlink ref="H33" r:id="rId11" xr:uid="{70A1F7DE-B062-E943-8045-EE9A16C8C7AE}"/>
     <hyperlink ref="H8" r:id="rId12" xr:uid="{B61C32CF-65DE-5D45-922F-EF85040EC17D}"/>
     <hyperlink ref="H11" r:id="rId13" xr:uid="{FDA925B5-456C-174D-A520-BF6A25282571}"/>
     <hyperlink ref="H10" r:id="rId14" xr:uid="{D8FAF5B1-45FC-4D4B-9A8A-2BFE23534C33}"/>
@@ -5603,43 +6285,42 @@
     <hyperlink ref="H12" r:id="rId16" xr:uid="{90038BA7-E075-0440-A96D-EA6ACC7FD191}"/>
     <hyperlink ref="H13" r:id="rId17" xr:uid="{5316EB1A-A470-B64F-A2F7-637436A96606}"/>
     <hyperlink ref="H14" r:id="rId18" xr:uid="{6FA5AFA1-22DA-D848-929C-A04ED36DAE9C}"/>
-    <hyperlink ref="H52" r:id="rId19" xr:uid="{0F56A368-05DC-0046-A036-15A5A9522952}"/>
-    <hyperlink ref="H50" r:id="rId20" xr:uid="{9DC77239-72AD-1A40-93F3-F8C653039533}"/>
-    <hyperlink ref="H54" r:id="rId21" xr:uid="{02BCB13E-490C-5A49-B385-D01FC01F5A3B}"/>
-    <hyperlink ref="H51" r:id="rId22" xr:uid="{5D78D208-C834-DC4D-87CE-7718DC1647F2}"/>
-    <hyperlink ref="H53" r:id="rId23" xr:uid="{B69E3BA3-5461-EE40-BA4E-41A5BE1E7BF4}"/>
-    <hyperlink ref="H46" r:id="rId24" xr:uid="{B62A6D1F-5DF0-A643-BD46-EC9EB0884BB7}"/>
-    <hyperlink ref="H45" r:id="rId25" xr:uid="{FC29BA63-1C7C-5644-A653-C892769FAC75}"/>
-    <hyperlink ref="H49" r:id="rId26" xr:uid="{DCC13ED3-9E8E-DA4D-91D1-75A7931C642A}"/>
-    <hyperlink ref="H48" r:id="rId27" xr:uid="{0D9C681C-5B99-484C-BFFE-EF206CDCCCD9}"/>
-    <hyperlink ref="H55" r:id="rId28" xr:uid="{BB4D8478-DB58-4541-B1EB-38CC918B98D4}"/>
-    <hyperlink ref="H47" r:id="rId29" xr:uid="{BC3F325E-FC97-4046-8121-C76DBBF7A70C}"/>
-    <hyperlink ref="H74" r:id="rId30" xr:uid="{6CB5F6A4-6266-8745-8ABF-834A77B5DB82}"/>
-    <hyperlink ref="H27" r:id="rId31" xr:uid="{CFE95743-0EDD-8E40-A8A0-F984882C50FA}"/>
-    <hyperlink ref="H26" r:id="rId32" xr:uid="{1DB044A5-2953-CC4F-8392-5B010494975C}"/>
-    <hyperlink ref="H20" r:id="rId33" xr:uid="{2E2BE611-B19B-864B-81CA-ED12C30C5381}"/>
-    <hyperlink ref="H22" r:id="rId34" xr:uid="{7BE5EE7B-E118-0242-9A9A-1D3F59310915}"/>
-    <hyperlink ref="H21" r:id="rId35" location="51756" xr:uid="{02D186F8-FDBD-EC49-A8A3-FF14990164C8}"/>
-    <hyperlink ref="H17" r:id="rId36" xr:uid="{D4D7764B-4625-6849-A173-ABC063A92FD9}"/>
-    <hyperlink ref="H15" r:id="rId37" xr:uid="{7B699CF3-F7D3-DD42-BCFA-B43EF372F38B}"/>
-    <hyperlink ref="H23" r:id="rId38" xr:uid="{3A4EA812-599C-7544-A5F0-23CA28A2F37F}"/>
-    <hyperlink ref="H25" r:id="rId39" xr:uid="{C00B1E10-5E9E-154D-AB53-5ADB8CCCC7CF}"/>
-    <hyperlink ref="H18" r:id="rId40" xr:uid="{B1D05BCB-7B7E-5C4B-A7C7-46D21228123A}"/>
-    <hyperlink ref="H19" r:id="rId41" xr:uid="{A244D270-7C2F-FC48-AA9E-77923E3F9E9C}"/>
-    <hyperlink ref="H24" r:id="rId42" xr:uid="{F7DB1F5F-687C-9141-9973-65A3BF51552C}"/>
-    <hyperlink ref="H16" r:id="rId43" xr:uid="{F3F64AD5-5A76-7347-A675-056AF03551CD}"/>
-    <hyperlink ref="H89" r:id="rId44" xr:uid="{7B808A16-9C5B-D94C-81E8-46AFD11DAA8B}"/>
-    <hyperlink ref="H82" r:id="rId45" xr:uid="{B760EFB7-EAAF-EA48-87C1-3533C77A9935}"/>
-    <hyperlink ref="H81" r:id="rId46" xr:uid="{968384FB-1A18-4A4F-8CBD-27769ADC4E4A}"/>
-    <hyperlink ref="H83" r:id="rId47" xr:uid="{704D09EA-DD52-5242-B84F-4497D98C6ED4}"/>
-    <hyperlink ref="H84" r:id="rId48" xr:uid="{A9977D40-898D-A047-A597-F8890E973840}"/>
-    <hyperlink ref="H85" r:id="rId49" xr:uid="{4E792F61-7F80-6C4B-9665-B6B417F7696C}"/>
-    <hyperlink ref="H86" r:id="rId50" xr:uid="{9640B243-AB3F-1241-8664-B498E1955BA8}"/>
-    <hyperlink ref="H75" r:id="rId51" xr:uid="{1EEB7EC7-3232-C74A-B8D4-F766FA226DD6}"/>
-    <hyperlink ref="H66" r:id="rId52" xr:uid="{2982BCF7-83FA-DF42-8E77-65A98FEF0D97}"/>
-    <hyperlink ref="H77" r:id="rId53" xr:uid="{0C3EA1BA-1C76-F34B-BAFC-DF3F07FE7E3C}"/>
-    <hyperlink ref="H64" r:id="rId54" xr:uid="{F982A45B-F644-B64B-87EC-0810B78786A5}"/>
-    <hyperlink ref="H67" r:id="rId55" xr:uid="{D2634F17-366F-9740-84F6-0D60A7B20722}"/>
+    <hyperlink ref="H51" r:id="rId19" xr:uid="{0F56A368-05DC-0046-A036-15A5A9522952}"/>
+    <hyperlink ref="H49" r:id="rId20" xr:uid="{9DC77239-72AD-1A40-93F3-F8C653039533}"/>
+    <hyperlink ref="H53" r:id="rId21" xr:uid="{02BCB13E-490C-5A49-B385-D01FC01F5A3B}"/>
+    <hyperlink ref="H50" r:id="rId22" xr:uid="{5D78D208-C834-DC4D-87CE-7718DC1647F2}"/>
+    <hyperlink ref="H52" r:id="rId23" xr:uid="{B69E3BA3-5461-EE40-BA4E-41A5BE1E7BF4}"/>
+    <hyperlink ref="H45" r:id="rId24" xr:uid="{B62A6D1F-5DF0-A643-BD46-EC9EB0884BB7}"/>
+    <hyperlink ref="H44" r:id="rId25" xr:uid="{FC29BA63-1C7C-5644-A653-C892769FAC75}"/>
+    <hyperlink ref="H48" r:id="rId26" xr:uid="{DCC13ED3-9E8E-DA4D-91D1-75A7931C642A}"/>
+    <hyperlink ref="H47" r:id="rId27" xr:uid="{0D9C681C-5B99-484C-BFFE-EF206CDCCCD9}"/>
+    <hyperlink ref="H54" r:id="rId28" xr:uid="{BB4D8478-DB58-4541-B1EB-38CC918B98D4}"/>
+    <hyperlink ref="H46" r:id="rId29" xr:uid="{BC3F325E-FC97-4046-8121-C76DBBF7A70C}"/>
+    <hyperlink ref="H73" r:id="rId30" xr:uid="{6CB5F6A4-6266-8745-8ABF-834A77B5DB82}"/>
+    <hyperlink ref="H26" r:id="rId31" xr:uid="{CFE95743-0EDD-8E40-A8A0-F984882C50FA}"/>
+    <hyperlink ref="H25" r:id="rId32" xr:uid="{1DB044A5-2953-CC4F-8392-5B010494975C}"/>
+    <hyperlink ref="H19" r:id="rId33" xr:uid="{2E2BE611-B19B-864B-81CA-ED12C30C5381}"/>
+    <hyperlink ref="H21" r:id="rId34" xr:uid="{7BE5EE7B-E118-0242-9A9A-1D3F59310915}"/>
+    <hyperlink ref="H20" r:id="rId35" location="51756" xr:uid="{02D186F8-FDBD-EC49-A8A3-FF14990164C8}"/>
+    <hyperlink ref="H16" r:id="rId36" xr:uid="{D4D7764B-4625-6849-A173-ABC063A92FD9}"/>
+    <hyperlink ref="H22" r:id="rId37" xr:uid="{3A4EA812-599C-7544-A5F0-23CA28A2F37F}"/>
+    <hyperlink ref="H24" r:id="rId38" xr:uid="{C00B1E10-5E9E-154D-AB53-5ADB8CCCC7CF}"/>
+    <hyperlink ref="H17" r:id="rId39" xr:uid="{B1D05BCB-7B7E-5C4B-A7C7-46D21228123A}"/>
+    <hyperlink ref="H18" r:id="rId40" xr:uid="{A244D270-7C2F-FC48-AA9E-77923E3F9E9C}"/>
+    <hyperlink ref="H23" r:id="rId41" xr:uid="{F7DB1F5F-687C-9141-9973-65A3BF51552C}"/>
+    <hyperlink ref="H15" r:id="rId42" xr:uid="{F3F64AD5-5A76-7347-A675-056AF03551CD}"/>
+    <hyperlink ref="H88" r:id="rId43" xr:uid="{7B808A16-9C5B-D94C-81E8-46AFD11DAA8B}"/>
+    <hyperlink ref="H81" r:id="rId44" xr:uid="{B760EFB7-EAAF-EA48-87C1-3533C77A9935}"/>
+    <hyperlink ref="H80" r:id="rId45" xr:uid="{968384FB-1A18-4A4F-8CBD-27769ADC4E4A}"/>
+    <hyperlink ref="H82" r:id="rId46" xr:uid="{704D09EA-DD52-5242-B84F-4497D98C6ED4}"/>
+    <hyperlink ref="H83" r:id="rId47" xr:uid="{A9977D40-898D-A047-A597-F8890E973840}"/>
+    <hyperlink ref="H84" r:id="rId48" xr:uid="{4E792F61-7F80-6C4B-9665-B6B417F7696C}"/>
+    <hyperlink ref="H85" r:id="rId49" xr:uid="{9640B243-AB3F-1241-8664-B498E1955BA8}"/>
+    <hyperlink ref="H74" r:id="rId50" xr:uid="{1EEB7EC7-3232-C74A-B8D4-F766FA226DD6}"/>
+    <hyperlink ref="H65" r:id="rId51" xr:uid="{2982BCF7-83FA-DF42-8E77-65A98FEF0D97}"/>
+    <hyperlink ref="H76" r:id="rId52" xr:uid="{0C3EA1BA-1C76-F34B-BAFC-DF3F07FE7E3C}"/>
+    <hyperlink ref="H63" r:id="rId53" xr:uid="{F982A45B-F644-B64B-87EC-0810B78786A5}"/>
+    <hyperlink ref="H66" r:id="rId54" xr:uid="{D2634F17-366F-9740-84F6-0D60A7B20722}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/db/AiCity-72-Restaurant.xlsx
+++ b/db/AiCity-72-Restaurant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B74619-801E-1F44-AC5C-CF911673169F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7452AE-05F9-8F4B-83B4-0CE761FFB919}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="11240" windowWidth="48820" windowHeight="17060" xr2:uid="{1AAFA279-DBCD-DA42-8F0D-FE7868FF2730}"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="35160" windowHeight="25400" xr2:uid="{1AAFA279-DBCD-DA42-8F0D-FE7868FF2730}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="694">
   <si>
     <t>no</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2462,12 +2462,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;p&gt;
-   &lt;a href="https://www.walkerland.com.tw/article/view/250686?page=full"&gt;網路介紹&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>來碗拉麵</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2500,518 +2494,554 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;p&gt;
-   網路資訊: &lt;a href="https://wen4899.pixnet.net/blog/post/219177768"&gt;網路介紹&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-   網路資訊: &lt;a href="https://vivawei.tw/sugarcane-mamama/"&gt;網路介紹&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-   網路資訊: &lt;a href="https://vivawei.tw/3villagesss/"&gt;網路介紹&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-   網路資訊: &lt;a href="https://www.facebook.com/1640280569628363/posts/2044433485879734/"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-   網路資訊: &lt;a href="https://www.viviyu.com/archives/30655"&gt;網路介紹&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-   網路資訊: &lt;a href="https://tenjo.tw/aqishi-xiaolongbao/"&gt;台北店介紹&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-   網路資訊: &lt;a href="http://www.noble.com.tw/index.php/menu/refinement-foodmenu"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-   網路資訊: &lt;a href="http://www.saboten.com.tw/goods.php?act=list&amp;cid=1"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="https://www.yentlpasta.com.tw/menu/18"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="https://www.zhujishop.com.tw/index.php?type=top&amp;arem=157"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-   網路資訊: &lt;a href="https://www.thaitown.com.tw/tw/menu"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="file/RES-101-阿基師.pdf"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-   網路資訊: &lt;a href="https://www.hwayoung.com/upload/files/a8global_menu.pdf"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-   網路資訊: &lt;a href="http://www.hilai-foods.com/zh_TW/brand/harbour"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-   網路資訊: &lt;a href="https://icard.ai/shop/reward/channel%2F5f7aeef696c1f49bcc713377?type=channel_concept%2F5f6ab11b3d97d93195e6707c"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="http://www.hilai-foods.com/my-account/Olivia/newyear/2021Tao%20Yuan%20Tang%20Bao%20Cai%20Dan%20.jpg"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="http://www.hilai-foods.com/Roast%20Duck/Shang%20Cai%20Dan%20Dian%20Cai%20Dan%20.pdf"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-   網路資訊: &lt;a href="https://www.syabuyo.com.tw/store_detail.php?id=6&amp;area="&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-   網路資訊: &lt;a href="https://www.yakiyan.com/pdf/2102/yakiyan_menu.pdf"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="https://www.facebook.com/ninigarden/menu/?ref=page_internal"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="https://www.facebook.com/ZiaBing/photos/p.2680339398749724/2680339398749724"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="https://www.facebook.com/pappis0226088167/menu"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="https://www.facebook.com/gfood51/menu"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-   網路資訊: &lt;a href="https://www.facebook.com/freakscafebistrolk/menu/?ref=page_internal"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-   網路資訊: &lt;a href="https://www.facebook.com/1971298456236144/photos/p.2094527287246593/2094527287246593"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-   網路資訊: &lt;a href="https://www.facebook.com/bravoburgerlinkou/menu"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="https://www.facebook.com/meiligreen384/posts/188181188420999/"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="https://www.gomaji.com/store/111390"&gt;Gomaji 介紹&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="https://www.facebook.com/bluelampcafe/photos/p.1074693843056553/1074693843056553"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="https://editordiary.pixnet.net/blog/post/218296050"&gt;痞客邦 介紹&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="https://www.facebook.com/thecafeby2/menu"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="https://www.facebook.com/media/set/?set=a.430675527120156.1073741838.138245503029828&amp;type=3&amp;uploaded=14"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊: &lt;a href="https://www.gyukatsu-motomura.com/zh/menu"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="https://www.facebook.com/TsuruhashiFugetsuTaiwan/photos/pcb.2683771331941236/2683771135274589/"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="https://www.leeleelin.com/2016/07/tonchin-menu.html"&gt;旅攝生活 介紹&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
- 網路資訊:  &lt;a href="https://www.tendon.kingoshou.com/products/1/1.htm"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
- 網路資訊:   &lt;a href="https://paul1889-dessert-togo.cashier.ecpay.com.tw/"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="https://g8906011.pixnet.net/blog/post/491175209"&gt;痞客邦 介紹&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="http://www.kua-aina.tw/zh_TW/gallery-content/node/1452062353001"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="https://www.thaitown.com.tw/tw/menu#section-1"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="https://www.shinyeh.com.tw/content/zh/brand/Menu.aspx?BrandId=3#tabpanel_1"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="http://www.dianshuilou.com.tw/Foods_2_a_1.aspx?s=7"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="https://www.kurasushi.tw/products"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="https://shop.thesecretcake.com.tw/product.php?mid=8"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
- 網路資訊:   &lt;a href="https://www.gomaji.com/store/87820?gclid=Cj0KCQjw9YWDBhDyARIsADt6sGZ_ONKpfV-UYHQSqgC1Dgrj8BQMXo07eHu2lMfRk32q3yY8aDZaglgaAlSMEALw_wcB"&gt;Gomaji 介紹&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="https://www.facebook.com/LakuLakuMachi/photos/p.833949060055696/833949060055696"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="https://www.facebook.com/homaseafood/menu"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="http://villager.com.tw/"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="https://www.facebook.com/%E5%9C%93%E6%98%8E%E5%9C%92%E8%8A%B1%E5%9C%92%E6%B5%B7%E9%AE%AE%E6%9C%83%E9%A4%A8%E5%8E%9F%E5%96%9C%E5%B8%82%E5%A4%9A%E9%A4%90%E5%BB%B3-106254614063995/menu"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="https://www.jp-cuisines.com/menu.html"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="https://fairylolita.com/wumenu/"&gt;網路 介紹&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="https://www.facebook.com/1855hotpot/menu"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="https://www.facebook.com/388622Maruko/menu"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="https://vivawei.tw/gia-fine/"&gt;網路介紹&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="https://fairylolita.com/one-show-sushi/"&gt;網路介紹&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="https://www111060.pixnet.net/blog/post/404966851"&gt;網路介紹&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="https://hungryleon.com/blog/post/326792023-%E6%9E%97%E5%8F%A3%E9%BE%9C%E5%B1%B1%E7%BE%8E%E9%A3%9F-%E6%A2%85%E8%8F%8A%E6%89%8B%E4%BD%9C%E9%AD%AF%E8%82%89%E9%A3%AF%EF%BC%8C%E9%8B%AA%E6%BB%BF%E9%AE%AE%E8%9A%B5%E8%9D%A6"&gt;網路介紹&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="https://www.facebook.com/tastyoldtime/photos/p.1153757731719550/1153757731719550"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="https://letsplay.tw/taishapa/"&gt;網路介紹&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="http://www.thicklycut.com.tw/"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
- 網路資訊:  &lt;a href="https://www.facebook.com/6owldoor/menu"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="https://www.facebook.com/843813859063434/photos/a.844778335633653/844779032300250"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="https://www.facebook.com/plant.pasta/menu"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="https://www.dominos.com.tw/taste.htm"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="https://zaq0930.pixnet.net/blog/post/354223907-%E3%80%90%E6%A1%83%E5%9C%92%E9%BE%9C%E5%B1%B1%E9%A3%9F%E8%A8%98%E3%80%91%E5%AD%AB%E6%9D%B1%E5%AF%B6%E5%8F%B0%E5%BC%8F%E7%89%9B%E6%8E%92%E5%BA%97"&gt;網路介紹&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="https://www.guotaiming-hotpot.com/menu.html"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
- 網路資訊:   &lt;a href="https://ch3126.pixnet.net/blog/post/120524278"&gt;網路介紹&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="https://www.facebook.com/%E6%BE%8E%E6%B9%96%E7%81%A3%E5%B9%B3%E5%83%B9%E6%B5%B7%E9%AE%AE%E9%A4%90%E5%BB%B3-108479787548057/menu"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="https://tenjo.tw/gangta-buffet/"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="https://www.0800076666.com.tw/Menu/MenuPizza?fbclid=IwAR3NJaIMZXhd9U7D6SbV_Dh1QJ2U7LgJUSwI8RLMx0aTBV_UFs6N1umsR7o"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="https://menubar.tw/menu/vyVv2sDUMTiF"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊: &lt;a href=""https://vivawei.tw/gia-fine/""&gt;網路介紹&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="https://blog.xuite.net/aec810909/blog/496637882"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="https://www.alberthsieh.com/3183/tina-kit-wenhua"&gt;網路介紹&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
- 網路資訊:   &lt;a href="https://tzuhui99.pixnet.net/blog/post/44775661"&gt;網路介紹&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="http://www.enjoy99.com.tw/product.php?class_sn=13"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="https://www.starbucks.com.tw/products/catalog.jspx"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="https://www.facebook.com/GreatDaysBrunch/menu"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="https://almablog.com.tw/blog/post/161166"&gt;網路介紹&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="https://nixojov.pixnet.net/blog/post/352831532-%E3%80%90%E6%9E%97%E5%8F%A3%E7%BE%8E%E9%A3%9F%E3%80%91%E5%8D%83%E8%91%89%E7%81%AB%E9%8D%8B%E6%9E%97%E5%8F%A3%E5%B0%8A%E7%88%B5%E9%A4%A8-%E8%B6%85%E9%81%8E%E7%99%BE%E6%A8%A3"&gt;網路介紹&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
- 網路資訊:  &lt;a href="https://www.pizzahut.com.tw/order/?mode=step_2&amp;type_id=0&amp;fm=obn&amp;tt=1616"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="https://z78625.pixnet.net/blog/post/229011977-%E6%9E%97%E5%8F%A3%E9%BE%9C%E5%B1%B1%E5%90%83%E5%88%B0%E9%A3%BD%E3%80%8E%E4%B8%80%E7%95%AA%E5%9C%B0%E5%A3%BD%E5%96%9C%E7%87%92(%E6%9E%97%E5%8F%A3%E9%95%B7%E5%BA%9A%E5%BA%97)"&gt;網路介紹&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="https://www.yentlpasta.com.tw/menu"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="https://beauty082836.pixnet.net/blog/post/403782632"&gt;網路介紹&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
- 網路資訊:   &lt;a href="http://www.shinemood2006.com/product_list.asp"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="https://www.facebook.com/528201201460788/photos/a.528306241450284/556264938654414/"&gt;菜單&lt;/a&gt;
+    <t>101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>勤美亭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區復興一路288號1樓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-397-9938</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/%E5%8B%A4%E7%BE%8E%E4%BA%AD-107726061117908/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-910-勤美亭.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a type="button" class="btn btn-info"  href="https://www.facebook.com/ZiaBing/photos/p.2680339398749724/2680339398749724"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a style="button" class="btn btn-info"  href="http://www.saboten.com.tw/goods.php?act=list&amp;cid=1"&gt;菜單&lt;/a&gt; &amp;nbsp;  &lt;a style="button" class="btn btn-info"  href="https://inline.app/booking/-KuUwaEhVKljatiaBnAM:inline-live-2a466/-LvPgpHIn8DHGtoXyDJF"&gt;訂位&lt;/a&gt; &amp;nbsp;  &lt;a style="button" class="btn btn-info"  href="https://inline.app/order/-KuUwaEhVKljatiaBnAM:inline-live-2a466/-LvPgpHIn8DHGtoXyDJF?language=zh-tw"&gt;訂餐&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a style="button" class="btn btn-info"  href="http://www.hilai-foods.com/zh_TW/brand/harbour"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://icard.ai/shop/reward/channel%2F5f7aeef696c1f49bcc713377?type=channel_concept%2F5f6ab11b3d97d93195e6707c"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="http://www.hilai-foods.com/my-account/Olivia/newyear/2021Tao%20Yuan%20Tang%20Bao%20Cai%20Dan%20.jpg"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="http://www.hilai-foods.com/Roast%20Duck/Shang%20Cai%20Dan%20Dian%20Cai%20Dan%20.pdf"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://www.syabuyo.com.tw/store_detail.php?id=6&amp;area="&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://www.yakiyan.com/pdf/2102/yakiyan_menu.pdf"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/ninigarden/menu/?ref=page_internal"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/pappis0226088167/menu"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/gfood51/menu"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/freakscafebistrolk/menu/?ref=page_internal"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/1971298456236144/photos/p.2094527287246593/2094527287246593"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/bravoburgerlinkou/menu"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/meiligreen384/posts/188181188420999/"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.gomaji.com/store/111390"&gt;Gomaji 介紹&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/bluelampcafe/photos/p.1074693843056553/1074693843056553"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://editordiary.pixnet.net/blog/post/218296050"&gt;痞客邦 介紹&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/thecafeby2/menu"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/media/set/?set=a.430675527120156.1073741838.138245503029828&amp;type=3&amp;uploaded=14"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊: &lt;a style="button" class="btn btn-info"  href="https://www.gyukatsu-motomura.com/zh/menu"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/TsuruhashiFugetsuTaiwan/photos/pcb.2683771331941236/2683771135274589/"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.leeleelin.com/2016/07/tonchin-menu.html"&gt;旅攝生活 介紹&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+ 網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.tendon.kingoshou.com/products/1/1.htm"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+ 網路資訊:   &lt;a style="button" class="btn btn-info"  href="https://paul1889-dessert-togo.cashier.ecpay.com.tw/"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://g8906011.pixnet.net/blog/post/491175209"&gt;痞客邦 介紹&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="http://www.kua-aina.tw/zh_TW/gallery-content/node/1452062353001"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.thaitown.com.tw/tw/menu#section-1"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.shinyeh.com.tw/content/zh/brand/Menu.aspx?BrandId=3#tabpanel_1"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="http://www.dianshuilou.com.tw/Foods_2_a_1.aspx?s=7"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.kurasushi.tw/products"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://shop.thesecretcake.com.tw/product.php?mid=8"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+ 網路資訊:   &lt;a style="button" class="btn btn-info"  href="https://www.gomaji.com/store/87820?gclid=Cj0KCQjw9YWDBhDyARIsADt6sGZ_ONKpfV-UYHQSqgC1Dgrj8BQMXo07eHu2lMfRk32q3yY8aDZaglgaAlSMEALw_wcB"&gt;Gomaji 介紹&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/LakuLakuMachi/photos/p.833949060055696/833949060055696"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/homaseafood/menu"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="http://villager.com.tw/"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/%E5%9C%93%E6%98%8E%E5%9C%92%E8%8A%B1%E5%9C%92%E6%B5%B7%E9%AE%AE%E6%9C%83%E9%A4%A8%E5%8E%9F%E5%96%9C%E5%B8%82%E5%A4%9A%E9%A4%90%E5%BB%B3-106254614063995/menu"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.jp-cuisines.com/menu.html"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://fairylolita.com/wumenu/"&gt;網路 介紹&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/1855hotpot/menu"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/388622Maruko/menu"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://vivawei.tw/gia-fine/"&gt;網路介紹&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://fairylolita.com/one-show-sushi/"&gt;網路介紹&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www111060.pixnet.net/blog/post/404966851"&gt;網路介紹&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   &lt;a style="button" class="btn btn-info"  href="https://www.walkerland.com.tw/article/view/250686?page=full"&gt;網路介紹&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://hungryleon.com/blog/post/326792023-%E6%9E%97%E5%8F%A3%E9%BE%9C%E5%B1%B1%E7%BE%8E%E9%A3%9F-%E6%A2%85%E8%8F%8A%E6%89%8B%E4%BD%9C%E9%AD%AF%E8%82%89%E9%A3%AF%EF%BC%8C%E9%8B%AA%E6%BB%BF%E9%AE%AE%E8%9A%B5%E8%9D%A6"&gt;網路介紹&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/tastyoldtime/photos/p.1153757731719550/1153757731719550"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://letsplay.tw/taishapa/"&gt;網路介紹&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="http://www.thicklycut.com.tw/"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+ 網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/6owldoor/menu"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"   href="http://www.enjoy99.com.tw/product.php?class_sn=13"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/843813859063434/photos/a.844778335633653/844779032300250"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/plant.pasta/menu"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.dominos.com.tw/taste.htm"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://zaq0930.pixnet.net/blog/post/354223907-%E3%80%90%E6%A1%83%E5%9C%92%E9%BE%9C%E5%B1%B1%E9%A3%9F%E8%A8%98%E3%80%91%E5%AD%AB%E6%9D%B1%E5%AF%B6%E5%8F%B0%E5%BC%8F%E7%89%9B%E6%8E%92%E5%BA%97"&gt;網路介紹&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.guotaiming-hotpot.com/menu.html"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+ 網路資訊:   &lt;a style="button" class="btn btn-info"  href="https://ch3126.pixnet.net/blog/post/120524278"&gt;網路介紹&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/%E6%BE%8E%E6%B9%96%E7%81%A3%E5%B9%B3%E5%83%B9%E6%B5%B7%E9%AE%AE%E9%A4%90%E5%BB%B3-108479787548057/menu"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://tenjo.tw/gangta-buffet/"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.0800076666.com.tw/Menu/MenuPizza?fbclid=IwAR3NJaIMZXhd9U7D6SbV_Dh1QJ2U7LgJUSwI8RLMx0aTBV_UFs6N1umsR7o"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://menubar.tw/menu/vyVv2sDUMTiF"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊: &lt;a style="button" class="btn btn-info"  href=""https://vivawei.tw/gia-fine/""&gt;網路介紹&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://blog.xuite.net/aec810909/blog/496637882"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.alberthsieh.com/3183/tina-kit-wenhua"&gt;網路介紹&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+ 網路資訊:   &lt;a style="button" class="btn btn-info"  href="https://tzuhui99.pixnet.net/blog/post/44775661"&gt;網路介紹&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.starbucks.com.tw/products/catalog.jspx"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/GreatDaysBrunch/menu"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://almablog.com.tw/blog/post/161166"&gt;網路介紹&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://nixojov.pixnet.net/blog/post/352831532-%E3%80%90%E6%9E%97%E5%8F%A3%E7%BE%8E%E9%A3%9F%E3%80%91%E5%8D%83%E8%91%89%E7%81%AB%E9%8D%8B%E6%9E%97%E5%8F%A3%E5%B0%8A%E7%88%B5%E9%A4%A8-%E8%B6%85%E9%81%8E%E7%99%BE%E6%A8%A3"&gt;網路介紹&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.foodpanda.com.tw/en/restaurant/z6ng/qin-mei-ting?r=1"&gt;網路介紹&lt;/a&gt;
+&lt;/p&gt;"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+ 網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.pizzahut.com.tw/order/?mode=step_2&amp;type_id=0&amp;fm=obn&amp;tt=1616"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://z78625.pixnet.net/blog/post/229011977-%E6%9E%97%E5%8F%A3%E9%BE%9C%E5%B1%B1%E5%90%83%E5%88%B0%E9%A3%BD%E3%80%8E%E4%B8%80%E7%95%AA%E5%9C%B0%E5%A3%BD%E5%96%9C%E7%87%92(%E6%9E%97%E5%8F%A3%E9%95%B7%E5%BA%9A%E5%BA%97)"&gt;網路介紹&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.yentlpasta.com.tw/menu"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://beauty082836.pixnet.net/blog/post/403782632"&gt;網路介紹&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+ 網路資訊:   &lt;a style="button" class="btn btn-info"  href="http://www.shinemood2006.com/product_list.asp"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/528201201460788/photos/a.528306241450284/556264938654414/"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://vivawei.tw/sugarcane-mamama/"&gt;網路介紹&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://vivawei.tw/3villagesss/"&gt;網路介紹&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/1640280569628363/posts/2044433485879734/"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://www.viviyu.com/archives/30655"&gt;網路介紹&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://tenjo.tw/aqishi-xiaolongbao/"&gt;台北店介紹&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a style="button" class="btn btn-info"  href="http://www.noble.com.tw/index.php/menu/refinement-foodmenu"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://wen4899.pixnet.net/blog/post/219177768"&gt;網路介紹&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.yentlpasta.com.tw/menu/18"&gt;菜單&lt;/a&gt; &amp;nbsp; &lt;a style="button" class="btn btn-info"  href="https://zaq0930.pixnet.net/blog/post/351339605-%E3%80%90%E6%A9%9F%E6%8D%B7a8%E7%AB%99%E3%80%91%E6%B4%8B%E6%9C%B5%E7%BE%A9%E5%BC%8F%E9%A4%90%E5%BB%B3~%E7%92%B0%E7%90%83%E7%99%BE%E8%B2%A81f~%E6%9E%97%E5%8F%A3%E9%95%B7"&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.zhujishop.com.tw/index.php?type=top&amp;arem=157"&gt;菜單&lt;/a&gt; &amp;nbsp;  &lt;a style="button" class="btn btn-info"  href="https://www.zhujishop.com.tw/index.php?type=top&amp;arem=165"&gt;宅配&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://www.thaitown.com.tw/tw/menu"&gt;菜單&lt;/a&gt; &amp;nbsp; &lt;a style="button" class="btn btn-info"  href="https://ryohei0221.pixnet.net/blog/post/68108145"&gt;網路推薦&lt;/a&gt; &amp;nbsp; &lt;a style="button" class="btn btn-info"  href="https://ryohei0221.pixnet.net/blog/post/68108145"&gt; &amp;nbsp; &lt;a style="button" class="btn btn-info"  href="https://en.eztable.com/restaurant/14471"&gt;線上訂位&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="file/RES-101-阿基師.pdf"&gt;菜單&lt;/a&gt; &amp;nbsp;  &lt;a href="file/RES-101-阿基師.pdf"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://www.hwayoung.com/upload/files/a8global_menu.pdf"&gt;菜單&lt;/a&gt; &amp;nbsp;  &lt;a style="button" class="btn btn-info"  href="https://www.alberthsieh.com/43347/hwayoung-a8"&gt;網路推薦&lt;/a&gt;
 &lt;/p&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3429,24 +3459,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E067DB8E-BE6D-BD40-8262-98D4CCD248C4}">
-  <dimension ref="A1:J88"/>
+  <dimension ref="A1:J89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J82" sqref="J82"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="61" style="2" customWidth="1"/>
     <col min="5" max="5" width="24" style="2" customWidth="1"/>
     <col min="6" max="6" width="41.1640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="45.6640625" style="2" customWidth="1"/>
     <col min="8" max="8" width="49.5" style="2" customWidth="1"/>
     <col min="9" max="9" width="16" style="2" customWidth="1"/>
-    <col min="10" max="10" width="61" style="2" customWidth="1"/>
+    <col min="10" max="10" width="107.5" style="2" customWidth="1"/>
     <col min="11" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
@@ -3482,7 +3515,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="64">
+    <row r="2" spans="1:10" ht="96">
       <c r="A2" s="1" t="s">
         <v>547</v>
       </c>
@@ -3511,10 +3544,10 @@
         <v>119</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="48">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="112">
       <c r="A3" s="1" t="s">
         <v>548</v>
       </c>
@@ -3543,10 +3576,10 @@
         <v>119</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="80">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="64">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -3575,10 +3608,10 @@
         <v>119</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="48">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="96">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -3607,7 +3640,7 @@
         <v>119</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>611</v>
+        <v>691</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="48">
@@ -3639,10 +3672,10 @@
         <v>119</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="80">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="64">
       <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
@@ -3671,10 +3704,10 @@
         <v>119</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="64">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="48">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -3703,7 +3736,7 @@
         <v>246</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="81">
@@ -3735,10 +3768,10 @@
         <v>246</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="81">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="65">
       <c r="A10" s="1" t="s">
         <v>51</v>
       </c>
@@ -3767,10 +3800,10 @@
         <v>246</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="80">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="64">
       <c r="A11" s="1" t="s">
         <v>56</v>
       </c>
@@ -3799,10 +3832,10 @@
         <v>246</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="64">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="48">
       <c r="A12" s="1" t="s">
         <v>62</v>
       </c>
@@ -3831,10 +3864,10 @@
         <v>246</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="64">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="48">
       <c r="A13" s="1" t="s">
         <v>68</v>
       </c>
@@ -3863,10 +3896,10 @@
         <v>246</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="80">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="48">
       <c r="A14" s="1" t="s">
         <v>73</v>
       </c>
@@ -3895,7 +3928,7 @@
         <v>246</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="80">
@@ -3927,10 +3960,10 @@
         <v>375</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="64">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="48">
       <c r="A16" s="1" t="s">
         <v>86</v>
       </c>
@@ -3959,7 +3992,7 @@
         <v>375</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="48">
@@ -3991,10 +4024,10 @@
         <v>375</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="80">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="64">
       <c r="A18" s="1" t="s">
         <v>98</v>
       </c>
@@ -4023,10 +4056,10 @@
         <v>375</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="80">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="64">
       <c r="A19" s="1" t="s">
         <v>103</v>
       </c>
@@ -4055,10 +4088,10 @@
         <v>375</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="64">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="48">
       <c r="A20" s="1" t="s">
         <v>108</v>
       </c>
@@ -4087,10 +4120,10 @@
         <v>375</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="80">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="64">
       <c r="A21" s="1" t="s">
         <v>113</v>
       </c>
@@ -4119,10 +4152,10 @@
         <v>375</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="64">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="48">
       <c r="A22" s="1" t="s">
         <v>120</v>
       </c>
@@ -4151,10 +4184,10 @@
         <v>375</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="80">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="64">
       <c r="A23" s="1" t="s">
         <v>125</v>
       </c>
@@ -4183,10 +4216,10 @@
         <v>375</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="64">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="48">
       <c r="A24" s="1" t="s">
         <v>549</v>
       </c>
@@ -4215,10 +4248,10 @@
         <v>375</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="64">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="48">
       <c r="A25" s="1" t="s">
         <v>127</v>
       </c>
@@ -4247,7 +4280,7 @@
         <v>137</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="80">
@@ -4279,10 +4312,10 @@
         <v>137</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="64">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="48">
       <c r="A27" s="1" t="s">
         <v>138</v>
       </c>
@@ -4311,10 +4344,10 @@
         <v>137</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="80">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="64">
       <c r="A28" s="1" t="s">
         <v>142</v>
       </c>
@@ -4343,10 +4376,10 @@
         <v>137</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="64">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="48">
       <c r="A29" s="1" t="s">
         <v>146</v>
       </c>
@@ -4375,10 +4408,10 @@
         <v>137</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="64">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="48">
       <c r="A30" s="1" t="s">
         <v>152</v>
       </c>
@@ -4407,10 +4440,10 @@
         <v>137</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="64">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="48">
       <c r="A31" s="1" t="s">
         <v>157</v>
       </c>
@@ -4439,10 +4472,10 @@
         <v>137</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="64">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="48">
       <c r="A32" s="1" t="s">
         <v>162</v>
       </c>
@@ -4471,7 +4504,7 @@
         <v>137</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="64">
@@ -4503,10 +4536,10 @@
         <v>137</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="64">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="48">
       <c r="A34" s="1" t="s">
         <v>550</v>
       </c>
@@ -4535,10 +4568,10 @@
         <v>137</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="80">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="64">
       <c r="A35" s="1" t="s">
         <v>180</v>
       </c>
@@ -4567,10 +4600,10 @@
         <v>137</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="64">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="48">
       <c r="A36" s="1" t="s">
         <v>187</v>
       </c>
@@ -4599,7 +4632,7 @@
         <v>137</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="48">
@@ -4628,10 +4661,10 @@
         <v>137</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="64">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="48">
       <c r="A38" s="1" t="s">
         <v>201</v>
       </c>
@@ -4660,10 +4693,10 @@
         <v>137</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="112">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="80">
       <c r="A39" s="1" t="s">
         <v>207</v>
       </c>
@@ -4692,10 +4725,10 @@
         <v>137</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="80">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="64">
       <c r="A40" s="1" t="s">
         <v>213</v>
       </c>
@@ -4724,10 +4757,10 @@
         <v>137</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="64">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="48">
       <c r="A41" s="1" t="s">
         <v>218</v>
       </c>
@@ -4756,7 +4789,7 @@
         <v>156</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="48">
@@ -4788,10 +4821,10 @@
         <v>156</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="112">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="96">
       <c r="A43" s="1" t="s">
         <v>230</v>
       </c>
@@ -4820,7 +4853,7 @@
         <v>173</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="48">
@@ -4852,7 +4885,7 @@
         <v>282</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="48">
@@ -4884,10 +4917,10 @@
         <v>282</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="64">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="48">
       <c r="A46" s="1" t="s">
         <v>247</v>
       </c>
@@ -4916,10 +4949,10 @@
         <v>282</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="64">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="48">
       <c r="A47" s="1" t="s">
         <v>254</v>
       </c>
@@ -4948,7 +4981,7 @@
         <v>282</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="48">
@@ -4980,10 +5013,10 @@
         <v>282</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="64">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="48">
       <c r="A49" s="1" t="s">
         <v>267</v>
       </c>
@@ -5012,10 +5045,10 @@
         <v>282</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="64">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="48">
       <c r="A50" s="1" t="s">
         <v>273</v>
       </c>
@@ -5044,10 +5077,10 @@
         <v>282</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="64">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="48">
       <c r="A51" s="1" t="s">
         <v>278</v>
       </c>
@@ -5076,10 +5109,10 @@
         <v>282</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="128">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="96">
       <c r="A52" s="1" t="s">
         <v>283</v>
       </c>
@@ -5108,10 +5141,10 @@
         <v>282</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="80">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="64">
       <c r="A53" s="1" t="s">
         <v>284</v>
       </c>
@@ -5140,7 +5173,7 @@
         <v>282</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="48">
@@ -5172,7 +5205,7 @@
         <v>282</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="48">
@@ -5204,7 +5237,7 @@
         <v>502</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="48">
@@ -5236,382 +5269,382 @@
         <v>502</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="80">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="48">
       <c r="A57" s="1" t="s">
-        <v>287</v>
+        <v>384</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>502</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="64">
       <c r="A58" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>63</v>
+        <v>592</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>502</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="48">
       <c r="A59" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>513</v>
+        <v>531</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>502</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="112">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="48">
       <c r="A60" s="1" t="s">
-        <v>356</v>
+        <v>289</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>544</v>
+        <v>69</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>539</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>532</v>
+        <v>513</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>502</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="64">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="80">
       <c r="A61" s="1" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>544</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>502</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="64">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="48">
       <c r="A62" s="1" t="s">
-        <v>553</v>
+        <v>363</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>540</v>
+        <v>594</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>544</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>502</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="96">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="48">
       <c r="A63" s="1" t="s">
-        <v>376</v>
+        <v>553</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>568</v>
+        <v>514</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>570</v>
+        <v>78</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>571</v>
+        <v>80</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>502</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="48">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="80">
       <c r="A64" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>543</v>
+        <v>567</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>541</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>515</v>
+        <v>568</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>38</v>
+        <v>569</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>570</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>40</v>
+        <v>572</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>571</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>502</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="96">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="48">
       <c r="A65" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>539</v>
+        <v>596</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>543</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>557</v>
+        <v>515</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>559</v>
+        <v>37</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>560</v>
+        <v>39</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>502</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="48">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="80">
       <c r="A66" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>573</v>
+        <v>556</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>539</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>574</v>
+        <v>557</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>575</v>
+        <v>558</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>576</v>
+        <v>559</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>578</v>
+        <v>560</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>502</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="48">
       <c r="A67" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>544</v>
+        <v>573</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>539</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>534</v>
+        <v>574</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>27</v>
+        <v>575</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>576</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>29</v>
+        <v>577</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>578</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>502</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="64">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="48">
       <c r="A68" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>539</v>
+        <v>25</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>544</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>508</v>
+        <v>534</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>29</v>
@@ -5620,111 +5653,111 @@
         <v>502</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="64">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="48">
       <c r="A69" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>535</v>
+        <v>508</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>502</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="64">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="48">
       <c r="A70" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>541</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>502</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="64">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="48">
       <c r="A71" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>598</v>
+        <v>87</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>541</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>502</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="64">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="48">
       <c r="A72" s="1" t="s">
         <v>490</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>542</v>
@@ -5748,10 +5781,10 @@
         <v>13</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="64">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="48">
       <c r="A73" s="1" t="s">
         <v>385</v>
       </c>
@@ -5780,10 +5813,10 @@
         <v>13</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="64">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="48">
       <c r="A74" s="1" t="s">
         <v>386</v>
       </c>
@@ -5812,10 +5845,10 @@
         <v>497</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="112">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="96">
       <c r="A75" s="1" t="s">
         <v>482</v>
       </c>
@@ -5844,426 +5877,458 @@
         <v>13</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="80">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="64">
       <c r="A76" s="1" t="s">
-        <v>483</v>
+        <v>600</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>562</v>
+        <v>601</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>539</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>563</v>
+        <v>602</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="F76" s="7" t="s">
-        <v>450</v>
+        <v>603</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>566</v>
+        <v>605</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>565</v>
+        <v>604</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="112">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="64">
       <c r="A77" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>14</v>
+        <v>562</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>517</v>
+        <v>563</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>16</v>
+        <v>564</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>450</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>18</v>
+        <v>566</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>565</v>
       </c>
       <c r="I77" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="48">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="96">
       <c r="A78" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>600</v>
+        <v>14</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="64">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="48">
       <c r="A79" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>109</v>
+        <v>599</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="64">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="48">
       <c r="A80" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J80" s="7" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="48">
+      <c r="A81" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B81" s="2" t="s">
         <v>459</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>542</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="F80" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="H80" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="J80" s="7" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="80">
-      <c r="A81" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>453</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>542</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="I81" s="2" t="s">
         <v>447</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="64">
       <c r="A82" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>542</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="I82" s="2" t="s">
         <v>447</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>602</v>
+        <v>681</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="48">
       <c r="A83" s="1" t="s">
-        <v>554</v>
+        <v>489</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>542</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="I83" s="2" t="s">
         <v>447</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="80">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="48">
       <c r="A84" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>542</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="I84" s="2" t="s">
         <v>447</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>604</v>
+        <v>683</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="64">
       <c r="A85" s="1" t="s">
-        <v>579</v>
+        <v>555</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>542</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="I85" s="2" t="s">
         <v>447</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>605</v>
+        <v>684</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="48">
       <c r="A86" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>468</v>
+        <v>492</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>542</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>471</v>
+        <v>495</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>470</v>
+        <v>494</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>469</v>
+        <v>491</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>493</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>447</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="64">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="48">
       <c r="A87" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>42</v>
+        <v>468</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>16</v>
+        <v>471</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>470</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>45</v>
+        <v>469</v>
       </c>
       <c r="I87" s="2" t="s">
         <v>447</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="64">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="48">
       <c r="A88" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>448</v>
+        <v>42</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>544</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="F88" s="7" t="s">
-        <v>450</v>
+        <v>43</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="H88" s="6" t="s">
-        <v>451</v>
+        <v>44</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="I88" s="2" t="s">
         <v>447</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>601</v>
+        <v>687</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="48">
+      <c r="A89" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="J89" s="7" t="s">
+        <v>688</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J88">
-    <sortCondition ref="I2:I88"/>
-    <sortCondition ref="D2:D88"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J89">
+    <sortCondition ref="I2:I89"/>
+    <sortCondition ref="D2:D89"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -6309,18 +6374,19 @@
     <hyperlink ref="H18" r:id="rId40" xr:uid="{A244D270-7C2F-FC48-AA9E-77923E3F9E9C}"/>
     <hyperlink ref="H23" r:id="rId41" xr:uid="{F7DB1F5F-687C-9141-9973-65A3BF51552C}"/>
     <hyperlink ref="H15" r:id="rId42" xr:uid="{F3F64AD5-5A76-7347-A675-056AF03551CD}"/>
-    <hyperlink ref="H88" r:id="rId43" xr:uid="{7B808A16-9C5B-D94C-81E8-46AFD11DAA8B}"/>
-    <hyperlink ref="H81" r:id="rId44" xr:uid="{B760EFB7-EAAF-EA48-87C1-3533C77A9935}"/>
-    <hyperlink ref="H80" r:id="rId45" xr:uid="{968384FB-1A18-4A4F-8CBD-27769ADC4E4A}"/>
-    <hyperlink ref="H82" r:id="rId46" xr:uid="{704D09EA-DD52-5242-B84F-4497D98C6ED4}"/>
-    <hyperlink ref="H83" r:id="rId47" xr:uid="{A9977D40-898D-A047-A597-F8890E973840}"/>
-    <hyperlink ref="H84" r:id="rId48" xr:uid="{4E792F61-7F80-6C4B-9665-B6B417F7696C}"/>
-    <hyperlink ref="H85" r:id="rId49" xr:uid="{9640B243-AB3F-1241-8664-B498E1955BA8}"/>
+    <hyperlink ref="H89" r:id="rId43" xr:uid="{7B808A16-9C5B-D94C-81E8-46AFD11DAA8B}"/>
+    <hyperlink ref="H82" r:id="rId44" xr:uid="{B760EFB7-EAAF-EA48-87C1-3533C77A9935}"/>
+    <hyperlink ref="H81" r:id="rId45" xr:uid="{968384FB-1A18-4A4F-8CBD-27769ADC4E4A}"/>
+    <hyperlink ref="H83" r:id="rId46" xr:uid="{704D09EA-DD52-5242-B84F-4497D98C6ED4}"/>
+    <hyperlink ref="H84" r:id="rId47" xr:uid="{A9977D40-898D-A047-A597-F8890E973840}"/>
+    <hyperlink ref="H85" r:id="rId48" xr:uid="{4E792F61-7F80-6C4B-9665-B6B417F7696C}"/>
+    <hyperlink ref="H86" r:id="rId49" xr:uid="{9640B243-AB3F-1241-8664-B498E1955BA8}"/>
     <hyperlink ref="H74" r:id="rId50" xr:uid="{1EEB7EC7-3232-C74A-B8D4-F766FA226DD6}"/>
-    <hyperlink ref="H65" r:id="rId51" xr:uid="{2982BCF7-83FA-DF42-8E77-65A98FEF0D97}"/>
-    <hyperlink ref="H76" r:id="rId52" xr:uid="{0C3EA1BA-1C76-F34B-BAFC-DF3F07FE7E3C}"/>
-    <hyperlink ref="H63" r:id="rId53" xr:uid="{F982A45B-F644-B64B-87EC-0810B78786A5}"/>
-    <hyperlink ref="H66" r:id="rId54" xr:uid="{D2634F17-366F-9740-84F6-0D60A7B20722}"/>
+    <hyperlink ref="H66" r:id="rId51" xr:uid="{2982BCF7-83FA-DF42-8E77-65A98FEF0D97}"/>
+    <hyperlink ref="H77" r:id="rId52" xr:uid="{0C3EA1BA-1C76-F34B-BAFC-DF3F07FE7E3C}"/>
+    <hyperlink ref="H64" r:id="rId53" xr:uid="{F982A45B-F644-B64B-87EC-0810B78786A5}"/>
+    <hyperlink ref="H67" r:id="rId54" xr:uid="{D2634F17-366F-9740-84F6-0D60A7B20722}"/>
+    <hyperlink ref="H76" r:id="rId55" xr:uid="{4AF62C81-5DA0-9E44-B08F-C265FE6BB5D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/db/AiCity-72-Restaurant.xlsx
+++ b/db/AiCity-72-Restaurant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7452AE-05F9-8F4B-83B4-0CE761FFB919}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB7A4EF-08A6-BD43-BEF1-364B23A74E86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="35160" windowHeight="25400" xr2:uid="{1AAFA279-DBCD-DA42-8F0D-FE7868FF2730}"/>
+    <workbookView xWindow="11240" yWindow="1700" windowWidth="35160" windowHeight="25400" xr2:uid="{1AAFA279-DBCD-DA42-8F0D-FE7868FF2730}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -2519,60 +2519,12 @@
   </si>
   <si>
     <t>&lt;p&gt;
-  網路資訊:  &lt;a type="button" class="btn btn-info"  href="https://www.facebook.com/ZiaBing/photos/p.2680339398749724/2680339398749724"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
    網路資訊: &lt;a style="button" class="btn btn-info"  href="http://www.saboten.com.tw/goods.php?act=list&amp;cid=1"&gt;菜單&lt;/a&gt; &amp;nbsp;  &lt;a style="button" class="btn btn-info"  href="https://inline.app/booking/-KuUwaEhVKljatiaBnAM:inline-live-2a466/-LvPgpHIn8DHGtoXyDJF"&gt;訂位&lt;/a&gt; &amp;nbsp;  &lt;a style="button" class="btn btn-info"  href="https://inline.app/order/-KuUwaEhVKljatiaBnAM:inline-live-2a466/-LvPgpHIn8DHGtoXyDJF?language=zh-tw"&gt;訂餐&lt;/a&gt;
 &lt;/p&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&lt;p&gt;
-   網路資訊: &lt;a style="button" class="btn btn-info"  href="http://www.hilai-foods.com/zh_TW/brand/harbour"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://icard.ai/shop/reward/channel%2F5f7aeef696c1f49bcc713377?type=channel_concept%2F5f6ab11b3d97d93195e6707c"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="http://www.hilai-foods.com/my-account/Olivia/newyear/2021Tao%20Yuan%20Tang%20Bao%20Cai%20Dan%20.jpg"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="http://www.hilai-foods.com/Roast%20Duck/Shang%20Cai%20Dan%20Dian%20Cai%20Dan%20.pdf"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://www.syabuyo.com.tw/store_detail.php?id=6&amp;area="&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://www.yakiyan.com/pdf/2102/yakiyan_menu.pdf"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/ninigarden/menu/?ref=page_internal"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
   網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/pappis0226088167/menu"&gt;菜單&lt;/a&gt;
 &lt;/p&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2609,24 +2561,12 @@
   </si>
   <si>
     <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.gomaji.com/store/111390"&gt;Gomaji 介紹&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
   網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/bluelampcafe/photos/p.1074693843056553/1074693843056553"&gt;菜單&lt;/a&gt;
 &lt;/p&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://editordiary.pixnet.net/blog/post/218296050"&gt;痞客邦 介紹&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
   網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/thecafeby2/menu"&gt;菜單&lt;/a&gt;
 &lt;/p&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2651,12 +2591,6 @@
   </si>
   <si>
     <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.leeleelin.com/2016/07/tonchin-menu.html"&gt;旅攝生活 介紹&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.tendon.kingoshou.com/products/1/1.htm"&gt;菜單&lt;/a&gt;
 &lt;/p&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2669,12 +2603,6 @@
   </si>
   <si>
     <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://g8906011.pixnet.net/blog/post/491175209"&gt;痞客邦 介紹&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
   網路資訊:  &lt;a style="button" class="btn btn-info"  href="http://www.kua-aina.tw/zh_TW/gallery-content/node/1452062353001"&gt;菜單&lt;/a&gt;
 &lt;/p&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2711,12 +2639,6 @@
   </si>
   <si>
     <t>&lt;p&gt;
- 網路資訊:   &lt;a style="button" class="btn btn-info"  href="https://www.gomaji.com/store/87820?gclid=Cj0KCQjw9YWDBhDyARIsADt6sGZ_ONKpfV-UYHQSqgC1Dgrj8BQMXo07eHu2lMfRk32q3yY8aDZaglgaAlSMEALw_wcB"&gt;Gomaji 介紹&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
   網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/LakuLakuMachi/photos/p.833949060055696/833949060055696"&gt;菜單&lt;/a&gt;
 &lt;/p&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2747,12 +2669,6 @@
   </si>
   <si>
     <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://fairylolita.com/wumenu/"&gt;網路 介紹&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
   網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/1855hotpot/menu"&gt;菜單&lt;/a&gt;
 &lt;/p&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2765,48 +2681,12 @@
   </si>
   <si>
     <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://vivawei.tw/gia-fine/"&gt;網路介紹&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://fairylolita.com/one-show-sushi/"&gt;網路介紹&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www111060.pixnet.net/blog/post/404966851"&gt;網路介紹&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-   &lt;a style="button" class="btn btn-info"  href="https://www.walkerland.com.tw/article/view/250686?page=full"&gt;網路介紹&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://hungryleon.com/blog/post/326792023-%E6%9E%97%E5%8F%A3%E9%BE%9C%E5%B1%B1%E7%BE%8E%E9%A3%9F-%E6%A2%85%E8%8F%8A%E6%89%8B%E4%BD%9C%E9%AD%AF%E8%82%89%E9%A3%AF%EF%BC%8C%E9%8B%AA%E6%BB%BF%E9%AE%AE%E8%9A%B5%E8%9D%A6"&gt;網路介紹&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
   網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/tastyoldtime/photos/p.1153757731719550/1153757731719550"&gt;菜單&lt;/a&gt;
 &lt;/p&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://letsplay.tw/taishapa/"&gt;網路介紹&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
   網路資訊:  &lt;a style="button" class="btn btn-info"  href="http://www.thicklycut.com.tw/"&gt;菜單&lt;/a&gt;
 &lt;/p&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2843,24 +2723,12 @@
   </si>
   <si>
     <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://zaq0930.pixnet.net/blog/post/354223907-%E3%80%90%E6%A1%83%E5%9C%92%E9%BE%9C%E5%B1%B1%E9%A3%9F%E8%A8%98%E3%80%91%E5%AD%AB%E6%9D%B1%E5%AF%B6%E5%8F%B0%E5%BC%8F%E7%89%9B%E6%8E%92%E5%BA%97"&gt;網路介紹&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
   網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.guotaiming-hotpot.com/menu.html"&gt;菜單&lt;/a&gt;
 &lt;/p&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&lt;p&gt;
- 網路資訊:   &lt;a style="button" class="btn btn-info"  href="https://ch3126.pixnet.net/blog/post/120524278"&gt;網路介紹&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
   網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/%E6%BE%8E%E6%B9%96%E7%81%A3%E5%B9%B3%E5%83%B9%E6%B5%B7%E9%AE%AE%E9%A4%90%E5%BB%B3-108479787548057/menu"&gt;菜單&lt;/a&gt;
 &lt;/p&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2885,30 +2753,12 @@
   </si>
   <si>
     <t>&lt;p&gt;
-  網路資訊: &lt;a style="button" class="btn btn-info"  href=""https://vivawei.tw/gia-fine/""&gt;網路介紹&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
   網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://blog.xuite.net/aec810909/blog/496637882"&gt;菜單&lt;/a&gt;
 &lt;/p&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.alberthsieh.com/3183/tina-kit-wenhua"&gt;網路介紹&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
- 網路資訊:   &lt;a style="button" class="btn btn-info"  href="https://tzuhui99.pixnet.net/blog/post/44775661"&gt;網路介紹&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
   網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.starbucks.com.tw/products/catalog.jspx"&gt;菜單&lt;/a&gt;
 &lt;/p&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2921,127 +2771,288 @@
   </si>
   <si>
     <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://almablog.com.tw/blog/post/161166"&gt;網路介紹&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://nixojov.pixnet.net/blog/post/352831532-%E3%80%90%E6%9E%97%E5%8F%A3%E7%BE%8E%E9%A3%9F%E3%80%91%E5%8D%83%E8%91%89%E7%81%AB%E9%8D%8B%E6%9E%97%E5%8F%A3%E5%B0%8A%E7%88%B5%E9%A4%A8-%E8%B6%85%E9%81%8E%E7%99%BE%E6%A8%A3"&gt;網路介紹&lt;/a&gt;
+ 網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.pizzahut.com.tw/order/?mode=step_2&amp;type_id=0&amp;fm=obn&amp;tt=1616"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.yentlpasta.com.tw/menu"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+ 網路資訊:   &lt;a style="button" class="btn btn-info"  href="http://www.shinemood2006.com/product_list.asp"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/528201201460788/photos/a.528306241450284/556264938654414/"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/1640280569628363/posts/2044433485879734/"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a style="button" class="btn btn-info"  href="http://www.noble.com.tw/index.php/menu/refinement-foodmenu"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.yentlpasta.com.tw/menu/18"&gt;菜單&lt;/a&gt; &amp;nbsp; &lt;a style="button" class="btn btn-info"  href="https://zaq0930.pixnet.net/blog/post/351339605-%E3%80%90%E6%A9%9F%E6%8D%B7a8%E7%AB%99%E3%80%91%E6%B4%8B%E6%9C%B5%E7%BE%A9%E5%BC%8F%E9%A4%90%E5%BB%B3~%E7%92%B0%E7%90%83%E7%99%BE%E8%B2%A81f~%E6%9E%97%E5%8F%A3%E9%95%B7"&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.zhujishop.com.tw/index.php?type=top&amp;arem=157"&gt;菜單&lt;/a&gt; &amp;nbsp;  &lt;a style="button" class="btn btn-info"  href="https://www.zhujishop.com.tw/index.php?type=top&amp;arem=165"&gt;宅配&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://www.thaitown.com.tw/tw/menu"&gt;菜單&lt;/a&gt; &amp;nbsp; &lt;a style="button" class="btn btn-info"  href="https://ryohei0221.pixnet.net/blog/post/68108145"&gt;網路推薦&lt;/a&gt; &amp;nbsp; &lt;a style="button" class="btn btn-info"  href="https://ryohei0221.pixnet.net/blog/post/68108145"&gt; &amp;nbsp; &lt;a style="button" class="btn btn-info"  href="https://en.eztable.com/restaurant/14471"&gt;線上訂位&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a href="file/RES-101-阿基師.pdf"&gt;菜單&lt;/a&gt; &amp;nbsp;  &lt;a href="file/RES-101-阿基師.pdf"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://www.hwayoung.com/upload/files/a8global_menu.pdf"&gt;菜單&lt;/a&gt; &amp;nbsp;  &lt;a style="button" class="btn btn-info"  href="https://www.alberthsieh.com/43347/hwayoung-a8"&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a style="button" class="btn btn-info"  href="http://www.hilai-foods.com/zh_TW/brand/harbour"&gt;菜單&lt;/a&gt; &amp;nbsp; &lt;a style="button" class="btn btn-info"  href="https://en.eztable.com/restaurant/2198"&gt;線上訂位&lt;/a&gt; &amp;nbsp; &lt;a style="button" class="btn btn-info"  href="https://www.alberthsieh.com/1738/hilaiharbour-buffet-taimall"&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://icard.ai/shop/reward/channel%2F5f7aeef696c1f49bcc713377?type=channel_concept%2F5f6ab11b3d97d93195e6707c"&gt;菜單&lt;/a&gt; &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://misshoki.com/haidilao/"&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="http://www.hilai-foods.com/my-account/Olivia/newyear/2021Tao%20Yuan%20Tang%20Bao%20Cai%20Dan%20.jpg"&gt;菜單&lt;/a&gt; &amp;nbsp; 
+   &lt;a style="button" class="btn btn-info"  href="https://daughter.tw/2019-11-19/"&gt;網路推薦&lt;/a&gt; &amp;nbsp; 
+   &lt;a style="button" class="btn btn-info"  href="https://eshop.hilai-foods.com/"&gt;線上購物&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="http://www.hilai-foods.com/Roast%20Duck/Shang%20Cai%20Dan%20Dian%20Cai%20Dan%20.pdf"&gt;菜單&lt;/a&gt; &amp;nbsp; 
+   &lt;a style="button" class="btn btn-info"  href="https://inline.app/booking/-MJloksQFvxxEehtWcOM:inline-live-1/-MJlolSF4GFSfRBYcvKl?language=zh-tw"&gt;線上訂位&lt;/a&gt;  &amp;nbsp; 
+   &lt;a style="button" class="btn btn-info"  href="https://daughter.tw/duck-11-25/"&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://www.syabuyo.com.tw/store_detail.php?id=6&amp;area="&gt;菜單&lt;/a&gt; &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://inline.app/booking/-LPimPrzunBVFBi0ckJB:inline-live-2a466/-LPjVO9N3lZaaEkDWDl_"&gt;線上訂位&lt;/a&gt; &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://zineblog.com.tw/blog/post/200616"&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://www.yakiyan.com/pdf/2102/yakiyan_menu.pdf"&gt;菜單&lt;/a&gt; &amp;nbsp;
+  &lt;a style="button" class="btn btn-info"  href="https://fengtaiwanway.com/taoyuan-food_2076/"&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/ninigarden/menu/?ref=page_internal"&gt;菜單&lt;/a&gt; &amp;nbsp;
+  &lt;a style="button" class="btn btn-info"  href="https://www.tinalife.com/blog/post/358126796-%E3%80%90%E6%A1%83%E5%9C%92%E7%BE%8E%E9%A3%9F%E3%80%91nini-%E5%B0%BC%E5%B0%BC%E7%BE%A9%E5%A4%A7%E5%88%A9%E9%A4%90%E5%BB%B3-%E5%8F%B0%E8%8C%82%E5%BA%97---%E9%A4%90"&gt;網路推薦&lt;/a&gt; &amp;nbsp;
+    &lt;a style="button" class="btn btn-info"  href="https://en.eztable.com/restaurant/14992"&gt;線上訂位&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a type="button" class="btn btn-info"  href="https://www.facebook.com/ZiaBing/photos/p.2680339398749724/2680339398749724"&gt;菜單&lt;/a&gt; &amp;nbsp;
+  &lt;a type="button" class="btn btn-info"  href="https://almablog.com.tw/blog/post/136256"&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://editordiary.pixnet.net/blog/post/218296050"&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.leeleelin.com/2016/07/tonchin-menu.html"&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://g8906011.pixnet.net/blog/post/491175209"&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+ 網路資訊:   &lt;a style="button" class="btn btn-info"  href="https://www.gomaji.com/store/87820?gclid=Cj0KCQjw9YWDBhDyARIsADt6sGZ_ONKpfV-UYHQSqgC1Dgrj8BQMXo07eHu2lMfRk32q3yY8aDZaglgaAlSMEALw_wcB"&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://fairylolita.com/wumenu/"&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://vivawei.tw/gia-fine/"&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://fairylolita.com/one-show-sushi/"&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www111060.pixnet.net/blog/post/404966851"&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   &lt;a style="button" class="btn btn-info"  href="https://www.walkerland.com.tw/article/view/250686?page=full"&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://hungryleon.com/blog/post/326792023-%E6%9E%97%E5%8F%A3%E9%BE%9C%E5%B1%B1%E7%BE%8E%E9%A3%9F-%E6%A2%85%E8%8F%8A%E6%89%8B%E4%BD%9C%E9%AD%AF%E8%82%89%E9%A3%AF%EF%BC%8C%E9%8B%AA%E6%BB%BF%E9%AE%AE%E8%9A%B5%E8%9D%A6"&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://letsplay.tw/taishapa/"&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://zaq0930.pixnet.net/blog/post/354223907-%E3%80%90%E6%A1%83%E5%9C%92%E9%BE%9C%E5%B1%B1%E9%A3%9F%E8%A8%98%E3%80%91%E5%AD%AB%E6%9D%B1%E5%AF%B6%E5%8F%B0%E5%BC%8F%E7%89%9B%E6%8E%92%E5%BA%97"&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+ 網路資訊:   &lt;a style="button" class="btn btn-info"  href="https://ch3126.pixnet.net/blog/post/120524278"&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊: &lt;a style="button" class="btn btn-info"  href=""https://vivawei.tw/gia-fine/""&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.alberthsieh.com/3183/tina-kit-wenhua"&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+ 網路資訊:   &lt;a style="button" class="btn btn-info"  href="https://tzuhui99.pixnet.net/blog/post/44775661"&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://almablog.com.tw/blog/post/161166"&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://nixojov.pixnet.net/blog/post/352831532-%E3%80%90%E6%9E%97%E5%8F%A3%E7%BE%8E%E9%A3%9F%E3%80%91%E5%8D%83%E8%91%89%E7%81%AB%E9%8D%8B%E6%9E%97%E5%8F%A3%E5%B0%8A%E7%88%B5%E9%A4%A8-%E8%B6%85%E9%81%8E%E7%99%BE%E6%A8%A3"&gt;網路推薦&lt;/a&gt;
 &lt;/p&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>"&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.foodpanda.com.tw/en/restaurant/z6ng/qin-mei-ting?r=1"&gt;網路介紹&lt;/a&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.foodpanda.com.tw/en/restaurant/z6ng/qin-mei-ting?r=1"&gt;網路推薦&lt;/a&gt;
 &lt;/p&gt;"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&lt;p&gt;
- 網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.pizzahut.com.tw/order/?mode=step_2&amp;type_id=0&amp;fm=obn&amp;tt=1616"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://z78625.pixnet.net/blog/post/229011977-%E6%9E%97%E5%8F%A3%E9%BE%9C%E5%B1%B1%E5%90%83%E5%88%B0%E9%A3%BD%E3%80%8E%E4%B8%80%E7%95%AA%E5%9C%B0%E5%A3%BD%E5%96%9C%E7%87%92(%E6%9E%97%E5%8F%A3%E9%95%B7%E5%BA%9A%E5%BA%97)"&gt;網路介紹&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.yentlpasta.com.tw/menu"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://beauty082836.pixnet.net/blog/post/403782632"&gt;網路介紹&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
- 網路資訊:   &lt;a style="button" class="btn btn-info"  href="http://www.shinemood2006.com/product_list.asp"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/528201201460788/photos/a.528306241450284/556264938654414/"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://vivawei.tw/sugarcane-mamama/"&gt;網路介紹&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://vivawei.tw/3villagesss/"&gt;網路介紹&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/1640280569628363/posts/2044433485879734/"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://www.viviyu.com/archives/30655"&gt;網路介紹&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://tenjo.tw/aqishi-xiaolongbao/"&gt;台北店介紹&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-   網路資訊: &lt;a style="button" class="btn btn-info"  href="http://www.noble.com.tw/index.php/menu/refinement-foodmenu"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://wen4899.pixnet.net/blog/post/219177768"&gt;網路介紹&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.yentlpasta.com.tw/menu/18"&gt;菜單&lt;/a&gt; &amp;nbsp; &lt;a style="button" class="btn btn-info"  href="https://zaq0930.pixnet.net/blog/post/351339605-%E3%80%90%E6%A9%9F%E6%8D%B7a8%E7%AB%99%E3%80%91%E6%B4%8B%E6%9C%B5%E7%BE%A9%E5%BC%8F%E9%A4%90%E5%BB%B3~%E7%92%B0%E7%90%83%E7%99%BE%E8%B2%A81f~%E6%9E%97%E5%8F%A3%E9%95%B7"&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.zhujishop.com.tw/index.php?type=top&amp;arem=157"&gt;菜單&lt;/a&gt; &amp;nbsp;  &lt;a style="button" class="btn btn-info"  href="https://www.zhujishop.com.tw/index.php?type=top&amp;arem=165"&gt;宅配&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://www.thaitown.com.tw/tw/menu"&gt;菜單&lt;/a&gt; &amp;nbsp; &lt;a style="button" class="btn btn-info"  href="https://ryohei0221.pixnet.net/blog/post/68108145"&gt;網路推薦&lt;/a&gt; &amp;nbsp; &lt;a style="button" class="btn btn-info"  href="https://ryohei0221.pixnet.net/blog/post/68108145"&gt; &amp;nbsp; &lt;a style="button" class="btn btn-info"  href="https://en.eztable.com/restaurant/14471"&gt;線上訂位&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="file/RES-101-阿基師.pdf"&gt;菜單&lt;/a&gt; &amp;nbsp;  &lt;a href="file/RES-101-阿基師.pdf"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://www.hwayoung.com/upload/files/a8global_menu.pdf"&gt;菜單&lt;/a&gt; &amp;nbsp;  &lt;a style="button" class="btn btn-info"  href="https://www.alberthsieh.com/43347/hwayoung-a8"&gt;網路推薦&lt;/a&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://z78625.pixnet.net/blog/post/229011977-%E6%9E%97%E5%8F%A3%E9%BE%9C%E5%B1%B1%E5%90%83%E5%88%B0%E9%A3%BD%E3%80%8E%E4%B8%80%E7%95%AA%E5%9C%B0%E5%A3%BD%E5%96%9C%E7%87%92(%E6%9E%97%E5%8F%A3%E9%95%B7%E5%BA%9A%E5%BA%97)"&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://beauty082836.pixnet.net/blog/post/403782632"&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://vivawei.tw/sugarcane-mamama/"&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://vivawei.tw/3villagesss/"&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://www.viviyu.com/archives/30655"&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://wen4899.pixnet.net/blog/post/219177768"&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://tenjo.tw/aqishi-xiaolongbao/"&gt;台北店-網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.gomaji.com/store/111390"&gt;網路推薦&lt;/a&gt;
 &lt;/p&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3462,10 +3473,10 @@
   <dimension ref="A1:J89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3544,7 +3555,7 @@
         <v>119</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="112">
@@ -3576,7 +3587,7 @@
         <v>119</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>689</v>
+        <v>654</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="64">
@@ -3608,7 +3619,7 @@
         <v>119</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>690</v>
+        <v>655</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="96">
@@ -3640,7 +3651,7 @@
         <v>119</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>691</v>
+        <v>656</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="48">
@@ -3672,7 +3683,7 @@
         <v>119</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>692</v>
+        <v>657</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="64">
@@ -3704,10 +3715,10 @@
         <v>119</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="48">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="80">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -3736,10 +3747,10 @@
         <v>246</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="81">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="97">
       <c r="A9" s="1" t="s">
         <v>46</v>
       </c>
@@ -3768,10 +3779,10 @@
         <v>246</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="65">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="97">
       <c r="A10" s="1" t="s">
         <v>51</v>
       </c>
@@ -3800,10 +3811,10 @@
         <v>246</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="64">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="112">
       <c r="A11" s="1" t="s">
         <v>56</v>
       </c>
@@ -3832,10 +3843,10 @@
         <v>246</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="48">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="96">
       <c r="A12" s="1" t="s">
         <v>62</v>
       </c>
@@ -3864,10 +3875,10 @@
         <v>246</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="48">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="64">
       <c r="A13" s="1" t="s">
         <v>68</v>
       </c>
@@ -3896,10 +3907,10 @@
         <v>246</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="48">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="144">
       <c r="A14" s="1" t="s">
         <v>73</v>
       </c>
@@ -3928,7 +3939,7 @@
         <v>246</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>614</v>
+        <v>665</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="80">
@@ -3960,7 +3971,7 @@
         <v>375</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>606</v>
+        <v>666</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="48">
@@ -3992,7 +4003,7 @@
         <v>375</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="48">
@@ -4024,7 +4035,7 @@
         <v>375</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="64">
@@ -4056,7 +4067,7 @@
         <v>375</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="64">
@@ -4088,7 +4099,7 @@
         <v>375</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="48">
@@ -4120,7 +4131,7 @@
         <v>375</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="64">
@@ -4152,7 +4163,7 @@
         <v>375</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="48">
@@ -4184,7 +4195,7 @@
         <v>375</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>621</v>
+        <v>693</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="64">
@@ -4216,7 +4227,7 @@
         <v>375</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="48">
@@ -4248,7 +4259,7 @@
         <v>375</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>623</v>
+        <v>667</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="48">
@@ -4280,7 +4291,7 @@
         <v>137</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="80">
@@ -4312,7 +4323,7 @@
         <v>137</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="48">
@@ -4344,7 +4355,7 @@
         <v>137</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="64">
@@ -4376,7 +4387,7 @@
         <v>137</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="48">
@@ -4408,7 +4419,7 @@
         <v>137</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>628</v>
+        <v>668</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="48">
@@ -4440,7 +4451,7 @@
         <v>137</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="48">
@@ -4472,7 +4483,7 @@
         <v>137</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="48">
@@ -4504,7 +4515,7 @@
         <v>137</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>631</v>
+        <v>669</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="64">
@@ -4536,7 +4547,7 @@
         <v>137</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="48">
@@ -4568,7 +4579,7 @@
         <v>137</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="64">
@@ -4600,7 +4611,7 @@
         <v>137</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="48">
@@ -4632,7 +4643,7 @@
         <v>137</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="48">
@@ -4661,7 +4672,7 @@
         <v>137</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="48">
@@ -4693,7 +4704,7 @@
         <v>137</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="80">
@@ -4725,7 +4736,7 @@
         <v>137</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>638</v>
+        <v>670</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="64">
@@ -4757,7 +4768,7 @@
         <v>137</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="48">
@@ -4789,7 +4800,7 @@
         <v>156</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="48">
@@ -4821,7 +4832,7 @@
         <v>156</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="96">
@@ -4853,7 +4864,7 @@
         <v>173</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="48">
@@ -4885,7 +4896,7 @@
         <v>282</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="48">
@@ -4917,7 +4928,7 @@
         <v>282</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>644</v>
+        <v>671</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="48">
@@ -4949,7 +4960,7 @@
         <v>282</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>645</v>
+        <v>631</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="48">
@@ -4981,7 +4992,7 @@
         <v>282</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="48">
@@ -5013,7 +5024,7 @@
         <v>282</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>647</v>
+        <v>672</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="48">
@@ -5045,7 +5056,7 @@
         <v>282</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>648</v>
+        <v>673</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="48">
@@ -5077,7 +5088,7 @@
         <v>282</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>649</v>
+        <v>674</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="48">
@@ -5109,7 +5120,7 @@
         <v>282</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="96">
@@ -5141,7 +5152,7 @@
         <v>282</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>651</v>
+        <v>676</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="64">
@@ -5173,7 +5184,7 @@
         <v>282</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>652</v>
+        <v>633</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="48">
@@ -5205,7 +5216,7 @@
         <v>282</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>653</v>
+        <v>677</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="48">
@@ -5237,7 +5248,7 @@
         <v>502</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>654</v>
+        <v>634</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="48">
@@ -5269,7 +5280,7 @@
         <v>502</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>655</v>
+        <v>635</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="48">
@@ -5301,7 +5312,7 @@
         <v>502</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>656</v>
+        <v>636</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="64">
@@ -5333,7 +5344,7 @@
         <v>502</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>657</v>
+        <v>637</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="48">
@@ -5365,7 +5376,7 @@
         <v>502</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>658</v>
+        <v>638</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="48">
@@ -5397,7 +5408,7 @@
         <v>502</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>659</v>
+        <v>639</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="80">
@@ -5429,7 +5440,7 @@
         <v>502</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>660</v>
+        <v>678</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="48">
@@ -5461,7 +5472,7 @@
         <v>502</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>661</v>
+        <v>640</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="48">
@@ -5493,7 +5504,7 @@
         <v>502</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>662</v>
+        <v>679</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="80">
@@ -5525,7 +5536,7 @@
         <v>502</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>663</v>
+        <v>641</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="48">
@@ -5557,7 +5568,7 @@
         <v>502</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>664</v>
+        <v>642</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="80">
@@ -5589,7 +5600,7 @@
         <v>502</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>665</v>
+        <v>643</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="48">
@@ -5621,7 +5632,7 @@
         <v>502</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>666</v>
+        <v>644</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="48">
@@ -5653,7 +5664,7 @@
         <v>502</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>667</v>
+        <v>680</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="48">
@@ -5685,7 +5696,7 @@
         <v>502</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>668</v>
+        <v>645</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="48">
@@ -5717,7 +5728,7 @@
         <v>502</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>669</v>
+        <v>681</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="48">
@@ -5749,7 +5760,7 @@
         <v>502</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="48">
@@ -5781,7 +5792,7 @@
         <v>13</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>671</v>
+        <v>646</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="48">
@@ -5813,7 +5824,7 @@
         <v>13</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>672</v>
+        <v>647</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="48">
@@ -5845,7 +5856,7 @@
         <v>497</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>673</v>
+        <v>683</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="96">
@@ -5877,7 +5888,7 @@
         <v>13</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>674</v>
+        <v>684</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="64">
@@ -5909,7 +5920,7 @@
         <v>13</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>675</v>
+        <v>685</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="64">
@@ -5941,7 +5952,7 @@
         <v>13</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>676</v>
+        <v>648</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="96">
@@ -5973,7 +5984,7 @@
         <v>13</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="48">
@@ -6005,7 +6016,7 @@
         <v>13</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>678</v>
+        <v>649</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="48">
@@ -6037,7 +6048,7 @@
         <v>13</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>679</v>
+        <v>687</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="48">
@@ -6069,7 +6080,7 @@
         <v>447</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>680</v>
+        <v>650</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="64">
@@ -6101,7 +6112,7 @@
         <v>447</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>681</v>
+        <v>651</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="48">
@@ -6133,7 +6144,7 @@
         <v>447</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="48">
@@ -6165,7 +6176,7 @@
         <v>447</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="64">
@@ -6197,7 +6208,7 @@
         <v>447</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>684</v>
+        <v>652</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="48">
@@ -6229,7 +6240,7 @@
         <v>447</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="48">
@@ -6258,7 +6269,7 @@
         <v>447</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="48">
@@ -6290,7 +6301,7 @@
         <v>447</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>687</v>
+        <v>653</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="48">
@@ -6322,7 +6333,7 @@
         <v>447</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
     </row>
   </sheetData>

--- a/db/AiCity-72-Restaurant.xlsx
+++ b/db/AiCity-72-Restaurant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB7A4EF-08A6-BD43-BEF1-364B23A74E86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7E9E72-B467-2A48-BBC3-1260514C7C54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11240" yWindow="1700" windowWidth="35160" windowHeight="25400" xr2:uid="{1AAFA279-DBCD-DA42-8F0D-FE7868FF2730}"/>
   </bookViews>
@@ -1585,10 +1585,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>想林口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>新北市林口區文化一路一段250號</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2525,288 +2521,6 @@
   </si>
   <si>
     <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/pappis0226088167/menu"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/gfood51/menu"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/freakscafebistrolk/menu/?ref=page_internal"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/1971298456236144/photos/p.2094527287246593/2094527287246593"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/bravoburgerlinkou/menu"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/meiligreen384/posts/188181188420999/"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/bluelampcafe/photos/p.1074693843056553/1074693843056553"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/thecafeby2/menu"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/media/set/?set=a.430675527120156.1073741838.138245503029828&amp;type=3&amp;uploaded=14"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊: &lt;a style="button" class="btn btn-info"  href="https://www.gyukatsu-motomura.com/zh/menu"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/TsuruhashiFugetsuTaiwan/photos/pcb.2683771331941236/2683771135274589/"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
- 網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.tendon.kingoshou.com/products/1/1.htm"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
- 網路資訊:   &lt;a style="button" class="btn btn-info"  href="https://paul1889-dessert-togo.cashier.ecpay.com.tw/"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="http://www.kua-aina.tw/zh_TW/gallery-content/node/1452062353001"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.thaitown.com.tw/tw/menu#section-1"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.shinyeh.com.tw/content/zh/brand/Menu.aspx?BrandId=3#tabpanel_1"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="http://www.dianshuilou.com.tw/Foods_2_a_1.aspx?s=7"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.kurasushi.tw/products"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://shop.thesecretcake.com.tw/product.php?mid=8"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/LakuLakuMachi/photos/p.833949060055696/833949060055696"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/homaseafood/menu"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="http://villager.com.tw/"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/%E5%9C%93%E6%98%8E%E5%9C%92%E8%8A%B1%E5%9C%92%E6%B5%B7%E9%AE%AE%E6%9C%83%E9%A4%A8%E5%8E%9F%E5%96%9C%E5%B8%82%E5%A4%9A%E9%A4%90%E5%BB%B3-106254614063995/menu"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.jp-cuisines.com/menu.html"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/1855hotpot/menu"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/388622Maruko/menu"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/tastyoldtime/photos/p.1153757731719550/1153757731719550"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="http://www.thicklycut.com.tw/"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
- 網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/6owldoor/menu"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"   href="http://www.enjoy99.com.tw/product.php?class_sn=13"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/843813859063434/photos/a.844778335633653/844779032300250"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/plant.pasta/menu"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.dominos.com.tw/taste.htm"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.guotaiming-hotpot.com/menu.html"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/%E6%BE%8E%E6%B9%96%E7%81%A3%E5%B9%B3%E5%83%B9%E6%B5%B7%E9%AE%AE%E9%A4%90%E5%BB%B3-108479787548057/menu"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://tenjo.tw/gangta-buffet/"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.0800076666.com.tw/Menu/MenuPizza?fbclid=IwAR3NJaIMZXhd9U7D6SbV_Dh1QJ2U7LgJUSwI8RLMx0aTBV_UFs6N1umsR7o"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://menubar.tw/menu/vyVv2sDUMTiF"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://blog.xuite.net/aec810909/blog/496637882"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.starbucks.com.tw/products/catalog.jspx"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/GreatDaysBrunch/menu"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
- 網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.pizzahut.com.tw/order/?mode=step_2&amp;type_id=0&amp;fm=obn&amp;tt=1616"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.yentlpasta.com.tw/menu"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
- 網路資訊:   &lt;a style="button" class="btn btn-info"  href="http://www.shinemood2006.com/product_list.asp"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/528201201460788/photos/a.528306241450284/556264938654414/"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/1640280569628363/posts/2044433485879734/"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-   網路資訊: &lt;a style="button" class="btn btn-info"  href="http://www.noble.com.tw/index.php/menu/refinement-foodmenu"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
   網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.yentlpasta.com.tw/menu/18"&gt;菜單&lt;/a&gt; &amp;nbsp; &lt;a style="button" class="btn btn-info"  href="https://zaq0930.pixnet.net/blog/post/351339605-%E3%80%90%E6%A9%9F%E6%8D%B7a8%E7%AB%99%E3%80%91%E6%B4%8B%E6%9C%B5%E7%BE%A9%E5%BC%8F%E9%A4%90%E5%BB%B3~%E7%92%B0%E7%90%83%E7%99%BE%E8%B2%A81f~%E6%9E%97%E5%8F%A3%E9%95%B7"&gt;網路推薦&lt;/a&gt;
 &lt;/p&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2896,24 +2610,6 @@
   </si>
   <si>
     <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://editordiary.pixnet.net/blog/post/218296050"&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.leeleelin.com/2016/07/tonchin-menu.html"&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://g8906011.pixnet.net/blog/post/491175209"&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
  網路資訊:   &lt;a style="button" class="btn btn-info"  href="https://www.gomaji.com/store/87820?gclid=Cj0KCQjw9YWDBhDyARIsADt6sGZ_ONKpfV-UYHQSqgC1Dgrj8BQMXo07eHu2lMfRk32q3yY8aDZaglgaAlSMEALw_wcB"&gt;網路推薦&lt;/a&gt;
 &lt;/p&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3052,7 +2748,367 @@
   </si>
   <si>
     <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.gomaji.com/store/111390"&gt;網路推薦&lt;/a&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/pappis0226088167/menu"&gt;菜單&lt;/a&gt; &amp;nbsp; 
+&lt;a style="button" class="btn btn-info"  href="https://www.gomaji.com/store/90654?pid=243551"&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/gfood51/menu"&gt;菜單&lt;/a&gt; &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://tzuhui99.pixnet.net/blog/post/44100876"&gt;網路推薦&lt;/a&gt; &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://inline.app/booking/-LosVXvQRs9zuFrRM9UE:inline-live-1/-LosVYSM5BHeu7tmLU4-?language=zh-tw"&gt; 線上訂位&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/freakscafebistrolk/menu/?ref=page_internal"&gt;菜單&lt;/a&gt; &amp;nbsp; 
+   &lt;a style="button" class="btn btn-info"  href="https://www.walkerland.com.tw/article/view/210712?page=full"&gt;網路推薦&lt;/a&gt; 
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/1971298456236144/photos/p.2094527287246593/2094527287246593"&gt;菜單&lt;/a&gt; &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://www.gomaji.com/store/58954"&gt;網路推薦&lt;/a&gt; &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://en.eztable.com/restaurant/15116"&gt;線上訂位&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/bravoburgerlinkou/menu"&gt;菜單&lt;/a&gt; &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://jeremyckt2.pixnet.net/blog/post/224894483-%5B%E9%A3%9F%E8%A8%98%5D%5B%E6%96%B0%E5%8C%97%E5%B8%82%5D%5B%E6%9E%97%E5%8F%A3%E5%8D%80%5D-bravo-burger-%E7%99%BC%E7%A6%8F%E5%BB%9A%E6%88%BF%E6%9E%97"&gt;網路推薦&lt;/a&gt; 
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/meiligreen384/posts/188181188420999/"&gt;菜單&lt;/a&gt;  &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://www.gomaji.com/store/113538"&gt;網路推薦&lt;/a&gt; 
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.gomaji.com/store/111390"&gt;網路推薦&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://www.gomaji.com/store/111390"&gt;網路推薦&lt;/a&gt; 
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/bluelampcafe/photos/p.1074693843056553/1074693843056553"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://mai0104.pixnet.net/blog/post/463191518"&gt;網路推薦&lt;/a&gt; 
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://editordiary.pixnet.net/blog/post/218296050"&gt;網路推薦&lt;/a&gt;  &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://aniseblog.tw/203738"&gt;網路推薦&lt;/a&gt; 
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/thecafeby2/menu"&gt;菜單&lt;/a&gt;  &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://www.mecocute.com/thecafeby2/"&gt;網路推薦&lt;/a&gt; 
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>想林口 - 空中花園</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/LakuLakuMachi/photos/p.833949060055696/833949060055696"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href=""&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/homaseafood/menu"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href=""&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="http://villager.com.tw/"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href=""&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/%E5%9C%93%E6%98%8E%E5%9C%92%E8%8A%B1%E5%9C%92%E6%B5%B7%E9%AE%AE%E6%9C%83%E9%A4%A8%E5%8E%9F%E5%96%9C%E5%B8%82%E5%A4%9A%E9%A4%90%E5%BB%B3-106254614063995/menu"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href=""&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.jp-cuisines.com/menu.html"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href=""&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/1855hotpot/menu"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href=""&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/388622Maruko/menu"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href=""&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/tastyoldtime/photos/p.1153757731719550/1153757731719550"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href=""&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="http://www.thicklycut.com.tw/"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href=""&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+ 網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/6owldoor/menu"&gt;菜單&lt;/a&gt;
+&lt;/p&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href=""&gt;網路推薦&lt;/a&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"   href="http://www.enjoy99.com.tw/product.php?class_sn=13"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href=""&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/843813859063434/photos/a.844778335633653/844779032300250"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href=""&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/plant.pasta/menu"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href=""&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.dominos.com.tw/taste.htm"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href=""&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.guotaiming-hotpot.com/menu.html"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href=""&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/%E6%BE%8E%E6%B9%96%E7%81%A3%E5%B9%B3%E5%83%B9%E6%B5%B7%E9%AE%AE%E9%A4%90%E5%BB%B3-108479787548057/menu"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href=""&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://tenjo.tw/gangta-buffet/"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href=""&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.0800076666.com.tw/Menu/MenuPizza?fbclid=IwAR3NJaIMZXhd9U7D6SbV_Dh1QJ2U7LgJUSwI8RLMx0aTBV_UFs6N1umsR7o"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href=""&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://menubar.tw/menu/vyVv2sDUMTiF"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href=""&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://blog.xuite.net/aec810909/blog/496637882"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href=""&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.starbucks.com.tw/products/catalog.jspx"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href=""&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/GreatDaysBrunch/menu"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href=""&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+ 網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.pizzahut.com.tw/order/?mode=step_2&amp;type_id=0&amp;fm=obn&amp;tt=1616"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href=""&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.yentlpasta.com.tw/menu"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href=""&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+ 網路資訊:   &lt;a style="button" class="btn btn-info"  href="http://www.shinemood2006.com/product_list.asp"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href=""&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/528201201460788/photos/a.528306241450284/556264938654414/"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href=""&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/1640280569628363/posts/2044433485879734/"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href=""&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a style="button" class="btn btn-info"  href="http://www.noble.com.tw/index.php/menu/refinement-foodmenu"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href=""&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/media/set/?set=a.430675527120156.1073741838.138245503029828&amp;type=3&amp;uploaded=14"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://wen4899.pixnet.net/blog/post/3243634"&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊: &lt;a style="button" class="btn btn-info"  href="https://www.gyukatsu-motomura.com/zh/menu"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://ksk.tw/blog/post/353150162"&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/TsuruhashiFugetsuTaiwan/photos/pcb.2683771331941236/2683771135274589/"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://www.walkerland.com.tw/article/view/236996"&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.leeleelin.com/2016/07/tonchin-menu.html"&gt;網路推薦&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://mai0104.pixnet.net/blog/post/467765741"&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+ 網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.tendon.kingoshou.com/products/1/1.htm"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://grace05026.pixnet.net/blog/post/91456448-%E3%80%90%E9%A3%9F%E8%A8%98%E3%80%91%E6%96%B0%E5%8C%97%E2%98%BC%E6%9E%97%E5%8F%A3%E4%B8%89%E4%BA%95outlet-%E9%87%91%E5%AD%90%E5%8D%8A%E4%B9%8B%E5%8A%A9**%E6%97%A5"&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+ 網路資訊:   &lt;a style="button" class="btn btn-info"  href="https://paul1889-dessert-togo.cashier.ecpay.com.tw/"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://asound69.pixnet.net/blog/post/114299660-%E6%96%B0%E5%8C%97_%E6%9E%97%E5%8F%A3%E5%8D%80%E3%80%90paul%E3%80%91%E6%8B%9B%E7%89%8C%E8%8D%89%E8%8E%93%E5%8D%83%E5%B1%A4%E6%B4%BE-%28%E6%9E%97%E5%8F%A3%E4%B8%89"&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://g8906011.pixnet.net/blog/post/491175209"&gt;網路推薦&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://saliha.pixnet.net/blog/post/458434253-%E6%9E%97%E5%8F%A3%E4%B8%89%E4%BA%95outlet%E9%A4%90%E5%BB%B3%E6%8E%A8%E8%96%A6-j.s.-foodies-%E5%A5%87%E8%B9%9F%E8%88%92%E8%8A%99%E8%95%BE"&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="http://www.kua-aina.tw/zh_TW/gallery-content/node/1452062353001"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://joyce0221.pixnet.net/blog/post/229936656-%E3%80%90%E6%9E%97%E5%8F%A3%E7%BE%8E%E9%A3%9F%E3%80%91%E4%B8%89%E4%BA%95-outlet-%E5%A4%8F%E5%A8%81%E5%A4%B7%E6%BC%A2%E5%A0%A1-kua%60aina-bur"&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.thaitown.com.tw/tw/menu#section-1"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://wenxuan14.pixnet.net/blog/post/275551016-%E6%96%B0%E5%8C%97%E6%9E%97%E5%8F%A3-%22%E7%93%A6%E5%9F%8E%E6%B3%B0%E5%9C%8B%E6%96%99%E7%90%86---%E6%9E%97%E5%8F%A3%E4%B8%89%E4%BA%95%E5%BA%97%22-%E9%99%84%E8%8F%9C"&gt;網路推薦&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://en.eztable.com/restaurant/11780"&gt;線上訂位&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.shinyeh.com.tw/content/zh/brand/Menu.aspx?BrandId=3#tabpanel_1"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://gn10202000.pixnet.net/blog/post/467428493-%E6%9E%97%E5%8F%A3outlet-%E6%AC%A3%E8%91%89%E5%B0%8F%E8%81%9A%E5%8F%B0%E8%8F%9C"&gt;網路推薦&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://en.eztable.com/restaurant/13737"&gt;線上訂位&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="http://www.dianshuilou.com.tw/Foods_2_a_1.aspx?s=7"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://nikitarh.pixnet.net/blog/post/5796619-%E3%80%90%E6%96%B0%E5%8C%97%E4%B8%AD%E5%BC%8F%E3%80%91%E9%BB%9E%E6%B0%B4%E6%A8%93%E6%9E%97%E5%8F%A3%E4%B8%89%E4%BA%95%E5%BA%97%EF%BC%8C%E7%B1%B3%E5%85%B6%E6%9E%97%E5%BF%85%E6%AF%94"&gt;網路推薦&lt;/a&gt;  &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://en.eztable.com/restaurant/12767"&gt;線上訂位&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.kurasushi.tw/products"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://a606691.pixnet.net/blog/post/466555763-%EF%BD%9C%E3%81%8F%E3%82%89%E5%AF%BF%E5%8F%B8-%E8%97%8F%E5%A3%BD%E5%8F%B8%EF%BD%9C%E6%9E%97%E5%8F%A3%E4%B8%89%E4%BA%95outlet%E5%BA%97%E3%80%82%E6%97%A5%E6%9C%AC"&gt;網路推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://shop.thesecretcake.com.tw/product.php?mid=8"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://kenalice.tw/blog/post/thesecretcake"&gt;網路推薦&lt;/a&gt;
 &lt;/p&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3473,10 +3529,10 @@
   <dimension ref="A1:J89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
+      <selection pane="bottomRight" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3502,7 +3558,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -3523,18 +3579,18 @@
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="96">
       <c r="A2" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>129</v>
@@ -3555,18 +3611,18 @@
         <v>119</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="112">
       <c r="A3" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>126</v>
@@ -3587,7 +3643,7 @@
         <v>119</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>654</v>
+        <v>606</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="64">
@@ -3595,10 +3651,10 @@
         <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>121</v>
@@ -3619,7 +3675,7 @@
         <v>119</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>655</v>
+        <v>607</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="96">
@@ -3630,7 +3686,7 @@
         <v>114</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>115</v>
@@ -3651,7 +3707,7 @@
         <v>119</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>656</v>
+        <v>608</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="48">
@@ -3659,10 +3715,10 @@
         <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>163</v>
@@ -3683,7 +3739,7 @@
         <v>119</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>657</v>
+        <v>609</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="64">
@@ -3694,7 +3750,7 @@
         <v>174</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>175</v>
@@ -3715,7 +3771,7 @@
         <v>119</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>658</v>
+        <v>610</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="80">
@@ -3726,7 +3782,7 @@
         <v>240</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>241</v>
@@ -3747,7 +3803,7 @@
         <v>246</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>659</v>
+        <v>611</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="97">
@@ -3758,7 +3814,7 @@
         <v>261</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>262</v>
@@ -3779,7 +3835,7 @@
         <v>246</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>660</v>
+        <v>612</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="97">
@@ -3790,7 +3846,7 @@
         <v>255</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>256</v>
@@ -3811,7 +3867,7 @@
         <v>246</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>661</v>
+        <v>613</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="112">
@@ -3822,7 +3878,7 @@
         <v>248</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>249</v>
@@ -3843,7 +3899,7 @@
         <v>246</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>662</v>
+        <v>614</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="96">
@@ -3854,7 +3910,7 @@
         <v>268</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>249</v>
@@ -3875,7 +3931,7 @@
         <v>246</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>663</v>
+        <v>615</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="64">
@@ -3886,7 +3942,7 @@
         <v>274</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>249</v>
@@ -3907,7 +3963,7 @@
         <v>246</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>664</v>
+        <v>616</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="144">
@@ -3915,10 +3971,10 @@
         <v>73</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>249</v>
@@ -3939,7 +3995,7 @@
         <v>246</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>665</v>
+        <v>617</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="80">
@@ -3947,354 +4003,354 @@
         <v>82</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>542</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="H15" s="6" t="s">
-        <v>442</v>
-      </c>
       <c r="I15" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="48">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="64">
       <c r="A16" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>409</v>
-      </c>
       <c r="I16" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="48">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="96">
       <c r="A17" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="H17" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>426</v>
-      </c>
       <c r="I17" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="64">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="80">
       <c r="A18" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>542</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="H18" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>431</v>
-      </c>
       <c r="I18" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="64">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="96">
       <c r="A19" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="H19" s="6" t="s">
-        <v>392</v>
-      </c>
       <c r="I19" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="48">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="96">
       <c r="A20" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="H20" s="6" t="s">
-        <v>404</v>
-      </c>
       <c r="I20" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="64">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="80">
       <c r="A21" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="H21" s="6" t="s">
-        <v>398</v>
-      </c>
       <c r="I21" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="48">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="64">
       <c r="A22" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="H22" s="6" t="s">
-        <v>416</v>
-      </c>
       <c r="I22" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="64">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="80">
       <c r="A23" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>542</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>436</v>
-      </c>
       <c r="I23" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="48">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="64">
       <c r="A24" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>421</v>
-      </c>
       <c r="I24" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="48">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="64">
       <c r="A25" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" s="6" t="s">
         <v>373</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>374</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>137</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="80">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="96">
       <c r="A26" s="1" t="s">
         <v>133</v>
       </c>
@@ -4302,10 +4358,10 @@
         <v>364</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>367</v>
@@ -4323,10 +4379,10 @@
         <v>137</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="48">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="64">
       <c r="A27" s="1" t="s">
         <v>138</v>
       </c>
@@ -4334,7 +4390,7 @@
         <v>195</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>196</v>
@@ -4355,10 +4411,10 @@
         <v>137</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="64">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="80">
       <c r="A28" s="1" t="s">
         <v>142</v>
       </c>
@@ -4366,7 +4422,7 @@
         <v>225</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>226</v>
@@ -4387,10 +4443,10 @@
         <v>137</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="48">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="80">
       <c r="A29" s="1" t="s">
         <v>146</v>
       </c>
@@ -4398,7 +4454,7 @@
         <v>188</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>189</v>
@@ -4419,10 +4475,10 @@
         <v>137</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="48">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="96">
       <c r="A30" s="1" t="s">
         <v>152</v>
       </c>
@@ -4430,7 +4486,7 @@
         <v>214</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>189</v>
@@ -4451,10 +4507,10 @@
         <v>137</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="48">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="96">
       <c r="A31" s="1" t="s">
         <v>157</v>
       </c>
@@ -4462,7 +4518,7 @@
         <v>219</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>189</v>
@@ -4483,10 +4539,10 @@
         <v>137</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="48">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="96">
       <c r="A32" s="1" t="s">
         <v>162</v>
       </c>
@@ -4494,7 +4550,7 @@
         <v>231</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>189</v>
@@ -4515,10 +4571,10 @@
         <v>137</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="64">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="112">
       <c r="A33" s="1" t="s">
         <v>168</v>
       </c>
@@ -4526,7 +4582,7 @@
         <v>236</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>189</v>
@@ -4547,18 +4603,18 @@
         <v>137</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="48">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="128">
       <c r="A34" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>134</v>
@@ -4579,18 +4635,18 @@
         <v>137</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="64">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="112">
       <c r="A35" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>134</v>
@@ -4611,18 +4667,18 @@
         <v>137</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="48">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="128">
       <c r="A36" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>134</v>
@@ -4643,10 +4699,10 @@
         <v>137</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="48">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="112">
       <c r="A37" s="1" t="s">
         <v>194</v>
       </c>
@@ -4654,7 +4710,7 @@
         <v>202</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>203</v>
@@ -4672,10 +4728,10 @@
         <v>137</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="48">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="64">
       <c r="A38" s="1" t="s">
         <v>201</v>
       </c>
@@ -4683,7 +4739,7 @@
         <v>208</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>203</v>
@@ -4704,7 +4760,7 @@
         <v>137</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>625</v>
+        <v>693</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="80">
@@ -4715,7 +4771,7 @@
         <v>181</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>182</v>
@@ -4736,10 +4792,10 @@
         <v>137</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="64">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="80">
       <c r="A40" s="1" t="s">
         <v>213</v>
       </c>
@@ -4747,10 +4803,10 @@
         <v>147</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>148</v>
@@ -4768,21 +4824,21 @@
         <v>137</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="48">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="64">
       <c r="A41" s="1" t="s">
         <v>218</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>158</v>
@@ -4800,21 +4856,21 @@
         <v>156</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="48">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="64">
       <c r="A42" s="1" t="s">
         <v>224</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>153</v>
@@ -4832,21 +4888,21 @@
         <v>156</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="96">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="112">
       <c r="A43" s="1" t="s">
         <v>230</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>169</v>
@@ -4864,10 +4920,10 @@
         <v>173</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="48">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="64">
       <c r="A44" s="1" t="s">
         <v>235</v>
       </c>
@@ -4875,7 +4931,7 @@
         <v>326</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>327</v>
@@ -4896,18 +4952,18 @@
         <v>282</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>630</v>
+        <v>657</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="48">
       <c r="A45" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>320</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>321</v>
@@ -4928,10 +4984,10 @@
         <v>282</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="48">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="64">
       <c r="A46" s="1" t="s">
         <v>247</v>
       </c>
@@ -4939,7 +4995,7 @@
         <v>350</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>351</v>
@@ -4960,10 +5016,10 @@
         <v>282</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="48">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="64">
       <c r="A47" s="1" t="s">
         <v>254</v>
       </c>
@@ -4971,7 +5027,7 @@
         <v>338</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>339</v>
@@ -4992,7 +5048,7 @@
         <v>282</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>632</v>
+        <v>659</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="48">
@@ -5003,7 +5059,7 @@
         <v>332</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>333</v>
@@ -5024,7 +5080,7 @@
         <v>282</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>672</v>
+        <v>621</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="48">
@@ -5035,7 +5091,7 @@
         <v>296</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>297</v>
@@ -5056,7 +5112,7 @@
         <v>282</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>673</v>
+        <v>622</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="48">
@@ -5067,7 +5123,7 @@
         <v>308</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>309</v>
@@ -5088,7 +5144,7 @@
         <v>282</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>674</v>
+        <v>623</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="48">
@@ -5099,7 +5155,7 @@
         <v>290</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>291</v>
@@ -5120,7 +5176,7 @@
         <v>282</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>675</v>
+        <v>624</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="96">
@@ -5131,7 +5187,7 @@
         <v>314</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>315</v>
@@ -5152,10 +5208,10 @@
         <v>282</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="64">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="80">
       <c r="A53" s="1" t="s">
         <v>284</v>
       </c>
@@ -5163,7 +5219,7 @@
         <v>302</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>303</v>
@@ -5184,7 +5240,7 @@
         <v>282</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>633</v>
+        <v>660</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="48">
@@ -5195,7 +5251,7 @@
         <v>344</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>347</v>
@@ -5216,10 +5272,10 @@
         <v>282</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="48">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="64">
       <c r="A55" s="1" t="s">
         <v>286</v>
       </c>
@@ -5227,10 +5283,10 @@
         <v>47</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>48</v>
@@ -5245,24 +5301,24 @@
         <v>50</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="48">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="64">
       <c r="A56" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>32</v>
@@ -5277,24 +5333,24 @@
         <v>35</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="48">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="64">
       <c r="A57" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>99</v>
@@ -5309,24 +5365,24 @@
         <v>102</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="64">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="80">
       <c r="A58" s="1" t="s">
         <v>287</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>74</v>
@@ -5341,13 +5397,13 @@
         <v>77</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="48">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="64">
       <c r="A59" s="1" t="s">
         <v>288</v>
       </c>
@@ -5355,10 +5411,10 @@
         <v>63</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>64</v>
@@ -5373,13 +5429,13 @@
         <v>67</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="48">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="64">
       <c r="A60" s="1" t="s">
         <v>289</v>
       </c>
@@ -5387,10 +5443,10 @@
         <v>69</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>70</v>
@@ -5405,10 +5461,10 @@
         <v>72</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>639</v>
+        <v>666</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="80">
@@ -5416,13 +5472,13 @@
         <v>356</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>52</v>
@@ -5437,24 +5493,24 @@
         <v>55</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="48">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="64">
       <c r="A62" s="1" t="s">
         <v>363</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>20</v>
@@ -5469,24 +5525,24 @@
         <v>23</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>640</v>
+        <v>667</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="48">
       <c r="A63" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>78</v>
@@ -5501,56 +5557,56 @@
         <v>81</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="80">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="96">
       <c r="A64" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="J64" s="7" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="64">
+      <c r="A65" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="H64" s="6" t="s">
-        <v>571</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="J64" s="7" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="48">
-      <c r="A65" s="1" t="s">
-        <v>377</v>
-      </c>
       <c r="B65" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>37</v>
@@ -5565,88 +5621,88 @@
         <v>40</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="80">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="96">
       <c r="A66" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="J66" s="7" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="64">
+      <c r="A67" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="H66" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="J66" s="7" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="48">
-      <c r="A67" s="1" t="s">
-        <v>379</v>
-      </c>
       <c r="B67" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="D67" s="2" t="s">
+      <c r="E67" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="F67" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="F67" s="7" t="s">
+      <c r="G67" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="H67" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="H67" s="6" t="s">
-        <v>578</v>
-      </c>
       <c r="I67" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>644</v>
+        <v>671</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="48">
       <c r="A68" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>26</v>
@@ -5661,24 +5717,24 @@
         <v>29</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="48">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="64">
       <c r="A69" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>84</v>
@@ -5693,24 +5749,24 @@
         <v>29</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>645</v>
+        <v>672</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="48">
       <c r="A70" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>94</v>
@@ -5725,24 +5781,24 @@
         <v>97</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>681</v>
+        <v>630</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="48">
       <c r="A71" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>88</v>
@@ -5757,24 +5813,24 @@
         <v>91</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="48">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="64">
       <c r="A72" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>104</v>
@@ -5792,18 +5848,18 @@
         <v>13</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="48">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="64">
       <c r="A73" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>357</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>358</v>
@@ -5824,53 +5880,53 @@
         <v>13</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>647</v>
+        <v>674</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="48">
       <c r="A74" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="I74" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="C74" s="8" t="s">
-        <v>542</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="H74" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>497</v>
-      </c>
       <c r="J74" s="7" t="s">
-        <v>683</v>
+        <v>632</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="96">
       <c r="A75" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>9</v>
@@ -5888,85 +5944,85 @@
         <v>13</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>684</v>
+        <v>633</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="64">
       <c r="A76" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="C76" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="D76" s="2" t="s">
+      <c r="E76" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="F76" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="H76" s="6" t="s">
         <v>603</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>604</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="64">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="80">
       <c r="A77" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="D77" s="2" t="s">
+      <c r="E77" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="F77" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="H77" s="6" t="s">
         <v>564</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>565</v>
       </c>
       <c r="I77" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>648</v>
+        <v>675</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="96">
       <c r="A78" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>15</v>
@@ -5984,21 +6040,21 @@
         <v>13</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="48">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="64">
       <c r="A79" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>58</v>
@@ -6016,21 +6072,21 @@
         <v>13</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>649</v>
+        <v>676</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="48">
       <c r="A80" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>110</v>
@@ -6048,242 +6104,242 @@
         <v>13</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="48">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="64">
       <c r="A81" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="80">
+      <c r="A82" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>542</v>
-      </c>
-      <c r="D81" s="2" t="s">
+      <c r="B82" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="F81" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="H81" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="J81" s="7" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="64">
-      <c r="A82" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="B82" s="2" t="s">
+      <c r="E82" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="H82" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="C82" s="8" t="s">
-        <v>542</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="F82" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="H82" s="6" t="s">
-        <v>454</v>
-      </c>
       <c r="I82" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>651</v>
+        <v>678</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="48">
       <c r="A83" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="H83" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="C83" s="8" t="s">
-        <v>542</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="F83" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>464</v>
-      </c>
       <c r="I83" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>688</v>
+        <v>637</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="48">
       <c r="A84" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="J84" s="7" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="80">
+      <c r="A85" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>542</v>
-      </c>
-      <c r="D84" s="2" t="s">
+      <c r="B85" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="E84" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="F84" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="H84" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="J84" s="7" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="64">
-      <c r="A85" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="B85" s="2" t="s">
+      <c r="E85" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="H85" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="C85" s="8" t="s">
-        <v>542</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="H85" s="6" t="s">
-        <v>478</v>
-      </c>
       <c r="I85" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>652</v>
+        <v>679</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="48">
       <c r="A86" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="H86" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="C86" s="8" t="s">
-        <v>542</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="F86" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="H86" s="6" t="s">
-        <v>493</v>
-      </c>
       <c r="I86" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>690</v>
+        <v>639</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="48">
       <c r="A87" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="J87" s="7" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="80">
+      <c r="A88" s="1" t="s">
         <v>580</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>542</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="F87" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="J87" s="7" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="48">
-      <c r="A88" s="1" t="s">
-        <v>581</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>43</v>
@@ -6298,42 +6354,42 @@
         <v>45</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>653</v>
+        <v>680</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="48">
       <c r="A89" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="C89" s="8" t="s">
-        <v>544</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="E89" s="2" t="s">
+      <c r="F89" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="F89" s="7" t="s">
+      <c r="G89" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="H89" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="G89" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="H89" s="6" t="s">
-        <v>451</v>
-      </c>
       <c r="I89" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>691</v>
+        <v>640</v>
       </c>
     </row>
   </sheetData>

--- a/db/AiCity-72-Restaurant.xlsx
+++ b/db/AiCity-72-Restaurant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7E9E72-B467-2A48-BBC3-1260514C7C54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D874A4-7E86-CF42-B054-25974EDB1AFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11240" yWindow="1700" windowWidth="35160" windowHeight="25400" xr2:uid="{1AAFA279-DBCD-DA42-8F0D-FE7868FF2730}"/>
   </bookViews>
@@ -2514,602 +2514,577 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;p&gt;
-   網路資訊: &lt;a style="button" class="btn btn-info"  href="http://www.saboten.com.tw/goods.php?act=list&amp;cid=1"&gt;菜單&lt;/a&gt; &amp;nbsp;  &lt;a style="button" class="btn btn-info"  href="https://inline.app/booking/-KuUwaEhVKljatiaBnAM:inline-live-2a466/-LvPgpHIn8DHGtoXyDJF"&gt;訂位&lt;/a&gt; &amp;nbsp;  &lt;a style="button" class="btn btn-info"  href="https://inline.app/order/-KuUwaEhVKljatiaBnAM:inline-live-2a466/-LvPgpHIn8DHGtoXyDJF?language=zh-tw"&gt;訂餐&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.yentlpasta.com.tw/menu/18"&gt;菜單&lt;/a&gt; &amp;nbsp; &lt;a style="button" class="btn btn-info"  href="https://zaq0930.pixnet.net/blog/post/351339605-%E3%80%90%E6%A9%9F%E6%8D%B7a8%E7%AB%99%E3%80%91%E6%B4%8B%E6%9C%B5%E7%BE%A9%E5%BC%8F%E9%A4%90%E5%BB%B3~%E7%92%B0%E7%90%83%E7%99%BE%E8%B2%A81f~%E6%9E%97%E5%8F%A3%E9%95%B7"&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.zhujishop.com.tw/index.php?type=top&amp;arem=157"&gt;菜單&lt;/a&gt; &amp;nbsp;  &lt;a style="button" class="btn btn-info"  href="https://www.zhujishop.com.tw/index.php?type=top&amp;arem=165"&gt;宅配&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://www.thaitown.com.tw/tw/menu"&gt;菜單&lt;/a&gt; &amp;nbsp; &lt;a style="button" class="btn btn-info"  href="https://ryohei0221.pixnet.net/blog/post/68108145"&gt;網路推薦&lt;/a&gt; &amp;nbsp; &lt;a style="button" class="btn btn-info"  href="https://ryohei0221.pixnet.net/blog/post/68108145"&gt; &amp;nbsp; &lt;a style="button" class="btn btn-info"  href="https://en.eztable.com/restaurant/14471"&gt;線上訂位&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a href="file/RES-101-阿基師.pdf"&gt;菜單&lt;/a&gt; &amp;nbsp;  &lt;a href="file/RES-101-阿基師.pdf"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://www.hwayoung.com/upload/files/a8global_menu.pdf"&gt;菜單&lt;/a&gt; &amp;nbsp;  &lt;a style="button" class="btn btn-info"  href="https://www.alberthsieh.com/43347/hwayoung-a8"&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-   網路資訊: &lt;a style="button" class="btn btn-info"  href="http://www.hilai-foods.com/zh_TW/brand/harbour"&gt;菜單&lt;/a&gt; &amp;nbsp; &lt;a style="button" class="btn btn-info"  href="https://en.eztable.com/restaurant/2198"&gt;線上訂位&lt;/a&gt; &amp;nbsp; &lt;a style="button" class="btn btn-info"  href="https://www.alberthsieh.com/1738/hilaiharbour-buffet-taimall"&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://icard.ai/shop/reward/channel%2F5f7aeef696c1f49bcc713377?type=channel_concept%2F5f6ab11b3d97d93195e6707c"&gt;菜單&lt;/a&gt; &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href="https://misshoki.com/haidilao/"&gt;網路推薦&lt;/a&gt;
+    <t>想林口 - 空中花園</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a style="button" class="btn btn-info"  href="http://www.saboten.com.tw/goods.php?act=list&amp;cid=1"&gt;菜單&lt;/a&gt; &amp;nbsp;  
+&lt;a style="button" class="btn btn-info"  href="https://inline.app/booking/-KuUwaEhVKljatiaBnAM:inline-live-2a466/-LvPgpHIn8DHGtoXyDJF"&gt;訂位&lt;/a&gt; &amp;nbsp;  
+&lt;a style="button" class="btn btn-info"  href="https://inline.app/order/-KuUwaEhVKljatiaBnAM:inline-live-2a466/-LvPgpHIn8DHGtoXyDJF?language=zh-tw"&gt;外帶&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.yentlpasta.com.tw/menu/18"&gt;菜單&lt;/a&gt; &amp;nbsp; 
+&lt;a style="button" class="btn btn-info"  href="https://zaq0930.pixnet.net/blog/post/351339605-%E3%80%90%E6%A9%9F%E6%8D%B7a8%E7%AB%99%E3%80%91%E6%B4%8B%E6%9C%B5%E7%BE%A9%E5%BC%8F%E9%A4%90%E5%BB%B3~%E7%92%B0%E7%90%83%E7%99%BE%E8%B2%A81f~%E6%9E%97%E5%8F%A3%E9%95%B7"&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.zhujishop.com.tw/index.php?type=top&amp;arem=157"&gt;菜單&lt;/a&gt; &amp;nbsp;  
+&lt;a style="button" class="btn btn-info"  href="https://www.zhujishop.com.tw/index.php?type=top&amp;arem=165"&gt;宅配&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://www.hwayoung.com/upload/files/a8global_menu.pdf"&gt;菜單&lt;/a&gt; &amp;nbsp;  
+&lt;a style="button" class="btn btn-info"  href="https://www.alberthsieh.com/43347/hwayoung-a8"&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a style="button" class="btn btn-info"  href="https://www.alberthsieh.com/1738/hilaiharbour-buffet-taimall"&gt;推薦&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a style="button" class="btn btn-info"  href="http://www.hilai-foods.com/zh_TW/brand/harbour"&gt;菜單&lt;/a&gt; &amp;nbsp; 
+&lt;a style="button" class="btn btn-info"  href="https://www.alberthsieh.com/1738/hilaiharbour-buffet-taimall"&gt;推薦&lt;/a&gt; &amp;nbsp; 
+&lt;a style="button" class="btn btn-info"  href="https://en.eztable.com/restaurant/2198"&gt;訂位&lt;/a&gt; 
 &lt;/p&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&lt;p&gt;
   網路資訊:  &lt;a style="button" class="btn btn-info"  href="http://www.hilai-foods.com/my-account/Olivia/newyear/2021Tao%20Yuan%20Tang%20Bao%20Cai%20Dan%20.jpg"&gt;菜單&lt;/a&gt; &amp;nbsp; 
-   &lt;a style="button" class="btn btn-info"  href="https://daughter.tw/2019-11-19/"&gt;網路推薦&lt;/a&gt; &amp;nbsp; 
-   &lt;a style="button" class="btn btn-info"  href="https://eshop.hilai-foods.com/"&gt;線上購物&lt;/a&gt;
+   &lt;a style="button" class="btn btn-info"  href="https://daughter.tw/2019-11-19/"&gt;推薦&lt;/a&gt; &amp;nbsp; 
+   &lt;a style="button" class="btn btn-info"  href="https://eshop.hilai-foods.com/"&gt;宅配&lt;/a&gt;
 &lt;/p&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&lt;p&gt;
   網路資訊:  &lt;a style="button" class="btn btn-info"  href="http://www.hilai-foods.com/Roast%20Duck/Shang%20Cai%20Dan%20Dian%20Cai%20Dan%20.pdf"&gt;菜單&lt;/a&gt; &amp;nbsp; 
-   &lt;a style="button" class="btn btn-info"  href="https://inline.app/booking/-MJloksQFvxxEehtWcOM:inline-live-1/-MJlolSF4GFSfRBYcvKl?language=zh-tw"&gt;線上訂位&lt;/a&gt;  &amp;nbsp; 
-   &lt;a style="button" class="btn btn-info"  href="https://daughter.tw/duck-11-25/"&gt;網路推薦&lt;/a&gt;
+   &lt;a style="button" class="btn btn-info"  href="https://daughter.tw/duck-11-25/"&gt;推薦&lt;/a&gt;&amp;nbsp; 
+   &lt;a style="button" class="btn btn-info"  href="https://inline.app/booking/-MJloksQFvxxEehtWcOM:inline-live-1/-MJlolSF4GFSfRBYcvKl?language=zh-tw"&gt;訂位&lt;/a&gt;  
 &lt;/p&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&lt;p&gt;
    網路資訊: &lt;a style="button" class="btn btn-info"  href="https://www.syabuyo.com.tw/store_detail.php?id=6&amp;area="&gt;菜單&lt;/a&gt; &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href="https://inline.app/booking/-LPimPrzunBVFBi0ckJB:inline-live-2a466/-LPjVO9N3lZaaEkDWDl_"&gt;線上訂位&lt;/a&gt; &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href="https://zineblog.com.tw/blog/post/200616"&gt;網路推薦&lt;/a&gt;
+   &lt;a style="button" class="btn btn-info"  href="https://zineblog.com.tw/blog/post/200616"&gt;推薦&lt;/a&gt; &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://inline.app/booking/-LPimPrzunBVFBi0ckJB:inline-live-2a466/-LPjVO9N3lZaaEkDWDl_"&gt;訂位&lt;/a&gt;
 &lt;/p&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&lt;p&gt;
    網路資訊: &lt;a style="button" class="btn btn-info"  href="https://www.yakiyan.com/pdf/2102/yakiyan_menu.pdf"&gt;菜單&lt;/a&gt; &amp;nbsp;
-  &lt;a style="button" class="btn btn-info"  href="https://fengtaiwanway.com/taoyuan-food_2076/"&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  &lt;a style="button" class="btn btn-info"  href="https://fengtaiwanway.com/taoyuan-food_2076/"&gt;推薦&lt;/a&gt;
+&lt;/p&gt;J14</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&lt;p&gt;
   網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/ninigarden/menu/?ref=page_internal"&gt;菜單&lt;/a&gt; &amp;nbsp;
-  &lt;a style="button" class="btn btn-info"  href="https://www.tinalife.com/blog/post/358126796-%E3%80%90%E6%A1%83%E5%9C%92%E7%BE%8E%E9%A3%9F%E3%80%91nini-%E5%B0%BC%E5%B0%BC%E7%BE%A9%E5%A4%A7%E5%88%A9%E9%A4%90%E5%BB%B3-%E5%8F%B0%E8%8C%82%E5%BA%97---%E9%A4%90"&gt;網路推薦&lt;/a&gt; &amp;nbsp;
-    &lt;a style="button" class="btn btn-info"  href="https://en.eztable.com/restaurant/14992"&gt;線上訂位&lt;/a&gt;
+  &lt;a style="button" class="btn btn-info"  href="https://www.tinalife.com/blog/post/358126796-%E3%80%90%E6%A1%83%E5%9C%92%E7%BE%8E%E9%A3%9F%E3%80%91nini-%E5%B0%BC%E5%B0%BC%E7%BE%A9%E5%A4%A7%E5%88%A9%E9%A4%90%E5%BB%B3-%E5%8F%B0%E8%8C%82%E5%BA%97---%E9%A4%90"&gt;推薦&lt;/a&gt; &amp;nbsp;
+    &lt;a style="button" class="btn btn-info"  href="https://en.eztable.com/restaurant/14992"&gt;訂位&lt;/a&gt;
 &lt;/p&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&lt;p&gt;
   網路資訊:  &lt;a type="button" class="btn btn-info"  href="https://www.facebook.com/ZiaBing/photos/p.2680339398749724/2680339398749724"&gt;菜單&lt;/a&gt; &amp;nbsp;
-  &lt;a type="button" class="btn btn-info"  href="https://almablog.com.tw/blog/post/136256"&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
- 網路資訊:   &lt;a style="button" class="btn btn-info"  href="https://www.gomaji.com/store/87820?gclid=Cj0KCQjw9YWDBhDyARIsADt6sGZ_ONKpfV-UYHQSqgC1Dgrj8BQMXo07eHu2lMfRk32q3yY8aDZaglgaAlSMEALw_wcB"&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://fairylolita.com/wumenu/"&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://vivawei.tw/gia-fine/"&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://fairylolita.com/one-show-sushi/"&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www111060.pixnet.net/blog/post/404966851"&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-   &lt;a style="button" class="btn btn-info"  href="https://www.walkerland.com.tw/article/view/250686?page=full"&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://hungryleon.com/blog/post/326792023-%E6%9E%97%E5%8F%A3%E9%BE%9C%E5%B1%B1%E7%BE%8E%E9%A3%9F-%E6%A2%85%E8%8F%8A%E6%89%8B%E4%BD%9C%E9%AD%AF%E8%82%89%E9%A3%AF%EF%BC%8C%E9%8B%AA%E6%BB%BF%E9%AE%AE%E8%9A%B5%E8%9D%A6"&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://letsplay.tw/taishapa/"&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://zaq0930.pixnet.net/blog/post/354223907-%E3%80%90%E6%A1%83%E5%9C%92%E9%BE%9C%E5%B1%B1%E9%A3%9F%E8%A8%98%E3%80%91%E5%AD%AB%E6%9D%B1%E5%AF%B6%E5%8F%B0%E5%BC%8F%E7%89%9B%E6%8E%92%E5%BA%97"&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
- 網路資訊:   &lt;a style="button" class="btn btn-info"  href="https://ch3126.pixnet.net/blog/post/120524278"&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊: &lt;a style="button" class="btn btn-info"  href=""https://vivawei.tw/gia-fine/""&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.alberthsieh.com/3183/tina-kit-wenhua"&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
- 網路資訊:   &lt;a style="button" class="btn btn-info"  href="https://tzuhui99.pixnet.net/blog/post/44775661"&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://almablog.com.tw/blog/post/161166"&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://nixojov.pixnet.net/blog/post/352831532-%E3%80%90%E6%9E%97%E5%8F%A3%E7%BE%8E%E9%A3%9F%E3%80%91%E5%8D%83%E8%91%89%E7%81%AB%E9%8D%8B%E6%9E%97%E5%8F%A3%E5%B0%8A%E7%88%B5%E9%A4%A8-%E8%B6%85%E9%81%8E%E7%99%BE%E6%A8%A3"&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  &lt;a type="button" class="btn btn-info"  href="https://almablog.com.tw/blog/post/136256"&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/pappis0226088167/menu"&gt;菜單&lt;/a&gt; &amp;nbsp; 
+&lt;a style="button" class="btn btn-info"  href="https://www.gomaji.com/store/90654?pid=243551"&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/gfood51/menu"&gt;菜單&lt;/a&gt; &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://tzuhui99.pixnet.net/blog/post/44100876"&gt;推薦&lt;/a&gt; &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://inline.app/booking/-LosVXvQRs9zuFrRM9UE:inline-live-1/-LosVYSM5BHeu7tmLU4-?language=zh-tw"&gt; 訂位&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/freakscafebistrolk/menu/?ref=page_internal"&gt;菜單&lt;/a&gt; &amp;nbsp; 
+   &lt;a style="button" class="btn btn-info"  href="https://www.walkerland.com.tw/article/view/210712?page=full"&gt;推薦&lt;/a&gt; 
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/1971298456236144/photos/p.2094527287246593/2094527287246593"&gt;菜單&lt;/a&gt; &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://www.gomaji.com/store/58954"&gt;推薦&lt;/a&gt; &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://en.eztable.com/restaurant/15116"&gt;訂位&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/bravoburgerlinkou/menu"&gt;菜單&lt;/a&gt; &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://jeremyckt2.pixnet.net/blog/post/224894483-%5B%E9%A3%9F%E8%A8%98%5D%5B%E6%96%B0%E5%8C%97%E5%B8%82%5D%5B%E6%9E%97%E5%8F%A3%E5%8D%80%5D-bravo-burger-%E7%99%BC%E7%A6%8F%E5%BB%9A%E6%88%BF%E6%9E%97"&gt;推薦&lt;/a&gt; 
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/meiligreen384/posts/188181188420999/"&gt;菜單&lt;/a&gt;  &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://www.gomaji.com/store/113538"&gt;推薦&lt;/a&gt; 
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/bluelampcafe/photos/p.1074693843056553/1074693843056553"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://mai0104.pixnet.net/blog/post/463191518"&gt;推薦&lt;/a&gt; 
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/thecafeby2/menu"&gt;菜單&lt;/a&gt;  &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://www.mecocute.com/thecafeby2/"&gt;推薦&lt;/a&gt; 
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/media/set/?set=a.430675527120156.1073741838.138245503029828&amp;type=3&amp;uploaded=14"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://wen4899.pixnet.net/blog/post/3243634"&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊: &lt;a style="button" class="btn btn-info"  href="https://www.gyukatsu-motomura.com/zh/menu"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://ksk.tw/blog/post/353150162"&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/TsuruhashiFugetsuTaiwan/photos/pcb.2683771331941236/2683771135274589/"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://www.walkerland.com.tw/article/view/236996"&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+ 網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.tendon.kingoshou.com/products/1/1.htm"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://grace05026.pixnet.net/blog/post/91456448-%E3%80%90%E9%A3%9F%E8%A8%98%E3%80%91%E6%96%B0%E5%8C%97%E2%98%BC%E6%9E%97%E5%8F%A3%E4%B8%89%E4%BA%95outlet-%E9%87%91%E5%AD%90%E5%8D%8A%E4%B9%8B%E5%8A%A9**%E6%97%A5"&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+ 網路資訊:   &lt;a style="button" class="btn btn-info"  href="https://paul1889-dessert-togo.cashier.ecpay.com.tw/"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://asound69.pixnet.net/blog/post/114299660-%E6%96%B0%E5%8C%97_%E6%9E%97%E5%8F%A3%E5%8D%80%E3%80%90paul%E3%80%91%E6%8B%9B%E7%89%8C%E8%8D%89%E8%8E%93%E5%8D%83%E5%B1%A4%E6%B4%BE-%28%E6%9E%97%E5%8F%A3%E4%B8%89"&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://g8906011.pixnet.net/blog/post/491175209"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://saliha.pixnet.net/blog/post/458434253-%E6%9E%97%E5%8F%A3%E4%B8%89%E4%BA%95outlet%E9%A4%90%E5%BB%B3%E6%8E%A8%E8%96%A6-j.s.-foodies-%E5%A5%87%E8%B9%9F%E8%88%92%E8%8A%99%E8%95%BE"&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.leeleelin.com/2016/07/tonchin-menu.html"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://mai0104.pixnet.net/blog/post/467765741"&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="http://www.kua-aina.tw/zh_TW/gallery-content/node/1452062353001"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://joyce0221.pixnet.net/blog/post/229936656-%E3%80%90%E6%9E%97%E5%8F%A3%E7%BE%8E%E9%A3%9F%E3%80%91%E4%B8%89%E4%BA%95-outlet-%E5%A4%8F%E5%A8%81%E5%A4%B7%E6%BC%A2%E5%A0%A1-kua%60aina-bur"&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.thaitown.com.tw/tw/menu#section-1"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://wenxuan14.pixnet.net/blog/post/275551016-%E6%96%B0%E5%8C%97%E6%9E%97%E5%8F%A3-%22%E7%93%A6%E5%9F%8E%E6%B3%B0%E5%9C%8B%E6%96%99%E7%90%86---%E6%9E%97%E5%8F%A3%E4%B8%89%E4%BA%95%E5%BA%97%22-%E9%99%84%E8%8F%9C"&gt;推薦&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://en.eztable.com/restaurant/11780"&gt;訂位&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.shinyeh.com.tw/content/zh/brand/Menu.aspx?BrandId=3#tabpanel_1"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://gn10202000.pixnet.net/blog/post/467428493-%E6%9E%97%E5%8F%A3outlet-%E6%AC%A3%E8%91%89%E5%B0%8F%E8%81%9A%E5%8F%B0%E8%8F%9C"&gt;推薦&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://en.eztable.com/restaurant/13737"&gt;訂位&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="http://www.dianshuilou.com.tw/Foods_2_a_1.aspx?s=7"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://nikitarh.pixnet.net/blog/post/5796619-%E3%80%90%E6%96%B0%E5%8C%97%E4%B8%AD%E5%BC%8F%E3%80%91%E9%BB%9E%E6%B0%B4%E6%A8%93%E6%9E%97%E5%8F%A3%E4%B8%89%E4%BA%95%E5%BA%97%EF%BC%8C%E7%B1%B3%E5%85%B6%E6%9E%97%E5%BF%85%E6%AF%94"&gt;推薦&lt;/a&gt;  &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://en.eztable.com/restaurant/12767"&gt;訂位&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.kurasushi.tw/products"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://a606691.pixnet.net/blog/post/466555763-%EF%BD%9C%E3%81%8F%E3%82%89%E5%AF%BF%E5%8F%B8-%E8%97%8F%E5%A3%BD%E5%8F%B8%EF%BD%9C%E6%9E%97%E5%8F%A3%E4%B8%89%E4%BA%95outlet%E5%BA%97%E3%80%82%E6%97%A5%E6%9C%AC"&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+ 網路資訊:   &lt;a style="button" class="btn btn-info"  href="https://www.gomaji.com/store/87820?gclid=Cj0KCQjw9YWDBhDyARIsADt6sGZ_ONKpfV-UYHQSqgC1Dgrj8BQMXo07eHu2lMfRk32q3yY8aDZaglgaAlSMEALw_wcB"&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/LakuLakuMachi/photos/p.833949060055696/833949060055696"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href=""&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/homaseafood/menu"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href=""&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://shop.thesecretcake.com.tw/product.php?mid=8"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://kenalice.tw/blog/post/thesecretcake"&gt;推薦&lt;/a&gt;
+&lt;/p&gt;J42</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/%E5%9C%93%E6%98%8E%E5%9C%92%E8%8A%B1%E5%9C%92%E6%B5%B7%E9%AE%AE%E6%9C%83%E9%A4%A8%E5%8E%9F%E5%96%9C%E5%B8%82%E5%A4%9A%E9%A4%90%E5%BB%B3-106254614063995/menu"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href=""&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.jp-cuisines.com/menu.html"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href=""&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://fairylolita.com/wumenu/"&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/1855hotpot/menu"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href=""&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/388622Maruko/menu"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href=""&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://vivawei.tw/gia-fine/"&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://fairylolita.com/one-show-sushi/"&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www111060.pixnet.net/blog/post/404966851"&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   &lt;a style="button" class="btn btn-info"  href="https://www.walkerland.com.tw/article/view/250686?page=full"&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://hungryleon.com/blog/post/326792023-%E6%9E%97%E5%8F%A3%E9%BE%9C%E5%B1%B1%E7%BE%8E%E9%A3%9F-%E6%A2%85%E8%8F%8A%E6%89%8B%E4%BD%9C%E9%AD%AF%E8%82%89%E9%A3%AF%EF%BC%8C%E9%8B%AA%E6%BB%BF%E9%AE%AE%E8%9A%B5%E8%9D%A6"&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/tastyoldtime/photos/p.1153757731719550/1153757731719550"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href=""&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://letsplay.tw/taishapa/"&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="http://www.thicklycut.com.tw/"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href=""&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"   href="http://www.enjoy99.com.tw/product.php?class_sn=13"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href=""&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/843813859063434/photos/a.844778335633653/844779032300250"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href=""&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/plant.pasta/menu"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href=""&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.dominos.com.tw/taste.htm"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href=""&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://zaq0930.pixnet.net/blog/post/354223907-%E3%80%90%E6%A1%83%E5%9C%92%E9%BE%9C%E5%B1%B1%E9%A3%9F%E8%A8%98%E3%80%91%E5%AD%AB%E6%9D%B1%E5%AF%B6%E5%8F%B0%E5%BC%8F%E7%89%9B%E6%8E%92%E5%BA%97"&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.guotaiming-hotpot.com/menu.html"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href=""&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+ 網路資訊:   &lt;a style="button" class="btn btn-info"  href="https://ch3126.pixnet.net/blog/post/120524278"&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/%E6%BE%8E%E6%B9%96%E7%81%A3%E5%B9%B3%E5%83%B9%E6%B5%B7%E9%AE%AE%E9%A4%90%E5%BB%B3-108479787548057/menu"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href=""&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://tenjo.tw/gangta-buffet/"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href=""&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.0800076666.com.tw/Menu/MenuPizza?fbclid=IwAR3NJaIMZXhd9U7D6SbV_Dh1QJ2U7LgJUSwI8RLMx0aTBV_UFs6N1umsR7o"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href=""&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://menubar.tw/menu/vyVv2sDUMTiF"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href=""&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊: &lt;a style="button" class="btn btn-info"  href=""https://vivawei.tw/gia-fine/""&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://blog.xuite.net/aec810909/blog/496637882"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href=""&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.alberthsieh.com/3183/tina-kit-wenhua"&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+ 網路資訊:   &lt;a style="button" class="btn btn-info"  href="https://tzuhui99.pixnet.net/blog/post/44775661"&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.starbucks.com.tw/products/catalog.jspx"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href=""&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/GreatDaysBrunch/menu"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href=""&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://almablog.com.tw/blog/post/161166"&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://nixojov.pixnet.net/blog/post/352831532-%E3%80%90%E6%9E%97%E5%8F%A3%E7%BE%8E%E9%A3%9F%E3%80%91%E5%8D%83%E8%91%89%E7%81%AB%E9%8D%8B%E6%9E%97%E5%8F%A3%E5%B0%8A%E7%88%B5%E9%A4%A8-%E8%B6%85%E9%81%8E%E7%99%BE%E6%A8%A3"&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
   </si>
   <si>
     <t>"&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.foodpanda.com.tw/en/restaurant/z6ng/qin-mei-ting?r=1"&gt;網路推薦&lt;/a&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.foodpanda.com.tw/en/restaurant/z6ng/qin-mei-ting?r=1"&gt;推薦&lt;/a&gt;
 &lt;/p&gt;"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://z78625.pixnet.net/blog/post/229011977-%E6%9E%97%E5%8F%A3%E9%BE%9C%E5%B1%B1%E5%90%83%E5%88%B0%E9%A3%BD%E3%80%8E%E4%B8%80%E7%95%AA%E5%9C%B0%E5%A3%BD%E5%96%9C%E7%87%92(%E6%9E%97%E5%8F%A3%E9%95%B7%E5%BA%9A%E5%BA%97)"&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://beauty082836.pixnet.net/blog/post/403782632"&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://vivawei.tw/sugarcane-mamama/"&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://vivawei.tw/3villagesss/"&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://www.viviyu.com/archives/30655"&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://wen4899.pixnet.net/blog/post/219177768"&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://tenjo.tw/aqishi-xiaolongbao/"&gt;台北店-網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/pappis0226088167/menu"&gt;菜單&lt;/a&gt; &amp;nbsp; 
-&lt;a style="button" class="btn btn-info"  href="https://www.gomaji.com/store/90654?pid=243551"&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/gfood51/menu"&gt;菜單&lt;/a&gt; &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href="https://tzuhui99.pixnet.net/blog/post/44100876"&gt;網路推薦&lt;/a&gt; &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href="https://inline.app/booking/-LosVXvQRs9zuFrRM9UE:inline-live-1/-LosVYSM5BHeu7tmLU4-?language=zh-tw"&gt; 線上訂位&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/freakscafebistrolk/menu/?ref=page_internal"&gt;菜單&lt;/a&gt; &amp;nbsp; 
-   &lt;a style="button" class="btn btn-info"  href="https://www.walkerland.com.tw/article/view/210712?page=full"&gt;網路推薦&lt;/a&gt; 
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/1971298456236144/photos/p.2094527287246593/2094527287246593"&gt;菜單&lt;/a&gt; &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href="https://www.gomaji.com/store/58954"&gt;網路推薦&lt;/a&gt; &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href="https://en.eztable.com/restaurant/15116"&gt;線上訂位&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/bravoburgerlinkou/menu"&gt;菜單&lt;/a&gt; &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href="https://jeremyckt2.pixnet.net/blog/post/224894483-%5B%E9%A3%9F%E8%A8%98%5D%5B%E6%96%B0%E5%8C%97%E5%B8%82%5D%5B%E6%9E%97%E5%8F%A3%E5%8D%80%5D-bravo-burger-%E7%99%BC%E7%A6%8F%E5%BB%9A%E6%88%BF%E6%9E%97"&gt;網路推薦&lt;/a&gt; 
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/meiligreen384/posts/188181188420999/"&gt;菜單&lt;/a&gt;  &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href="https://www.gomaji.com/store/113538"&gt;網路推薦&lt;/a&gt; 
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.gomaji.com/store/111390"&gt;網路推薦&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href="https://www.gomaji.com/store/111390"&gt;網路推薦&lt;/a&gt; 
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/bluelampcafe/photos/p.1074693843056553/1074693843056553"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href="https://mai0104.pixnet.net/blog/post/463191518"&gt;網路推薦&lt;/a&gt; 
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://editordiary.pixnet.net/blog/post/218296050"&gt;網路推薦&lt;/a&gt;  &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href="https://aniseblog.tw/203738"&gt;網路推薦&lt;/a&gt; 
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/thecafeby2/menu"&gt;菜單&lt;/a&gt;  &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href="https://www.mecocute.com/thecafeby2/"&gt;網路推薦&lt;/a&gt; 
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>想林口 - 空中花園</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/LakuLakuMachi/photos/p.833949060055696/833949060055696"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href=""&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/homaseafood/menu"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href=""&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+ 網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.pizzahut.com.tw/order/?mode=step_2&amp;type_id=0&amp;fm=obn&amp;tt=1616"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href=""&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://z78625.pixnet.net/blog/post/229011977-%E6%9E%97%E5%8F%A3%E9%BE%9C%E5%B1%B1%E5%90%83%E5%88%B0%E9%A3%BD%E3%80%8E%E4%B8%80%E7%95%AA%E5%9C%B0%E5%A3%BD%E5%96%9C%E7%87%92(%E6%9E%97%E5%8F%A3%E9%95%B7%E5%BA%9A%E5%BA%97)"&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.yentlpasta.com.tw/menu"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href=""&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://beauty082836.pixnet.net/blog/post/403782632"&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+ 網路資訊:   &lt;a style="button" class="btn btn-info"  href="http://www.shinemood2006.com/product_list.asp"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href=""&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/528201201460788/photos/a.528306241450284/556264938654414/"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href=""&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://vivawei.tw/sugarcane-mamama/"&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://vivawei.tw/3villagesss/"&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/1640280569628363/posts/2044433485879734/"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href=""&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://www.viviyu.com/archives/30655"&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://tenjo.tw/aqishi-xiaolongbao/"&gt;台北店-推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a style="button" class="btn btn-info"  href="http://www.noble.com.tw/index.php/menu/refinement-foodmenu"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href=""&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://wen4899.pixnet.net/blog/post/219177768"&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.gomaji.com/store/111390"&gt;推薦&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://www.gomaji.com/store/111390"&gt;推薦&lt;/a&gt; 
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://editordiary.pixnet.net/blog/post/218296050"&gt;推薦&lt;/a&gt;  &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://aniseblog.tw/203738"&gt;推薦&lt;/a&gt; 
+&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;
   網路資訊:  &lt;a style="button" class="btn btn-info"  href="http://villager.com.tw/"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href=""&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/%E5%9C%93%E6%98%8E%E5%9C%92%E8%8A%B1%E5%9C%92%E6%B5%B7%E9%AE%AE%E6%9C%83%E9%A4%A8%E5%8E%9F%E5%96%9C%E5%B8%82%E5%A4%9A%E9%A4%90%E5%BB%B3-106254614063995/menu"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href=""&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.jp-cuisines.com/menu.html"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href=""&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/1855hotpot/menu"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href=""&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/388622Maruko/menu"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href=""&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/tastyoldtime/photos/p.1153757731719550/1153757731719550"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href=""&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="http://www.thicklycut.com.tw/"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href=""&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
- 網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/6owldoor/menu"&gt;菜單&lt;/a&gt;
-&lt;/p&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href=""&gt;網路推薦&lt;/a&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"   href="http://www.enjoy99.com.tw/product.php?class_sn=13"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href=""&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/843813859063434/photos/a.844778335633653/844779032300250"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href=""&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/plant.pasta/menu"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href=""&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.dominos.com.tw/taste.htm"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href=""&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.guotaiming-hotpot.com/menu.html"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href=""&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/%E6%BE%8E%E6%B9%96%E7%81%A3%E5%B9%B3%E5%83%B9%E6%B5%B7%E9%AE%AE%E9%A4%90%E5%BB%B3-108479787548057/menu"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href=""&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://tenjo.tw/gangta-buffet/"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href=""&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.0800076666.com.tw/Menu/MenuPizza?fbclid=IwAR3NJaIMZXhd9U7D6SbV_Dh1QJ2U7LgJUSwI8RLMx0aTBV_UFs6N1umsR7o"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href=""&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://menubar.tw/menu/vyVv2sDUMTiF"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href=""&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://blog.xuite.net/aec810909/blog/496637882"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href=""&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.starbucks.com.tw/products/catalog.jspx"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href=""&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/GreatDaysBrunch/menu"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href=""&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
- 網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.pizzahut.com.tw/order/?mode=step_2&amp;type_id=0&amp;fm=obn&amp;tt=1616"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href=""&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.yentlpasta.com.tw/menu"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href=""&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
- 網路資訊:   &lt;a style="button" class="btn btn-info"  href="http://www.shinemood2006.com/product_list.asp"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href=""&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/528201201460788/photos/a.528306241450284/556264938654414/"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href=""&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/1640280569628363/posts/2044433485879734/"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href=""&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-   網路資訊: &lt;a style="button" class="btn btn-info"  href="http://www.noble.com.tw/index.php/menu/refinement-foodmenu"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href=""&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/media/set/?set=a.430675527120156.1073741838.138245503029828&amp;type=3&amp;uploaded=14"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href="https://wen4899.pixnet.net/blog/post/3243634"&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊: &lt;a style="button" class="btn btn-info"  href="https://www.gyukatsu-motomura.com/zh/menu"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href="https://ksk.tw/blog/post/353150162"&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/TsuruhashiFugetsuTaiwan/photos/pcb.2683771331941236/2683771135274589/"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href="https://www.walkerland.com.tw/article/view/236996"&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.leeleelin.com/2016/07/tonchin-menu.html"&gt;網路推薦&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href="https://mai0104.pixnet.net/blog/post/467765741"&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
- 網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.tendon.kingoshou.com/products/1/1.htm"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href="https://grace05026.pixnet.net/blog/post/91456448-%E3%80%90%E9%A3%9F%E8%A8%98%E3%80%91%E6%96%B0%E5%8C%97%E2%98%BC%E6%9E%97%E5%8F%A3%E4%B8%89%E4%BA%95outlet-%E9%87%91%E5%AD%90%E5%8D%8A%E4%B9%8B%E5%8A%A9**%E6%97%A5"&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
- 網路資訊:   &lt;a style="button" class="btn btn-info"  href="https://paul1889-dessert-togo.cashier.ecpay.com.tw/"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href="https://asound69.pixnet.net/blog/post/114299660-%E6%96%B0%E5%8C%97_%E6%9E%97%E5%8F%A3%E5%8D%80%E3%80%90paul%E3%80%91%E6%8B%9B%E7%89%8C%E8%8D%89%E8%8E%93%E5%8D%83%E5%B1%A4%E6%B4%BE-%28%E6%9E%97%E5%8F%A3%E4%B8%89"&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://g8906011.pixnet.net/blog/post/491175209"&gt;網路推薦&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href="https://saliha.pixnet.net/blog/post/458434253-%E6%9E%97%E5%8F%A3%E4%B8%89%E4%BA%95outlet%E9%A4%90%E5%BB%B3%E6%8E%A8%E8%96%A6-j.s.-foodies-%E5%A5%87%E8%B9%9F%E8%88%92%E8%8A%99%E8%95%BE"&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="http://www.kua-aina.tw/zh_TW/gallery-content/node/1452062353001"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href="https://joyce0221.pixnet.net/blog/post/229936656-%E3%80%90%E6%9E%97%E5%8F%A3%E7%BE%8E%E9%A3%9F%E3%80%91%E4%B8%89%E4%BA%95-outlet-%E5%A4%8F%E5%A8%81%E5%A4%B7%E6%BC%A2%E5%A0%A1-kua%60aina-bur"&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.thaitown.com.tw/tw/menu#section-1"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href="https://wenxuan14.pixnet.net/blog/post/275551016-%E6%96%B0%E5%8C%97%E6%9E%97%E5%8F%A3-%22%E7%93%A6%E5%9F%8E%E6%B3%B0%E5%9C%8B%E6%96%99%E7%90%86---%E6%9E%97%E5%8F%A3%E4%B8%89%E4%BA%95%E5%BA%97%22-%E9%99%84%E8%8F%9C"&gt;網路推薦&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href="https://en.eztable.com/restaurant/11780"&gt;線上訂位&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.shinyeh.com.tw/content/zh/brand/Menu.aspx?BrandId=3#tabpanel_1"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href="https://gn10202000.pixnet.net/blog/post/467428493-%E6%9E%97%E5%8F%A3outlet-%E6%AC%A3%E8%91%89%E5%B0%8F%E8%81%9A%E5%8F%B0%E8%8F%9C"&gt;網路推薦&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href="https://en.eztable.com/restaurant/13737"&gt;線上訂位&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="http://www.dianshuilou.com.tw/Foods_2_a_1.aspx?s=7"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href="https://nikitarh.pixnet.net/blog/post/5796619-%E3%80%90%E6%96%B0%E5%8C%97%E4%B8%AD%E5%BC%8F%E3%80%91%E9%BB%9E%E6%B0%B4%E6%A8%93%E6%9E%97%E5%8F%A3%E4%B8%89%E4%BA%95%E5%BA%97%EF%BC%8C%E7%B1%B3%E5%85%B6%E6%9E%97%E5%BF%85%E6%AF%94"&gt;網路推薦&lt;/a&gt;  &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href="https://en.eztable.com/restaurant/12767"&gt;線上訂位&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.kurasushi.tw/products"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href="https://a606691.pixnet.net/blog/post/466555763-%EF%BD%9C%E3%81%8F%E3%82%89%E5%AF%BF%E5%8F%B8-%E8%97%8F%E5%A3%BD%E5%8F%B8%EF%BD%9C%E6%9E%97%E5%8F%A3%E4%B8%89%E4%BA%95outlet%E5%BA%97%E3%80%82%E6%97%A5%E6%9C%AC"&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://shop.thesecretcake.com.tw/product.php?mid=8"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href="https://kenalice.tw/blog/post/thesecretcake"&gt;網路推薦&lt;/a&gt;
-&lt;/p&gt;</t>
+   &lt;a style="button" class="btn btn-info"  href=""&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://www.thaitown.com.tw/tw/menu"&gt;菜單&lt;/a&gt; &amp;nbsp; 
+&lt;a style="button" class="btn btn-info"  href="https://ryohei0221.pixnet.net/blog/post/68108145"&gt;推薦&lt;/a&gt; &amp;nbsp; 
+ &lt;a style="button" class="btn btn-info"  href="https://en.eztable.com/restaurant/14471"&gt;訂位&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info" href="file/RES-101-阿基師.pdf"&gt;菜單&lt;/a&gt; 
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;
+ 網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/6owldoor/menu"&gt;菜單&lt;/a&gt;  &amp;nbsp;
+  &lt;a style="button" class="btn btn-info"  href=""&gt;推薦&lt;/a&gt;
+&lt;/p&gt;  
+</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3529,10 +3504,10 @@
   <dimension ref="A1:J89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B40" sqref="B40"/>
+      <selection pane="bottomRight" activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3582,7 +3557,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="96">
+    <row r="2" spans="1:10" ht="144">
       <c r="A2" s="1" t="s">
         <v>546</v>
       </c>
@@ -3611,7 +3586,7 @@
         <v>119</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="112">
@@ -3643,10 +3618,10 @@
         <v>119</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="64">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="96">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -3675,10 +3650,10 @@
         <v>119</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="96">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="80">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -3707,7 +3682,7 @@
         <v>119</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>608</v>
+        <v>691</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="48">
@@ -3739,10 +3714,10 @@
         <v>119</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="64">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="96">
       <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
@@ -3771,7 +3746,7 @@
         <v>119</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="80">
@@ -3806,7 +3781,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="97">
+    <row r="9" spans="1:10" ht="16">
       <c r="A9" s="1" t="s">
         <v>46</v>
       </c>
@@ -3835,7 +3810,7 @@
         <v>246</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="97">
@@ -3867,10 +3842,10 @@
         <v>246</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="112">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="144">
       <c r="A11" s="1" t="s">
         <v>56</v>
       </c>
@@ -3899,7 +3874,7 @@
         <v>246</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="96">
@@ -3931,7 +3906,7 @@
         <v>246</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="64">
@@ -3963,7 +3938,7 @@
         <v>246</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="144">
@@ -3995,7 +3970,7 @@
         <v>246</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="80">
@@ -4027,7 +4002,7 @@
         <v>374</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="64">
@@ -4059,7 +4034,7 @@
         <v>374</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>642</v>
+        <v>618</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="96">
@@ -4091,7 +4066,7 @@
         <v>374</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>643</v>
+        <v>619</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="80">
@@ -4123,7 +4098,7 @@
         <v>374</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>644</v>
+        <v>620</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="96">
@@ -4155,7 +4130,7 @@
         <v>374</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>645</v>
+        <v>621</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="96">
@@ -4187,7 +4162,7 @@
         <v>374</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>646</v>
+        <v>622</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="80">
@@ -4219,7 +4194,7 @@
         <v>374</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>647</v>
+        <v>623</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="64">
@@ -4251,7 +4226,7 @@
         <v>374</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>648</v>
+        <v>688</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="80">
@@ -4283,7 +4258,7 @@
         <v>374</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>649</v>
+        <v>624</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="64">
@@ -4315,7 +4290,7 @@
         <v>374</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>650</v>
+        <v>689</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="64">
@@ -4323,7 +4298,7 @@
         <v>127</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>652</v>
+        <v>605</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>540</v>
@@ -4347,7 +4322,7 @@
         <v>137</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>651</v>
+        <v>625</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="96">
@@ -4379,7 +4354,7 @@
         <v>137</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>681</v>
+        <v>626</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="64">
@@ -4411,7 +4386,7 @@
         <v>137</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>682</v>
+        <v>627</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="80">
@@ -4443,10 +4418,10 @@
         <v>137</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="80">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="64">
       <c r="A29" s="1" t="s">
         <v>146</v>
       </c>
@@ -4475,7 +4450,7 @@
         <v>137</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>684</v>
+        <v>632</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="96">
@@ -4507,7 +4482,7 @@
         <v>137</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>685</v>
+        <v>629</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="96">
@@ -4539,7 +4514,7 @@
         <v>137</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>686</v>
+        <v>630</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="96">
@@ -4571,7 +4546,7 @@
         <v>137</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>687</v>
+        <v>631</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="112">
@@ -4603,7 +4578,7 @@
         <v>137</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>688</v>
+        <v>633</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="128">
@@ -4635,7 +4610,7 @@
         <v>137</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>689</v>
+        <v>634</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="112">
@@ -4667,7 +4642,7 @@
         <v>137</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>690</v>
+        <v>635</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="128">
@@ -4699,7 +4674,7 @@
         <v>137</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>691</v>
+        <v>636</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="112">
@@ -4728,7 +4703,7 @@
         <v>137</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>692</v>
+        <v>637</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="64">
@@ -4760,7 +4735,7 @@
         <v>137</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>693</v>
+        <v>641</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="80">
@@ -4792,7 +4767,7 @@
         <v>137</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>619</v>
+        <v>638</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="80">
@@ -4824,7 +4799,7 @@
         <v>137</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>653</v>
+        <v>639</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="64">
@@ -4856,7 +4831,7 @@
         <v>156</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>654</v>
+        <v>640</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="64">
@@ -4888,7 +4863,7 @@
         <v>156</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>655</v>
+        <v>690</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="112">
@@ -4920,7 +4895,7 @@
         <v>173</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>656</v>
+        <v>642</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="64">
@@ -4952,7 +4927,7 @@
         <v>282</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>657</v>
+        <v>643</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="48">
@@ -4984,7 +4959,7 @@
         <v>282</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>620</v>
+        <v>644</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="64">
@@ -5016,7 +4991,7 @@
         <v>282</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="64">
@@ -5048,7 +5023,7 @@
         <v>282</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="48">
@@ -5080,7 +5055,7 @@
         <v>282</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>621</v>
+        <v>647</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="48">
@@ -5112,7 +5087,7 @@
         <v>282</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>622</v>
+        <v>648</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="48">
@@ -5144,7 +5119,7 @@
         <v>282</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>623</v>
+        <v>649</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="48">
@@ -5176,7 +5151,7 @@
         <v>282</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>624</v>
+        <v>650</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="96">
@@ -5208,7 +5183,7 @@
         <v>282</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>625</v>
+        <v>651</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="80">
@@ -5240,7 +5215,7 @@
         <v>282</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="48">
@@ -5272,7 +5247,7 @@
         <v>282</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>626</v>
+        <v>653</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="64">
@@ -5304,10 +5279,10 @@
         <v>501</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="64">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="80">
       <c r="A56" s="1" t="s">
         <v>551</v>
       </c>
@@ -5336,7 +5311,7 @@
         <v>501</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>662</v>
+        <v>693</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="64">
@@ -5368,7 +5343,7 @@
         <v>501</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="80">
@@ -5400,7 +5375,7 @@
         <v>501</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="64">
@@ -5432,7 +5407,7 @@
         <v>501</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="64">
@@ -5464,7 +5439,7 @@
         <v>501</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="80">
@@ -5496,7 +5471,7 @@
         <v>501</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>627</v>
+        <v>659</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="64">
@@ -5528,7 +5503,7 @@
         <v>501</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="48">
@@ -5560,7 +5535,7 @@
         <v>501</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>628</v>
+        <v>661</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="96">
@@ -5592,7 +5567,7 @@
         <v>501</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="64">
@@ -5624,7 +5599,7 @@
         <v>501</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="96">
@@ -5656,7 +5631,7 @@
         <v>501</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="64">
@@ -5688,7 +5663,7 @@
         <v>501</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="48">
@@ -5720,7 +5695,7 @@
         <v>501</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>629</v>
+        <v>666</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="64">
@@ -5752,7 +5727,7 @@
         <v>501</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="48">
@@ -5784,7 +5759,7 @@
         <v>501</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>630</v>
+        <v>668</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="48">
@@ -5816,7 +5791,7 @@
         <v>501</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>631</v>
+        <v>669</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="64">
@@ -5848,7 +5823,7 @@
         <v>13</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="64">
@@ -5880,7 +5855,7 @@
         <v>13</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="48">
@@ -5912,7 +5887,7 @@
         <v>496</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>632</v>
+        <v>672</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="96">
@@ -5944,7 +5919,7 @@
         <v>13</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>633</v>
+        <v>673</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="64">
@@ -5976,7 +5951,7 @@
         <v>13</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>634</v>
+        <v>674</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="80">
@@ -6040,7 +6015,7 @@
         <v>13</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>635</v>
+        <v>676</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="64">
@@ -6072,7 +6047,7 @@
         <v>13</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="48">
@@ -6104,7 +6079,7 @@
         <v>13</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>636</v>
+        <v>678</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="64">
@@ -6136,7 +6111,7 @@
         <v>446</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="80">
@@ -6168,7 +6143,7 @@
         <v>446</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="48">
@@ -6200,7 +6175,7 @@
         <v>446</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>637</v>
+        <v>681</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="48">
@@ -6232,7 +6207,7 @@
         <v>446</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>638</v>
+        <v>682</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="80">
@@ -6264,7 +6239,7 @@
         <v>446</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="48">
@@ -6296,7 +6271,7 @@
         <v>446</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>639</v>
+        <v>684</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="48">
@@ -6325,7 +6300,7 @@
         <v>446</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>641</v>
+        <v>685</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="80">
@@ -6357,7 +6332,7 @@
         <v>446</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="48">
@@ -6389,7 +6364,7 @@
         <v>446</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>640</v>
+        <v>687</v>
       </c>
     </row>
   </sheetData>

--- a/db/AiCity-72-Restaurant.xlsx
+++ b/db/AiCity-72-Restaurant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D874A4-7E86-CF42-B054-25974EDB1AFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5109E97C-7B66-3849-9800-B19F93B3DCC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11240" yWindow="1700" windowWidth="35160" windowHeight="25400" xr2:uid="{1AAFA279-DBCD-DA42-8F0D-FE7868FF2730}"/>
+    <workbookView xWindow="20840" yWindow="1100" windowWidth="29060" windowHeight="25400" xr2:uid="{1AAFA279-DBCD-DA42-8F0D-FE7868FF2730}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -2756,20 +2756,6 @@
   </si>
   <si>
     <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/LakuLakuMachi/photos/p.833949060055696/833949060055696"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href=""&gt;推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/homaseafood/menu"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href=""&gt;推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
   網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://shop.thesecretcake.com.tw/product.php?mid=8"&gt;菜單&lt;/a&gt;   &amp;nbsp;
    &lt;a style="button" class="btn btn-info"  href="https://kenalice.tw/blog/post/thesecretcake"&gt;推薦&lt;/a&gt;
 &lt;/p&gt;J42</t>
@@ -2777,35 +2763,7 @@
   </si>
   <si>
     <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/%E5%9C%93%E6%98%8E%E5%9C%92%E8%8A%B1%E5%9C%92%E6%B5%B7%E9%AE%AE%E6%9C%83%E9%A4%A8%E5%8E%9F%E5%96%9C%E5%B8%82%E5%A4%9A%E9%A4%90%E5%BB%B3-106254614063995/menu"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href=""&gt;推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.jp-cuisines.com/menu.html"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href=""&gt;推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
   網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://fairylolita.com/wumenu/"&gt;推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/1855hotpot/menu"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href=""&gt;推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/388622Maruko/menu"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href=""&gt;推薦&lt;/a&gt;
 &lt;/p&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2854,111 +2812,23 @@
   </si>
   <si>
     <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="http://www.thicklycut.com.tw/"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href=""&gt;推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"   href="http://www.enjoy99.com.tw/product.php?class_sn=13"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href=""&gt;推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/843813859063434/photos/a.844778335633653/844779032300250"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href=""&gt;推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/plant.pasta/menu"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href=""&gt;推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.dominos.com.tw/taste.htm"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href=""&gt;推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;
   網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://zaq0930.pixnet.net/blog/post/354223907-%E3%80%90%E6%A1%83%E5%9C%92%E9%BE%9C%E5%B1%B1%E9%A3%9F%E8%A8%98%E3%80%91%E5%AD%AB%E6%9D%B1%E5%AF%B6%E5%8F%B0%E5%BC%8F%E7%89%9B%E6%8E%92%E5%BA%97"&gt;推薦&lt;/a&gt;
 &lt;/p&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.guotaiming-hotpot.com/menu.html"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href=""&gt;推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;
  網路資訊:   &lt;a style="button" class="btn btn-info"  href="https://ch3126.pixnet.net/blog/post/120524278"&gt;推薦&lt;/a&gt;
 &lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/%E6%BE%8E%E6%B9%96%E7%81%A3%E5%B9%B3%E5%83%B9%E6%B5%B7%E9%AE%AE%E9%A4%90%E5%BB%B3-108479787548057/menu"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href=""&gt;推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://tenjo.tw/gangta-buffet/"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href=""&gt;推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.0800076666.com.tw/Menu/MenuPizza?fbclid=IwAR3NJaIMZXhd9U7D6SbV_Dh1QJ2U7LgJUSwI8RLMx0aTBV_UFs6N1umsR7o"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href=""&gt;推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://menubar.tw/menu/vyVv2sDUMTiF"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href=""&gt;推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;
   網路資訊: &lt;a style="button" class="btn btn-info"  href=""https://vivawei.tw/gia-fine/""&gt;推薦&lt;/a&gt;
 &lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://blog.xuite.net/aec810909/blog/496637882"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href=""&gt;推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.alberthsieh.com/3183/tina-kit-wenhua"&gt;推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;
  網路資訊:   &lt;a style="button" class="btn btn-info"  href="https://tzuhui99.pixnet.net/blog/post/44775661"&gt;推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.starbucks.com.tw/products/catalog.jspx"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href=""&gt;推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/GreatDaysBrunch/menu"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href=""&gt;推薦&lt;/a&gt;
 &lt;/p&gt;</t>
   </si>
   <si>
@@ -2978,40 +2848,16 @@
   </si>
   <si>
     <t>&lt;p&gt;
- 網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.pizzahut.com.tw/order/?mode=step_2&amp;type_id=0&amp;fm=obn&amp;tt=1616"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href=""&gt;推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;
   網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://z78625.pixnet.net/blog/post/229011977-%E6%9E%97%E5%8F%A3%E9%BE%9C%E5%B1%B1%E5%90%83%E5%88%B0%E9%A3%BD%E3%80%8E%E4%B8%80%E7%95%AA%E5%9C%B0%E5%A3%BD%E5%96%9C%E7%87%92(%E6%9E%97%E5%8F%A3%E9%95%B7%E5%BA%9A%E5%BA%97)"&gt;推薦&lt;/a&gt;
 &lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.yentlpasta.com.tw/menu"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href=""&gt;推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;
   網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://beauty082836.pixnet.net/blog/post/403782632"&gt;推薦&lt;/a&gt;
 &lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;
- 網路資訊:   &lt;a style="button" class="btn btn-info"  href="http://www.shinemood2006.com/product_list.asp"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href=""&gt;推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/528201201460788/photos/a.528306241450284/556264938654414/"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href=""&gt;推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;
    網路資訊: &lt;a style="button" class="btn btn-info"  href="https://vivawei.tw/sugarcane-mamama/"&gt;推薦&lt;/a&gt;
 &lt;/p&gt;</t>
   </si>
@@ -3022,24 +2868,12 @@
   </si>
   <si>
     <t>&lt;p&gt;
-   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/1640280569628363/posts/2044433485879734/"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href=""&gt;推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;
    網路資訊: &lt;a style="button" class="btn btn-info"  href="https://www.viviyu.com/archives/30655"&gt;推薦&lt;/a&gt;
 &lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;
    網路資訊: &lt;a style="button" class="btn btn-info"  href="https://tenjo.tw/aqishi-xiaolongbao/"&gt;台北店-推薦&lt;/a&gt;
-&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-   網路資訊: &lt;a style="button" class="btn btn-info"  href="http://www.noble.com.tw/index.php/menu/refinement-foodmenu"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href=""&gt;推薦&lt;/a&gt;
 &lt;/p&gt;</t>
   </si>
   <si>
@@ -3057,12 +2891,6 @@
     <t>&lt;p&gt;
   網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://editordiary.pixnet.net/blog/post/218296050"&gt;推薦&lt;/a&gt;  &amp;nbsp;
    &lt;a style="button" class="btn btn-info"  href="https://aniseblog.tw/203738"&gt;推薦&lt;/a&gt; 
-&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  網路資訊:  &lt;a style="button" class="btn btn-info"  href="http://villager.com.tw/"&gt;菜單&lt;/a&gt;   &amp;nbsp;
-   &lt;a style="button" class="btn btn-info"  href=""&gt;推薦&lt;/a&gt;
 &lt;/p&gt;</t>
   </si>
   <si>
@@ -3080,11 +2908,196 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/LakuLakuMachi/photos/p.833949060055696/833949060055696"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://lexie.tw/2015-12-20-135/"&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/homaseafood/menu"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://yukiblog.tw/read-9420.html"&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="http://villager.com.tw/"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://fairylolita.com/villager1078/"&gt;推薦&lt;/a&gt; &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://en.eztable.com/restaurant/13963"&gt;定位&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/%E5%9C%93%E6%98%8E%E5%9C%92%E8%8A%B1%E5%9C%92%E6%B5%B7%E9%AE%AE%E6%9C%83%E9%A4%A8%E5%8E%9F%E5%96%9C%E5%B8%82%E5%A4%9A%E9%A4%90%E5%BB%B3-106254614063995/menu"&gt;菜單&lt;/a&gt;  &lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.jp-cuisines.com/menu.html"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://almablog.com.tw/blog/post/158331"&gt;推薦&lt;/a&gt;  &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://www.jp-cuisines.com.tw/packedlunch"&gt;外帶&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/1855hotpot/menu"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://peko721.pixnet.net/blog/post/47581329"&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/388622Maruko/menu"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://www.walkerland.com.tw/article/view/241108"&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="http://www.thicklycut.com.tw/"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://vivawei.tw/linkou-thicklycut/"&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;p&gt;
  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/6owldoor/menu"&gt;菜單&lt;/a&gt;  &amp;nbsp;
-  &lt;a style="button" class="btn btn-info"  href=""&gt;推薦&lt;/a&gt;
+  &lt;a style="button" class="btn btn-info"  href="https://carriewu103.pixnet.net/blog/post/225004187"&gt;推薦&lt;/a&gt;
 &lt;/p&gt;  
 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"   href="http://www.enjoy99.com.tw/product.php?class_sn=13"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://nhit1932.pixnet.net/blog/post/41639521"&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/843813859063434/photos/a.844778335633653/844779032300250"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://bonyyen.pixnet.net/blog/post/77575775-%E6%9E%97%E5%8F%A3%E6%96%87%E5%8C%96%E4%BA%8C%E8%B7%AF~%E4%BE%86%E7%A2%97%E6%8B%89%E9%BA%B5"&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/plant.pasta/menu"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://www.foodpanda.com.tw/en/restaurant/r9hv/bu-lei-te-yi-shi-can-ting?r=1"&gt;外送&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.dominos.com.tw/taste.htm"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://www.dominos.com.tw/store.htm"&gt;外送&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.guotaiming-hotpot.com/menu.html"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://zaq0930.pixnet.net/blog/post/358856698-%E3%80%90%E6%A1%83%E5%9C%92%E9%BE%9C%E5%B1%B1%E9%A3%9F%E8%A8%98%E3%80%91%E9%8D%8B%E5%8F%B0%E9%8A%98%E6%99%82%E5%B0%9A%E6%B9%AF%E9%8D%8B%E7%99%BE%E5%85%83%E9%8D%8B%E7%89%A9%E7%B2%BE"&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/%E6%BE%8E%E6%B9%96%E7%81%A3%E5%B9%B3%E5%83%B9%E6%B5%B7%E9%AE%AE%E9%A4%90%E5%BB%B3-108479787548057/menu"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://gvemma.pixnet.net/blog/post/69263388-%E6%BE%8E%E6%B9%96%E7%81%A3%E6%B5%B7%E9%AE%AE%E9%A4%90%E5%BB%B3%40%E6%A1%83%E5%9C%92%E4%B8%8A%E9%BE%9C%E5%B1%B1%E8%BF%91%E6%9E%97%E5%8F%A3-a8%E6%A9%9F%E5%A0%B4%E6%8D%B7"&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://tenjo.tw/gangta-buffet/"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://tenjo.tw/gangta-buffet/"&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.0800076666.com.tw/Menu/MenuPizza?fbclid=IwAR3NJaIMZXhd9U7D6SbV_Dh1QJ2U7LgJUSwI8RLMx0aTBV_UFs6N1umsR7o"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://www.0800076666.com.tw/onlineNew/home/Order1"&gt;外送&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://menubar.tw/menu/vyVv2sDUMTiF"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://www.leeleelin.com/2013/08/blog-post_692.html"&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://blog.xuite.net/aec810909/blog/496637882"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://www.foodpanda.com.tw/en/restaurant/f4ob/he-pu-dao-qie-mian-shi-gong-fang-gui-shan-hua-ya-dian?r=1"&gt;外送&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.alberthsieh.com/3183/tina-kit-wenhua"&gt;推薦&lt;/a&gt;&amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://www.alberthsieh.com/3183/tina-kit-wenhua"&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.starbucks.com.tw/products/catalog.jspx"&gt;菜單&lt;/a&gt;   &lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/GreatDaysBrunch/menu"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://aboa1110.pixnet.net/blog/post/347467007"&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+ 網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.pizzahut.com.tw/order/?mode=step_2&amp;type_id=0&amp;fm=obn&amp;tt=1616"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://www.pizzahut.com.tw/?urlname=iP2018Gsearch&amp;gclid=Cj0KCQjwmIuDBhDXARIsAFITC_6pDQsdJ5YVhXWdVd6vgIHYQdjYvbFccPtsAttjXQOOZ1dXKCgDpnYaAo8HEALw_wcB&amp;gclsrc=aw.ds"&gt;外送&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.yentlpasta.com.tw/menu"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://tzuhui99.pixnet.net/blog/post/43554888"&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+ 網路資訊:   &lt;a style="button" class="btn btn-info"  href="http://www.shinemood2006.com/product_list.asp"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://www.viviyu.com/archives/22329"&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:  &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/528201201460788/photos/a.528306241450284/556264938654414/"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://www.foodpanda.com.tw/en/restaurant/qm0t/qing-yuan-yu-yuan-gui-shan-chang-geng-dian?r=1"&gt;外送&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://www.facebook.com/1640280569628363/posts/2044433485879734/"&gt;菜單&lt;/a&gt;   &amp;nbsp;
+   &lt;a style="button" class="btn btn-info"  href="https://www.foodpanda.com.tw/en/restaurant/z4ox/sha-shi-fu-tang-bao-tao-yuan-gui-shan-fu-xing-dian?r=1"&gt;外送&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a style="button" class="btn btn-info"  href="http://www.noble.com.tw/index.php/menu/refinement-foodmenu"&gt;菜單&lt;/a&gt;   &lt;/p&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3504,10 +3517,10 @@
   <dimension ref="A1:J89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G79" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J56" sqref="J56"/>
+      <selection pane="bottomRight" activeCell="H98" sqref="H97:H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3682,7 +3695,7 @@
         <v>119</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>691</v>
+        <v>664</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="48">
@@ -3714,7 +3727,7 @@
         <v>119</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>692</v>
+        <v>665</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="96">
@@ -4226,7 +4239,7 @@
         <v>374</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>688</v>
+        <v>662</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="80">
@@ -4290,7 +4303,7 @@
         <v>374</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>689</v>
+        <v>663</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="64">
@@ -4735,7 +4748,7 @@
         <v>137</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="80">
@@ -4799,7 +4812,7 @@
         <v>137</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>639</v>
+        <v>666</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="64">
@@ -4831,10 +4844,10 @@
         <v>156</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="64">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="80">
       <c r="A42" s="1" t="s">
         <v>224</v>
       </c>
@@ -4863,10 +4876,10 @@
         <v>156</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="112">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="80">
       <c r="A43" s="1" t="s">
         <v>230</v>
       </c>
@@ -4895,10 +4908,10 @@
         <v>173</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="64">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="80">
       <c r="A44" s="1" t="s">
         <v>235</v>
       </c>
@@ -4927,7 +4940,7 @@
         <v>282</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>643</v>
+        <v>670</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="48">
@@ -4959,7 +4972,7 @@
         <v>282</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="64">
@@ -4991,7 +5004,7 @@
         <v>282</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>645</v>
+        <v>671</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="64">
@@ -5023,7 +5036,7 @@
         <v>282</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>646</v>
+        <v>672</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="48">
@@ -5055,7 +5068,7 @@
         <v>282</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="48">
@@ -5087,7 +5100,7 @@
         <v>282</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="48">
@@ -5119,7 +5132,7 @@
         <v>282</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="48">
@@ -5151,7 +5164,7 @@
         <v>282</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="96">
@@ -5183,7 +5196,7 @@
         <v>282</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="80">
@@ -5215,7 +5228,7 @@
         <v>282</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="48">
@@ -5247,7 +5260,7 @@
         <v>282</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="64">
@@ -5279,7 +5292,7 @@
         <v>501</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>654</v>
+        <v>673</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="80">
@@ -5311,7 +5324,7 @@
         <v>501</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>693</v>
+        <v>674</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="64">
@@ -5343,10 +5356,10 @@
         <v>501</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="80">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="112">
       <c r="A58" s="1" t="s">
         <v>287</v>
       </c>
@@ -5375,10 +5388,10 @@
         <v>501</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="64">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="80">
       <c r="A59" s="1" t="s">
         <v>288</v>
       </c>
@@ -5407,7 +5420,7 @@
         <v>501</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>657</v>
+        <v>677</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="64">
@@ -5439,7 +5452,7 @@
         <v>501</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>658</v>
+        <v>678</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="80">
@@ -5471,10 +5484,10 @@
         <v>501</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="64">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="112">
       <c r="A62" s="1" t="s">
         <v>363</v>
       </c>
@@ -5503,7 +5516,7 @@
         <v>501</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>660</v>
+        <v>679</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="48">
@@ -5535,10 +5548,10 @@
         <v>501</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="96">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="144">
       <c r="A64" s="1" t="s">
         <v>375</v>
       </c>
@@ -5567,7 +5580,7 @@
         <v>501</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>662</v>
+        <v>680</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="64">
@@ -5599,7 +5612,7 @@
         <v>501</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>663</v>
+        <v>681</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="96">
@@ -5631,7 +5644,7 @@
         <v>501</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>664</v>
+        <v>682</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="64">
@@ -5663,7 +5676,7 @@
         <v>501</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>665</v>
+        <v>683</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="48">
@@ -5695,10 +5708,10 @@
         <v>501</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="64">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="80">
       <c r="A69" s="1" t="s">
         <v>380</v>
       </c>
@@ -5727,10 +5740,10 @@
         <v>501</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="48">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="64">
       <c r="A70" s="1" t="s">
         <v>381</v>
       </c>
@@ -5759,7 +5772,7 @@
         <v>501</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>668</v>
+        <v>685</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="48">
@@ -5791,10 +5804,10 @@
         <v>501</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="64">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="32">
       <c r="A72" s="1" t="s">
         <v>489</v>
       </c>
@@ -5823,7 +5836,7 @@
         <v>13</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>670</v>
+        <v>686</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="64">
@@ -5855,7 +5868,7 @@
         <v>13</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>671</v>
+        <v>687</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="48">
@@ -5887,7 +5900,7 @@
         <v>496</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>672</v>
+        <v>652</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="96">
@@ -5919,7 +5932,7 @@
         <v>13</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>673</v>
+        <v>653</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="64">
@@ -5951,10 +5964,10 @@
         <v>13</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="80">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="112">
       <c r="A77" s="1" t="s">
         <v>482</v>
       </c>
@@ -5983,7 +5996,7 @@
         <v>13</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="96">
@@ -6015,7 +6028,7 @@
         <v>13</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>676</v>
+        <v>655</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="64">
@@ -6047,7 +6060,7 @@
         <v>13</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>677</v>
+        <v>689</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="48">
@@ -6079,7 +6092,7 @@
         <v>13</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>678</v>
+        <v>656</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="64">
@@ -6111,10 +6124,10 @@
         <v>446</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="80">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="96">
       <c r="A82" s="1" t="s">
         <v>487</v>
       </c>
@@ -6143,7 +6156,7 @@
         <v>446</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="48">
@@ -6175,7 +6188,7 @@
         <v>446</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>681</v>
+        <v>657</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="48">
@@ -6207,10 +6220,10 @@
         <v>446</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="80">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="96">
       <c r="A85" s="1" t="s">
         <v>554</v>
       </c>
@@ -6239,7 +6252,7 @@
         <v>446</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>683</v>
+        <v>692</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="48">
@@ -6271,7 +6284,7 @@
         <v>446</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>684</v>
+        <v>659</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="48">
@@ -6300,10 +6313,10 @@
         <v>446</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="80">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="48">
       <c r="A88" s="1" t="s">
         <v>580</v>
       </c>
@@ -6332,7 +6345,7 @@
         <v>446</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="48">
@@ -6364,7 +6377,7 @@
         <v>446</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>687</v>
+        <v>661</v>
       </c>
     </row>
   </sheetData>

--- a/db/AiCity-72-Restaurant.xlsx
+++ b/db/AiCity-72-Restaurant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5109E97C-7B66-3849-9800-B19F93B3DCC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9B3CF9-1CF8-9A41-9433-6FBC662E11BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20840" yWindow="1100" windowWidth="29060" windowHeight="25400" xr2:uid="{1AAFA279-DBCD-DA42-8F0D-FE7868FF2730}"/>
+    <workbookView xWindow="8620" yWindow="2300" windowWidth="29060" windowHeight="25400" xr2:uid="{1AAFA279-DBCD-DA42-8F0D-FE7868FF2730}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="701">
   <si>
     <t>no</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -3098,6 +3098,36 @@
   <si>
     <t>&lt;p&gt;
    網路資訊: &lt;a style="button" class="btn btn-info"  href="http://www.noble.com.tw/index.php/menu/refinement-foodmenu"&gt;菜單&lt;/a&gt;   &lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>089</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王記蔥油餅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區復興北路2號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0968-332-388</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-910-王記蔥油餅.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/%E7%8E%8B%E8%A8%98%E8%94%A5%E6%B2%B9%E9%A4%85-%E8%94%A5%E6%8A%93%E9%A4%85-1779909325645155/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://vivawei.tw/linkou-wang/"&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3514,13 +3544,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E067DB8E-BE6D-BD40-8262-98D4CCD248C4}">
-  <dimension ref="A1:J89"/>
+  <dimension ref="A1:J90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G79" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H98" sqref="H97:H98"/>
+      <selection pane="bottomRight" activeCell="I97" sqref="I97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3794,7 +3824,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16">
+    <row r="9" spans="1:10" ht="17">
       <c r="A9" s="1" t="s">
         <v>46</v>
       </c>
@@ -6378,6 +6408,35 @@
       </c>
       <c r="J89" s="7" t="s">
         <v>661</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="48">
+      <c r="A90" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="J90" s="7" t="s">
+        <v>700</v>
       </c>
     </row>
   </sheetData>
@@ -6442,6 +6501,7 @@
     <hyperlink ref="H64" r:id="rId53" xr:uid="{F982A45B-F644-B64B-87EC-0810B78786A5}"/>
     <hyperlink ref="H67" r:id="rId54" xr:uid="{D2634F17-366F-9740-84F6-0D60A7B20722}"/>
     <hyperlink ref="H76" r:id="rId55" xr:uid="{4AF62C81-5DA0-9E44-B08F-C265FE6BB5D9}"/>
+    <hyperlink ref="H90" r:id="rId56" xr:uid="{87D48D69-5CB1-5544-A6F0-BE893636CEF2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/db/AiCity-72-Restaurant.xlsx
+++ b/db/AiCity-72-Restaurant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9B3CF9-1CF8-9A41-9433-6FBC662E11BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A22743D-F1C9-DA41-BC29-234CB3668329}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8620" yWindow="2300" windowWidth="29060" windowHeight="25400" xr2:uid="{1AAFA279-DBCD-DA42-8F0D-FE7868FF2730}"/>
+    <workbookView xWindow="8620" yWindow="2300" windowWidth="41400" windowHeight="25400" xr2:uid="{1AAFA279-DBCD-DA42-8F0D-FE7868FF2730}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="709">
   <si>
     <t>no</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -3128,6 +3128,40 @@
     <t>&lt;p&gt;
    網路資訊: &lt;a style="button" class="btn btn-info"  href="https://vivawei.tw/linkou-wang/"&gt;推薦&lt;/a&gt;
 &lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>102</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Söt Café Bistronömy 浮島咖啡 / 林口展悅店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新北市新北市林口區文化三路二段451號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-2602-2705</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:00 - 20:30 週一公休</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/SotBistronomy/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:     &lt;a style="button" class="btn btn-info"  href="https://gandan.me/sotcafebistronomy03/"&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-910-新福島.jpg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3544,13 +3578,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E067DB8E-BE6D-BD40-8262-98D4CCD248C4}">
-  <dimension ref="A1:J90"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I97" sqref="I97"/>
+      <selection pane="bottomRight" activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4845,923 +4879,923 @@
         <v>666</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="64">
+    <row r="41" spans="1:10" ht="48">
       <c r="A41" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="64">
+      <c r="A42" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>588</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="80">
-      <c r="A42" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>589</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>540</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>53</v>
+        <v>159</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>156</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="80">
       <c r="A43" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>540</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>170</v>
+        <v>53</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="80">
       <c r="A44" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="80">
+      <c r="A45" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F45" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="G45" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="H44" s="6" t="s">
+      <c r="H45" s="6" t="s">
         <v>331</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="48">
-      <c r="A45" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>323</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>282</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="64">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="48">
       <c r="A46" s="1" t="s">
-        <v>247</v>
+        <v>550</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>351</v>
+        <v>321</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>355</v>
+        <v>324</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>353</v>
+        <v>323</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>282</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>671</v>
+        <v>640</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="64">
       <c r="A47" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>282</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="48">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="64">
       <c r="A48" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>282</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>641</v>
+        <v>672</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="48">
       <c r="A49" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>539</v>
+        <v>332</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>543</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>282</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="48">
       <c r="A50" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>541</v>
+        <v>296</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>539</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>282</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="48">
       <c r="A51" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>541</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>282</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="96">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="48">
       <c r="A52" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>540</v>
+        <v>290</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>541</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>282</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="80">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="96">
       <c r="A53" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>541</v>
+        <v>314</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>540</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>282</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="48">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="80">
       <c r="A54" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>541</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>348</v>
+        <v>304</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>349</v>
+        <v>307</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>282</v>
       </c>
       <c r="J54" s="7" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="48">
+      <c r="A55" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="J55" s="7" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="64">
-      <c r="A55" s="1" t="s">
+    <row r="56" spans="1:10" ht="64">
+      <c r="A56" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>543</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="J55" s="7" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="80">
-      <c r="A56" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>543</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>501</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="64">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="80">
       <c r="A57" s="1" t="s">
-        <v>383</v>
+        <v>551</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>540</v>
+        <v>31</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>543</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>528</v>
+        <v>511</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>501</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="112">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="64">
       <c r="A58" s="1" t="s">
-        <v>287</v>
+        <v>383</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>501</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="80">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="112">
       <c r="A59" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>63</v>
+        <v>591</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>501</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="64">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="80">
       <c r="A60" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>512</v>
+        <v>530</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>501</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="80">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="64">
       <c r="A61" s="1" t="s">
-        <v>356</v>
+        <v>289</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>543</v>
+        <v>69</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>538</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>531</v>
+        <v>512</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>501</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="112">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="80">
       <c r="A62" s="1" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>543</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>501</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="48">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="112">
       <c r="A63" s="1" t="s">
-        <v>552</v>
+        <v>363</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>539</v>
+        <v>593</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>543</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>513</v>
+        <v>532</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>501</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="144">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="48">
       <c r="A64" s="1" t="s">
-        <v>375</v>
+        <v>552</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>566</v>
+        <v>594</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>567</v>
+        <v>513</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>569</v>
+        <v>78</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="H64" s="6" t="s">
-        <v>570</v>
+        <v>80</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>501</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="64">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="144">
       <c r="A65" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>542</v>
+        <v>566</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>540</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>514</v>
+        <v>567</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>38</v>
+        <v>568</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>569</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>40</v>
+        <v>571</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>570</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>501</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="96">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="64">
       <c r="A66" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>538</v>
+        <v>595</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>542</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>556</v>
+        <v>514</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>558</v>
+        <v>37</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="H66" s="6" t="s">
-        <v>559</v>
+        <v>39</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>501</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="64">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="96">
       <c r="A67" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>572</v>
+        <v>555</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>538</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>573</v>
+        <v>556</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>574</v>
+        <v>557</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>575</v>
+        <v>558</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>577</v>
+        <v>559</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>501</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="48">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="64">
       <c r="A68" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>543</v>
+        <v>572</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>538</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>533</v>
+        <v>573</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>27</v>
+        <v>574</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>575</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>29</v>
+        <v>576</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>577</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>501</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="80">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="48">
       <c r="A69" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>538</v>
+        <v>25</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>543</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>507</v>
+        <v>533</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>29</v>
@@ -5770,679 +5804,711 @@
         <v>501</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="64">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="80">
       <c r="A70" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>534</v>
+        <v>507</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>501</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="48">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="64">
       <c r="A71" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>540</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>501</v>
       </c>
       <c r="J71" s="7" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="48">
+      <c r="A72" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="J72" s="7" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="32">
-      <c r="A72" s="1" t="s">
+    <row r="73" spans="1:10" ht="32">
+      <c r="A73" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B73" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C73" s="8" t="s">
         <v>541</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="E73" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="F73" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G72" s="2" t="s">
+      <c r="G73" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="H72" s="2" t="s">
+      <c r="H73" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J72" s="7" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="64">
-      <c r="A73" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>361</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J73" s="7" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="64">
+      <c r="A74" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J74" s="7" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="48">
-      <c r="A74" s="1" t="s">
+    <row r="75" spans="1:10" ht="48">
+      <c r="A75" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B75" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C75" s="8" t="s">
         <v>541</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="D75" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E75" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="F75" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="G74" s="2" t="s">
+      <c r="G75" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="H74" s="6" t="s">
+      <c r="H75" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="I74" s="2" t="s">
+      <c r="I75" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="J74" s="7" t="s">
+      <c r="J75" s="7" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="96">
-      <c r="A75" s="1" t="s">
+    <row r="76" spans="1:10" ht="96">
+      <c r="A76" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B76" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C76" s="8" t="s">
         <v>543</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D76" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E76" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G75" s="2" t="s">
+      <c r="G76" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H75" s="2" t="s">
+      <c r="H76" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J75" s="7" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="64">
-      <c r="A76" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>603</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="112">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="64">
       <c r="A77" s="1" t="s">
-        <v>482</v>
+        <v>599</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>561</v>
+        <v>600</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>538</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>562</v>
+        <v>601</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>449</v>
+        <v>602</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>558</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>565</v>
+        <v>604</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>564</v>
+        <v>603</v>
       </c>
       <c r="I77" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="96">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="112">
       <c r="A78" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>14</v>
+        <v>561</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>516</v>
+        <v>562</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>16</v>
+        <v>563</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>449</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>18</v>
+        <v>565</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>564</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="64">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="96">
       <c r="A79" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>598</v>
+        <v>14</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="48">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="64">
       <c r="A80" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>109</v>
+        <v>598</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="I80" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J80" s="7" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="48">
+      <c r="A81" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J81" s="7" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="64">
-      <c r="A81" s="1" t="s">
+    <row r="82" spans="1:10" ht="64">
+      <c r="A82" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B82" s="2" t="s">
         <v>458</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F81" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="H81" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="J81" s="7" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="96">
-      <c r="A82" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>452</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>541</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="I82" s="2" t="s">
         <v>446</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="48">
       <c r="A83" s="1" t="s">
-        <v>488</v>
+        <v>694</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>462</v>
+        <v>695</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>541</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>522</v>
+        <v>696</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="F83" s="7" t="s">
-        <v>465</v>
+        <v>697</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>466</v>
+        <v>698</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>463</v>
+        <v>699</v>
       </c>
       <c r="I83" s="2" t="s">
         <v>446</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="48">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="96">
       <c r="A84" s="1" t="s">
-        <v>553</v>
+        <v>487</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>472</v>
+        <v>452</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>541</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>475</v>
+        <v>455</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="I84" s="2" t="s">
         <v>446</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="96">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="48">
       <c r="A85" s="1" t="s">
-        <v>554</v>
+        <v>488</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>541</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="I85" s="2" t="s">
         <v>446</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>692</v>
+        <v>657</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="48">
       <c r="A86" s="1" t="s">
-        <v>578</v>
+        <v>553</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>541</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>494</v>
+        <v>473</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>492</v>
+        <v>471</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>446</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="48">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="96">
       <c r="A87" s="1" t="s">
-        <v>579</v>
+        <v>554</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>541</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>468</v>
+        <v>478</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>477</v>
       </c>
       <c r="I87" s="2" t="s">
         <v>446</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>660</v>
+        <v>692</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="48">
       <c r="A88" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>42</v>
+        <v>491</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>16</v>
+        <v>494</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>493</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>45</v>
+        <v>490</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>492</v>
       </c>
       <c r="I88" s="2" t="s">
         <v>446</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>693</v>
+        <v>659</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="48">
       <c r="A89" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>448</v>
+        <v>470</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="H89" s="6" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="I89" s="2" t="s">
         <v>446</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="48">
       <c r="A90" s="1" t="s">
-        <v>694</v>
+        <v>580</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>695</v>
+        <v>42</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>696</v>
+        <v>519</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>697</v>
+        <v>43</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="H90" s="6" t="s">
-        <v>699</v>
+        <v>44</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="I90" s="2" t="s">
         <v>446</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>700</v>
+        <v>693</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="48">
+      <c r="A91" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="J91" s="7" t="s">
+        <v>661</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J89">
-    <sortCondition ref="I2:I89"/>
-    <sortCondition ref="D2:D89"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J91">
+    <sortCondition ref="I2:I91"/>
+    <sortCondition ref="D2:D91"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -6464,18 +6530,18 @@
     <hyperlink ref="H12" r:id="rId16" xr:uid="{90038BA7-E075-0440-A96D-EA6ACC7FD191}"/>
     <hyperlink ref="H13" r:id="rId17" xr:uid="{5316EB1A-A470-B64F-A2F7-637436A96606}"/>
     <hyperlink ref="H14" r:id="rId18" xr:uid="{6FA5AFA1-22DA-D848-929C-A04ED36DAE9C}"/>
-    <hyperlink ref="H51" r:id="rId19" xr:uid="{0F56A368-05DC-0046-A036-15A5A9522952}"/>
-    <hyperlink ref="H49" r:id="rId20" xr:uid="{9DC77239-72AD-1A40-93F3-F8C653039533}"/>
-    <hyperlink ref="H53" r:id="rId21" xr:uid="{02BCB13E-490C-5A49-B385-D01FC01F5A3B}"/>
-    <hyperlink ref="H50" r:id="rId22" xr:uid="{5D78D208-C834-DC4D-87CE-7718DC1647F2}"/>
-    <hyperlink ref="H52" r:id="rId23" xr:uid="{B69E3BA3-5461-EE40-BA4E-41A5BE1E7BF4}"/>
-    <hyperlink ref="H45" r:id="rId24" xr:uid="{B62A6D1F-5DF0-A643-BD46-EC9EB0884BB7}"/>
-    <hyperlink ref="H44" r:id="rId25" xr:uid="{FC29BA63-1C7C-5644-A653-C892769FAC75}"/>
-    <hyperlink ref="H48" r:id="rId26" xr:uid="{DCC13ED3-9E8E-DA4D-91D1-75A7931C642A}"/>
-    <hyperlink ref="H47" r:id="rId27" xr:uid="{0D9C681C-5B99-484C-BFFE-EF206CDCCCD9}"/>
-    <hyperlink ref="H54" r:id="rId28" xr:uid="{BB4D8478-DB58-4541-B1EB-38CC918B98D4}"/>
-    <hyperlink ref="H46" r:id="rId29" xr:uid="{BC3F325E-FC97-4046-8121-C76DBBF7A70C}"/>
-    <hyperlink ref="H73" r:id="rId30" xr:uid="{6CB5F6A4-6266-8745-8ABF-834A77B5DB82}"/>
+    <hyperlink ref="H52" r:id="rId19" xr:uid="{0F56A368-05DC-0046-A036-15A5A9522952}"/>
+    <hyperlink ref="H50" r:id="rId20" xr:uid="{9DC77239-72AD-1A40-93F3-F8C653039533}"/>
+    <hyperlink ref="H54" r:id="rId21" xr:uid="{02BCB13E-490C-5A49-B385-D01FC01F5A3B}"/>
+    <hyperlink ref="H51" r:id="rId22" xr:uid="{5D78D208-C834-DC4D-87CE-7718DC1647F2}"/>
+    <hyperlink ref="H53" r:id="rId23" xr:uid="{B69E3BA3-5461-EE40-BA4E-41A5BE1E7BF4}"/>
+    <hyperlink ref="H46" r:id="rId24" xr:uid="{B62A6D1F-5DF0-A643-BD46-EC9EB0884BB7}"/>
+    <hyperlink ref="H45" r:id="rId25" xr:uid="{FC29BA63-1C7C-5644-A653-C892769FAC75}"/>
+    <hyperlink ref="H49" r:id="rId26" xr:uid="{DCC13ED3-9E8E-DA4D-91D1-75A7931C642A}"/>
+    <hyperlink ref="H48" r:id="rId27" xr:uid="{0D9C681C-5B99-484C-BFFE-EF206CDCCCD9}"/>
+    <hyperlink ref="H55" r:id="rId28" xr:uid="{BB4D8478-DB58-4541-B1EB-38CC918B98D4}"/>
+    <hyperlink ref="H47" r:id="rId29" xr:uid="{BC3F325E-FC97-4046-8121-C76DBBF7A70C}"/>
+    <hyperlink ref="H74" r:id="rId30" xr:uid="{6CB5F6A4-6266-8745-8ABF-834A77B5DB82}"/>
     <hyperlink ref="H26" r:id="rId31" xr:uid="{CFE95743-0EDD-8E40-A8A0-F984882C50FA}"/>
     <hyperlink ref="H25" r:id="rId32" xr:uid="{1DB044A5-2953-CC4F-8392-5B010494975C}"/>
     <hyperlink ref="H19" r:id="rId33" xr:uid="{2E2BE611-B19B-864B-81CA-ED12C30C5381}"/>
@@ -6488,20 +6554,21 @@
     <hyperlink ref="H18" r:id="rId40" xr:uid="{A244D270-7C2F-FC48-AA9E-77923E3F9E9C}"/>
     <hyperlink ref="H23" r:id="rId41" xr:uid="{F7DB1F5F-687C-9141-9973-65A3BF51552C}"/>
     <hyperlink ref="H15" r:id="rId42" xr:uid="{F3F64AD5-5A76-7347-A675-056AF03551CD}"/>
-    <hyperlink ref="H89" r:id="rId43" xr:uid="{7B808A16-9C5B-D94C-81E8-46AFD11DAA8B}"/>
-    <hyperlink ref="H82" r:id="rId44" xr:uid="{B760EFB7-EAAF-EA48-87C1-3533C77A9935}"/>
-    <hyperlink ref="H81" r:id="rId45" xr:uid="{968384FB-1A18-4A4F-8CBD-27769ADC4E4A}"/>
-    <hyperlink ref="H83" r:id="rId46" xr:uid="{704D09EA-DD52-5242-B84F-4497D98C6ED4}"/>
-    <hyperlink ref="H84" r:id="rId47" xr:uid="{A9977D40-898D-A047-A597-F8890E973840}"/>
-    <hyperlink ref="H85" r:id="rId48" xr:uid="{4E792F61-7F80-6C4B-9665-B6B417F7696C}"/>
-    <hyperlink ref="H86" r:id="rId49" xr:uid="{9640B243-AB3F-1241-8664-B498E1955BA8}"/>
-    <hyperlink ref="H74" r:id="rId50" xr:uid="{1EEB7EC7-3232-C74A-B8D4-F766FA226DD6}"/>
-    <hyperlink ref="H66" r:id="rId51" xr:uid="{2982BCF7-83FA-DF42-8E77-65A98FEF0D97}"/>
-    <hyperlink ref="H77" r:id="rId52" xr:uid="{0C3EA1BA-1C76-F34B-BAFC-DF3F07FE7E3C}"/>
-    <hyperlink ref="H64" r:id="rId53" xr:uid="{F982A45B-F644-B64B-87EC-0810B78786A5}"/>
-    <hyperlink ref="H67" r:id="rId54" xr:uid="{D2634F17-366F-9740-84F6-0D60A7B20722}"/>
-    <hyperlink ref="H76" r:id="rId55" xr:uid="{4AF62C81-5DA0-9E44-B08F-C265FE6BB5D9}"/>
-    <hyperlink ref="H90" r:id="rId56" xr:uid="{87D48D69-5CB1-5544-A6F0-BE893636CEF2}"/>
+    <hyperlink ref="H91" r:id="rId43" xr:uid="{7B808A16-9C5B-D94C-81E8-46AFD11DAA8B}"/>
+    <hyperlink ref="H84" r:id="rId44" xr:uid="{B760EFB7-EAAF-EA48-87C1-3533C77A9935}"/>
+    <hyperlink ref="H82" r:id="rId45" xr:uid="{968384FB-1A18-4A4F-8CBD-27769ADC4E4A}"/>
+    <hyperlink ref="H85" r:id="rId46" xr:uid="{704D09EA-DD52-5242-B84F-4497D98C6ED4}"/>
+    <hyperlink ref="H86" r:id="rId47" xr:uid="{A9977D40-898D-A047-A597-F8890E973840}"/>
+    <hyperlink ref="H87" r:id="rId48" xr:uid="{4E792F61-7F80-6C4B-9665-B6B417F7696C}"/>
+    <hyperlink ref="H88" r:id="rId49" xr:uid="{9640B243-AB3F-1241-8664-B498E1955BA8}"/>
+    <hyperlink ref="H75" r:id="rId50" xr:uid="{1EEB7EC7-3232-C74A-B8D4-F766FA226DD6}"/>
+    <hyperlink ref="H67" r:id="rId51" xr:uid="{2982BCF7-83FA-DF42-8E77-65A98FEF0D97}"/>
+    <hyperlink ref="H78" r:id="rId52" xr:uid="{0C3EA1BA-1C76-F34B-BAFC-DF3F07FE7E3C}"/>
+    <hyperlink ref="H65" r:id="rId53" xr:uid="{F982A45B-F644-B64B-87EC-0810B78786A5}"/>
+    <hyperlink ref="H68" r:id="rId54" xr:uid="{D2634F17-366F-9740-84F6-0D60A7B20722}"/>
+    <hyperlink ref="H77" r:id="rId55" xr:uid="{4AF62C81-5DA0-9E44-B08F-C265FE6BB5D9}"/>
+    <hyperlink ref="H83" r:id="rId56" xr:uid="{87D48D69-5CB1-5544-A6F0-BE893636CEF2}"/>
+    <hyperlink ref="H41" r:id="rId57" xr:uid="{52C93DA9-64C2-014A-B30A-2B177DD0B7DE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/db/AiCity-72-Restaurant.xlsx
+++ b/db/AiCity-72-Restaurant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A22743D-F1C9-DA41-BC29-234CB3668329}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FB1EFA-4DC4-9F46-8B10-C857EFD32B7B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8620" yWindow="2300" windowWidth="41400" windowHeight="25400" xr2:uid="{1AAFA279-DBCD-DA42-8F0D-FE7868FF2730}"/>
+    <workbookView xWindow="9500" yWindow="4300" windowWidth="41400" windowHeight="25400" xr2:uid="{1AAFA279-DBCD-DA42-8F0D-FE7868FF2730}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="725">
   <si>
     <t>no</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -3162,6 +3162,75 @@
   </si>
   <si>
     <t>fig/AiCity-910-新福島.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>103</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>越南奇芳小館</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/pages/%E8%B6%8A%E5%8D%97%E5%A5%87%E8%8A%B3%E5%B0%8F%E9%A4%A8%E6%A1%83%E5%9C%92%E9%BE%9C%E5%B1%B1%E9%84%89%E6%96%87%E5%8C%96%E4%B8%89%E8%B7%AF410%E8%99%9F%E8%B6%8A%E5%8D%97%E5%A5%87%E8%8A%B3%E5%B0%8F%E9%A4%A8/442844125730293</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園龜山鄉文化三路410號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-397-4442</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>週二~四：10:30 - 21:30, 週五~日：10:30 - 22:30 週一公休</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+  網路資訊:     &lt;a style="button" class="btn btn-info"  href="https://lotuslin.com/blog/post/qifang"&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-910-奇芳小館.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>104</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰熊好丼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+桃園市桃園區復興北路6巷19號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-318-7113</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:30 - 15:00, 16:30 - 21:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/verybear0109/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-910-灰熊好丼.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+   網路資訊: &lt;a style="button" class="btn btn-info"  href="https://www.viviyu.com/archives/27187"&gt;推薦&lt;/a&gt;
+&lt;/p&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3578,13 +3647,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E067DB8E-BE6D-BD40-8262-98D4CCD248C4}">
-  <dimension ref="A1:J91"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H44" sqref="H44"/>
+      <selection pane="bottomRight" activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5903,612 +5972,676 @@
         <v>651</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="32">
+    <row r="73" spans="1:10" ht="48">
       <c r="A73" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="32">
+      <c r="A74" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B74" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C74" s="8" t="s">
         <v>541</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D74" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="E74" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="F74" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G73" s="2" t="s">
+      <c r="G74" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="H73" s="2" t="s">
+      <c r="H74" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J73" s="7" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="64">
-      <c r="A74" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="H74" s="6" t="s">
-        <v>361</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J74" s="7" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="64">
+      <c r="A75" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J75" s="7" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="48">
-      <c r="A75" s="1" t="s">
+    <row r="76" spans="1:10" ht="48">
+      <c r="A76" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B76" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C76" s="8" t="s">
         <v>541</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="D76" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="E76" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="F75" s="7" t="s">
+      <c r="F76" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="G75" s="2" t="s">
+      <c r="G76" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="H75" s="6" t="s">
+      <c r="H76" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="I75" s="2" t="s">
+      <c r="I76" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="J75" s="7" t="s">
+      <c r="J76" s="7" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="96">
-      <c r="A76" s="1" t="s">
+    <row r="77" spans="1:10" ht="96">
+      <c r="A77" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B77" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C77" s="8" t="s">
         <v>543</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E77" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="G77" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H76" s="2" t="s">
+      <c r="H77" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J76" s="7" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="64">
-      <c r="A77" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>603</v>
       </c>
       <c r="I77" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="112">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="64">
       <c r="A78" s="1" t="s">
-        <v>482</v>
+        <v>599</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>561</v>
+        <v>600</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>538</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>562</v>
+        <v>601</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="F78" s="7" t="s">
-        <v>449</v>
+        <v>602</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>558</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>565</v>
+        <v>604</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>564</v>
+        <v>603</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="96">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="112">
       <c r="A79" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>14</v>
+        <v>561</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>516</v>
+        <v>562</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>16</v>
+        <v>563</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>449</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>18</v>
+        <v>565</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>564</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="64">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="96">
       <c r="A80" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>598</v>
+        <v>14</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="I80" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="48">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="64">
       <c r="A81" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>109</v>
+        <v>598</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="I81" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J81" s="7" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="48">
+      <c r="A82" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J82" s="7" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="64">
-      <c r="A82" s="1" t="s">
+    <row r="83" spans="1:10" ht="64">
+      <c r="A83" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B83" s="2" t="s">
         <v>458</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F82" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="H82" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="J82" s="7" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="48">
-      <c r="A83" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>695</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>541</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>696</v>
+        <v>520</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>697</v>
+        <v>459</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>460</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>698</v>
+        <v>457</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>699</v>
+        <v>461</v>
       </c>
       <c r="I83" s="2" t="s">
         <v>446</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="96">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="48">
       <c r="A84" s="1" t="s">
-        <v>487</v>
+        <v>694</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>452</v>
+        <v>695</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>541</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>521</v>
+        <v>696</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="F84" s="7" t="s">
-        <v>456</v>
+        <v>697</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>455</v>
+        <v>698</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>453</v>
+        <v>699</v>
       </c>
       <c r="I84" s="2" t="s">
         <v>446</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="48">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="96">
       <c r="A85" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>541</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="I85" s="2" t="s">
         <v>446</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>657</v>
+        <v>691</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="48">
       <c r="A86" s="1" t="s">
-        <v>553</v>
+        <v>488</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>541</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>446</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="96">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="48">
       <c r="A87" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>541</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="I87" s="2" t="s">
         <v>446</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="48">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="96">
       <c r="A88" s="1" t="s">
-        <v>578</v>
+        <v>554</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>541</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="I88" s="2" t="s">
         <v>446</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>659</v>
+        <v>692</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="48">
       <c r="A89" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>467</v>
+        <v>491</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>541</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>470</v>
+        <v>494</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>469</v>
+        <v>493</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>468</v>
+        <v>490</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>492</v>
       </c>
       <c r="I89" s="2" t="s">
         <v>446</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="48">
       <c r="A90" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>42</v>
+        <v>467</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>16</v>
+        <v>470</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>469</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>45</v>
+        <v>468</v>
       </c>
       <c r="I90" s="2" t="s">
         <v>446</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>693</v>
+        <v>660</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="48">
       <c r="A91" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>447</v>
+        <v>42</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>543</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="F91" s="7" t="s">
-        <v>449</v>
+        <v>43</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="H91" s="6" t="s">
-        <v>450</v>
+        <v>44</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="I91" s="2" t="s">
         <v>446</v>
       </c>
       <c r="J91" s="7" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="48">
+      <c r="A92" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="J92" s="7" t="s">
         <v>661</v>
       </c>
     </row>
+    <row r="93" spans="1:10" ht="48">
+      <c r="A93" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>722</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="J93" s="7" t="s">
+        <v>724</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J91">
-    <sortCondition ref="I2:I91"/>
-    <sortCondition ref="D2:D91"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J92">
+    <sortCondition ref="I2:I92"/>
+    <sortCondition ref="D2:D92"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -6541,7 +6674,7 @@
     <hyperlink ref="H48" r:id="rId27" xr:uid="{0D9C681C-5B99-484C-BFFE-EF206CDCCCD9}"/>
     <hyperlink ref="H55" r:id="rId28" xr:uid="{BB4D8478-DB58-4541-B1EB-38CC918B98D4}"/>
     <hyperlink ref="H47" r:id="rId29" xr:uid="{BC3F325E-FC97-4046-8121-C76DBBF7A70C}"/>
-    <hyperlink ref="H74" r:id="rId30" xr:uid="{6CB5F6A4-6266-8745-8ABF-834A77B5DB82}"/>
+    <hyperlink ref="H75" r:id="rId30" xr:uid="{6CB5F6A4-6266-8745-8ABF-834A77B5DB82}"/>
     <hyperlink ref="H26" r:id="rId31" xr:uid="{CFE95743-0EDD-8E40-A8A0-F984882C50FA}"/>
     <hyperlink ref="H25" r:id="rId32" xr:uid="{1DB044A5-2953-CC4F-8392-5B010494975C}"/>
     <hyperlink ref="H19" r:id="rId33" xr:uid="{2E2BE611-B19B-864B-81CA-ED12C30C5381}"/>
@@ -6554,21 +6687,23 @@
     <hyperlink ref="H18" r:id="rId40" xr:uid="{A244D270-7C2F-FC48-AA9E-77923E3F9E9C}"/>
     <hyperlink ref="H23" r:id="rId41" xr:uid="{F7DB1F5F-687C-9141-9973-65A3BF51552C}"/>
     <hyperlink ref="H15" r:id="rId42" xr:uid="{F3F64AD5-5A76-7347-A675-056AF03551CD}"/>
-    <hyperlink ref="H91" r:id="rId43" xr:uid="{7B808A16-9C5B-D94C-81E8-46AFD11DAA8B}"/>
-    <hyperlink ref="H84" r:id="rId44" xr:uid="{B760EFB7-EAAF-EA48-87C1-3533C77A9935}"/>
-    <hyperlink ref="H82" r:id="rId45" xr:uid="{968384FB-1A18-4A4F-8CBD-27769ADC4E4A}"/>
-    <hyperlink ref="H85" r:id="rId46" xr:uid="{704D09EA-DD52-5242-B84F-4497D98C6ED4}"/>
-    <hyperlink ref="H86" r:id="rId47" xr:uid="{A9977D40-898D-A047-A597-F8890E973840}"/>
-    <hyperlink ref="H87" r:id="rId48" xr:uid="{4E792F61-7F80-6C4B-9665-B6B417F7696C}"/>
-    <hyperlink ref="H88" r:id="rId49" xr:uid="{9640B243-AB3F-1241-8664-B498E1955BA8}"/>
-    <hyperlink ref="H75" r:id="rId50" xr:uid="{1EEB7EC7-3232-C74A-B8D4-F766FA226DD6}"/>
+    <hyperlink ref="H92" r:id="rId43" xr:uid="{7B808A16-9C5B-D94C-81E8-46AFD11DAA8B}"/>
+    <hyperlink ref="H85" r:id="rId44" xr:uid="{B760EFB7-EAAF-EA48-87C1-3533C77A9935}"/>
+    <hyperlink ref="H83" r:id="rId45" xr:uid="{968384FB-1A18-4A4F-8CBD-27769ADC4E4A}"/>
+    <hyperlink ref="H86" r:id="rId46" xr:uid="{704D09EA-DD52-5242-B84F-4497D98C6ED4}"/>
+    <hyperlink ref="H87" r:id="rId47" xr:uid="{A9977D40-898D-A047-A597-F8890E973840}"/>
+    <hyperlink ref="H88" r:id="rId48" xr:uid="{4E792F61-7F80-6C4B-9665-B6B417F7696C}"/>
+    <hyperlink ref="H89" r:id="rId49" xr:uid="{9640B243-AB3F-1241-8664-B498E1955BA8}"/>
+    <hyperlink ref="H76" r:id="rId50" xr:uid="{1EEB7EC7-3232-C74A-B8D4-F766FA226DD6}"/>
     <hyperlink ref="H67" r:id="rId51" xr:uid="{2982BCF7-83FA-DF42-8E77-65A98FEF0D97}"/>
-    <hyperlink ref="H78" r:id="rId52" xr:uid="{0C3EA1BA-1C76-F34B-BAFC-DF3F07FE7E3C}"/>
+    <hyperlink ref="H79" r:id="rId52" xr:uid="{0C3EA1BA-1C76-F34B-BAFC-DF3F07FE7E3C}"/>
     <hyperlink ref="H65" r:id="rId53" xr:uid="{F982A45B-F644-B64B-87EC-0810B78786A5}"/>
     <hyperlink ref="H68" r:id="rId54" xr:uid="{D2634F17-366F-9740-84F6-0D60A7B20722}"/>
-    <hyperlink ref="H77" r:id="rId55" xr:uid="{4AF62C81-5DA0-9E44-B08F-C265FE6BB5D9}"/>
-    <hyperlink ref="H83" r:id="rId56" xr:uid="{87D48D69-5CB1-5544-A6F0-BE893636CEF2}"/>
+    <hyperlink ref="H78" r:id="rId55" xr:uid="{4AF62C81-5DA0-9E44-B08F-C265FE6BB5D9}"/>
+    <hyperlink ref="H84" r:id="rId56" xr:uid="{87D48D69-5CB1-5544-A6F0-BE893636CEF2}"/>
     <hyperlink ref="H41" r:id="rId57" xr:uid="{52C93DA9-64C2-014A-B30A-2B177DD0B7DE}"/>
+    <hyperlink ref="H73" r:id="rId58" xr:uid="{2E2C475F-ED50-6140-A773-84CC4222E0CA}"/>
+    <hyperlink ref="H93" r:id="rId59" xr:uid="{D539F041-4ECB-4B46-AA9A-D6B196D8A578}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/db/AiCity-72-Restaurant.xlsx
+++ b/db/AiCity-72-Restaurant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FB1EFA-4DC4-9F46-8B10-C857EFD32B7B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60CDAE0-56A8-A440-B4F4-34B3DBE84554}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9500" yWindow="4300" windowWidth="41400" windowHeight="25400" xr2:uid="{1AAFA279-DBCD-DA42-8F0D-FE7868FF2730}"/>
+    <workbookView xWindow="2040" yWindow="2180" windowWidth="41400" windowHeight="25400" xr2:uid="{1AAFA279-DBCD-DA42-8F0D-FE7868FF2730}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="810">
   <si>
     <t>no</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -166,18 +166,6 @@
     <t>007</t>
   </si>
   <si>
-    <t>貴族世家</t>
-  </si>
-  <si>
-    <t>03-318-0800</t>
-  </si>
-  <si>
-    <t>fig/AiCity-910-貴族世家-02.jpeg</t>
-  </si>
-  <si>
-    <t>http://www.noble.com.tw/index.php/menu/other-charges</t>
-  </si>
-  <si>
     <t>008</t>
   </si>
   <si>
@@ -560,10 +548,6 @@
   </si>
   <si>
     <t>新莊區</t>
-  </si>
-  <si>
-    <t>華漾點心</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>桃園市龜山區復興一路8號2樓</t>
@@ -973,10 +957,6 @@
     <t>046</t>
   </si>
   <si>
-    <t>上菜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>桃園市蘆竹區南崁路一段112號 6F</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1107,23 +1087,6 @@
   </si>
   <si>
     <r>
-      <t>Haidilao海底撈</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
@@ -1187,10 +1150,6 @@
     <t>049</t>
   </si>
   <si>
-    <t>SYABU-YO涮乃葉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>03-222-5025</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1779,10 +1738,6 @@
   </si>
   <si>
     <t>https://julialkpkpk.pixnet.net/blog/post/454296125</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒸翻天</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2181,10 +2136,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>桃園市龜山區復興北路75號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>桃園市龜山區復興北路25號</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2416,17 +2367,10 @@
     <t>086</t>
   </si>
   <si>
-    <t>087</t>
-  </si>
-  <si>
     <t>088</t>
   </si>
   <si>
     <t>朱記 餡餅粥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿基師藝文茶樓-桃園福容飯店</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3096,11 +3040,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;p&gt;
-   網路資訊: &lt;a style="button" class="btn btn-info"  href="http://www.noble.com.tw/index.php/menu/refinement-foodmenu"&gt;菜單&lt;/a&gt;   &lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>089</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3232,13 +3171,318 @@
    網路資訊: &lt;a style="button" class="btn btn-info"  href="https://www.viviyu.com/archives/27187"&gt;推薦&lt;/a&gt;
 &lt;/p&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>google</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E5%8B%9D%E5%8D%9A%E6%AE%BF%E7%92%B0%E7%90%83%E6%9E%97%E5%8F%A3a8%E5%BA%97/@25.0632378,121.3610119,16z/data=!4m8!1m2!2m1!1z5Yud5Y2a5q6_LeaXpeW8j-eCuOixrOaOkiBBOCBnbG9iYWwgbWFsbA!3m4!1s0x3442a73b1623291f:0x1c817db07fdcdc83!8m2!3d25.0601372!4d121.3694282?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E6%B4%8B%E6%9C%B5%E7%BE%A9%E5%BC%8F%E5%BB%9A%E5%9D%8A-%E6%9E%97%E5%8F%A3%E7%92%B0%E7%90%83%E5%BA%97/@25.0601566,121.3670377,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a73b17ec397f:0x37c0ca947ae1237d!8m2!3d25.0601566!4d121.3692317?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>score</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E6%9C%B1%E8%A8%98%E9%A4%A1%E9%A4%85%E7%B2%A5%E5%BA%97+%E7%92%B0%E7%90%83%E8%B3%BC%E7%89%A9%E4%B8%AD%E5%BF%83%E6%9E%97%E5%8F%A3A8%E5%BA%97/@25.0605103,121.3677903,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a73b163b5e05:0x2d68f7b1048ea7de!8m2!3d25.0605103!4d121.3699843?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E7%93%A6%E5%9F%8E%E6%B3%B0%E5%9C%8B%E6%96%99%E7%90%86+-+%E6%A1%83%E5%9C%92%E7%92%B0%E7%90%83%E5%BA%97/@25.060368,121.3613616,15z/data=!4m8!1m2!2m1!1z55Om5Z-O5rOw5ZyL5paZ55CGLUE45bqXIEE4IGdsb2JhbCBtYWxs!3m4!1s0x3442a7f76f8003a5:0x64fa4d777555fced!8m2!3d25.0605103!4d121.3699843?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E7%A6%8F%E7%B2%B5%E6%A8%93/@25.0632059,121.3614433,16z/data=!4m8!1m2!2m1!1z56aP57K15qiTIEE4IEdsb2JhbCBtYWxs!3m4!1s0x3442a73b4f5bb3b9:0xab53befbe3451240!8m2!3d25.0604705!4d121.3698522?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>福粵樓-桃園福容飯店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>華漾DIM SUM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E8%8F%AF%E6%BC%BEDIM+SUM+A8%E5%BA%97/@25.0605571,121.3678339,17z/data=!4m8!1m2!2m1!1z6I-v5ry-6bue5b-DIEE4IEdsb2JhbCBtYWxs!3m4!1s0x3442a7103d5c13db:0x143fc6d47a396966!8m2!3d25.0605103!4d121.3699843?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E6%BC%A2%E4%BE%86%E6%B5%B7%E6%B8%AF%E9%A4%90%E5%BB%B3+%E6%A1%83%E5%9C%92%E5%BA%97/@25.0534247,121.2860484,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a0748e066817:0x8faa58b81ffd24be!8m2!3d25.0534247!4d121.2882424?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E6%B5%B7%E5%BA%95%E6%92%88%E6%A1%83%E5%9C%92%E5%8F%B0%E8%8C%82%E5%BA%97/@25.0223712,121.2829096,14z/data=!4m8!1m2!2m1!1z5Y-w6IyCIEhhaWRpbGFv5rW35bqV5pKI!3m4!1s0x346811a881cc527b:0xb411831cdba1154a!8m2!3d25.0536603!4d121.2885645?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>海底撈</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E6%BC%A2%E4%BE%86%E4%B8%8A%E6%B5%B7%E6%B9%AF%E5%8C%85+%E6%A1%83%E5%9C%92%E5%BA%97/@25.0536603,121.2863705,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a1d6b66d6de1:0xc3dfb947968ed92c!8m2!3d25.0536603!4d121.2885645?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>上菜 片皮鴨專賣店</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E4%B8%8A%E8%8F%9C+%E7%89%87%E7%9A%AE%E9%B4%A8%E5%B0%88%E8%B3%A3%E5%BA%97/@25.0536603,121.2863705,17z/data=!3m2!4b1!5s0x3442a074874fa837:0x23d5b066e6371b0b!4m5!3m4!1s0x3442a1f9143aa479:0x439e4a38f22ecf2d!8m2!3d25.0536603!4d121.2885645?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>涮乃葉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E6%B6%AE%E4%B9%83%E8%91%89%E6%A1%83%E5%9C%92%E5%8F%B0%E8%8C%82%E5%BA%97/@25.0533369,121.2855753,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a0749013eac3:0xa87b8ede5ef3c6bb!8m2!3d25.0533369!4d121.2877693?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E5%8E%9F%E7%87%92%E6%A1%83%E5%9C%92%E5%8F%B0%E8%8C%82%E5%BA%97/@25.0536603,121.2863705,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a0748e066817:0x64d791a55c6ab34f!8m2!3d25.0536603!4d121.2885645?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/NINI+%E5%B0%BC%E5%B0%BC%E7%BE%A9%E5%A4%A7%E5%88%A9%E9%A4%90%E5%BB%B3+%E5%8F%B0%E8%8C%82%E5%BA%97/@25.0536587,121.2857316,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a0747e05af3d:0x2d2ec81ab5b15032!8m2!3d25.0536587!4d121.2879256?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E5%91%B7%E5%86%B0%E9%A3%9F%E5%A0%82/@25.0777888,121.3857072,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a6fa9daa24f5:0x46c8758d195db34c!8m2!3d25.0778197!4d121.3879008?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/pappi's+restaurant/@25.0752445,121.366094,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a6d9a9f20319:0x24d0294001c90b07!8m2!3d25.0753634!4d121.3684213?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E8%92%B8%E7%BF%BB%E5%A4%A9%E6%B5%B7%E9%AE%AE%E8%92%B8%E6%B0%A3%E7%81%AB%E9%8D%8B%E9%A4%90%E5%BB%B3%2F%E6%9E%97%E5%8F%A3%E8%92%B8%E6%B0%A3%E7%81%AB%E9%8D%8B%2F%E6%9E%97%E5%8F%A3%E7%BE%8E%E9%A3%9F%2F%E6%9E%97%E5%8F%A3%E6%B5%B7%E9%AE%AE%E5%A1%94%E6%8E%A8%E8%96%A6%2F%E6%9E%97%E5%8F%A3%E6%B5%B7%E9%AE%AE%E9%A4%90%E5%BB%B3%E6%8E%A8%E8%96%A6%2F%E6%A1%83%E5%9C%92%E9%BE%9C%E5%B1%B1%E7%BE%8E%E9%A3%9F%2F%E6%A1%83%E5%9C%92%E9%BE%9C%E5%B1%B1%E8%92%B8%E6%B0%A3%E6%B5%B7%E9%AE%AE%E6%8E%A8%E8%96%A6/@25.0741941,121.3802713,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a6e154b55c29:0x49c8469032e46f83!8m2!3d25.0742909!4d121.3824209?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>蒸翻天 海鮮蒸氣火鍋餐廳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/Freaks%E7%99%AE%E5%AE%A2-%E6%9E%97%E5%8F%A3%E4%BB%81%E6%84%9B%E5%BA%97/@25.076044,121.373089,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a6de0ab772f5:0xd37daea494dd4a87!8m2!3d25.076044!4d121.375283?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E9%B9%BF%E9%87%8E%E6%A1%82%E8%8A%B1%E9%9B%9E/@25.0803666,121.3806885,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a6eedd229645:0x6a14ebf2712a2926!8m2!3d25.0803666!4d121.3828825?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/Bravo+Burger+%E7%99%BC%E7%A6%8F%E5%BB%9A%E6%88%BF%E6%9E%97%E5%8F%A3%E5%BA%97/@25.073852,121.3665651,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a6d85f67c7f9:0x297742dfc5357ebb!8m2!3d25.073852!4d121.3687591?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E7%BE%8E%E9%BA%97%E8%94%AC%C2%B7%E8%94%AC%E9%A3%9F%E6%96%99%E7%90%86+Meili+GREEN/@25.07551,121.3677293,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a6d946c2df93:0x64a5d1157aaee9c5!8m2!3d25.0755062!4d121.3699267?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E6%BA%AB%E5%A5%BD%E9%A3%9FWiNHOUS%E8%A4%87%E5%90%88%E5%BC%8F%E9%A4%90%E5%BB%B3/@25.0736374,121.3604854,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a72823d7d12b:0xbc5a19c2f3db5f7!8m2!3d25.0736374!4d121.3626794?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E9%82%A3%E9%96%93%E8%B3%A3%E5%86%B0%E7%9A%84%E5%92%96%E5%95%A1%E5%BA%97+Blue+Lamp+Cafe/@25.0777589,121.3895923,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a6f0814428fb:0x3fda622b88f50443!8m2!3d25.0777544!4d121.3917815?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E8%80%81%E5%8D%A0%E5%85%83%E6%8B%89%E9%BA%B5%E5%A4%A7%E7%8E%8B/@25.081513,121.3864586,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a6f1d73f9ae5:0xe795a35d574410af!8m2!3d25.0815138!4d121.3886236?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E6%83%B3+%E6%9E%97%E5%8F%A3/@25.0762588,121.377735,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a732503cdc1f:0x35ed9a6e4acfb4bc!8m2!3d25.0762588!4d121.379929?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E5%A5%BD%E6%97%A5%E5%AD%90%E9%A4%90%E5%BB%B3/@25.0797612,121.3796961,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a6e61daf1d1d:0x9aa328cc606f5ac9!8m2!3d25.0797535!4d121.3818754?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E7%82%B8%E7%89%9B+%E5%85%83%E6%9D%91+%E4%B8%89%E4%BA%95OUTLET+PARK%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0704017,121.3641862,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a7dc5d0f788d:0x71d4a74c71ec8cbe!8m2!3d25.0704017!4d121.3663802?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E9%B6%B4%E6%A9%8B%E9%A2%A8%E6%9C%88+(%E4%B8%89%E4%BA%95outlet)/@25.0702994,121.363857,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a7285be2ffa1:0x91660a08be7c26f7!8m2!3d25.0702994!4d121.366051?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E5%B1%AF%E4%BA%AC%E6%8B%89%E9%BA%B5+(%E4%B8%89%E4%BA%95outlet)/@25.0704066,121.3641289,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a72861c4cb45:0xde4973c36148029f!8m2!3d25.0704066!4d121.3663229?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E9%87%91%E5%AD%90%E5%8D%8A%E4%B9%8B%E5%8A%A9+%E6%9E%97%E5%8F%A3%E4%B8%89%E4%BA%95%E5%BA%97/@25.0707348,121.3617669,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a72858e072d7:0x63e7d7c27f658eb2!8m2!3d25.0707348!4d121.3639609?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/PAUL+Cafe+%E6%B3%95%E5%9C%8B%E4%BF%9D%E7%BE%85%E9%BA%B5%E5%8C%85%E4%B8%89%E4%BA%95+Outlet+%E6%9E%97%E5%8F%A3%E5%BA%97+-+%E6%97%A9%E5%8D%88%E9%A4%90+%E4%B8%8B%E5%8D%88%E8%8C%B6+%E8%9B%8B%E7%B3%95+%E6%B3%95%E5%BC%8F%E7%94%9C%E9%BB%9E+%E5%81%A5%E5%BA%B7%E8%BC%95%E9%A3%9F+%E5%8D%83%E5%B1%A4%E6%B4%BE+%E5%92%96%E5%95%A1%E5%BA%97/@25.0709529,121.3616475,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a728f66849db:0x4063ce04d7104d58!8m2!3d25.0709529!4d121.3638415?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/J.S.+FOODIES/@25.0706866,121.3619363,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a7285f45ff71:0x75a0631b782213a9!8m2!3d25.0706866!4d121.3641228?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/KUA%60AINA+%E5%A4%8F%E5%A8%81%E5%A4%B7%E6%BC%A2%E5%A0%A1+%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0705542,121.3615452,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a728f6c1b771:0xbc02cdf97a3319f2!8m2!3d25.0705542!4d121.363709?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E7%93%A6%E5%9F%8E%E6%B3%B0%E5%9C%8B%E6%96%99%E7%90%86+-+%E6%9E%97%E5%8F%A3%E4%B8%89%E4%BA%95%E5%BA%97/@25.0705022,121.3640182,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a7289cf4630d:0x76fd90baa4c0fae8!8m2!3d25.0705022!4d121.3662122?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/Shin+Yeh+Bistro+Linkou+Restaurant/@25.0707347,121.3617667,17z/data=!3m2!4b1!5s0x3442a7287c411bdb:0x695712dbb6e4e3ca!4m5!3m4!1s0x3442a72858e072d7:0x45fa65aec3361718!8m2!3d25.0707347!4d121.3639607?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E9%BB%9E%E6%B0%B4%E6%A8%93(%E6%9E%97%E5%8F%A3%E5%BA%97)/@25.0706238,121.3640533,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a727d54745dd:0xfcbe6d7177cffbab!8m2!3d25.0706238!4d121.3662171?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E3%81%8F%E3%82%89%E5%AF%BF%E5%8F%B8+%E8%97%8F%E5%A3%BD%E5%8F%B8+%E6%9E%97%E5%8F%A3%E4%B8%89%E4%BA%95OUTLET%E5%BA%97/@25.0707347,121.3617667,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a72858e072d7:0xae3f42c1fc7f16ab!8m2!3d25.0707347!4d121.3639607?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E6%B3%95%E5%9C%8B%E7%9A%84%E7%A7%98%E5%AF%86%E7%94%9C%E9%BB%9E+%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0708436,121.3637902,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a7285ada4877:0x973a03c1bc55040e!8m2!3d25.0708436!4d121.3659842?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/JAPOLI%E7%BE%A9%E5%A4%A7%E5%88%A9%E9%A4%90%E9%85%92%E9%A4%A8+(%E4%B8%89%E4%BA%95outlet%E5%BA%97)/@25.0709138,121.3615353,17z/data=!4m8!1m2!2m1!1z5p6X5Y-jSmFwb2xpIC3kuInkupXlupc!3m4!1s0x3442a7285fa91bef:0x56171e03ce39229c!8m2!3d25.0707347!4d121.3639607?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E7%AF%89%E5%9C%B0%E6%A8%82%E6%A8%82%E7%94%BA-%E6%9E%97%E5%8F%A3%E5%BA%97/@25.070913,121.3548995,15z/data=!4m8!1m2!2m1!1z5p6X5Y-jIOevieWcsOaoguaogueUug!3m4!1s0x3442a6dc59ea87e3:0x8868c34dad49f47a!8m2!3d25.0800028!4d121.3740215?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/S%C3%B6t+cafe+Bistronomy+%E6%B5%AE%E5%B3%B6%E5%B1%95%E6%82%85%E5%BA%97/@25.0905085,121.3789913,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a6eb3619c47b:0x47e7cbddc475b699!8m2!3d25.0904594!4d121.3812777?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E6%B2%B3%E9%A6%AC%E6%B0%B4%E7%94%A2+%E6%B4%BB%E9%AB%94%E6%B5%B7%E9%AE%AE%E8%B6%85%E5%B8%82%E7%81%AB%E9%8D%8B/@25.0313316,121.262474,11z/data=!4m8!1m2!2m1!1z5rKz6aas5rC055Si!3m4!1s0x346821a987af14b1:0x814475f2b675a663!8m2!3d25.0166701!4d121.2190146?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E6%9D%91%E6%B0%91%E9%A3%9F%E5%A0%82-%E5%BB%9A%E7%AA%97%E6%B8%AF%E9%BB%9E%26%E9%A3%9F%E5%A4%A7%E9%8D%8B/@25.0141399,121.29754,17z/data=!3m1!4b1!4m5!3m4!1s0x34681fb02ad6fb55:0x3ffcca58471dd908!8m2!3d25.0142155!4d121.2997011?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E5%9C%93%E6%98%8E%E5%9C%92%E8%8A%B1%E5%9C%92%E6%B5%B7%E9%AE%AE%E6%9C%83%E9%A4%A8/@25.0541816,121.4393032,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a709e5172dcb:0x18cacc65c8e151a!8m2!3d25.0541816!4d121.4414972?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E6%B5%B7%E8%8B%91%E6%97%A5%E5%BC%8F%E6%96%99%E7%90%86%E3%80%90%E7%84%A1%E8%8F%9C%E5%96%AE%E6%96%99%E7%90%86%2F%E6%9E%97%E5%8F%A3%E6%A1%83%E5%9C%92%E9%BE%9C%E5%B1%B1%E6%97%A5%E6%9C%AC%E6%96%99%E7%90%86%2F%E6%97%A5%E5%BC%8F%E5%95%86%E6%A5%AD%E4%BE%BF%E7%95%B6%E5%A4%96%E9%80%81%2F%E6%B5%B7%E9%87%A3%E9%AD%9A%E7%94%9F%E9%AD%9A%E7%89%87%2F%E7%9B%A4%E5%85%8B%E5%A4%8F%E9%BB%91%E9%91%BD%E8%B1%AC%E5%8D%B7%E4%B8%B2%E7%87%92%2F%E8%B2%B4%E5%A6%83%E8%9B%8B%2F%E5%B1%85%E9%85%92%E5%B1%8B%2F%E6%97%A5%E5%BC%8F%E6%B8%85%E9%85%92%E3%80%91/@25.0592976,121.3675997,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a7ce46840571:0x93c6e90b73efb39e!8m2!3d25.0592976!4d121.3697937?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E5%90%B3%E6%B0%8F%E6%B9%AF%E5%8C%85/@25.0516528,121.3619972,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a7396cc4effd:0x8f5eb626ec603f5a!8m2!3d25.0516628!4d121.3641904?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E5%85%AD%E7%9F%B3%E8%92%94%E9%8D%8B/@25.0573952,121.364664,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a7ecdd57e2ed:0xf913dcadb8fe7d1a!8m2!3d25.0573952!4d121.366858?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E8%A8%98%E5%BE%97%E5%90%83%E6%97%A9%E9%A4%90/@25.0595306,121.3621001,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a76c5b3f0fbb:0x2b337db4c3b8f017!8m2!3d25.0595288!4d121.3642906?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E5%AE%B6%E8%8A%AC%E7%81%AB%E9%8D%8B/@25.0523303,121.367892,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a738c188bb39:0x7b1eed0917bcd3fb!8m2!3d25.0523303!4d121.370086?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E4%B8%80%E5%B0%87%E5%A3%BD%E5%8F%B8+One+Show+Sushi/@25.0551207,121.3650204,17z/data=!3m2!4b1!5s0x3442a739bf3b5e29:0x588981558b0d7dc4!4m5!3m4!1s0x3442a7d1c25ea1ed:0xc9fd7840e5972c3e!8m2!3d25.0551207!4d121.3672144?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E8%A0%A2%E5%92%96%E5%95%A1+Dumb+Coffee/@25.0146586,121.3584113,17z/data=!3m1!4b1!4m5!3m4!1s0x34681d5907c2e335:0x3a3d2f2fab8fc08e!8m2!3d25.0146586!4d121.3606053?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E4%BA%AB%E6%99%82%E5%85%89%E6%9E%97%E5%8F%A3%E7%AB%99/@25.058157,121.364792,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a73baab7aa4f:0xb11028dc57e87914!8m2!3d25.058157!4d121.366986?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E6%A2%85%E8%8F%8A%E6%89%8B%E4%BD%9C%E9%AD%AF%E8%82%89%E9%A3%AF%EF%BC%88%E5%AF%B5%E7%89%A9%E5%8F%8B%E5%96%84%EF%BC%89/@25.055566,121.3601271,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a7c690e6c15f:0x67925f1c40e9f6b7!8m2!3d25.055566!4d121.3623211?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E6%87%B7%E8%88%8A%E4%B8%AD%E5%8D%B7%E9%BA%B5%E7%B7%9A/@25.0584549,121.3655109,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a7d80725d609:0x5c28ba69a8a26dab!8m2!3d25.0584549!4d121.3677049?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E6%B3%B0%E8%9D%A6%E6%A8%82+%E6%B5%81%E6%B0%B4%E9%81%93%E6%B3%B0%E5%9C%8B%E8%9D%A6%E5%90%83%E5%88%B0%E9%A3%BD/@25.0140635,121.2901509,13z/data=!4m8!1m2!2m1!1z6b6c5bGxIOawtOmBk-azsOWci-idpuWQg-WIsOmjvQ!3m4!1s0x346819e41bdbf829:0x89d85397dd05cdbd!8m2!3d24.9593873!4d121.2912816?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E5%8E%9A%E5%88%87%E7%89%9B%E6%8E%92/@25.0578044,121.3708029,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a73c5f6baf91:0x6cc984a1886851f2!8m2!3d25.0577887!4d121.3729761?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E5%85%AD%E6%89%87%E9%96%80%E6%99%82%E5%B0%9A%E6%B9%AF%E9%8D%8B-%E9%BE%9C%E5%B1%B1%E6%96%87%E5%8C%96%E4%B8%80%E5%BA%97/@25.0574461,121.3711401,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a77891577f1f:0xdba7716a90a2230c!8m2!3d25.0574406!4d121.3733275?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E5%9A%90%E5%9A%90%E4%B9%9D%E4%B9%9D-%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0518825,121.36499,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a7387374f159:0xa3db699c55a56db2!8m2!3d25.0518825!4d121.367184?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E4%BE%86%E7%A2%97%E6%8B%89%E9%BA%B5/@25.0531959,121.3686998,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a738d61e21e7:0xc3caf660c9e345ec!8m2!3d25.0531959!4d121.3708863?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E5%B8%83%E8%95%BE%E7%89%B9%E7%BE%A9%E5%BC%8F%E9%A4%90%E5%BB%B3/@25.0519177,121.3700955,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a73f39d8a6ef:0xc3148632bb43cee2!8m2!3d25.0519263!4d121.3723017?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E9%81%94%E7%BE%8E%E6%A8%82%E6%9E%97%E5%8F%A3%E9%95%B7%E5%BA%9A%E5%BA%97/@25.0573042,121.3625366,16z/data=!4m8!1m2!2m1!1z6YGU576O5qiCIERvbWlubydzIFBpenphIOm-nOWxseaWh-WMlui3rw!3m4!1s0x3442a7e664bd026d:0x16ef81e869183733!8m2!3d25.0573042!4d121.366914?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E5%AD%AB%E6%9D%B1%E5%AF%B6%E5%8F%B0%E5%BC%8F%E7%89%9B%E6%8E%92-%E6%9E%97%E5%8F%A3%E6%96%87%E5%8C%96%E5%BA%97/@25.0571899,121.3648733,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a7bf428da56b:0x6dbd8f44b0aa7bc6!8m2!3d25.0572013!4d121.3670875?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E9%8D%8B%E5%8F%B0%E9%8A%98%E6%99%82%E5%B0%9A%E6%B9%AF%E9%8D%8B+%E9%BE%9C%E5%B1%B1%E6%96%87%E5%8C%96%E4%BA%8C%E5%BA%97%2F%E6%9E%97%E5%8F%A3%E7%BE%8E%E9%A3%9F%2F%E6%9E%97%E5%8F%A3%E9%A4%90%E5%BB%B3%2F%E6%9E%97%E5%8F%A3%E7%81%AB%E9%8D%8B%2F%E9%95%B7%E5%BA%9A%E7%BE%8E%E9%A3%9F/@25.0571857,121.3319514,13z/data=!4m8!1m2!2m1!1z6Y2L5Y-w6YqYLeaZguWwmua5r-mNiw!3m4!1s0x3442a74cffcd3ab1:0x616308aa91f8ce1e!8m2!3d25.0550716!4d121.3690588?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/11%E7%95%AA%E7%94%BA%E8%B1%9A%E9%AA%A8%E6%8B%89%E9%BA%B5/@25.0566861,121.362086,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a0ccb1fc3d21:0xb9b2d9ccee613a19!8m2!3d25.0566718!4d121.3642573?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E6%BE%8E%E6%B9%96%E7%81%A3%E5%B9%B3%E5%83%B9%E6%B5%B7%E9%AE%AE%E9%A4%90%E5%BB%B3/@25.0560856,121.3625693,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a77ced3c4547:0x75f7d55ae3d0d932!8m2!3d25.0560856!4d121.3647633?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E6%B8%AF%E9%BE%98%E6%B8%AF%E5%BC%8F%E9%A3%B2%E8%8C%B6%E6%AD%90%E5%BC%8F%E8%87%AA%E5%8A%A9%E7%99%BE%E5%8C%AF/@25.0564527,121.3628988,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a732c7d52953:0x707993e61c9b862e!8m2!3d25.0564602!4d121.3651032?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E6%8B%BF%E5%9D%A1%E9%87%8C%E6%8A%AB%E8%96%A9+%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0553469,121.3633031,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a73b3d2316c9:0xee30cff814e0f256!8m2!3d25.0553258!4d121.3654681?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E4%B8%80%E7%95%9D%E5%9C%92/@25.0546657,121.3638556,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a7311c89f191:0x79f7a74f06207146!8m2!3d25.0547053!4d121.3661078?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E5%90%88%E6%B5%A6%E5%88%80%E5%88%87%E9%BA%B5%E9%A3%9F%E9%80%A3%E9%8E%96/@25.0522827,121.3613321,15z/data=!4m8!1m2!2m1!1z6b6c5bGxIOWQiOa1puWIgOWIh-m6temjnw!3m4!1s0x0:0x3572dfafd54e122!8m2!3d25.0515651!4d121.3692064?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/TINA%E5%BB%9A%E6%88%BF/@25.0522821,121.3612891,15z/data=!4m5!3m4!1s0x3442a7311c89f191:0x2a9fb898482a60d4!8m2!3d25.0502895!4d121.3705514?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E5%8F%B0%E5%8C%97%E6%B0%B8%E5%BA%B7%E8%B1%AC%E8%85%B3%E7%88%8C%E8%82%89%E9%A3%AF%E5%B0%88%E8%B3%A3+%E8%8F%AF%E4%BA%9E%E7%9B%B4%E7%87%9F%E5%BA%97/@25.0522816,121.3612462,15z/data=!4m8!1m2!2m1!1z6b6c5bGx5rC45bq36LGs6IWz54iM6IKJ6aOv5bCI6LOj!3m4!1s0x0:0x3e9a1cac84a2977!8m2!3d25.0518774!4d121.3694705?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E8%B6%8A%E5%8D%97%E5%A5%87%E8%8A%B3%E5%B0%8F%E9%A4%A8/@25.0538457,121.3647838,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a73835edc1c5:0x442857e838e9ebcb!8m2!3d25.0538457!4d121.3669778?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/STARBUCKS+%E6%98%9F%E5%B7%B4%E5%85%8B+(%E6%9E%97%E5%8F%A3%E9%96%80%E5%B8%82)/@25.0589382,121.366237,18z/data=!4m8!1m2!2m1!1z6b6c5bGxU1RBUkJVQ0tTIOaYn-W3tOWFiy3mnpflj6PploDluII!3m4!1s0x3442a73a0ecaa365:0x6fa38dc1aa14d989!8m2!3d25.0579453!4d121.3659143?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/Cafe+%E6%97%A5%E5%AE%89%EF%BC%8C%E5%AE%B6%E5%B8%B8/@25.0575013,121.3663068,18z/data=!3m1!4b1!4m5!3m4!1s0x3442a73a3b831edb:0x388893291db92a6b!8m2!3d25.057481!4d121.367378?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/i99+COFFEE+%E9%95%B7%E5%BA%9A%E5%BA%97/@25.0578628,121.36606,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a7a743fd1539:0xac66f0980b561a3e!8m2!3d25.0578679!4d121.3673899?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E5%8D%83%E8%91%89%E7%81%AB%E9%8D%8B%E6%9E%97%E5%8F%A3%E5%B0%8A%E7%88%B5%E9%A4%A8/@25.0562214,121.3601679,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a736e676886d:0x37da04565e4fa29d!8m2!3d25.0562214!4d121.3623619?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E5%8B%A4%E7%BE%8E%E4%BA%AD/@25.056339,121.361441,17z/data=!3m2!4b1!5s0x3442a7373d18e27b:0x6679ee2eeb2123cb!4m5!3m4!1s0x3442a7ea742e063d:0x6117f5417f5cf4c5!8m2!3d25.056339!4d121.363635?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/Pizza+Hut/@25.0562801,121.3547276,15z/data=!4m8!1m2!2m1!1z6b6c5bGx5b-F5Yud5a6iUGl6emEgSHV0!3m4!1s0x3442a7373d6d5dbf:0x498159fc36da0d09!8m2!3d25.0564015!4d121.3635827?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E4%B8%80%E7%95%AA%E5%9C%B0%E5%A3%BD%E5%96%9C%E7%87%92+%E6%9E%97%E5%8F%A3%E9%95%B7%E5%BA%9A%E5%BA%97/@25.0549776,121.3591933,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a7d2ad6da65f:0x4616181aa1c00d2b!8m2!3d25.0549873!4d121.3613798?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E6%B4%8B%E6%9C%B5%E7%BE%A9%E5%BC%8F%E5%BB%9A%E5%9D%8A-%E6%9E%97%E5%8F%A3%E7%92%B0%E7%90%83%E5%BA%97/@25.0254737,121.3059157,13z/data=!4m8!1m2!2m1!1z6b6c5bGx5rSL5py1576p5byP5bua5Z2K!3m4!1s0x3442a73b17ec397f:0x37c0ca947ae1237d!8m2!3d25.0601566!4d121.3692317?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E6%9E%97%E5%8F%A3%E9%95%B7%E5%BA%9A%E7%B4%80%E5%BF%B5%E9%86%AB%E9%99%A2/@25.0599851,121.3659503,17z/data=!4m8!1m2!2m1!1z6b6c5bGx5p6X5Y-j6ZW35bqaLee-jumjn-ihlw!3m4!1s0x34681df7efe320bd:0x29c884466965864f!8m2!3d25.061085!4d121.367572?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E5%B0%8F%E6%9C%A8%E5%B1%8B%E9%AC%86%E9%A4%85+%E9%95%B7%E5%BA%9A%E5%BA%97/@25.0592288,121.367209,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a73b0f17083b:0x27e563a458826753!8m2!3d25.0592288!4d121.369403?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E7%8E%8B%E8%A8%98%E8%94%A5%E6%B2%B9%E9%A4%85/@25.0266468,121.3358083,14z/data=!4m8!1m2!2m1!1z6b6c5bGx546L6KiY6JSl5rK56aSF!3m4!1s0x3442a73b034b9abf:0x7c37809c580ae8ec!8m2!3d25.0595324!4d121.3688198?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E6%B8%85%E5%8E%9F%E8%8A%8B%E5%9C%92%EF%BC%8D%E9%BE%9C%E5%B1%B1%E9%95%B7%E5%BA%9A%E5%BA%97/@25.0583507,121.3677814,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a7d26bc37c2f:0xf3f76d998c1d234c!8m2!3d25.0583507!4d121.3699754?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E7%94%98%E8%94%97%E5%AA%BD%E5%AA%BD+%E6%9E%97%E5%8F%A3%E9%95%B7%E5%BA%9A%E5%BA%97/@24.6236028,120.5549336,9z/data=!4m8!1m2!2m1!1z6b6c5bGx5riF55SY6JSX44Gu5aq95aq9!3m4!1s0x3442a79d913db0a9:0x372fb3da82063fe5!8m2!3d25.0591374!4d121.3687533?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E4%B8%89%E6%9D%91%E5%88%88%E5%8C%85/@25.0588597,121.3661781,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a73a53e38a6b:0x5b7f421f3c17c123!8m2!3d25.0588597!4d121.3683721?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E5%82%BB%E5%B8%AB%E5%82%85%E6%B9%AF%E5%8C%85+%E9%BE%9C%E5%B1%B1%E5%BE%A9%E8%88%88%E5%BA%97/@25.0585337,121.365678,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a73a4454a3fd:0xc93f809028990fd4!8m2!3d25.0585201!4d121.3678839?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E5%8A%89%E5%AE%B6%E8%B1%86%E8%8A%B1/@25.0584762,121.3655906,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a73a4ac32fd1:0xe8f86bb3d3c02114!8m2!3d25.0584621!4d121.3677961?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E9%98%BF%E7%90%AA%E5%B8%AB%E5%B0%8F%E7%B1%A0%E5%8C%85/@25.0437498,121.5440672,17z/data=!3m1!4b1!4m5!3m4!1s0x3442abdafd2c471f:0x1864f138fe238ff7!8m2!3d25.0437497!4d121.5462656?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E9%8D%8B%E8%B3%A3%E5%B1%80%E7%99%BE%E5%85%83%E5%B0%8F%E7%81%AB%E9%8D%8B%EF%BC%8D%E6%9E%97%E5%8F%A3%E9%95%B7%E5%BA%9A%E5%BA%97/@25.0583154,121.3681743,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a75bfc7b431f:0x74a1e56f47743171!8m2!3d25.0583172!4d121.3703705?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/place/%E7%81%B0%E7%86%8A%E5%A5%BD%E4%B8%BC/@25.0589539,121.3663095,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a73a54b5760b:0xb2c9c35f74cc00de!8m2!3d25.0589539!4d121.3685035?hl=zh-TW&amp;authuser=0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3290,6 +3534,14 @@
       <family val="1"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3316,7 +3568,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3332,6 +3584,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -3647,13 +3904,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E067DB8E-BE6D-BD40-8262-98D4CCD248C4}">
-  <dimension ref="A1:J93"/>
+  <dimension ref="A1:L92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C93" sqref="C93"/>
+      <selection pane="bottomRight" activeCell="J89" sqref="J89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3668,10 +3925,11 @@
     <col min="8" max="8" width="49.5" style="2" customWidth="1"/>
     <col min="9" max="9" width="16" style="2" customWidth="1"/>
     <col min="10" max="10" width="107.5" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="2"/>
+    <col min="11" max="11" width="18.33203125" style="9" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3679,7 +3937,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -3700,1778 +3958,2114 @@
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="144">
+        <v>527</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>715</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="144">
       <c r="A2" s="1" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="112">
+        <v>594</v>
+      </c>
+      <c r="K2" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="112">
       <c r="A3" s="1" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="96">
+        <v>595</v>
+      </c>
+      <c r="K3" s="10">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="96">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="80">
+        <v>596</v>
+      </c>
+      <c r="K4" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="80">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="48">
+        <v>652</v>
+      </c>
+      <c r="K5" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="48">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>583</v>
+        <v>719</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="I6" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="96">
+        <v>653</v>
+      </c>
+      <c r="K6" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="96">
       <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>179</v>
-      </c>
       <c r="I7" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="80">
+        <v>597</v>
+      </c>
+      <c r="K7" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="80">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>542</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="J8" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="K8" s="10">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="17">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="K9" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="97">
+      <c r="A10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="K10" s="10">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="144">
+      <c r="A11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="H11" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="K11" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="96">
+      <c r="A12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="K12" s="10">
+        <v>4</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="64">
+      <c r="A13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="K13" s="10">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="144">
+      <c r="A14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="K14" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="80">
+      <c r="A15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="K15" s="10">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="64">
+      <c r="A16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="K16" s="10">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="96">
+      <c r="A17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="K17" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="80">
+      <c r="A18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="K18" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="96">
+      <c r="A19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="K19" s="10">
+        <v>4</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="96">
+      <c r="A20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="K20" s="10">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="80">
+      <c r="A21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="17">
-      <c r="A9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>543</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="97">
-      <c r="A10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="K21" s="10">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="64">
+      <c r="A22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="K22" s="10">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="80">
+      <c r="A23" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="K23" s="10">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="64">
+      <c r="A24" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="144">
-      <c r="A11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="B24" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="K24" s="10">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="64">
+      <c r="A25" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="96">
-      <c r="A12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>543</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K25" s="10">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="96">
+      <c r="A26" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="64">
-      <c r="A13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>543</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K26" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="64">
+      <c r="A27" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J27" s="7" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="144">
-      <c r="A14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K27" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="80">
+      <c r="A28" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J28" s="7" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="80">
-      <c r="A15" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="J15" s="7" t="s">
+      <c r="K28" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="64">
+      <c r="A29" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="K29" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="96">
+      <c r="A30" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="64">
-      <c r="A16" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K30" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="96">
+      <c r="A31" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="96">
-      <c r="A17" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K31" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="96">
+      <c r="A32" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J32" s="7" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="80">
-      <c r="A18" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="96">
-      <c r="A19" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K32" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="112">
+      <c r="A33" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J33" s="7" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="96">
-      <c r="A20" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K33" s="10">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="L33" s="11" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="128">
+      <c r="A34" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="80">
-      <c r="A21" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="K34" s="10">
+        <v>4</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="112">
+      <c r="A35" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J35" s="7" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="64">
-      <c r="A22" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="80">
-      <c r="A23" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="64">
-      <c r="A24" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="64">
-      <c r="A25" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="96">
-      <c r="A26" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="64">
-      <c r="A27" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="80">
-      <c r="A28" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="64">
-      <c r="A29" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="96">
-      <c r="A30" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="96">
-      <c r="A31" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="96">
-      <c r="A32" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="112">
-      <c r="A33" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="128">
-      <c r="A34" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="112">
-      <c r="A35" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E35" s="2" t="s">
+      <c r="K35" s="10">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="128">
+      <c r="A36" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="128">
-      <c r="A36" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G36" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="K36" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="112">
+      <c r="A37" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="K37" s="10">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="64">
+      <c r="A38" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="K38" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="80">
+      <c r="A39" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="K39" s="10">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="80">
+      <c r="A40" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="I36" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="112">
-      <c r="A37" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="64">
-      <c r="A38" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="80">
-      <c r="A39" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="80">
-      <c r="A40" s="1" t="s">
+      <c r="G40" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="K40" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="48">
+      <c r="A41" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="K41" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="64">
+      <c r="A42" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F40" s="2" t="s">
+      <c r="B42" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="K42" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="80">
+      <c r="A43" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="F43" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="H43" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="I40" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="48">
-      <c r="A41" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>706</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="64">
-      <c r="A42" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="I43" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="K43" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="80">
+      <c r="A44" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="K44" s="10">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="80">
+      <c r="A45" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="K45" s="10">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="48">
+      <c r="A46" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="80">
-      <c r="A43" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="80">
-      <c r="A44" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="80">
-      <c r="A45" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B45" s="2" t="s">
+      <c r="B46" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="K46" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="64">
+      <c r="A47" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="K47" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="64">
+      <c r="A48" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="K48" s="10">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="48">
+      <c r="A49" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="D45" s="2" t="s">
+      <c r="F49" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H49" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I45" s="2" t="s">
+      <c r="I49" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="K49" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="48">
+      <c r="A50" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="K50" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="48">
+      <c r="A51" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="K51" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="48">
+      <c r="A52" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="48">
-      <c r="A46" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="64">
-      <c r="A47" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>543</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="64">
-      <c r="A48" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B48" s="2" t="s">
+      <c r="C52" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="K52" s="10">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="96">
+      <c r="A53" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="K53" s="10">
+        <v>4</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="80">
+      <c r="A54" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="K54" s="10">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="48">
+      <c r="A55" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H55" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="C48" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="J48" s="7" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="48">
-      <c r="A49" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>543</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="48">
-      <c r="A50" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="J50" s="7" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="48">
-      <c r="A51" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="J51" s="7" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="48">
-      <c r="A52" s="1" t="s">
+      <c r="I55" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="K55" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="64">
+      <c r="A56" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="J52" s="7" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="96">
-      <c r="A53" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="J53" s="7" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="80">
-      <c r="A54" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="J54" s="7" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="48">
-      <c r="A55" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="J55" s="7" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="64">
-      <c r="A56" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="B56" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="80">
+        <v>661</v>
+      </c>
+      <c r="K56" s="10">
+        <v>4</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="80">
       <c r="A57" s="1" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>32</v>
@@ -5486,184 +6080,220 @@
         <v>35</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="64">
+        <v>662</v>
+      </c>
+      <c r="K57" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="64">
       <c r="A58" s="1" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="D58" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="K58" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="112">
+      <c r="A59" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="J58" s="7" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="112">
-      <c r="A59" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>538</v>
-      </c>
       <c r="D59" s="2" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="80">
+        <v>664</v>
+      </c>
+      <c r="K59" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="80">
       <c r="A60" s="1" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H60" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F60" s="2" t="s">
+      <c r="I60" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="K60" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="64">
+      <c r="A61" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="C61" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="J60" s="7" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="64">
-      <c r="A61" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="80">
+        <v>666</v>
+      </c>
+      <c r="K61" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="80">
       <c r="A62" s="1" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="112">
+        <v>636</v>
+      </c>
+      <c r="K62" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="112">
       <c r="A63" s="1" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>20</v>
@@ -5678,88 +6308,106 @@
         <v>23</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="48">
+        <v>667</v>
+      </c>
+      <c r="K63" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="48">
       <c r="A64" s="1" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="144">
+        <v>637</v>
+      </c>
+      <c r="K64" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="144">
       <c r="A65" s="1" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="64">
+        <v>668</v>
+      </c>
+      <c r="K65" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="64">
       <c r="A66" s="1" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>37</v>
@@ -5774,88 +6422,106 @@
         <v>40</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="96">
+        <v>669</v>
+      </c>
+      <c r="K66" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="96">
       <c r="A67" s="1" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="64">
+        <v>670</v>
+      </c>
+      <c r="K67" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="64">
       <c r="A68" s="1" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="48">
+        <v>671</v>
+      </c>
+      <c r="K68" s="10">
+        <v>4</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="48">
       <c r="A69" s="1" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>26</v>
@@ -5870,248 +6536,296 @@
         <v>29</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="80">
+        <v>638</v>
+      </c>
+      <c r="K69" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="80">
       <c r="A70" s="1" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="64">
+        <v>672</v>
+      </c>
+      <c r="K70" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="64">
       <c r="A71" s="1" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H71" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="I71" s="2" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="48">
+        <v>673</v>
+      </c>
+      <c r="K71" s="10">
+        <v>4</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="48">
       <c r="A72" s="1" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H72" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="I72" s="2" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="48">
+        <v>639</v>
+      </c>
+      <c r="K72" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="48">
       <c r="A73" s="1" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="32">
+        <v>702</v>
+      </c>
+      <c r="K73" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="32">
       <c r="A74" s="1" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="64">
+        <v>674</v>
+      </c>
+      <c r="K74" s="10">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="64">
       <c r="A75" s="1" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="I75" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="48">
+        <v>675</v>
+      </c>
+      <c r="K75" s="10">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="48">
       <c r="A76" s="1" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="96">
+        <v>640</v>
+      </c>
+      <c r="K76" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="96">
       <c r="A77" s="1" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>9</v>
@@ -6129,85 +6843,103 @@
         <v>13</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="64">
+        <v>641</v>
+      </c>
+      <c r="K77" s="10">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="64">
       <c r="A78" s="1" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="112">
+        <v>642</v>
+      </c>
+      <c r="K78" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="112">
       <c r="A79" s="1" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="96">
+        <v>676</v>
+      </c>
+      <c r="K79" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="96">
       <c r="A80" s="1" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>15</v>
@@ -6225,423 +6957,467 @@
         <v>13</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="64">
+        <v>643</v>
+      </c>
+      <c r="K80" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="64">
       <c r="A81" s="1" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I81" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="48">
+        <v>677</v>
+      </c>
+      <c r="K81" s="10">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="48">
       <c r="A82" s="1" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I82" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="64">
+        <v>644</v>
+      </c>
+      <c r="K82" s="10"/>
+      <c r="L82" s="2" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="64">
       <c r="A83" s="1" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="J83" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="K83" s="10">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="48">
+      <c r="A84" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="J84" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="K84" s="10">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="96">
+      <c r="A85" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="J85" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="K85" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="48">
+      <c r="A86" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="J86" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="K86" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="48">
+      <c r="A87" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="J87" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="K87" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="96">
+      <c r="A88" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="J88" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="K88" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="48">
+      <c r="A89" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="J89" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="K89" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="48">
+      <c r="A90" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="C83" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="E83" s="2" t="s">
+      <c r="C90" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="F83" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="J83" s="7" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="48">
-      <c r="A84" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="H84" s="6" t="s">
-        <v>699</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="J84" s="7" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="96">
-      <c r="A85" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="H85" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="J85" s="7" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="48">
-      <c r="A86" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="F86" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="H86" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="J86" s="7" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="48">
-      <c r="A87" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="F87" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="H87" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="J87" s="7" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="96">
-      <c r="A88" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="F88" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="H88" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="J88" s="7" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="48">
-      <c r="A89" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="F89" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="H89" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="J89" s="7" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="48">
-      <c r="A90" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="F90" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>468</v>
-      </c>
       <c r="I90" s="2" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="48">
+        <v>648</v>
+      </c>
+      <c r="K90" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="48">
       <c r="A91" s="1" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>42</v>
+        <v>438</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>16</v>
+        <v>439</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>440</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>45</v>
+        <v>442</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>441</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" ht="48">
+        <v>649</v>
+      </c>
+      <c r="K91" s="10">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="48">
       <c r="A92" s="1" t="s">
-        <v>581</v>
+        <v>704</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>543</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>527</v>
+        <v>705</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>706</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>448</v>
+        <v>707</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>449</v>
+        <v>708</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>451</v>
+        <v>710</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>450</v>
+        <v>709</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="J92" s="7" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="48">
-      <c r="A93" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>719</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="F93" s="7" t="s">
-        <v>721</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>723</v>
-      </c>
-      <c r="H93" s="6" t="s">
-        <v>722</v>
-      </c>
-      <c r="I93" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="J93" s="7" t="s">
-        <v>724</v>
+        <v>711</v>
+      </c>
+      <c r="K92" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>809</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J92">
-    <sortCondition ref="I2:I92"/>
-    <sortCondition ref="D2:D92"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J91">
+    <sortCondition ref="I2:I91"/>
+    <sortCondition ref="D2:D91"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -6687,7 +7463,7 @@
     <hyperlink ref="H18" r:id="rId40" xr:uid="{A244D270-7C2F-FC48-AA9E-77923E3F9E9C}"/>
     <hyperlink ref="H23" r:id="rId41" xr:uid="{F7DB1F5F-687C-9141-9973-65A3BF51552C}"/>
     <hyperlink ref="H15" r:id="rId42" xr:uid="{F3F64AD5-5A76-7347-A675-056AF03551CD}"/>
-    <hyperlink ref="H92" r:id="rId43" xr:uid="{7B808A16-9C5B-D94C-81E8-46AFD11DAA8B}"/>
+    <hyperlink ref="H91" r:id="rId43" xr:uid="{7B808A16-9C5B-D94C-81E8-46AFD11DAA8B}"/>
     <hyperlink ref="H85" r:id="rId44" xr:uid="{B760EFB7-EAAF-EA48-87C1-3533C77A9935}"/>
     <hyperlink ref="H83" r:id="rId45" xr:uid="{968384FB-1A18-4A4F-8CBD-27769ADC4E4A}"/>
     <hyperlink ref="H86" r:id="rId46" xr:uid="{704D09EA-DD52-5242-B84F-4497D98C6ED4}"/>
@@ -6703,7 +7479,7 @@
     <hyperlink ref="H84" r:id="rId56" xr:uid="{87D48D69-5CB1-5544-A6F0-BE893636CEF2}"/>
     <hyperlink ref="H41" r:id="rId57" xr:uid="{52C93DA9-64C2-014A-B30A-2B177DD0B7DE}"/>
     <hyperlink ref="H73" r:id="rId58" xr:uid="{2E2C475F-ED50-6140-A773-84CC4222E0CA}"/>
-    <hyperlink ref="H93" r:id="rId59" xr:uid="{D539F041-4ECB-4B46-AA9A-D6B196D8A578}"/>
+    <hyperlink ref="H92" r:id="rId59" xr:uid="{D539F041-4ECB-4B46-AA9A-D6B196D8A578}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/db/AiCity-72-Restaurant.xlsx
+++ b/db/AiCity-72-Restaurant.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60CDAE0-56A8-A440-B4F4-34B3DBE84554}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC942CC-5F17-1248-90DB-B681A4D6FBC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="2180" windowWidth="41400" windowHeight="25400" xr2:uid="{1AAFA279-DBCD-DA42-8F0D-FE7868FF2730}"/>
+    <workbookView xWindow="18260" yWindow="8600" windowWidth="41400" windowHeight="25400" xr2:uid="{1AAFA279-DBCD-DA42-8F0D-FE7868FF2730}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -1824,10 +1824,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>新北市林口區中正路261號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>fig/AiCity-910-呷冰食堂.jpg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3473,6 +3469,10 @@
   </si>
   <si>
     <t>https://www.google.com.tw/maps/place/%E7%81%B0%E7%86%8A%E5%A5%BD%E4%B8%BC/@25.0589539,121.3663095,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a73a54b5760b:0xb2c9c35f74cc00de!8m2!3d25.0589539!4d121.3685035?hl=zh-TW&amp;authuser=0</t>
+  </si>
+  <si>
+    <t>新北市林口區中正路318號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3480,7 +3480,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -3584,8 +3584,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -3907,10 +3907,10 @@
   <dimension ref="A1:L92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J89" sqref="J89"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3937,7 +3937,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -3958,24 +3958,24 @@
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="144">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="112">
       <c r="A2" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>125</v>
@@ -3996,24 +3996,24 @@
         <v>115</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="K2" s="10">
         <v>3.8</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="112">
       <c r="A3" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>122</v>
@@ -4034,24 +4034,24 @@
         <v>115</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="K3" s="10">
         <v>4.0999999999999996</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="96">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="80">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>117</v>
@@ -4072,13 +4072,13 @@
         <v>115</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K4" s="10">
         <v>3.3</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="80">
@@ -4089,7 +4089,7 @@
         <v>110</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>111</v>
@@ -4110,13 +4110,13 @@
         <v>115</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="K5" s="10">
         <v>4.2</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="48">
@@ -4124,10 +4124,10 @@
         <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>159</v>
@@ -4148,24 +4148,24 @@
         <v>115</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="K6" s="10">
         <v>3.8</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="96">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="80">
       <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>170</v>
@@ -4186,13 +4186,13 @@
         <v>115</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="K7" s="10">
         <v>4.7</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="80">
@@ -4203,7 +4203,7 @@
         <v>235</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>236</v>
@@ -4224,13 +4224,13 @@
         <v>241</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="K8" s="10">
         <v>4.0999999999999996</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="17">
@@ -4238,10 +4238,10 @@
         <v>42</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>255</v>
@@ -4262,13 +4262,13 @@
         <v>241</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="K9" s="10">
         <v>4.5</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="97">
@@ -4279,7 +4279,7 @@
         <v>249</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>250</v>
@@ -4300,24 +4300,24 @@
         <v>241</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="K10" s="10">
         <v>4.0999999999999996</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="144">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="128">
       <c r="A11" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>243</v>
@@ -4338,13 +4338,13 @@
         <v>241</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="K11" s="10">
         <v>3.8</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="96">
@@ -4352,10 +4352,10 @@
         <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>243</v>
@@ -4376,13 +4376,13 @@
         <v>241</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K12" s="10">
         <v>4</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="64">
@@ -4393,7 +4393,7 @@
         <v>266</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>243</v>
@@ -4414,13 +4414,13 @@
         <v>241</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K13" s="10">
         <v>4.4000000000000004</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="144">
@@ -4428,10 +4428,10 @@
         <v>69</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>243</v>
@@ -4452,13 +4452,13 @@
         <v>241</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="K14" s="10">
         <v>4.2</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="80">
@@ -4469,34 +4469,34 @@
         <v>429</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="6" t="s">
         <v>431</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>432</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>366</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="K15" s="10">
         <v>4.4000000000000004</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="64">
@@ -4507,7 +4507,7 @@
         <v>396</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>397</v>
@@ -4528,13 +4528,13 @@
         <v>366</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="K16" s="10">
         <v>4.4000000000000004</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="96">
@@ -4542,10 +4542,10 @@
         <v>88</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>413</v>
@@ -4566,13 +4566,13 @@
         <v>366</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="K17" s="10">
         <v>4.7</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="80">
@@ -4583,7 +4583,7 @@
         <v>422</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>418</v>
@@ -4604,13 +4604,13 @@
         <v>366</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="K18" s="10">
         <v>4.3</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="96">
@@ -4621,7 +4621,7 @@
         <v>378</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>379</v>
@@ -4642,13 +4642,13 @@
         <v>366</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="K19" s="10">
         <v>4</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="96">
@@ -4659,7 +4659,7 @@
         <v>390</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>391</v>
@@ -4680,13 +4680,13 @@
         <v>366</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K20" s="10">
         <v>4.0999999999999996</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="80">
@@ -4697,7 +4697,7 @@
         <v>384</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>385</v>
@@ -4718,13 +4718,13 @@
         <v>366</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K21" s="10">
         <v>4.4000000000000004</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="64">
@@ -4735,7 +4735,7 @@
         <v>402</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>403</v>
@@ -4756,13 +4756,13 @@
         <v>366</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="K22" s="10">
         <v>4.0999999999999996</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="80">
@@ -4773,7 +4773,7 @@
         <v>424</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>425</v>
@@ -4785,7 +4785,7 @@
         <v>427</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>426</v>
@@ -4794,24 +4794,24 @@
         <v>366</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="K23" s="10">
         <v>4.4000000000000004</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="64">
       <c r="A24" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>408</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>409</v>
@@ -4823,7 +4823,7 @@
         <v>411</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>412</v>
@@ -4832,13 +4832,13 @@
         <v>366</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="K24" s="10">
         <v>4.4000000000000004</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="64">
@@ -4846,10 +4846,10 @@
         <v>123</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>361</v>
@@ -4870,13 +4870,13 @@
         <v>133</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="K25" s="10">
         <v>4.4000000000000004</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="96">
@@ -4887,10 +4887,10 @@
         <v>356</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>359</v>
@@ -4908,13 +4908,13 @@
         <v>133</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K26" s="10">
         <v>4.2</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="64">
@@ -4925,7 +4925,7 @@
         <v>190</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>191</v>
@@ -4946,13 +4946,13 @@
         <v>133</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="K27" s="10">
         <v>4.8</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="80">
@@ -4963,7 +4963,7 @@
         <v>220</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>221</v>
@@ -4984,13 +4984,13 @@
         <v>133</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="K28" s="10">
         <v>3.9</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="64">
@@ -5001,7 +5001,7 @@
         <v>183</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>184</v>
@@ -5022,13 +5022,13 @@
         <v>133</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="K29" s="10">
         <v>4.2</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="96">
@@ -5039,7 +5039,7 @@
         <v>209</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>184</v>
@@ -5060,13 +5060,13 @@
         <v>133</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="K30" s="10">
         <v>3.9</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="96">
@@ -5077,7 +5077,7 @@
         <v>214</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>184</v>
@@ -5098,13 +5098,13 @@
         <v>133</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="K31" s="10">
         <v>4.2</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="96">
@@ -5115,7 +5115,7 @@
         <v>226</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>184</v>
@@ -5136,13 +5136,13 @@
         <v>133</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K32" s="10">
         <v>3.8</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="112">
@@ -5153,7 +5153,7 @@
         <v>231</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>184</v>
@@ -5174,24 +5174,24 @@
         <v>133</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K33" s="10">
         <v>4.0999999999999996</v>
       </c>
       <c r="L33" s="11" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="128">
       <c r="A34" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>130</v>
@@ -5212,13 +5212,13 @@
         <v>133</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K34" s="10">
         <v>4</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="112">
@@ -5226,10 +5226,10 @@
         <v>175</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>130</v>
@@ -5250,13 +5250,13 @@
         <v>133</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K35" s="10">
         <v>4.0999999999999996</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="128">
@@ -5264,10 +5264,10 @@
         <v>182</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>130</v>
@@ -5288,13 +5288,13 @@
         <v>133</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K36" s="10">
         <v>3.7</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="112">
@@ -5305,7 +5305,7 @@
         <v>197</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>198</v>
@@ -5323,13 +5323,13 @@
         <v>133</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="K37" s="10">
         <v>4.0999999999999996</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="64">
@@ -5340,7 +5340,7 @@
         <v>203</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>198</v>
@@ -5361,13 +5361,13 @@
         <v>133</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="K38" s="10">
         <v>4.3</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="80">
@@ -5378,7 +5378,7 @@
         <v>176</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>177</v>
@@ -5399,13 +5399,13 @@
         <v>133</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K39" s="10">
         <v>4.0999999999999996</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="80">
@@ -5416,10 +5416,10 @@
         <v>143</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>144</v>
@@ -5437,51 +5437,51 @@
         <v>133</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="K40" s="10">
         <v>3.5</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="48">
       <c r="A41" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="D41" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="G41" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="H41" s="6" t="s">
         <v>692</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>693</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>133</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="K41" s="10">
         <v>4.3</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="64">
@@ -5489,13 +5489,13 @@
         <v>213</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>154</v>
@@ -5513,13 +5513,13 @@
         <v>152</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="K42" s="10">
         <v>3.9</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="80">
@@ -5527,13 +5527,13 @@
         <v>219</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>149</v>
@@ -5551,13 +5551,13 @@
         <v>152</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="K43" s="10">
         <v>4.3</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="80">
@@ -5565,13 +5565,13 @@
         <v>225</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>165</v>
@@ -5589,13 +5589,13 @@
         <v>169</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="K44" s="10">
         <v>4.0999999999999996</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="80">
@@ -5606,7 +5606,7 @@
         <v>318</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>319</v>
@@ -5627,24 +5627,24 @@
         <v>274</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="K45" s="10">
         <v>4.5999999999999996</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="48">
       <c r="A46" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>312</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>313</v>
@@ -5665,13 +5665,13 @@
         <v>274</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K46" s="10">
         <v>4.5</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="64">
@@ -5682,7 +5682,7 @@
         <v>342</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>343</v>
@@ -5703,13 +5703,13 @@
         <v>274</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K47" s="10">
         <v>4.7</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="64">
@@ -5720,7 +5720,7 @@
         <v>330</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>331</v>
@@ -5741,13 +5741,13 @@
         <v>274</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K48" s="10">
         <v>4.5999999999999996</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="48">
@@ -5758,7 +5758,7 @@
         <v>324</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>325</v>
@@ -5779,13 +5779,13 @@
         <v>274</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K49" s="10">
         <v>4.3</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="48">
@@ -5796,7 +5796,7 @@
         <v>288</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>289</v>
@@ -5817,13 +5817,13 @@
         <v>274</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K50" s="10">
         <v>4.3</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="48">
@@ -5834,7 +5834,7 @@
         <v>300</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>301</v>
@@ -5855,13 +5855,13 @@
         <v>274</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K51" s="10">
         <v>4.7</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="48">
@@ -5872,7 +5872,7 @@
         <v>282</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>283</v>
@@ -5893,13 +5893,13 @@
         <v>274</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="K52" s="10">
         <v>4.4000000000000004</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="96">
@@ -5910,7 +5910,7 @@
         <v>306</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>307</v>
@@ -5931,13 +5931,13 @@
         <v>274</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K53" s="10">
         <v>4</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="80">
@@ -5948,7 +5948,7 @@
         <v>294</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>295</v>
@@ -5969,13 +5969,13 @@
         <v>274</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="K54" s="10">
         <v>4.4000000000000004</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="48">
@@ -5986,7 +5986,7 @@
         <v>336</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>339</v>
@@ -6007,13 +6007,13 @@
         <v>274</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="K55" s="10">
         <v>4.5</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="64">
@@ -6024,10 +6024,10 @@
         <v>43</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>44</v>
@@ -6042,30 +6042,30 @@
         <v>46</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K56" s="10">
         <v>4</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="80">
       <c r="A57" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>32</v>
@@ -6080,16 +6080,16 @@
         <v>35</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K57" s="10">
         <v>4.3</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="64">
@@ -6097,13 +6097,13 @@
         <v>375</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>95</v>
@@ -6118,16 +6118,16 @@
         <v>98</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="K58" s="10">
         <v>3.8</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="112">
@@ -6135,13 +6135,13 @@
         <v>279</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>70</v>
@@ -6156,16 +6156,16 @@
         <v>73</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="K59" s="10">
         <v>3.7</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="80">
@@ -6176,10 +6176,10 @@
         <v>59</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>60</v>
@@ -6194,16 +6194,16 @@
         <v>63</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="K60" s="10">
         <v>4.3</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="64">
@@ -6214,10 +6214,10 @@
         <v>65</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>66</v>
@@ -6232,16 +6232,16 @@
         <v>68</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="K61" s="10">
         <v>3.8</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="80">
@@ -6249,13 +6249,13 @@
         <v>348</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>48</v>
@@ -6270,16 +6270,16 @@
         <v>51</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="K62" s="10">
         <v>3.5</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="112">
@@ -6287,13 +6287,13 @@
         <v>355</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>20</v>
@@ -6308,30 +6308,30 @@
         <v>23</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="K63" s="10">
         <v>3.9</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="48">
       <c r="A64" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>74</v>
@@ -6346,16 +6346,16 @@
         <v>77</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="K64" s="10">
         <v>4.2</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="144">
@@ -6363,37 +6363,37 @@
         <v>367</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="D65" s="2" t="s">
+      <c r="E65" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="F65" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="G65" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="H65" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="G65" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>560</v>
-      </c>
       <c r="I65" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="K65" s="10">
         <v>4.2</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="64">
@@ -6401,13 +6401,13 @@
         <v>368</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>37</v>
@@ -6422,16 +6422,16 @@
         <v>40</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="K66" s="10">
         <v>3.9</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="96">
@@ -6439,37 +6439,37 @@
         <v>369</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D67" s="2" t="s">
+      <c r="E67" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="F67" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="F67" s="7" t="s">
+      <c r="G67" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="H67" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="G67" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>549</v>
-      </c>
       <c r="I67" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="K67" s="10">
         <v>3.9</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="64">
@@ -6477,37 +6477,37 @@
         <v>370</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D68" s="2" t="s">
+      <c r="E68" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="F68" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="F68" s="7" t="s">
+      <c r="G68" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="H68" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="H68" s="6" t="s">
-        <v>567</v>
-      </c>
       <c r="I68" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="K68" s="10">
         <v>4</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="48">
@@ -6518,10 +6518,10 @@
         <v>25</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>26</v>
@@ -6536,16 +6536,16 @@
         <v>29</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="K69" s="10">
         <v>4.3</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="80">
@@ -6556,10 +6556,10 @@
         <v>79</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>80</v>
@@ -6574,16 +6574,16 @@
         <v>29</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="K70" s="10">
         <v>3.8</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="64">
@@ -6594,10 +6594,10 @@
         <v>89</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>90</v>
@@ -6612,16 +6612,16 @@
         <v>93</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="K71" s="10">
         <v>4</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="48">
@@ -6632,10 +6632,10 @@
         <v>83</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>84</v>
@@ -6650,68 +6650,68 @@
         <v>87</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K72" s="10">
         <v>3.8</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="48">
       <c r="A73" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="C73" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="H73" s="6" t="s">
         <v>697</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="F73" s="2" t="s">
+      <c r="I73" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="J73" s="7" t="s">
         <v>701</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>698</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="J73" s="7" t="s">
-        <v>702</v>
       </c>
       <c r="K73" s="10">
         <v>4.2</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="32">
       <c r="A74" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>100</v>
@@ -6729,13 +6729,13 @@
         <v>13</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="K74" s="10">
         <v>4.0999999999999996</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="64">
@@ -6746,7 +6746,7 @@
         <v>349</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>350</v>
@@ -6767,13 +6767,13 @@
         <v>13</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="K75" s="10">
         <v>4.4000000000000004</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="48">
@@ -6781,51 +6781,51 @@
         <v>377</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="I76" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="C76" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="F76" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>489</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>487</v>
-      </c>
       <c r="J76" s="7" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="K76" s="10">
         <v>4.5</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="96">
       <c r="A77" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>9</v>
@@ -6843,103 +6843,103 @@
         <v>13</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K77" s="10">
         <v>4.4000000000000004</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="64">
       <c r="A78" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="C78" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D78" s="2" t="s">
+      <c r="E78" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="F78" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="H78" s="6" t="s">
         <v>590</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="H78" s="6" t="s">
-        <v>591</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="K78" s="10">
         <v>4.2</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="112">
       <c r="A79" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D79" s="2" t="s">
+      <c r="E79" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="F79" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="H79" s="6" t="s">
         <v>553</v>
-      </c>
-      <c r="F79" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="H79" s="6" t="s">
-        <v>554</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="K79" s="10">
         <v>3.3</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="96">
       <c r="A80" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>15</v>
@@ -6957,27 +6957,27 @@
         <v>13</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="K80" s="10">
         <v>4.3</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="64">
       <c r="A81" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>54</v>
@@ -6995,27 +6995,27 @@
         <v>13</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K81" s="10">
         <v>4.0999999999999996</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="48">
       <c r="A82" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>106</v>
@@ -7033,385 +7033,385 @@
         <v>13</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="K82" s="10"/>
       <c r="L82" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="64">
       <c r="A83" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="C83" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="E83" s="2" t="s">
+      <c r="F83" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="F83" s="7" t="s">
+      <c r="G83" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="H83" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="G83" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>452</v>
-      </c>
       <c r="I83" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="K83" s="10">
         <v>4.0999999999999996</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="48">
       <c r="A84" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="C84" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="C84" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="D84" s="2" t="s">
+      <c r="E84" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="G84" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="G84" s="2" t="s">
+      <c r="H84" s="6" t="s">
         <v>685</v>
       </c>
-      <c r="H84" s="6" t="s">
+      <c r="I84" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="J84" s="7" t="s">
         <v>686</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="J84" s="7" t="s">
-        <v>687</v>
       </c>
       <c r="K84" s="10">
         <v>4.4000000000000004</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="96">
       <c r="A85" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="H85" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="C85" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="H85" s="6" t="s">
-        <v>444</v>
-      </c>
       <c r="I85" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="K85" s="10">
         <v>4.7</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="48">
       <c r="A86" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="H86" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="C86" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="F86" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="H86" s="6" t="s">
-        <v>454</v>
-      </c>
       <c r="I86" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="K86" s="10">
         <v>3.1</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="48">
       <c r="A87" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="C87" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="E87" s="2" t="s">
+      <c r="F87" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="F87" s="7" t="s">
+      <c r="G87" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="G87" s="2" t="s">
-        <v>466</v>
-      </c>
       <c r="H87" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="K87" s="10">
         <v>4.3</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="96">
       <c r="A88" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="H88" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="C88" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="F88" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="H88" s="6" t="s">
-        <v>468</v>
-      </c>
       <c r="I88" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="K88" s="10">
         <v>3.8</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="48">
       <c r="A89" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="H89" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="C89" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="F89" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="H89" s="6" t="s">
-        <v>483</v>
-      </c>
       <c r="I89" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="K89" s="10">
         <v>3.9</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="48">
       <c r="A90" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="C90" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="F90" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>459</v>
-      </c>
       <c r="I90" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="K90" s="10">
         <v>4.3</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="48">
       <c r="A91" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="C91" s="8" t="s">
-        <v>533</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="E91" s="2" t="s">
+      <c r="F91" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="F91" s="7" t="s">
+      <c r="G91" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="H91" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="G91" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="H91" s="6" t="s">
-        <v>441</v>
-      </c>
       <c r="I91" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="K91" s="10">
         <v>4.4000000000000004</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="48">
       <c r="A92" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="C92" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D92" s="7" t="s">
         <v>705</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="D92" s="7" t="s">
+      <c r="E92" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="F92" s="7" t="s">
         <v>707</v>
       </c>
-      <c r="F92" s="7" t="s">
+      <c r="G92" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="H92" s="6" t="s">
         <v>708</v>
       </c>
-      <c r="G92" s="2" t="s">
+      <c r="I92" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="J92" s="7" t="s">
         <v>710</v>
-      </c>
-      <c r="H92" s="6" t="s">
-        <v>709</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="J92" s="7" t="s">
-        <v>711</v>
       </c>
       <c r="K92" s="10">
         <v>3.4</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
   </sheetData>
